--- a/app/core/testing.xlsx
+++ b/app/core/testing.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Disk\projects\DC-Boxjelly\app\core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DC-Boxjelly\app\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6C491C8-B1F8-4DCD-9558-CF3BDB683745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="16920" windowHeight="10540" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2655" windowWidth="16920" windowHeight="10545" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="MEXReport" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="REPORT_Dir">#REF!</definedName>
     <definedName name="THIS_Dir">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="189">
   <si>
     <t>Primary Standards Dosimetry Laboratory,  Medical Radiation Services</t>
   </si>
@@ -356,6 +355,74 @@
   </si>
   <si>
     <t>Page 6 of 6</t>
+  </si>
+  <si>
+    <t>The geometrical centre of the cavity</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period of tests</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibrated by: ClientA_Name</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 Street Name</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suburb NSW 2020</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTW 30013 5122</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Feb 2021 to 01 Mar 2021</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">04 Oct 2021 </t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXK60</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ100</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXF140</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAL00001</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientA_Name</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTW 30013 5122</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duncan Butler</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duncan Butler</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-250) on the guard electrode Positive (Central Electrode Negative)</t>
+    <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
     <t>NXA50</t>
@@ -422,6 +489,10 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
+    <t>NXA50</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
     <t>NXB50</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
@@ -430,10 +501,6 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
-    <t>NXK60</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
     <t>NXA60</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
@@ -446,6 +513,10 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
+    <t>NXA70</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
     <t>NXB70</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
@@ -478,14 +549,14 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
-    <t>NXJ100</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
     <t>NXK100</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
+    <t>NXB100</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
     <t>NXC100</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
@@ -498,6 +569,10 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
+    <t>NXC120</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
     <t>NXD120</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
@@ -518,10 +593,6 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
-    <t>NXF140</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
     <t>NXC150</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
@@ -546,6 +617,10 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
+    <t>NXF200</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
     <t>NXG200</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
@@ -562,6 +637,10 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
+    <t>NXG250</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
     <t>NXH250</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
@@ -578,6 +657,10 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
+    <t>NXH280</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
     <t>NXI280</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
@@ -606,66 +689,22 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
-    <t>(-250) on the guard electrode Positive (Central Electrode Negative)</t>
+    <t>Calibration No: CAL00001</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
-    <t>The geometrical centre of the cavity</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period of tests</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">04 Oct 2021 </t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAL00002</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClientB_Name</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calibrated by: ClientB_Name</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>123 Street Name</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suburb QLD 6020</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE 2571 3460</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>08 Feb 2021 to 09 Feb 2021</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>Callum Watson</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calibration No: CAL00002</t>
+    <t>Calibration No: CAL00001</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -734,21 +773,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -756,7 +795,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -764,7 +803,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -772,14 +811,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -787,7 +826,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -795,7 +834,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -803,28 +842,28 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -832,7 +871,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -840,14 +879,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -886,7 +925,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -901,7 +940,7 @@
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1898,52 +1937,52 @@
     </xf>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Accent6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Bad 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Calculation 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Check Cell 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Good 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Heading 1 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Heading 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Heading 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Heading 4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Input 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Neutral 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Normal 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normal 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Normal 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Normal 6" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Note 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Output 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Total 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Warning Text 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="2"/>
+    <cellStyle name="20% - Accent3 2" xfId="3"/>
+    <cellStyle name="20% - Accent4 2" xfId="4"/>
+    <cellStyle name="20% - Accent5 2" xfId="5"/>
+    <cellStyle name="20% - Accent6 2" xfId="6"/>
+    <cellStyle name="40% - Accent1 2" xfId="7"/>
+    <cellStyle name="40% - Accent2 2" xfId="8"/>
+    <cellStyle name="40% - Accent3 2" xfId="9"/>
+    <cellStyle name="40% - Accent4 2" xfId="10"/>
+    <cellStyle name="40% - Accent5 2" xfId="11"/>
+    <cellStyle name="40% - Accent6 2" xfId="12"/>
+    <cellStyle name="60% - Accent1 2" xfId="13"/>
+    <cellStyle name="60% - Accent2 2" xfId="14"/>
+    <cellStyle name="60% - Accent3 2" xfId="15"/>
+    <cellStyle name="60% - Accent4 2" xfId="16"/>
+    <cellStyle name="60% - Accent5 2" xfId="17"/>
+    <cellStyle name="60% - Accent6 2" xfId="18"/>
+    <cellStyle name="Accent1 2" xfId="19"/>
+    <cellStyle name="Accent2 2" xfId="20"/>
+    <cellStyle name="Accent3 2" xfId="21"/>
+    <cellStyle name="Accent4 2" xfId="22"/>
+    <cellStyle name="Accent5 2" xfId="23"/>
+    <cellStyle name="Accent6 2" xfId="24"/>
+    <cellStyle name="Bad 2" xfId="25"/>
+    <cellStyle name="Calculation 2" xfId="26"/>
+    <cellStyle name="Check Cell 2" xfId="27"/>
+    <cellStyle name="Explanatory Text 2" xfId="28"/>
+    <cellStyle name="Good 2" xfId="29"/>
+    <cellStyle name="Heading 1 2" xfId="30"/>
+    <cellStyle name="Heading 2 2" xfId="31"/>
+    <cellStyle name="Heading 3 2" xfId="32"/>
+    <cellStyle name="Heading 4 2" xfId="33"/>
+    <cellStyle name="Input 2" xfId="34"/>
+    <cellStyle name="Linked Cell 2" xfId="35"/>
+    <cellStyle name="Neutral 2" xfId="36"/>
+    <cellStyle name="Normal 2" xfId="37"/>
+    <cellStyle name="Normal 2 2" xfId="38"/>
+    <cellStyle name="Normal 3" xfId="39"/>
+    <cellStyle name="Normal 4" xfId="40"/>
+    <cellStyle name="Normal 6" xfId="41"/>
+    <cellStyle name="Note 2" xfId="42"/>
+    <cellStyle name="Output 2" xfId="43"/>
+    <cellStyle name="Total 2" xfId="44"/>
+    <cellStyle name="Warning Text 2" xfId="45"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2215,23 +2254,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>3</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114303</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="kVp">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF900932-9F2F-4AAD-BEB2-BFA975051096}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="kVp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2250,8 +2283,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="45885100"/>
-          <a:ext cx="5715000" cy="3352800"/>
+          <a:off x="0" y="45853353"/>
+          <a:ext cx="5454650" cy="3352800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2275,13 +2308,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Al">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE7AC07-8E12-4B7E-834B-3D9B6D8E56FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Al"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2300,8 +2327,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="50469800"/>
-          <a:ext cx="5715000" cy="3352800"/>
+          <a:off x="0" y="50434875"/>
+          <a:ext cx="5454650" cy="3419475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2325,13 +2352,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Cu">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AEE176-6724-4D24-8CEB-7111E1D7BFC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Cu"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2350,8 +2371,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="54775100"/>
-          <a:ext cx="5715000" cy="3352800"/>
+          <a:off x="0" y="54816375"/>
+          <a:ext cx="5454650" cy="3419475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2364,7 +2385,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2439,23 +2460,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2491,23 +2495,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2683,7 +2670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:X301"/>
   <sheetViews>
@@ -2691,33 +2678,33 @@
       <selection activeCell="X194" sqref="X194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="4.453125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="4.26953125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="4.453125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="4.26953125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="4.26953125" style="33" customWidth="1"/>
-    <col min="9" max="9" width="4.453125" style="33" customWidth="1"/>
-    <col min="10" max="10" width="4.26953125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="4.453125" style="33" customWidth="1"/>
-    <col min="12" max="12" width="4.26953125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="4.453125" style="33" customWidth="1"/>
-    <col min="14" max="14" width="5.1796875" style="33" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="33" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" style="33" customWidth="1"/>
+    <col min="15" max="16" width="4.42578125" style="33" customWidth="1"/>
     <col min="17" max="17" width="5" style="33" customWidth="1"/>
-    <col min="18" max="18" width="1.1796875" style="33" customWidth="1"/>
-    <col min="19" max="19" width="0.81640625" style="33" customWidth="1"/>
-    <col min="20" max="20" width="4.453125" style="33" customWidth="1"/>
+    <col min="18" max="18" width="1.140625" style="33" customWidth="1"/>
+    <col min="19" max="19" width="0.85546875" style="33" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" style="33" customWidth="1"/>
     <col min="21" max="24" width="5" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="12" customHeight="1"/>
+    <row r="6" spans="1:20" ht="8.25" customHeight="1"/>
+    <row r="7" spans="1:20" ht="12.75" customHeight="1">
       <c r="A7" s="152" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2728,7 @@
       <c r="S7" s="115"/>
       <c r="T7" s="115"/>
     </row>
-    <row r="8" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="153" t="s">
         <v>1</v>
       </c>
@@ -2765,7 +2752,7 @@
       <c r="S8" s="115"/>
       <c r="T8" s="115"/>
     </row>
-    <row r="9" spans="1:20" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="154" t="s">
         <v>2</v>
       </c>
@@ -2789,7 +2776,7 @@
       <c r="S9" s="115"/>
       <c r="T9" s="115"/>
     </row>
-    <row r="10" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="21.75" customHeight="1">
       <c r="A10" s="155" t="s">
         <v>3</v>
       </c>
@@ -2813,7 +2800,7 @@
       <c r="S10" s="156"/>
       <c r="T10" s="156"/>
     </row>
-    <row r="11" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="22.5" customHeight="1">
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -2835,7 +2822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15.95" customHeight="1">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -2856,7 +2843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="15.95" customHeight="1">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -2877,10 +2864,10 @@
       <c r="R13" s="49"/>
       <c r="S13" s="49"/>
       <c r="T13" s="50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.1" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -2901,7 +2888,7 @@
       <c r="R14" s="27"/>
       <c r="S14" s="27"/>
     </row>
-    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="18" customHeight="1">
       <c r="A15" s="120" t="s">
         <v>6</v>
       </c>
@@ -2925,7 +2912,7 @@
       <c r="S15" s="115"/>
       <c r="T15" s="115"/>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15" customHeight="1">
       <c r="A16" s="158" t="s">
         <v>7</v>
       </c>
@@ -2949,7 +2936,7 @@
       <c r="S16" s="115"/>
       <c r="T16" s="115"/>
     </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15" customHeight="1">
       <c r="A17" s="158" t="s">
         <v>8</v>
       </c>
@@ -2973,8 +2960,8 @@
       <c r="S17" s="115"/>
       <c r="T17" s="115"/>
     </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15" customHeight="1"/>
+    <row r="19" spans="1:20" ht="14.1" customHeight="1">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
@@ -2995,7 +2982,7 @@
       <c r="R19" s="27"/>
       <c r="S19" s="27"/>
     </row>
-    <row r="20" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="15.95" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>9</v>
       </c>
@@ -3005,7 +2992,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="51" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
@@ -3020,7 +3007,7 @@
       <c r="R20" s="27"/>
       <c r="S20" s="27"/>
     </row>
-    <row r="21" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="15.95" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -3028,7 +3015,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="51" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
@@ -3043,7 +3030,7 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
     </row>
-    <row r="22" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="15.95" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -3051,7 +3038,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="51" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
@@ -3066,7 +3053,7 @@
       <c r="R22" s="27"/>
       <c r="S22" s="27"/>
     </row>
-    <row r="23" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="15.95" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -3087,7 +3074,7 @@
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
     </row>
-    <row r="24" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="15.95" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -3108,7 +3095,7 @@
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
     </row>
-    <row r="25" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="15.95" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>10</v>
       </c>
@@ -3118,7 +3105,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="52" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
@@ -3133,7 +3120,7 @@
       <c r="R25" s="27"/>
       <c r="S25" s="27"/>
     </row>
-    <row r="26" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="15.95" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -3154,9 +3141,9 @@
       <c r="R26" s="27"/>
       <c r="S26" s="27"/>
     </row>
-    <row r="27" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="15.95" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -3164,7 +3151,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="52" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="H27" s="52"/>
       <c r="I27" s="52"/>
@@ -3179,7 +3166,7 @@
       <c r="R27" s="27"/>
       <c r="S27" s="27"/>
     </row>
-    <row r="28" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="15.95" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -3200,7 +3187,7 @@
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="15.75" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>11</v>
       </c>
@@ -3226,7 +3213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="15.95" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -3247,7 +3234,7 @@
       <c r="S30" s="27"/>
       <c r="T30" s="115"/>
     </row>
-    <row r="31" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" ht="15.95" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>14</v>
       </c>
@@ -3257,7 +3244,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="53" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
@@ -3272,7 +3259,7 @@
       <c r="S31" s="27"/>
       <c r="T31" s="115"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>15</v>
       </c>
@@ -3282,7 +3269,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="52" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="H32" s="52"/>
       <c r="I32" s="52"/>
@@ -3297,7 +3284,7 @@
       <c r="S32" s="27"/>
       <c r="T32" s="115"/>
     </row>
-    <row r="33" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" ht="15.95" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>16</v>
       </c>
@@ -3307,7 +3294,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="53" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="H33" s="52"/>
       <c r="I33" s="52"/>
@@ -3322,7 +3309,7 @@
       <c r="S33" s="27"/>
       <c r="T33" s="115"/>
     </row>
-    <row r="34" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="15.95" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -3343,7 +3330,7 @@
       <c r="S34" s="27"/>
       <c r="T34" s="115"/>
     </row>
-    <row r="35" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" ht="15.95" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>17</v>
       </c>
@@ -3368,7 +3355,7 @@
       <c r="S35" s="27"/>
       <c r="T35" s="115"/>
     </row>
-    <row r="36" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" ht="15.95" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>19</v>
       </c>
@@ -3393,7 +3380,7 @@
       <c r="S36" s="27"/>
       <c r="T36" s="115"/>
     </row>
-    <row r="37" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" ht="12.95" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -3414,7 +3401,7 @@
       <c r="S37" s="27"/>
       <c r="T37" s="115"/>
     </row>
-    <row r="38" spans="1:20" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="27" hidden="1" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -3436,7 +3423,7 @@
       <c r="S38" s="27"/>
       <c r="T38" s="115"/>
     </row>
-    <row r="39" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" ht="15.95" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>21</v>
       </c>
@@ -3463,7 +3450,7 @@
       <c r="S39" s="27"/>
       <c r="T39" s="115"/>
     </row>
-    <row r="40" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" ht="15.95" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -3485,7 +3472,7 @@
       <c r="S40" s="27"/>
       <c r="T40" s="115"/>
     </row>
-    <row r="41" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" ht="15.95" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>24</v>
       </c>
@@ -3509,7 +3496,7 @@
       <c r="S41" s="27"/>
       <c r="T41" s="115"/>
     </row>
-    <row r="42" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" ht="15.95" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>25</v>
       </c>
@@ -3532,7 +3519,7 @@
       <c r="R42" s="27"/>
       <c r="S42" s="27"/>
     </row>
-    <row r="43" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="14.1" customHeight="1">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -3553,21 +3540,21 @@
       <c r="R43" s="27"/>
       <c r="S43" s="27"/>
     </row>
-    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="15" customHeight="1">
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:20" ht="10" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="9.9499999999999993" customHeight="1"/>
+    <row r="48" spans="1:20" ht="8.1" customHeight="1">
       <c r="N48" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="8.1" customHeight="1">
       <c r="N49" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="8.1" customHeight="1">
       <c r="E50" s="9" t="s">
         <v>28</v>
       </c>
@@ -3575,7 +3562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="8.1" customHeight="1">
       <c r="E51" s="9" t="s">
         <v>30</v>
       </c>
@@ -3583,7 +3570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="8.1" customHeight="1">
       <c r="C52" s="9"/>
       <c r="E52" s="9" t="s">
         <v>32</v>
@@ -3592,7 +3579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="8.1" customHeight="1">
       <c r="E53" s="9" t="s">
         <v>34</v>
       </c>
@@ -3600,7 +3587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="13.5" customHeight="1">
       <c r="E54" s="10" t="s">
         <v>36</v>
       </c>
@@ -3608,7 +3595,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="22.5" customHeight="1">
       <c r="A55" s="40"/>
       <c r="B55" s="40"/>
       <c r="C55" s="40"/>
@@ -3630,9 +3617,9 @@
       <c r="S55" s="40"/>
       <c r="T55" s="40"/>
     </row>
-    <row r="56" spans="1:20" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20">
       <c r="A56" s="54" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
@@ -3642,7 +3629,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
       <c r="I56" s="56" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="J56" s="55"/>
       <c r="K56" s="19"/>
@@ -3660,7 +3647,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" ht="14.1" customHeight="1">
       <c r="A57" s="18"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -3682,7 +3669,7 @@
       <c r="S57" s="22"/>
       <c r="T57" s="22"/>
     </row>
-    <row r="58" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="15.95" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3701,7 +3688,7 @@
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
     </row>
-    <row r="59" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" ht="15.95" customHeight="1">
       <c r="A59" s="157" t="s">
         <v>40</v>
       </c>
@@ -3725,7 +3712,7 @@
       <c r="S59" s="115"/>
       <c r="T59" s="115"/>
     </row>
-    <row r="60" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" ht="15.95" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -3744,7 +3731,7 @@
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
     </row>
-    <row r="61" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" ht="15.95" customHeight="1">
       <c r="A61" s="14" t="s">
         <v>41</v>
       </c>
@@ -3765,7 +3752,7 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
-    <row r="62" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" ht="15.95" customHeight="1">
       <c r="A62" s="29" t="s">
         <v>42</v>
       </c>
@@ -3788,7 +3775,7 @@
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
     </row>
-    <row r="63" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="15.95" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3807,7 +3794,7 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
     </row>
-    <row r="64" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="15.95" customHeight="1">
       <c r="A64" s="15" t="s">
         <v>44</v>
       </c>
@@ -3828,7 +3815,7 @@
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
     </row>
-    <row r="65" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="48.75" customHeight="1">
       <c r="A65" s="29" t="s">
         <v>42</v>
       </c>
@@ -3854,7 +3841,7 @@
       <c r="S65" s="115"/>
       <c r="T65" s="115"/>
     </row>
-    <row r="66" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="15.95" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3873,7 +3860,7 @@
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
     </row>
-    <row r="67" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="15.95" customHeight="1">
       <c r="A67" s="24" t="s">
         <v>46</v>
       </c>
@@ -3894,7 +3881,7 @@
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
     </row>
-    <row r="68" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="65.25" customHeight="1">
       <c r="A68" s="29" t="s">
         <v>42</v>
       </c>
@@ -3920,7 +3907,7 @@
       <c r="S68" s="115"/>
       <c r="T68" s="115"/>
     </row>
-    <row r="69" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="33" customHeight="1">
       <c r="A69" s="29" t="s">
         <v>42</v>
       </c>
@@ -3946,12 +3933,12 @@
       <c r="S69" s="115"/>
       <c r="T69" s="115"/>
     </row>
-    <row r="71" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="15.95" customHeight="1">
       <c r="A71" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="15.95" customHeight="1">
       <c r="A72" s="29" t="s">
         <v>42</v>
       </c>
@@ -3974,15 +3961,15 @@
       <c r="P72" s="115"/>
       <c r="Q72" s="115"/>
     </row>
-    <row r="73" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="15.95" customHeight="1">
       <c r="A73" s="15"/>
     </row>
-    <row r="74" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="15.95" customHeight="1">
       <c r="A74" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="15.95" customHeight="1">
       <c r="A75" s="29" t="s">
         <v>42</v>
       </c>
@@ -4005,7 +3992,7 @@
       <c r="P75" s="115"/>
       <c r="Q75" s="115"/>
     </row>
-    <row r="76" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="15.95" customHeight="1">
       <c r="A76" s="29"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
@@ -4024,7 +4011,7 @@
       <c r="P76" s="41"/>
       <c r="Q76" s="41"/>
     </row>
-    <row r="77" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="15.95" customHeight="1">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -4043,7 +4030,7 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
     </row>
-    <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="15" customHeight="1">
       <c r="A78" s="37" t="s">
         <v>52</v>
       </c>
@@ -4064,7 +4051,7 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="43.5" customHeight="1">
       <c r="A79" s="29" t="s">
         <v>42</v>
       </c>
@@ -4090,7 +4077,7 @@
       <c r="S79" s="115"/>
       <c r="T79" s="115"/>
     </row>
-    <row r="80" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="15" customHeight="1">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -4109,7 +4096,7 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="15.95" customHeight="1">
       <c r="A81" s="15" t="s">
         <v>54</v>
       </c>
@@ -4130,7 +4117,7 @@
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="1:20" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" ht="63.95" customHeight="1" thickBot="1">
       <c r="A82" s="16" t="s">
         <v>55</v>
       </c>
@@ -4156,7 +4143,7 @@
       <c r="S82" s="115"/>
       <c r="T82" s="115"/>
     </row>
-    <row r="83" spans="1:20" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -4175,20 +4162,20 @@
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
     </row>
-    <row r="84" spans="1:20" ht="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:20" ht="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:20" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:20" s="48" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" ht="0.95" customHeight="1"/>
+    <row r="86" spans="1:20" ht="0.95" customHeight="1"/>
+    <row r="87" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="88" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="89" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="90" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="91" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="92" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="93" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="95" spans="1:20" ht="14.1" customHeight="1" thickBot="1"/>
+    <row r="96" spans="1:20" s="48" customFormat="1" ht="11.1" customHeight="1">
       <c r="A96" s="43" t="str">
         <f>A56</f>
-        <v>Calibration No: CAL00002</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -4199,7 +4186,7 @@
       <c r="H96" s="44"/>
       <c r="I96" s="45" t="str">
         <f>I56</f>
-        <v>Calibration No: CAL00002</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="J96" s="44"/>
       <c r="K96" s="44"/>
@@ -4217,7 +4204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" ht="12" customHeight="1">
       <c r="A97" s="21"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -4239,7 +4226,7 @@
       <c r="S97" s="22"/>
       <c r="T97" s="22"/>
     </row>
-    <row r="103" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" ht="31.5" customHeight="1">
       <c r="A103" s="120" t="s">
         <v>58</v>
       </c>
@@ -4263,7 +4250,7 @@
       <c r="S103" s="115"/>
       <c r="T103" s="115"/>
     </row>
-    <row r="104" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" ht="14.1" customHeight="1">
       <c r="A104" s="27"/>
       <c r="B104" s="27"/>
       <c r="C104" s="27"/>
@@ -4282,7 +4269,7 @@
       <c r="P104" s="27"/>
       <c r="Q104" s="27"/>
     </row>
-    <row r="105" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A105" s="32" t="s">
         <v>9</v>
       </c>
@@ -4291,7 +4278,7 @@
       <c r="D105" s="27"/>
       <c r="E105" s="27"/>
       <c r="G105" s="51" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="H105" s="49"/>
       <c r="I105" s="49"/>
@@ -4304,7 +4291,7 @@
       <c r="P105" s="26"/>
       <c r="Q105" s="26"/>
     </row>
-    <row r="106" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A106" s="32" t="s">
         <v>10</v>
       </c>
@@ -4313,7 +4300,7 @@
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
       <c r="G106" s="58" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="H106" s="49"/>
       <c r="I106" s="49"/>
@@ -4326,7 +4313,7 @@
       <c r="P106" s="26"/>
       <c r="Q106" s="26"/>
     </row>
-    <row r="107" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A107" s="27" t="s">
         <v>59</v>
       </c>
@@ -4348,7 +4335,7 @@
       <c r="P107" s="26"/>
       <c r="Q107" s="26"/>
     </row>
-    <row r="108" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A108" s="27" t="s">
         <v>60</v>
       </c>
@@ -4357,7 +4344,7 @@
       <c r="D108" s="27"/>
       <c r="E108" s="27"/>
       <c r="G108" s="59" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="H108" s="49"/>
       <c r="I108" s="49"/>
@@ -4370,7 +4357,7 @@
       <c r="P108" s="26"/>
       <c r="Q108" s="26"/>
     </row>
-    <row r="109" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A109" s="27" t="s">
         <v>61</v>
       </c>
@@ -4379,7 +4366,7 @@
       <c r="D109" s="27"/>
       <c r="E109" s="27"/>
       <c r="G109" s="27" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
@@ -4392,7 +4379,7 @@
       <c r="P109" s="26"/>
       <c r="Q109" s="26"/>
     </row>
-    <row r="110" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A110" s="27" t="s">
         <v>62</v>
       </c>
@@ -4414,7 +4401,7 @@
       <c r="P110" s="26"/>
       <c r="Q110" s="26"/>
     </row>
-    <row r="111" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A111" s="27"/>
       <c r="B111" s="27"/>
       <c r="C111" s="27"/>
@@ -4434,7 +4421,7 @@
       <c r="P111" s="26"/>
       <c r="Q111" s="26"/>
     </row>
-    <row r="112" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A112" s="27"/>
       <c r="B112" s="27"/>
       <c r="C112" s="27"/>
@@ -4454,7 +4441,7 @@
       <c r="P112" s="26"/>
       <c r="Q112" s="26"/>
     </row>
-    <row r="113" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A113" s="27"/>
       <c r="B113" s="27"/>
       <c r="C113" s="27"/>
@@ -4474,7 +4461,7 @@
       <c r="P113" s="26"/>
       <c r="Q113" s="26"/>
     </row>
-    <row r="114" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A114" s="27"/>
       <c r="B114" s="27"/>
       <c r="C114" s="27"/>
@@ -4494,7 +4481,7 @@
       <c r="P114" s="26"/>
       <c r="Q114" s="26"/>
     </row>
-    <row r="115" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A115" s="27" t="s">
         <v>68</v>
       </c>
@@ -4516,7 +4503,7 @@
       <c r="P115" s="26"/>
       <c r="Q115" s="26"/>
     </row>
-    <row r="116" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A116" s="27" t="s">
         <v>70</v>
       </c>
@@ -4537,7 +4524,7 @@
       <c r="P116" s="26"/>
       <c r="Q116" s="26"/>
     </row>
-    <row r="117" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A117" s="27" t="s">
         <v>72</v>
       </c>
@@ -4558,7 +4545,7 @@
       <c r="P117" s="26"/>
       <c r="Q117" s="26"/>
     </row>
-    <row r="118" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A118" s="27" t="s">
         <v>74</v>
       </c>
@@ -4566,7 +4553,7 @@
       <c r="D118" s="27"/>
       <c r="E118" s="27"/>
       <c r="G118" s="49" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="H118" s="49"/>
       <c r="I118" s="49"/>
@@ -4579,7 +4566,7 @@
       <c r="P118" s="26"/>
       <c r="Q118" s="26"/>
     </row>
-    <row r="119" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" s="29" customFormat="1" ht="18" customHeight="1">
       <c r="A119" s="27" t="s">
         <v>75</v>
       </c>
@@ -4600,7 +4587,7 @@
       <c r="P119" s="26"/>
       <c r="Q119" s="26"/>
     </row>
-    <row r="120" spans="1:20" s="29" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" s="29" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A120" s="26"/>
       <c r="B120" s="26"/>
       <c r="C120" s="26"/>
@@ -4619,7 +4606,7 @@
       <c r="P120" s="26"/>
       <c r="Q120" s="26"/>
     </row>
-    <row r="121" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" ht="15.95" customHeight="1">
       <c r="A121" s="27"/>
       <c r="B121" s="27"/>
       <c r="C121" s="27"/>
@@ -4640,7 +4627,7 @@
       <c r="P121" s="27"/>
       <c r="Q121" s="27"/>
     </row>
-    <row r="122" spans="1:20" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="59.25" customHeight="1">
       <c r="A122" s="116" t="s">
         <v>77</v>
       </c>
@@ -4682,7 +4669,7 @@
       </c>
       <c r="T122" s="65"/>
     </row>
-    <row r="123" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" ht="30" customHeight="1">
       <c r="A123" s="63"/>
       <c r="B123" s="62"/>
       <c r="C123" s="61" t="s">
@@ -4722,9 +4709,9 @@
       </c>
       <c r="T123" s="62"/>
     </row>
-    <row r="124" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" ht="20.25" customHeight="1">
       <c r="A124" s="122" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B124" s="65"/>
       <c r="C124" s="122">
@@ -4754,7 +4741,7 @@
       </c>
       <c r="P124" s="65"/>
       <c r="Q124" s="67">
-        <v>42.7</v>
+        <v>46.6</v>
       </c>
       <c r="R124" s="68"/>
       <c r="S124" s="123">
@@ -4762,9 +4749,9 @@
       </c>
       <c r="T124" s="65"/>
     </row>
-    <row r="125" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" ht="20.25" customHeight="1">
       <c r="A125" s="125" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B125" s="71"/>
       <c r="C125" s="125">
@@ -4794,7 +4781,7 @@
       </c>
       <c r="P125" s="71"/>
       <c r="Q125" s="130">
-        <v>42.59</v>
+        <v>46.74</v>
       </c>
       <c r="R125" s="78"/>
       <c r="S125" s="126">
@@ -4802,9 +4789,9 @@
       </c>
       <c r="T125" s="71"/>
     </row>
-    <row r="126" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" ht="20.25" customHeight="1">
       <c r="A126" s="132" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B126" s="71"/>
       <c r="C126" s="132">
@@ -4834,7 +4821,7 @@
       </c>
       <c r="P126" s="71"/>
       <c r="Q126" s="130">
-        <v>42.37</v>
+        <v>46.94</v>
       </c>
       <c r="R126" s="78"/>
       <c r="S126" s="131">
@@ -4842,9 +4829,9 @@
       </c>
       <c r="T126" s="71"/>
     </row>
-    <row r="127" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="20.25" customHeight="1">
       <c r="A127" s="125" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B127" s="71"/>
       <c r="C127" s="125">
@@ -4874,7 +4861,7 @@
       </c>
       <c r="P127" s="71"/>
       <c r="Q127" s="130">
-        <v>42.18</v>
+        <v>47.12</v>
       </c>
       <c r="R127" s="78"/>
       <c r="S127" s="126">
@@ -4882,9 +4869,9 @@
       </c>
       <c r="T127" s="71"/>
     </row>
-    <row r="128" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="20.25" customHeight="1">
       <c r="A128" s="132" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B128" s="71"/>
       <c r="C128" s="132">
@@ -4914,7 +4901,7 @@
       </c>
       <c r="P128" s="71"/>
       <c r="Q128" s="130">
-        <v>41.98</v>
+        <v>47.32</v>
       </c>
       <c r="R128" s="78"/>
       <c r="S128" s="131">
@@ -4922,9 +4909,9 @@
       </c>
       <c r="T128" s="71"/>
     </row>
-    <row r="129" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="20.25" customHeight="1">
       <c r="A129" s="125" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B129" s="71"/>
       <c r="C129" s="125">
@@ -4954,7 +4941,7 @@
       </c>
       <c r="P129" s="71"/>
       <c r="Q129" s="130">
-        <v>41.64</v>
+        <v>47.63</v>
       </c>
       <c r="R129" s="78"/>
       <c r="S129" s="126">
@@ -4962,9 +4949,9 @@
       </c>
       <c r="T129" s="71"/>
     </row>
-    <row r="130" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="20.25" customHeight="1">
       <c r="A130" s="132" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B130" s="71"/>
       <c r="C130" s="132">
@@ -4994,7 +4981,7 @@
       </c>
       <c r="P130" s="71"/>
       <c r="Q130" s="130">
-        <v>41.28</v>
+        <v>47.78</v>
       </c>
       <c r="R130" s="78"/>
       <c r="S130" s="131">
@@ -5002,9 +4989,9 @@
       </c>
       <c r="T130" s="71"/>
     </row>
-    <row r="131" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="20.25" customHeight="1">
       <c r="A131" s="125" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B131" s="71"/>
       <c r="C131" s="125">
@@ -5034,7 +5021,7 @@
       </c>
       <c r="P131" s="71"/>
       <c r="Q131" s="130">
-        <v>41.08</v>
+        <v>47.82</v>
       </c>
       <c r="R131" s="78"/>
       <c r="S131" s="126">
@@ -5042,9 +5029,9 @@
       </c>
       <c r="T131" s="71"/>
     </row>
-    <row r="132" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="20.25" customHeight="1">
       <c r="A132" s="132" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B132" s="71"/>
       <c r="C132" s="132">
@@ -5074,7 +5061,7 @@
       </c>
       <c r="P132" s="71"/>
       <c r="Q132" s="130">
-        <v>40.97</v>
+        <v>47.84</v>
       </c>
       <c r="R132" s="78"/>
       <c r="S132" s="131">
@@ -5082,9 +5069,9 @@
       </c>
       <c r="T132" s="71"/>
     </row>
-    <row r="133" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="20.25" customHeight="1">
       <c r="A133" s="136" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B133" s="80"/>
       <c r="C133" s="125">
@@ -5114,7 +5101,7 @@
       </c>
       <c r="P133" s="71"/>
       <c r="Q133" s="130">
-        <v>40.86</v>
+        <v>47.76</v>
       </c>
       <c r="R133" s="78"/>
       <c r="S133" s="126">
@@ -5122,9 +5109,9 @@
       </c>
       <c r="T133" s="71"/>
     </row>
-    <row r="134" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="14.1" customHeight="1">
       <c r="A134" s="140" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B134" s="111"/>
       <c r="C134" s="140">
@@ -5154,7 +5141,7 @@
       </c>
       <c r="P134" s="111"/>
       <c r="Q134" s="143">
-        <v>40.98</v>
+        <v>47.85</v>
       </c>
       <c r="R134" s="144"/>
       <c r="S134" s="137">
@@ -5162,7 +5149,7 @@
       </c>
       <c r="T134" s="111"/>
     </row>
-    <row r="135" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" ht="14.1" customHeight="1">
       <c r="A135" s="27" t="s">
         <v>93</v>
       </c>
@@ -5183,7 +5170,7 @@
       <c r="P135" s="27"/>
       <c r="Q135" s="27"/>
     </row>
-    <row r="136" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" ht="14.1" customHeight="1">
       <c r="A136" s="27" t="s">
         <v>94</v>
       </c>
@@ -5204,7 +5191,7 @@
       <c r="P136" s="27"/>
       <c r="Q136" s="27"/>
     </row>
-    <row r="137" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="14.1" customHeight="1">
       <c r="A137" s="27" t="s">
         <v>95</v>
       </c>
@@ -5225,7 +5212,7 @@
       <c r="P137" s="27"/>
       <c r="Q137" s="27"/>
     </row>
-    <row r="138" spans="1:20" ht="2.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" ht="2.1" customHeight="1">
       <c r="A138" s="27"/>
       <c r="B138" s="27"/>
       <c r="C138" s="27"/>
@@ -5244,7 +5231,7 @@
       <c r="P138" s="27"/>
       <c r="Q138" s="27"/>
     </row>
-    <row r="139" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" ht="15" customHeight="1">
       <c r="A139" s="27"/>
       <c r="B139" s="27"/>
       <c r="C139" s="27"/>
@@ -5257,7 +5244,7 @@
       <c r="J139" s="27"/>
       <c r="K139" s="27"/>
       <c r="L139" s="60" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="M139" s="60"/>
       <c r="N139" s="60"/>
@@ -5267,7 +5254,7 @@
       <c r="R139" s="17"/>
       <c r="S139" s="17"/>
     </row>
-    <row r="140" spans="1:20" ht="2.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" ht="2.1" customHeight="1" thickBot="1">
       <c r="A140" s="27"/>
       <c r="B140" s="27"/>
       <c r="C140" s="27"/>
@@ -5286,10 +5273,10 @@
       <c r="P140" s="27"/>
       <c r="Q140" s="27"/>
     </row>
-    <row r="141" spans="1:20" s="48" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" s="48" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="43" t="str">
         <f>A56</f>
-        <v>Calibration No: CAL00002</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -5300,7 +5287,7 @@
       <c r="H141" s="44"/>
       <c r="I141" s="45" t="str">
         <f>I56</f>
-        <v>Calibration No: CAL00002</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="J141" s="44"/>
       <c r="K141" s="44"/>
@@ -5318,7 +5305,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" ht="13.5" customHeight="1">
       <c r="A142" s="21"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -5340,7 +5327,7 @@
       <c r="S142" s="22"/>
       <c r="T142" s="22"/>
     </row>
-    <row r="143" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" ht="13.5" customHeight="1">
       <c r="A143" s="21"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -5362,7 +5349,7 @@
       <c r="S143" s="22"/>
       <c r="T143" s="22"/>
     </row>
-    <row r="144" spans="1:20" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" ht="80.25" customHeight="1">
       <c r="A144" s="27"/>
       <c r="B144" s="27"/>
       <c r="C144" s="27"/>
@@ -5383,7 +5370,7 @@
       <c r="P144" s="27"/>
       <c r="Q144" s="27"/>
     </row>
-    <row r="145" spans="1:20" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="59.25" customHeight="1">
       <c r="A145" s="138" t="s">
         <v>77</v>
       </c>
@@ -5425,7 +5412,7 @@
       </c>
       <c r="T145" s="65"/>
     </row>
-    <row r="146" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="14.25" customHeight="1">
       <c r="A146" s="63"/>
       <c r="B146" s="62"/>
       <c r="C146" s="61" t="s">
@@ -5465,9 +5452,9 @@
       </c>
       <c r="T146" s="62"/>
     </row>
-    <row r="147" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" ht="14.25" customHeight="1">
       <c r="A147" s="84" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B147" s="65"/>
       <c r="C147" s="84">
@@ -5495,7 +5482,7 @@
       </c>
       <c r="P147" s="65"/>
       <c r="Q147" s="104">
-        <v>44.98</v>
+        <v>51.03</v>
       </c>
       <c r="R147" s="68"/>
       <c r="S147" s="85">
@@ -5503,9 +5490,9 @@
       </c>
       <c r="T147" s="65"/>
     </row>
-    <row r="148" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" ht="14.25" customHeight="1">
       <c r="A148" s="92" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B148" s="71"/>
       <c r="C148" s="92">
@@ -5533,7 +5520,7 @@
       </c>
       <c r="P148" s="71"/>
       <c r="Q148" s="77">
-        <v>43.64</v>
+        <v>48.78</v>
       </c>
       <c r="R148" s="78"/>
       <c r="S148" s="90">
@@ -5541,9 +5528,9 @@
       </c>
       <c r="T148" s="71"/>
     </row>
-    <row r="149" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" ht="14.25" customHeight="1">
       <c r="A149" s="95" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B149" s="80"/>
       <c r="C149" s="95">
@@ -5573,7 +5560,7 @@
       </c>
       <c r="P149" s="80"/>
       <c r="Q149" s="107">
-        <v>42.64</v>
+        <v>46.72</v>
       </c>
       <c r="R149" s="108"/>
       <c r="S149" s="96">
@@ -5581,9 +5568,9 @@
       </c>
       <c r="T149" s="80"/>
     </row>
-    <row r="150" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" ht="14.25" customHeight="1">
       <c r="A150" s="94" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B150" s="65"/>
       <c r="C150" s="94">
@@ -5611,7 +5598,7 @@
       </c>
       <c r="P150" s="65"/>
       <c r="Q150" s="104">
-        <v>44.53</v>
+        <v>50.26</v>
       </c>
       <c r="R150" s="68"/>
       <c r="S150" s="69">
@@ -5619,9 +5606,9 @@
       </c>
       <c r="T150" s="65"/>
     </row>
-    <row r="151" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" ht="14.25" customHeight="1">
       <c r="A151" s="70" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B151" s="71"/>
       <c r="C151" s="70">
@@ -5649,7 +5636,7 @@
       </c>
       <c r="P151" s="71"/>
       <c r="Q151" s="77">
-        <v>43.46</v>
+        <v>48.32</v>
       </c>
       <c r="R151" s="78"/>
       <c r="S151" s="72">
@@ -5657,9 +5644,9 @@
       </c>
       <c r="T151" s="71"/>
     </row>
-    <row r="152" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" ht="14.25" customHeight="1">
       <c r="A152" s="92" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="B152" s="71"/>
       <c r="C152" s="92">
@@ -5689,7 +5676,7 @@
       </c>
       <c r="P152" s="71"/>
       <c r="Q152" s="77">
-        <v>42.7</v>
+        <v>46.6</v>
       </c>
       <c r="R152" s="78"/>
       <c r="S152" s="90">
@@ -5697,9 +5684,9 @@
       </c>
       <c r="T152" s="71"/>
     </row>
-    <row r="153" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" ht="14.25" customHeight="1">
       <c r="A153" s="95" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B153" s="80"/>
       <c r="C153" s="95">
@@ -5729,7 +5716,7 @@
       </c>
       <c r="P153" s="80"/>
       <c r="Q153" s="107">
-        <v>42.52</v>
+        <v>46.51</v>
       </c>
       <c r="R153" s="108"/>
       <c r="S153" s="96">
@@ -5737,9 +5724,9 @@
       </c>
       <c r="T153" s="80"/>
     </row>
-    <row r="154" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" ht="14.25" customHeight="1">
       <c r="A154" s="94" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B154" s="65"/>
       <c r="C154" s="94">
@@ -5767,7 +5754,7 @@
       </c>
       <c r="P154" s="65"/>
       <c r="Q154" s="104">
-        <v>44.17</v>
+        <v>49.76</v>
       </c>
       <c r="R154" s="68"/>
       <c r="S154" s="69">
@@ -5775,9 +5762,9 @@
       </c>
       <c r="T154" s="65"/>
     </row>
-    <row r="155" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" ht="14.25" customHeight="1">
       <c r="A155" s="70" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B155" s="71"/>
       <c r="C155" s="70">
@@ -5805,7 +5792,7 @@
       </c>
       <c r="P155" s="71"/>
       <c r="Q155" s="77">
-        <v>43.3</v>
+        <v>48.06</v>
       </c>
       <c r="R155" s="78"/>
       <c r="S155" s="72">
@@ -5813,9 +5800,9 @@
       </c>
       <c r="T155" s="71"/>
     </row>
-    <row r="156" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" ht="14.25" customHeight="1">
       <c r="A156" s="79" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B156" s="80"/>
       <c r="C156" s="79">
@@ -5845,7 +5832,7 @@
       </c>
       <c r="P156" s="80"/>
       <c r="Q156" s="107">
-        <v>42.62</v>
+        <v>46.7</v>
       </c>
       <c r="R156" s="108"/>
       <c r="S156" s="81">
@@ -5853,9 +5840,9 @@
       </c>
       <c r="T156" s="80"/>
     </row>
-    <row r="157" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" ht="14.25" customHeight="1">
       <c r="A157" s="84" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B157" s="65"/>
       <c r="C157" s="84">
@@ -5883,7 +5870,7 @@
       </c>
       <c r="P157" s="65"/>
       <c r="Q157" s="104">
-        <v>43.95</v>
+        <v>49.35</v>
       </c>
       <c r="R157" s="68"/>
       <c r="S157" s="85">
@@ -5891,9 +5878,9 @@
       </c>
       <c r="T157" s="65"/>
     </row>
-    <row r="158" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" ht="14.25" customHeight="1">
       <c r="A158" s="92" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B158" s="71"/>
       <c r="C158" s="92">
@@ -5921,7 +5908,7 @@
       </c>
       <c r="P158" s="71"/>
       <c r="Q158" s="77">
-        <v>43.16</v>
+        <v>47.87</v>
       </c>
       <c r="R158" s="78"/>
       <c r="S158" s="90">
@@ -5929,9 +5916,9 @@
       </c>
       <c r="T158" s="71"/>
     </row>
-    <row r="159" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" ht="14.25" customHeight="1">
       <c r="A159" s="70" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="B159" s="71"/>
       <c r="C159" s="70">
@@ -5961,7 +5948,7 @@
       </c>
       <c r="P159" s="71"/>
       <c r="Q159" s="77">
-        <v>42.59</v>
+        <v>46.74</v>
       </c>
       <c r="R159" s="78"/>
       <c r="S159" s="72">
@@ -5969,9 +5956,9 @@
       </c>
       <c r="T159" s="71"/>
     </row>
-    <row r="160" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" ht="14.25" customHeight="1">
       <c r="A160" s="92" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B160" s="71"/>
       <c r="C160" s="92">
@@ -6001,7 +5988,7 @@
       </c>
       <c r="P160" s="71"/>
       <c r="Q160" s="77">
-        <v>42.58</v>
+        <v>46.7</v>
       </c>
       <c r="R160" s="78"/>
       <c r="S160" s="90">
@@ -6009,9 +5996,9 @@
       </c>
       <c r="T160" s="71"/>
     </row>
-    <row r="161" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" ht="14.25" customHeight="1">
       <c r="A161" s="70" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B161" s="71"/>
       <c r="C161" s="70">
@@ -6041,7 +6028,7 @@
       </c>
       <c r="P161" s="71"/>
       <c r="Q161" s="77">
-        <v>42.41</v>
+        <v>46.63</v>
       </c>
       <c r="R161" s="78"/>
       <c r="S161" s="72">
@@ -6049,9 +6036,9 @@
       </c>
       <c r="T161" s="71"/>
     </row>
-    <row r="162" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" ht="14.25" customHeight="1">
       <c r="A162" s="94" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B162" s="65"/>
       <c r="C162" s="94">
@@ -6079,7 +6066,7 @@
       </c>
       <c r="P162" s="65"/>
       <c r="Q162" s="104">
-        <v>43.73</v>
+        <v>49.06</v>
       </c>
       <c r="R162" s="68"/>
       <c r="S162" s="69">
@@ -6087,9 +6074,9 @@
       </c>
       <c r="T162" s="65"/>
     </row>
-    <row r="163" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" ht="14.25" customHeight="1">
       <c r="A163" s="70" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B163" s="71"/>
       <c r="C163" s="70">
@@ -6117,7 +6104,7 @@
       </c>
       <c r="P163" s="71"/>
       <c r="Q163" s="77">
-        <v>43.04</v>
+        <v>47.74</v>
       </c>
       <c r="R163" s="78"/>
       <c r="S163" s="72">
@@ -6125,9 +6112,9 @@
       </c>
       <c r="T163" s="71"/>
     </row>
-    <row r="164" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" ht="14.25" customHeight="1">
       <c r="A164" s="79" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B164" s="80"/>
       <c r="C164" s="79">
@@ -6157,7 +6144,7 @@
       </c>
       <c r="P164" s="80"/>
       <c r="Q164" s="107">
-        <v>42.52</v>
+        <v>46.8</v>
       </c>
       <c r="R164" s="108"/>
       <c r="S164" s="81">
@@ -6165,9 +6152,9 @@
       </c>
       <c r="T164" s="80"/>
     </row>
-    <row r="165" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" ht="14.25" customHeight="1">
       <c r="A165" s="84" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B165" s="65"/>
       <c r="C165" s="84">
@@ -6195,7 +6182,7 @@
       </c>
       <c r="P165" s="65"/>
       <c r="Q165" s="104">
-        <v>43.54</v>
+        <v>48.8</v>
       </c>
       <c r="R165" s="68"/>
       <c r="S165" s="85">
@@ -6203,9 +6190,9 @@
       </c>
       <c r="T165" s="65"/>
     </row>
-    <row r="166" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" ht="14.25" customHeight="1">
       <c r="A166" s="92" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B166" s="71"/>
       <c r="C166" s="92">
@@ -6233,7 +6220,7 @@
       </c>
       <c r="P166" s="71"/>
       <c r="Q166" s="77">
-        <v>42.95</v>
+        <v>47.61</v>
       </c>
       <c r="R166" s="78"/>
       <c r="S166" s="90">
@@ -6241,9 +6228,9 @@
       </c>
       <c r="T166" s="71"/>
     </row>
-    <row r="167" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" ht="14.25" customHeight="1">
       <c r="A167" s="70" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B167" s="71"/>
       <c r="C167" s="70">
@@ -6273,7 +6260,7 @@
       </c>
       <c r="P167" s="71"/>
       <c r="Q167" s="77">
-        <v>42.48</v>
+        <v>46.89</v>
       </c>
       <c r="R167" s="78"/>
       <c r="S167" s="72">
@@ -6281,9 +6268,9 @@
       </c>
       <c r="T167" s="71"/>
     </row>
-    <row r="168" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" ht="14.25" customHeight="1">
       <c r="A168" s="94" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B168" s="65"/>
       <c r="C168" s="94">
@@ -6311,7 +6298,7 @@
       </c>
       <c r="P168" s="65"/>
       <c r="Q168" s="104">
-        <v>43.42</v>
+        <v>48.59</v>
       </c>
       <c r="R168" s="68"/>
       <c r="S168" s="69">
@@ -6319,9 +6306,9 @@
       </c>
       <c r="T168" s="65"/>
     </row>
-    <row r="169" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" ht="14.25" customHeight="1">
       <c r="A169" s="70" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B169" s="71"/>
       <c r="C169" s="70">
@@ -6349,7 +6336,7 @@
       </c>
       <c r="P169" s="71"/>
       <c r="Q169" s="77">
-        <v>42.82</v>
+        <v>47.54</v>
       </c>
       <c r="R169" s="78"/>
       <c r="S169" s="72">
@@ -6357,9 +6344,9 @@
       </c>
       <c r="T169" s="71"/>
     </row>
-    <row r="170" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" ht="14.25" customHeight="1">
       <c r="A170" s="92" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="B170" s="71"/>
       <c r="C170" s="92">
@@ -6389,7 +6376,7 @@
       </c>
       <c r="P170" s="71"/>
       <c r="Q170" s="77">
-        <v>42.37</v>
+        <v>46.94</v>
       </c>
       <c r="R170" s="78"/>
       <c r="S170" s="90">
@@ -6397,9 +6384,9 @@
       </c>
       <c r="T170" s="71"/>
     </row>
-    <row r="171" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" ht="14.25" customHeight="1">
       <c r="A171" s="70" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B171" s="71"/>
       <c r="C171" s="70">
@@ -6429,7 +6416,7 @@
       </c>
       <c r="P171" s="71"/>
       <c r="Q171" s="77">
-        <v>42.33</v>
+        <v>47.02</v>
       </c>
       <c r="R171" s="78"/>
       <c r="S171" s="72">
@@ -6437,9 +6424,9 @@
       </c>
       <c r="T171" s="71"/>
     </row>
-    <row r="172" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" ht="14.25" customHeight="1">
       <c r="A172" s="79" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B172" s="80"/>
       <c r="C172" s="79">
@@ -6469,7 +6456,7 @@
       </c>
       <c r="P172" s="80"/>
       <c r="Q172" s="107">
-        <v>42.18</v>
+        <v>47.12</v>
       </c>
       <c r="R172" s="108"/>
       <c r="S172" s="81">
@@ -6477,9 +6464,9 @@
       </c>
       <c r="T172" s="80"/>
     </row>
-    <row r="173" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" ht="14.25" customHeight="1">
       <c r="A173" s="70" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B173" s="71"/>
       <c r="C173" s="70">
@@ -6509,7 +6496,7 @@
       </c>
       <c r="P173" s="71"/>
       <c r="Q173" s="77">
-        <v>42.22</v>
+        <v>47.04</v>
       </c>
       <c r="R173" s="78"/>
       <c r="S173" s="72">
@@ -6517,9 +6504,9 @@
       </c>
       <c r="T173" s="71"/>
     </row>
-    <row r="174" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" ht="14.25" customHeight="1">
       <c r="A174" s="92" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="92">
@@ -6549,7 +6536,7 @@
       </c>
       <c r="P174" s="71"/>
       <c r="Q174" s="77">
-        <v>42.18</v>
+        <v>47.12</v>
       </c>
       <c r="R174" s="78"/>
       <c r="S174" s="90">
@@ -6557,9 +6544,9 @@
       </c>
       <c r="T174" s="71"/>
     </row>
-    <row r="175" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" ht="14.25" customHeight="1">
       <c r="A175" s="70" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B175" s="71"/>
       <c r="C175" s="70">
@@ -6589,7 +6576,7 @@
       </c>
       <c r="P175" s="71"/>
       <c r="Q175" s="77">
-        <v>42.1</v>
+        <v>47.24</v>
       </c>
       <c r="R175" s="78"/>
       <c r="S175" s="72">
@@ -6597,9 +6584,9 @@
       </c>
       <c r="T175" s="71"/>
     </row>
-    <row r="176" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" ht="14.25" customHeight="1">
       <c r="A176" s="79" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B176" s="80"/>
       <c r="C176" s="79">
@@ -6631,7 +6618,7 @@
       </c>
       <c r="P176" s="80"/>
       <c r="Q176" s="107">
-        <v>41.79</v>
+        <v>47.56</v>
       </c>
       <c r="R176" s="108"/>
       <c r="S176" s="81">
@@ -6639,9 +6626,9 @@
       </c>
       <c r="T176" s="80"/>
     </row>
-    <row r="177" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" ht="14.25" customHeight="1">
       <c r="A177" s="84" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B177" s="65"/>
       <c r="C177" s="84">
@@ -6671,7 +6658,7 @@
       </c>
       <c r="P177" s="65"/>
       <c r="Q177" s="104">
-        <v>42.09</v>
+        <v>47.1</v>
       </c>
       <c r="R177" s="68"/>
       <c r="S177" s="85">
@@ -6679,9 +6666,9 @@
       </c>
       <c r="T177" s="65"/>
     </row>
-    <row r="178" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" ht="14.25" customHeight="1">
       <c r="A178" s="92" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B178" s="71"/>
       <c r="C178" s="92">
@@ -6711,7 +6698,7 @@
       </c>
       <c r="P178" s="71"/>
       <c r="Q178" s="77">
-        <v>42.02</v>
+        <v>47.18</v>
       </c>
       <c r="R178" s="78"/>
       <c r="S178" s="90">
@@ -6719,9 +6706,9 @@
       </c>
       <c r="T178" s="71"/>
     </row>
-    <row r="179" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" ht="14.25" customHeight="1">
       <c r="A179" s="70" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B179" s="71"/>
       <c r="C179" s="70">
@@ -6751,7 +6738,7 @@
       </c>
       <c r="P179" s="71"/>
       <c r="Q179" s="77">
-        <v>41.98</v>
+        <v>47.32</v>
       </c>
       <c r="R179" s="78"/>
       <c r="S179" s="72">
@@ -6759,9 +6746,9 @@
       </c>
       <c r="T179" s="71"/>
     </row>
-    <row r="180" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" ht="14.25" customHeight="1">
       <c r="A180" s="92" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B180" s="71"/>
       <c r="C180" s="92">
@@ -6791,7 +6778,7 @@
       </c>
       <c r="P180" s="71"/>
       <c r="Q180" s="77">
-        <v>41.72</v>
+        <v>47.62</v>
       </c>
       <c r="R180" s="78"/>
       <c r="S180" s="90">
@@ -6799,9 +6786,9 @@
       </c>
       <c r="T180" s="71"/>
     </row>
-    <row r="181" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" ht="14.25" customHeight="1">
       <c r="A181" s="95" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B181" s="80"/>
       <c r="C181" s="95">
@@ -6831,7 +6818,7 @@
       </c>
       <c r="P181" s="80"/>
       <c r="Q181" s="107">
-        <v>41.45</v>
+        <v>47.7</v>
       </c>
       <c r="R181" s="108"/>
       <c r="S181" s="96">
@@ -6839,9 +6826,9 @@
       </c>
       <c r="T181" s="80"/>
     </row>
-    <row r="182" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" ht="14.25" customHeight="1">
       <c r="A182" s="94" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B182" s="65"/>
       <c r="C182" s="94">
@@ -6871,7 +6858,7 @@
       </c>
       <c r="P182" s="65"/>
       <c r="Q182" s="104">
-        <v>42</v>
+        <v>47.21</v>
       </c>
       <c r="R182" s="68"/>
       <c r="S182" s="69">
@@ -6879,9 +6866,9 @@
       </c>
       <c r="T182" s="65"/>
     </row>
-    <row r="183" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" ht="14.25" customHeight="1">
       <c r="A183" s="70" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B183" s="71"/>
       <c r="C183" s="70">
@@ -6911,7 +6898,7 @@
       </c>
       <c r="P183" s="71"/>
       <c r="Q183" s="77">
-        <v>41.9</v>
+        <v>47.36</v>
       </c>
       <c r="R183" s="78"/>
       <c r="S183" s="72">
@@ -6919,9 +6906,9 @@
       </c>
       <c r="T183" s="71"/>
     </row>
-    <row r="184" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" ht="14.25" customHeight="1">
       <c r="A184" s="92" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B184" s="71"/>
       <c r="C184" s="92">
@@ -6951,7 +6938,7 @@
       </c>
       <c r="P184" s="71"/>
       <c r="Q184" s="77">
-        <v>41.64</v>
+        <v>47.63</v>
       </c>
       <c r="R184" s="78"/>
       <c r="S184" s="90">
@@ -6959,9 +6946,9 @@
       </c>
       <c r="T184" s="71"/>
     </row>
-    <row r="185" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" ht="14.1" customHeight="1">
       <c r="A185" s="70" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B185" s="71"/>
       <c r="C185" s="70">
@@ -6991,7 +6978,7 @@
       </c>
       <c r="P185" s="71"/>
       <c r="Q185" s="77">
-        <v>41.44</v>
+        <v>47.74</v>
       </c>
       <c r="R185" s="78"/>
       <c r="S185" s="72">
@@ -6999,9 +6986,9 @@
       </c>
       <c r="T185" s="71"/>
     </row>
-    <row r="186" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" ht="16.5" customHeight="1">
       <c r="A186" s="79" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B186" s="80"/>
       <c r="C186" s="79">
@@ -7031,7 +7018,7 @@
       </c>
       <c r="P186" s="80"/>
       <c r="Q186" s="107">
-        <v>41.15</v>
+        <v>47.72</v>
       </c>
       <c r="R186" s="108"/>
       <c r="S186" s="81">
@@ -7039,16 +7026,16 @@
       </c>
       <c r="T186" s="80"/>
     </row>
-    <row r="187" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:20" ht="8.1" customHeight="1"/>
+    <row r="188" spans="1:20" ht="21" customHeight="1" thickBot="1">
       <c r="P188" s="23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" ht="14.25" customHeight="1">
       <c r="A189" s="43" t="str">
         <f>A56</f>
-        <v>Calibration No: CAL00002</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="B189" s="44"/>
       <c r="C189" s="44"/>
@@ -7059,7 +7046,7 @@
       <c r="H189" s="35"/>
       <c r="I189" s="42" t="str">
         <f>I56</f>
-        <v>Calibration No: CAL00002</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="J189" s="35"/>
       <c r="K189" s="35"/>
@@ -7077,7 +7064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" ht="14.25" customHeight="1">
       <c r="A191" s="21"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -7099,7 +7086,7 @@
       <c r="S191" s="22"/>
       <c r="T191" s="22"/>
     </row>
-    <row r="192" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" ht="60" customHeight="1">
       <c r="A192" s="110" t="s">
         <v>77</v>
       </c>
@@ -7141,7 +7128,7 @@
       </c>
       <c r="T192" s="111"/>
     </row>
-    <row r="193" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="14.25" customHeight="1">
       <c r="A193" s="63"/>
       <c r="B193" s="62"/>
       <c r="C193" s="61" t="s">
@@ -7181,9 +7168,9 @@
       </c>
       <c r="T193" s="62"/>
     </row>
-    <row r="194" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" ht="14.25" customHeight="1">
       <c r="A194" s="84" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B194" s="65"/>
       <c r="C194" s="84">
@@ -7213,7 +7200,7 @@
       </c>
       <c r="P194" s="65"/>
       <c r="Q194" s="104">
-        <v>41.67</v>
+        <v>47.47</v>
       </c>
       <c r="R194" s="68"/>
       <c r="S194" s="85">
@@ -7221,9 +7208,9 @@
       </c>
       <c r="T194" s="65"/>
     </row>
-    <row r="195" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" ht="14.25" customHeight="1">
       <c r="A195" s="92" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B195" s="71"/>
       <c r="C195" s="92">
@@ -7253,7 +7240,7 @@
       </c>
       <c r="P195" s="71"/>
       <c r="Q195" s="77">
-        <v>41.44</v>
+        <v>47.68</v>
       </c>
       <c r="R195" s="78"/>
       <c r="S195" s="90">
@@ -7261,9 +7248,9 @@
       </c>
       <c r="T195" s="71"/>
     </row>
-    <row r="196" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" ht="14.25" customHeight="1">
       <c r="A196" s="70" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="B196" s="71"/>
       <c r="C196" s="70">
@@ -7293,7 +7280,7 @@
       </c>
       <c r="P196" s="71"/>
       <c r="Q196" s="77">
-        <v>41.28</v>
+        <v>47.78</v>
       </c>
       <c r="R196" s="78"/>
       <c r="S196" s="72">
@@ -7301,9 +7288,9 @@
       </c>
       <c r="T196" s="71"/>
     </row>
-    <row r="197" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" ht="14.25" customHeight="1">
       <c r="A197" s="92" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B197" s="71"/>
       <c r="C197" s="92">
@@ -7333,7 +7320,7 @@
       </c>
       <c r="P197" s="71"/>
       <c r="Q197" s="77">
-        <v>41.15</v>
+        <v>47.8</v>
       </c>
       <c r="R197" s="78"/>
       <c r="S197" s="90">
@@ -7341,9 +7328,9 @@
       </c>
       <c r="T197" s="71"/>
     </row>
-    <row r="198" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" ht="14.25" customHeight="1">
       <c r="A198" s="95" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B198" s="80"/>
       <c r="C198" s="95">
@@ -7373,7 +7360,7 @@
       </c>
       <c r="P198" s="80"/>
       <c r="Q198" s="107">
-        <v>40.97</v>
+        <v>47.78</v>
       </c>
       <c r="R198" s="108"/>
       <c r="S198" s="96">
@@ -7381,9 +7368,9 @@
       </c>
       <c r="T198" s="80"/>
     </row>
-    <row r="199" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" ht="14.25" customHeight="1">
       <c r="A199" s="94" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B199" s="65"/>
       <c r="C199" s="94">
@@ -7413,7 +7400,7 @@
       </c>
       <c r="P199" s="65"/>
       <c r="Q199" s="104">
-        <v>41.28</v>
+        <v>47.72</v>
       </c>
       <c r="R199" s="68"/>
       <c r="S199" s="69">
@@ -7421,9 +7408,9 @@
       </c>
       <c r="T199" s="65"/>
     </row>
-    <row r="200" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" ht="14.25" customHeight="1">
       <c r="A200" s="70" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B200" s="71"/>
       <c r="C200" s="70">
@@ -7453,7 +7440,7 @@
       </c>
       <c r="P200" s="71"/>
       <c r="Q200" s="77">
-        <v>41.18</v>
+        <v>47.78</v>
       </c>
       <c r="R200" s="78"/>
       <c r="S200" s="72">
@@ -7461,9 +7448,9 @@
       </c>
       <c r="T200" s="71"/>
     </row>
-    <row r="201" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" ht="14.25" customHeight="1">
       <c r="A201" s="92" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="B201" s="71"/>
       <c r="C201" s="92">
@@ -7493,7 +7480,7 @@
       </c>
       <c r="P201" s="71"/>
       <c r="Q201" s="77">
-        <v>41.08</v>
+        <v>47.82</v>
       </c>
       <c r="R201" s="78"/>
       <c r="S201" s="90">
@@ -7501,9 +7488,9 @@
       </c>
       <c r="T201" s="71"/>
     </row>
-    <row r="202" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" ht="14.25" customHeight="1">
       <c r="A202" s="70" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B202" s="71"/>
       <c r="C202" s="70">
@@ -7533,7 +7520,7 @@
       </c>
       <c r="P202" s="71"/>
       <c r="Q202" s="77">
-        <v>41.03</v>
+        <v>47.88</v>
       </c>
       <c r="R202" s="78"/>
       <c r="S202" s="72">
@@ -7541,9 +7528,9 @@
       </c>
       <c r="T202" s="71"/>
     </row>
-    <row r="203" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" ht="14.25" customHeight="1">
       <c r="A203" s="79" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="B203" s="80"/>
       <c r="C203" s="79">
@@ -7573,7 +7560,7 @@
       </c>
       <c r="P203" s="80"/>
       <c r="Q203" s="107">
-        <v>40.92</v>
+        <v>47.85</v>
       </c>
       <c r="R203" s="108"/>
       <c r="S203" s="81">
@@ -7581,9 +7568,9 @@
       </c>
       <c r="T203" s="80"/>
     </row>
-    <row r="204" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" ht="14.25" customHeight="1">
       <c r="A204" s="70" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="B204" s="71"/>
       <c r="C204" s="70">
@@ -7613,7 +7600,7 @@
       </c>
       <c r="P204" s="71"/>
       <c r="Q204" s="77">
-        <v>41.1</v>
+        <v>47.78</v>
       </c>
       <c r="R204" s="78"/>
       <c r="S204" s="72">
@@ -7621,9 +7608,9 @@
       </c>
       <c r="T204" s="71"/>
     </row>
-    <row r="205" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" ht="14.25" customHeight="1">
       <c r="A205" s="92" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B205" s="71"/>
       <c r="C205" s="92">
@@ -7653,7 +7640,7 @@
       </c>
       <c r="P205" s="71"/>
       <c r="Q205" s="77">
-        <v>41.04</v>
+        <v>47.8</v>
       </c>
       <c r="R205" s="78"/>
       <c r="S205" s="90">
@@ -7661,9 +7648,9 @@
       </c>
       <c r="T205" s="71"/>
     </row>
-    <row r="206" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" ht="14.25" customHeight="1">
       <c r="A206" s="70" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="B206" s="71"/>
       <c r="C206" s="70">
@@ -7693,7 +7680,7 @@
       </c>
       <c r="P206" s="71"/>
       <c r="Q206" s="77">
-        <v>40.97</v>
+        <v>47.84</v>
       </c>
       <c r="R206" s="78"/>
       <c r="S206" s="72">
@@ -7701,9 +7688,9 @@
       </c>
       <c r="T206" s="71"/>
     </row>
-    <row r="207" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" ht="14.25" customHeight="1">
       <c r="A207" s="79" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B207" s="80"/>
       <c r="C207" s="79">
@@ -7733,7 +7720,7 @@
       </c>
       <c r="P207" s="80"/>
       <c r="Q207" s="107">
-        <v>40.869999999999997</v>
+        <v>47.82</v>
       </c>
       <c r="R207" s="108"/>
       <c r="S207" s="81">
@@ -7741,9 +7728,9 @@
       </c>
       <c r="T207" s="80"/>
     </row>
-    <row r="208" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" ht="14.25" customHeight="1">
       <c r="A208" s="84" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B208" s="65"/>
       <c r="C208" s="84">
@@ -7773,7 +7760,7 @@
       </c>
       <c r="P208" s="65"/>
       <c r="Q208" s="104">
-        <v>40.98</v>
+        <v>47.74</v>
       </c>
       <c r="R208" s="68"/>
       <c r="S208" s="85">
@@ -7781,9 +7768,9 @@
       </c>
       <c r="T208" s="65"/>
     </row>
-    <row r="209" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" ht="14.25" customHeight="1">
       <c r="A209" s="92" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B209" s="71"/>
       <c r="C209" s="92">
@@ -7813,7 +7800,7 @@
       </c>
       <c r="P209" s="71"/>
       <c r="Q209" s="77">
-        <v>40.86</v>
+        <v>47.76</v>
       </c>
       <c r="R209" s="78"/>
       <c r="S209" s="90">
@@ -7821,9 +7808,9 @@
       </c>
       <c r="T209" s="71"/>
     </row>
-    <row r="210" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" ht="14.25" customHeight="1">
       <c r="A210" s="70" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B210" s="71"/>
       <c r="C210" s="70">
@@ -7853,7 +7840,7 @@
       </c>
       <c r="P210" s="71"/>
       <c r="Q210" s="77">
-        <v>40.83</v>
+        <v>47.74</v>
       </c>
       <c r="R210" s="78"/>
       <c r="S210" s="72">
@@ -7861,9 +7848,9 @@
       </c>
       <c r="T210" s="71"/>
     </row>
-    <row r="211" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" ht="14.25" customHeight="1">
       <c r="A211" s="94" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B211" s="65"/>
       <c r="C211" s="94">
@@ -7893,7 +7880,7 @@
       </c>
       <c r="P211" s="65"/>
       <c r="Q211" s="104">
-        <v>40.79</v>
+        <v>47.66</v>
       </c>
       <c r="R211" s="68"/>
       <c r="S211" s="69">
@@ -7901,9 +7888,9 @@
       </c>
       <c r="T211" s="65"/>
     </row>
-    <row r="212" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" ht="14.25" customHeight="1">
       <c r="A212" s="70" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B212" s="71"/>
       <c r="C212" s="70">
@@ -7933,7 +7920,7 @@
       </c>
       <c r="P212" s="71"/>
       <c r="Q212" s="77">
-        <v>40.74</v>
+        <v>47.66</v>
       </c>
       <c r="R212" s="78"/>
       <c r="S212" s="72">
@@ -7941,9 +7928,9 @@
       </c>
       <c r="T212" s="71"/>
     </row>
-    <row r="213" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" ht="15" customHeight="1">
       <c r="A213" s="145" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="B213" s="111"/>
       <c r="C213" s="145">
@@ -7973,7 +7960,7 @@
       </c>
       <c r="P213" s="111"/>
       <c r="Q213" s="151">
-        <v>41.03</v>
+        <v>47.69</v>
       </c>
       <c r="R213" s="144"/>
       <c r="S213" s="146">
@@ -7981,9 +7968,9 @@
       </c>
       <c r="T213" s="111"/>
     </row>
-    <row r="214" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" ht="15" customHeight="1">
       <c r="A214" s="164" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="B214" s="111"/>
       <c r="C214" s="164">
@@ -8013,7 +8000,7 @@
       </c>
       <c r="P214" s="111"/>
       <c r="Q214" s="151">
-        <v>41.04</v>
+        <v>47.87</v>
       </c>
       <c r="R214" s="144"/>
       <c r="S214" s="163">
@@ -8021,9 +8008,9 @@
       </c>
       <c r="T214" s="111"/>
     </row>
-    <row r="215" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" ht="15" customHeight="1">
       <c r="A215" s="145" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B215" s="111"/>
       <c r="C215" s="145">
@@ -8053,7 +8040,7 @@
       </c>
       <c r="P215" s="111"/>
       <c r="Q215" s="151">
-        <v>40.98</v>
+        <v>47.85</v>
       </c>
       <c r="R215" s="144"/>
       <c r="S215" s="146">
@@ -8061,41 +8048,41 @@
       </c>
       <c r="T215" s="111"/>
     </row>
-    <row r="216" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" ht="15" customHeight="1">
       <c r="A216" s="27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" ht="15" customHeight="1">
       <c r="A217" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" ht="15" customHeight="1">
       <c r="A218" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:20" ht="10" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="1:20" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" ht="15" customHeight="1"/>
+    <row r="220" spans="1:20" ht="15" customHeight="1"/>
+    <row r="221" spans="1:20" ht="15" customHeight="1"/>
+    <row r="222" spans="1:20" ht="15" customHeight="1"/>
+    <row r="223" spans="1:20" ht="15" customHeight="1"/>
+    <row r="224" spans="1:20" ht="15" customHeight="1"/>
+    <row r="225" spans="1:20" ht="15" customHeight="1"/>
+    <row r="226" spans="1:20" ht="15" customHeight="1"/>
+    <row r="227" spans="1:20" ht="15" customHeight="1"/>
+    <row r="228" spans="1:20" ht="15" customHeight="1"/>
+    <row r="229" spans="1:20" ht="15" customHeight="1"/>
+    <row r="230" spans="1:20" ht="15" customHeight="1"/>
+    <row r="231" spans="1:20" ht="15" customHeight="1"/>
+    <row r="232" spans="1:20" ht="15" customHeight="1"/>
+    <row r="233" spans="1:20" ht="15" customHeight="1"/>
+    <row r="234" spans="1:20" ht="15" customHeight="1"/>
+    <row r="235" spans="1:20" ht="15" customHeight="1"/>
+    <row r="236" spans="1:20" ht="15" customHeight="1"/>
+    <row r="237" spans="1:20" ht="9.9499999999999993" customHeight="1"/>
+    <row r="238" spans="1:20" ht="23.1" customHeight="1" thickBot="1">
       <c r="A238" s="114" t="e">
         <f>"Figure 1: Calibration coefficients for "&amp;#REF! &amp; " serial number " &amp;#REF! &amp; " grouped by kVp"</f>
         <v>#REF!</v>
@@ -8120,10 +8107,10 @@
       <c r="S238" s="115"/>
       <c r="T238" s="115"/>
     </row>
-    <row r="239" spans="1:20" s="48" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" s="48" customFormat="1" ht="23.1" customHeight="1">
       <c r="A239" s="43" t="str">
         <f>A56</f>
-        <v>Calibration No: CAL00002</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="B239" s="44"/>
       <c r="C239" s="44"/>
@@ -8134,7 +8121,7 @@
       <c r="H239" s="44"/>
       <c r="I239" s="45" t="str">
         <f>I56</f>
-        <v>Calibration No: CAL00002</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="J239" s="44"/>
       <c r="K239" s="44"/>
@@ -8152,10 +8139,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20">
       <c r="H240" s="48"/>
     </row>
-    <row r="266" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" ht="14.1" customHeight="1">
       <c r="A266" s="114" t="e">
         <f>"Figure 2: Calibration coefficients for "&amp;#REF! &amp; " serial number " &amp;#REF! &amp; " versus HVL (mm Al)"</f>
         <v>#REF!</v>
@@ -8180,7 +8167,7 @@
       <c r="S266" s="115"/>
       <c r="T266" s="115"/>
     </row>
-    <row r="293" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" ht="14.1" customHeight="1">
       <c r="A293" s="114" t="e">
         <f>"Figure 3: Calibration coefficients for "&amp;#REF! &amp; " serial number " &amp;#REF! &amp; " versus HVL (mm Cu)"</f>
         <v>#REF!</v>
@@ -8205,11 +8192,11 @@
       <c r="S293" s="115"/>
       <c r="T293" s="115"/>
     </row>
-    <row r="298" spans="1:20" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="299" spans="1:20" s="48" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" ht="14.1" customHeight="1" thickBot="1"/>
+    <row r="299" spans="1:20" s="48" customFormat="1">
       <c r="A299" s="43" t="str">
         <f>A56</f>
-        <v>Calibration No: CAL00002</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="B299" s="44"/>
       <c r="C299" s="44"/>
@@ -8220,7 +8207,7 @@
       <c r="H299" s="44"/>
       <c r="I299" s="45" t="str">
         <f>I56</f>
-        <v>Calibration No: CAL00002</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="J299" s="44"/>
       <c r="K299" s="44"/>
@@ -8238,7 +8225,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="1:20" ht="19.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="811">
     <mergeCell ref="A266:T266"/>

--- a/app/core/testing.xlsx
+++ b/app/core/testing.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="192">
   <si>
     <t>Primary Standards Dosimetry Laboratory,  Medical Radiation Services</t>
   </si>
@@ -365,6 +365,46 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
+    <t>Duncan Butler</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTW 30013 5122</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibration No: CAL00001</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientA_Name</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Feb 2021 to 01 Mar 2021</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAL00001</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">05 Oct 2021 </t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-250) on the guard electrode Positive (Central Electrode Negative)</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH280</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientA_Name</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
     <t>Calibrated by: ClientA_Name</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
@@ -377,15 +417,87 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
-    <t>PTW 30013 5122</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
     <t>12 Feb 2021 to 01 Mar 2021</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">04 Oct 2021 </t>
+    <t>Duncan Butler</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA50</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA70</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB100</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXC120</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXD140</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXE150</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXF200</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXG250</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH280</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH300</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH300*</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ40</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXK40</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA40</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ50</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXK50</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA50</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB50</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ60</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
@@ -393,55 +505,111 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
+    <t>NXA60</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ70</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXK70</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA70</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB70</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXC70</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ80</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXK80</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA80</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ90</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXK90</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA90</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
     <t>NXJ100</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
+    <t>NXK100</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB100</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXC100</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXD100</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB120</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXC120</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXD120</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXE120</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB140</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXC140</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXE140</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
     <t>NXF140</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
-    <t>CAL00001</t>
+    <t>NXC150</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
-    <t>ClientA_Name</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>PTW 30013 5122</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duncan Butler</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duncan Butler</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-250) on the guard electrode Positive (Central Electrode Negative)</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXA50</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXA70</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXB100</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXC120</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXD140</t>
+    <t>NXD150</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
@@ -449,15 +617,67 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
+    <t>NXF150</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXG150</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXD200</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXE200</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
     <t>NXF200</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
+    <t>NXG200</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH200</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXE250</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXF250</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
     <t>NXG250</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
-    <t>NXH280</t>
+    <t>NXH250</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXI250</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXF280</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXG280</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXI280</t>
+    <phoneticPr fontId="43" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXG300</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
@@ -465,210 +685,6 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
-    <t>NXH300*</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXJ40</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXK40</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXA40</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXJ50</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXK50</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXA50</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXB50</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXJ60</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXA60</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXJ70</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXK70</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXA70</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXB70</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXC70</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXJ80</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXK80</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXA80</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXJ90</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXK90</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXA90</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXK100</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXB100</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXC100</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXD100</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXB120</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXC120</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXD120</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXE120</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXB140</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXC140</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXE140</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXC150</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXD150</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXF150</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXG150</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXD200</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXE200</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXF200</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXG200</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXH200</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXE250</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXF250</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXG250</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXH250</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXI250</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXF280</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXG280</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXH280</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXI280</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXG300</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
     <t>NXI300</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
@@ -689,11 +705,7 @@
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
   <si>
-    <t>Calibration No: CAL00001</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calibration No: CAL00001</t>
+    <t>NXH300*</t>
     <phoneticPr fontId="43" type="noConversion"/>
   </si>
 </sst>
@@ -1632,6 +1644,293 @@
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="28" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="42" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="42" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="42" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="42" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="42" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="42" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="42" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="42" fillId="34" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="42" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1642,298 +1941,11 @@
     <xf numFmtId="2" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="34" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2264,7 +2276,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="kVp"/>
+        <xdr:cNvPr id="2" name="kVp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2308,7 +2320,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Al"/>
+        <xdr:cNvPr id="4" name="Al"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2352,7 +2364,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Cu"/>
+        <xdr:cNvPr id="5" name="Cu"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2705,100 +2717,100 @@
     <row r="1" spans="1:20" ht="12" customHeight="1"/>
     <row r="6" spans="1:20" ht="8.25" customHeight="1"/>
     <row r="7" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
     </row>
     <row r="10" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A10" s="155" t="s">
+      <c r="A10" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="156"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
     </row>
     <row r="11" spans="1:20" ht="22.5" customHeight="1">
       <c r="A11" s="27"/>
@@ -2864,7 +2876,7 @@
       <c r="R13" s="49"/>
       <c r="S13" s="49"/>
       <c r="T13" s="50" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.1" customHeight="1">
@@ -2889,76 +2901,76 @@
       <c r="S14" s="27"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="115"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1"/>
     <row r="19" spans="1:20" ht="14.1" customHeight="1">
@@ -2992,7 +3004,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
@@ -3015,7 +3027,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="51" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
@@ -3038,7 +3050,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="51" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
@@ -3105,7 +3117,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
@@ -3151,7 +3163,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="52" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H27" s="52"/>
       <c r="I27" s="52"/>
@@ -3209,7 +3221,7 @@
       <c r="P29" s="13"/>
       <c r="R29" s="27"/>
       <c r="S29" s="27"/>
-      <c r="T29" s="162" t="s">
+      <c r="T29" s="89" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3232,7 +3244,7 @@
       <c r="P30" s="13"/>
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
-      <c r="T30" s="115"/>
+      <c r="T30" s="62"/>
     </row>
     <row r="31" spans="1:20" ht="15.95" customHeight="1">
       <c r="A31" s="14" t="s">
@@ -3244,7 +3256,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="53" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
@@ -3257,7 +3269,7 @@
       <c r="P31" s="13"/>
       <c r="R31" s="27"/>
       <c r="S31" s="27"/>
-      <c r="T31" s="115"/>
+      <c r="T31" s="62"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
@@ -3269,7 +3281,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="52" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="H32" s="52"/>
       <c r="I32" s="52"/>
@@ -3282,7 +3294,7 @@
       <c r="P32" s="13"/>
       <c r="R32" s="27"/>
       <c r="S32" s="27"/>
-      <c r="T32" s="115"/>
+      <c r="T32" s="62"/>
     </row>
     <row r="33" spans="1:20" ht="15.95" customHeight="1">
       <c r="A33" s="14" t="s">
@@ -3294,7 +3306,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H33" s="52"/>
       <c r="I33" s="52"/>
@@ -3307,7 +3319,7 @@
       <c r="P33" s="13"/>
       <c r="R33" s="27"/>
       <c r="S33" s="27"/>
-      <c r="T33" s="115"/>
+      <c r="T33" s="62"/>
     </row>
     <row r="34" spans="1:20" ht="15.95" customHeight="1">
       <c r="A34" s="14"/>
@@ -3328,7 +3340,7 @@
       <c r="P34" s="13"/>
       <c r="R34" s="27"/>
       <c r="S34" s="27"/>
-      <c r="T34" s="115"/>
+      <c r="T34" s="62"/>
     </row>
     <row r="35" spans="1:20" ht="15.95" customHeight="1">
       <c r="A35" s="13" t="s">
@@ -3353,7 +3365,7 @@
       <c r="P35" s="13"/>
       <c r="R35" s="27"/>
       <c r="S35" s="27"/>
-      <c r="T35" s="115"/>
+      <c r="T35" s="62"/>
     </row>
     <row r="36" spans="1:20" ht="15.95" customHeight="1">
       <c r="A36" s="14" t="s">
@@ -3378,7 +3390,7 @@
       <c r="P36" s="13"/>
       <c r="R36" s="27"/>
       <c r="S36" s="27"/>
-      <c r="T36" s="115"/>
+      <c r="T36" s="62"/>
     </row>
     <row r="37" spans="1:20" ht="12.95" customHeight="1">
       <c r="A37" s="13"/>
@@ -3399,7 +3411,7 @@
       <c r="P37" s="13"/>
       <c r="R37" s="27"/>
       <c r="S37" s="27"/>
-      <c r="T37" s="115"/>
+      <c r="T37" s="62"/>
     </row>
     <row r="38" spans="1:20" ht="27" hidden="1" customHeight="1">
       <c r="A38" s="13"/>
@@ -3421,7 +3433,7 @@
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
       <c r="S38" s="27"/>
-      <c r="T38" s="115"/>
+      <c r="T38" s="62"/>
     </row>
     <row r="39" spans="1:20" ht="15.95" customHeight="1">
       <c r="A39" s="13" t="s">
@@ -3443,12 +3455,12 @@
       <c r="N39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O39" s="160"/>
-      <c r="P39" s="161"/>
-      <c r="Q39" s="161"/>
-      <c r="R39" s="161"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
       <c r="S39" s="27"/>
-      <c r="T39" s="115"/>
+      <c r="T39" s="62"/>
     </row>
     <row r="40" spans="1:20" ht="15.95" customHeight="1">
       <c r="A40" s="13"/>
@@ -3470,7 +3482,7 @@
       <c r="Q40" s="27"/>
       <c r="R40" s="27"/>
       <c r="S40" s="27"/>
-      <c r="T40" s="115"/>
+      <c r="T40" s="62"/>
     </row>
     <row r="41" spans="1:20" ht="15.95" customHeight="1">
       <c r="A41" s="5" t="s">
@@ -3494,7 +3506,7 @@
       <c r="Q41" s="27"/>
       <c r="R41" s="27"/>
       <c r="S41" s="27"/>
-      <c r="T41" s="115"/>
+      <c r="T41" s="62"/>
     </row>
     <row r="42" spans="1:20" ht="15.95" customHeight="1">
       <c r="A42" s="13" t="s">
@@ -3619,7 +3631,7 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="54" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="B56" s="55"/>
       <c r="C56" s="55"/>
@@ -3629,7 +3641,7 @@
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
       <c r="I56" s="56" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="J56" s="55"/>
       <c r="K56" s="19"/>
@@ -3689,28 +3701,28 @@
       <c r="Q58" s="12"/>
     </row>
     <row r="59" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A59" s="157" t="s">
+      <c r="A59" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="115"/>
-      <c r="H59" s="115"/>
-      <c r="I59" s="115"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="115"/>
-      <c r="L59" s="115"/>
-      <c r="M59" s="115"/>
-      <c r="N59" s="115"/>
-      <c r="O59" s="115"/>
-      <c r="P59" s="115"/>
-      <c r="Q59" s="115"/>
-      <c r="R59" s="115"/>
-      <c r="S59" s="115"/>
-      <c r="T59" s="115"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="62"/>
+      <c r="O59" s="62"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
+      <c r="S59" s="62"/>
+      <c r="T59" s="62"/>
     </row>
     <row r="60" spans="1:20" ht="15.95" customHeight="1">
       <c r="A60" s="13"/>
@@ -3819,27 +3831,27 @@
       <c r="A65" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="117" t="s">
+      <c r="B65" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="115"/>
-      <c r="I65" s="115"/>
-      <c r="J65" s="115"/>
-      <c r="K65" s="115"/>
-      <c r="L65" s="115"/>
-      <c r="M65" s="115"/>
-      <c r="N65" s="115"/>
-      <c r="O65" s="115"/>
-      <c r="P65" s="115"/>
-      <c r="Q65" s="115"/>
-      <c r="R65" s="115"/>
-      <c r="S65" s="115"/>
-      <c r="T65" s="115"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="62"/>
+      <c r="O65" s="62"/>
+      <c r="P65" s="62"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="62"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="62"/>
     </row>
     <row r="66" spans="1:20" ht="15.95" customHeight="1">
       <c r="A66" s="12"/>
@@ -3885,53 +3897,53 @@
       <c r="A68" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="118" t="s">
+      <c r="B68" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="115"/>
-      <c r="D68" s="115"/>
-      <c r="E68" s="115"/>
-      <c r="F68" s="115"/>
-      <c r="G68" s="115"/>
-      <c r="H68" s="115"/>
-      <c r="I68" s="115"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="115"/>
-      <c r="L68" s="115"/>
-      <c r="M68" s="115"/>
-      <c r="N68" s="115"/>
-      <c r="O68" s="115"/>
-      <c r="P68" s="115"/>
-      <c r="Q68" s="115"/>
-      <c r="R68" s="115"/>
-      <c r="S68" s="115"/>
-      <c r="T68" s="115"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="62"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="62"/>
+      <c r="N68" s="62"/>
+      <c r="O68" s="62"/>
+      <c r="P68" s="62"/>
+      <c r="Q68" s="62"/>
+      <c r="R68" s="62"/>
+      <c r="S68" s="62"/>
+      <c r="T68" s="62"/>
     </row>
     <row r="69" spans="1:20" ht="33" customHeight="1">
       <c r="A69" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="118" t="s">
+      <c r="B69" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="115"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="115"/>
-      <c r="G69" s="115"/>
-      <c r="H69" s="115"/>
-      <c r="I69" s="115"/>
-      <c r="J69" s="115"/>
-      <c r="K69" s="115"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="115"/>
-      <c r="N69" s="115"/>
-      <c r="O69" s="115"/>
-      <c r="P69" s="115"/>
-      <c r="Q69" s="115"/>
-      <c r="R69" s="115"/>
-      <c r="S69" s="115"/>
-      <c r="T69" s="115"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="62"/>
+      <c r="O69" s="62"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="62"/>
+      <c r="S69" s="62"/>
+      <c r="T69" s="62"/>
     </row>
     <row r="71" spans="1:20" ht="15.95" customHeight="1">
       <c r="A71" s="15" t="s">
@@ -3942,24 +3954,24 @@
       <c r="A72" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B72" s="117" t="s">
+      <c r="B72" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="115"/>
-      <c r="D72" s="115"/>
-      <c r="E72" s="115"/>
-      <c r="F72" s="115"/>
-      <c r="G72" s="115"/>
-      <c r="H72" s="115"/>
-      <c r="I72" s="115"/>
-      <c r="J72" s="115"/>
-      <c r="K72" s="115"/>
-      <c r="L72" s="115"/>
-      <c r="M72" s="115"/>
-      <c r="N72" s="115"/>
-      <c r="O72" s="115"/>
-      <c r="P72" s="115"/>
-      <c r="Q72" s="115"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="62"/>
+      <c r="O72" s="62"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="62"/>
     </row>
     <row r="73" spans="1:20" ht="15.95" customHeight="1">
       <c r="A73" s="15"/>
@@ -3973,24 +3985,24 @@
       <c r="A75" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="117" t="s">
+      <c r="B75" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="115"/>
-      <c r="D75" s="115"/>
-      <c r="E75" s="115"/>
-      <c r="F75" s="115"/>
-      <c r="G75" s="115"/>
-      <c r="H75" s="115"/>
-      <c r="I75" s="115"/>
-      <c r="J75" s="115"/>
-      <c r="K75" s="115"/>
-      <c r="L75" s="115"/>
-      <c r="M75" s="115"/>
-      <c r="N75" s="115"/>
-      <c r="O75" s="115"/>
-      <c r="P75" s="115"/>
-      <c r="Q75" s="115"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="62"/>
+      <c r="O75" s="62"/>
+      <c r="P75" s="62"/>
+      <c r="Q75" s="62"/>
     </row>
     <row r="76" spans="1:20" ht="15.95" customHeight="1">
       <c r="A76" s="29"/>
@@ -4055,27 +4067,27 @@
       <c r="A79" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B79" s="159" t="s">
+      <c r="B79" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="115"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
-      <c r="G79" s="115"/>
-      <c r="H79" s="115"/>
-      <c r="I79" s="115"/>
-      <c r="J79" s="115"/>
-      <c r="K79" s="115"/>
-      <c r="L79" s="115"/>
-      <c r="M79" s="115"/>
-      <c r="N79" s="115"/>
-      <c r="O79" s="115"/>
-      <c r="P79" s="115"/>
-      <c r="Q79" s="115"/>
-      <c r="R79" s="115"/>
-      <c r="S79" s="115"/>
-      <c r="T79" s="115"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="62"/>
+      <c r="O79" s="62"/>
+      <c r="P79" s="62"/>
+      <c r="Q79" s="62"/>
+      <c r="R79" s="62"/>
+      <c r="S79" s="62"/>
+      <c r="T79" s="62"/>
     </row>
     <row r="80" spans="1:20" ht="15" customHeight="1">
       <c r="A80" s="15"/>
@@ -4121,27 +4133,27 @@
       <c r="A82" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="118" t="s">
+      <c r="B82" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
-      <c r="G82" s="115"/>
-      <c r="H82" s="115"/>
-      <c r="I82" s="115"/>
-      <c r="J82" s="115"/>
-      <c r="K82" s="115"/>
-      <c r="L82" s="115"/>
-      <c r="M82" s="115"/>
-      <c r="N82" s="115"/>
-      <c r="O82" s="115"/>
-      <c r="P82" s="115"/>
-      <c r="Q82" s="115"/>
-      <c r="R82" s="115"/>
-      <c r="S82" s="115"/>
-      <c r="T82" s="115"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="62"/>
+      <c r="O82" s="62"/>
+      <c r="P82" s="62"/>
+      <c r="Q82" s="62"/>
+      <c r="R82" s="62"/>
+      <c r="S82" s="62"/>
+      <c r="T82" s="62"/>
     </row>
     <row r="83" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A83" s="15"/>
@@ -4227,28 +4239,28 @@
       <c r="T97" s="22"/>
     </row>
     <row r="103" spans="1:20" ht="31.5" customHeight="1">
-      <c r="A103" s="120" t="s">
+      <c r="A103" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="115"/>
-      <c r="C103" s="115"/>
-      <c r="D103" s="115"/>
-      <c r="E103" s="115"/>
-      <c r="F103" s="115"/>
-      <c r="G103" s="115"/>
-      <c r="H103" s="115"/>
-      <c r="I103" s="115"/>
-      <c r="J103" s="115"/>
-      <c r="K103" s="115"/>
-      <c r="L103" s="115"/>
-      <c r="M103" s="115"/>
-      <c r="N103" s="115"/>
-      <c r="O103" s="115"/>
-      <c r="P103" s="115"/>
-      <c r="Q103" s="115"/>
-      <c r="R103" s="115"/>
-      <c r="S103" s="115"/>
-      <c r="T103" s="115"/>
+      <c r="B103" s="62"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="62"/>
+      <c r="I103" s="62"/>
+      <c r="J103" s="62"/>
+      <c r="K103" s="62"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="62"/>
+      <c r="N103" s="62"/>
+      <c r="O103" s="62"/>
+      <c r="P103" s="62"/>
+      <c r="Q103" s="62"/>
+      <c r="R103" s="62"/>
+      <c r="S103" s="62"/>
+      <c r="T103" s="62"/>
     </row>
     <row r="104" spans="1:20" ht="14.1" customHeight="1">
       <c r="A104" s="27"/>
@@ -4278,7 +4290,7 @@
       <c r="D105" s="27"/>
       <c r="E105" s="27"/>
       <c r="G105" s="51" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H105" s="49"/>
       <c r="I105" s="49"/>
@@ -4300,7 +4312,7 @@
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
       <c r="G106" s="58" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H106" s="49"/>
       <c r="I106" s="49"/>
@@ -4344,7 +4356,7 @@
       <c r="D108" s="27"/>
       <c r="E108" s="27"/>
       <c r="G108" s="59" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H108" s="49"/>
       <c r="I108" s="49"/>
@@ -4628,526 +4640,526 @@
       <c r="Q121" s="27"/>
     </row>
     <row r="122" spans="1:20" ht="59.25" customHeight="1">
-      <c r="A122" s="116" t="s">
+      <c r="A122" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="B122" s="65"/>
-      <c r="C122" s="116" t="s">
+      <c r="B122" s="91"/>
+      <c r="C122" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="D122" s="65"/>
-      <c r="E122" s="116" t="s">
+      <c r="D122" s="91"/>
+      <c r="E122" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="F122" s="65"/>
-      <c r="G122" s="116" t="s">
+      <c r="F122" s="91"/>
+      <c r="G122" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="H122" s="65"/>
-      <c r="I122" s="116" t="s">
+      <c r="H122" s="91"/>
+      <c r="I122" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="J122" s="65"/>
-      <c r="K122" s="116" t="s">
+      <c r="J122" s="91"/>
+      <c r="K122" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="L122" s="65"/>
-      <c r="M122" s="116" t="s">
+      <c r="L122" s="91"/>
+      <c r="M122" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="N122" s="65"/>
-      <c r="O122" s="116" t="s">
+      <c r="N122" s="91"/>
+      <c r="O122" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="P122" s="65"/>
-      <c r="Q122" s="121" t="s">
+      <c r="P122" s="91"/>
+      <c r="Q122" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="R122" s="65"/>
-      <c r="S122" s="116" t="s">
+      <c r="R122" s="91"/>
+      <c r="S122" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="T122" s="65"/>
+      <c r="T122" s="91"/>
     </row>
     <row r="123" spans="1:20" ht="30" customHeight="1">
-      <c r="A123" s="63"/>
-      <c r="B123" s="62"/>
-      <c r="C123" s="61" t="s">
+      <c r="A123" s="165"/>
+      <c r="B123" s="164"/>
+      <c r="C123" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="D123" s="62"/>
-      <c r="E123" s="61" t="s">
+      <c r="D123" s="164"/>
+      <c r="E123" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="F123" s="62"/>
-      <c r="G123" s="61" t="s">
+      <c r="F123" s="164"/>
+      <c r="G123" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="H123" s="62"/>
-      <c r="I123" s="61" t="s">
+      <c r="H123" s="164"/>
+      <c r="I123" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="J123" s="62"/>
-      <c r="K123" s="61" t="s">
+      <c r="J123" s="164"/>
+      <c r="K123" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="L123" s="62"/>
-      <c r="M123" s="61" t="s">
+      <c r="L123" s="164"/>
+      <c r="M123" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="N123" s="62"/>
-      <c r="O123" s="61" t="s">
+      <c r="N123" s="164"/>
+      <c r="O123" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="P123" s="62"/>
-      <c r="Q123" s="61" t="s">
+      <c r="P123" s="164"/>
+      <c r="Q123" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="R123" s="62"/>
-      <c r="S123" s="61" t="s">
+      <c r="R123" s="164"/>
+      <c r="S123" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="T123" s="62"/>
+      <c r="T123" s="164"/>
     </row>
     <row r="124" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A124" s="122" t="s">
+      <c r="A124" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="B124" s="65"/>
-      <c r="C124" s="122">
+      <c r="B124" s="91"/>
+      <c r="C124" s="161">
         <v>50</v>
       </c>
-      <c r="D124" s="65"/>
-      <c r="E124" s="123">
+      <c r="D124" s="91"/>
+      <c r="E124" s="155">
         <v>4</v>
       </c>
-      <c r="F124" s="65"/>
-      <c r="G124" s="122"/>
-      <c r="H124" s="65"/>
-      <c r="I124" s="124">
+      <c r="F124" s="91"/>
+      <c r="G124" s="161"/>
+      <c r="H124" s="91"/>
+      <c r="I124" s="162">
         <v>2.39</v>
       </c>
-      <c r="J124" s="65"/>
-      <c r="K124" s="64">
+      <c r="J124" s="91"/>
+      <c r="K124" s="166">
         <v>0.08</v>
       </c>
-      <c r="L124" s="65"/>
-      <c r="M124" s="66">
+      <c r="L124" s="91"/>
+      <c r="M124" s="167">
         <v>29.93</v>
       </c>
-      <c r="N124" s="65"/>
-      <c r="O124" s="66">
+      <c r="N124" s="91"/>
+      <c r="O124" s="167">
         <v>0.4</v>
       </c>
-      <c r="P124" s="65"/>
-      <c r="Q124" s="67">
+      <c r="P124" s="91"/>
+      <c r="Q124" s="168">
         <v>46.6</v>
       </c>
-      <c r="R124" s="68"/>
-      <c r="S124" s="123">
+      <c r="R124" s="107"/>
+      <c r="S124" s="155">
         <v>1.4</v>
       </c>
-      <c r="T124" s="65"/>
+      <c r="T124" s="91"/>
     </row>
     <row r="125" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A125" s="125" t="s">
+      <c r="A125" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="B125" s="71"/>
-      <c r="C125" s="125">
+      <c r="B125" s="93"/>
+      <c r="C125" s="145">
         <v>70</v>
       </c>
-      <c r="D125" s="71"/>
-      <c r="E125" s="126">
+      <c r="D125" s="93"/>
+      <c r="E125" s="146">
         <v>4</v>
       </c>
-      <c r="F125" s="71"/>
-      <c r="G125" s="125"/>
-      <c r="H125" s="71"/>
-      <c r="I125" s="127">
+      <c r="F125" s="93"/>
+      <c r="G125" s="145"/>
+      <c r="H125" s="93"/>
+      <c r="I125" s="154">
         <v>3.19</v>
       </c>
-      <c r="J125" s="71"/>
-      <c r="K125" s="128">
+      <c r="J125" s="93"/>
+      <c r="K125" s="147">
         <v>0.11</v>
       </c>
-      <c r="L125" s="71"/>
-      <c r="M125" s="129">
+      <c r="L125" s="93"/>
+      <c r="M125" s="148">
         <v>34.270000000000003</v>
       </c>
-      <c r="N125" s="71"/>
-      <c r="O125" s="129">
+      <c r="N125" s="93"/>
+      <c r="O125" s="148">
         <v>0.8</v>
       </c>
-      <c r="P125" s="71"/>
-      <c r="Q125" s="130">
+      <c r="P125" s="93"/>
+      <c r="Q125" s="149">
         <v>46.74</v>
       </c>
-      <c r="R125" s="78"/>
-      <c r="S125" s="126">
+      <c r="R125" s="100"/>
+      <c r="S125" s="146">
         <v>1.4</v>
       </c>
-      <c r="T125" s="71"/>
+      <c r="T125" s="93"/>
     </row>
     <row r="126" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A126" s="132" t="s">
+      <c r="A126" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="B126" s="71"/>
-      <c r="C126" s="132">
+      <c r="B126" s="93"/>
+      <c r="C126" s="150">
         <v>100</v>
       </c>
-      <c r="D126" s="71"/>
-      <c r="E126" s="131">
+      <c r="D126" s="93"/>
+      <c r="E126" s="143">
         <v>4.5</v>
       </c>
-      <c r="F126" s="71"/>
-      <c r="G126" s="132"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="133">
+      <c r="F126" s="93"/>
+      <c r="G126" s="150"/>
+      <c r="H126" s="93"/>
+      <c r="I126" s="153">
         <v>4.74</v>
       </c>
-      <c r="J126" s="71"/>
-      <c r="K126" s="134">
+      <c r="J126" s="93"/>
+      <c r="K126" s="151">
         <v>0.18</v>
       </c>
-      <c r="L126" s="71"/>
-      <c r="M126" s="135">
+      <c r="L126" s="93"/>
+      <c r="M126" s="152">
         <v>41.59</v>
       </c>
-      <c r="N126" s="71"/>
-      <c r="O126" s="135">
+      <c r="N126" s="93"/>
+      <c r="O126" s="152">
         <v>1.6</v>
       </c>
-      <c r="P126" s="71"/>
-      <c r="Q126" s="130">
+      <c r="P126" s="93"/>
+      <c r="Q126" s="149">
         <v>46.94</v>
       </c>
-      <c r="R126" s="78"/>
-      <c r="S126" s="131">
+      <c r="R126" s="100"/>
+      <c r="S126" s="143">
         <v>1.4</v>
       </c>
-      <c r="T126" s="71"/>
+      <c r="T126" s="93"/>
     </row>
     <row r="127" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A127" s="125" t="s">
+      <c r="A127" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="B127" s="71"/>
-      <c r="C127" s="125">
+      <c r="B127" s="93"/>
+      <c r="C127" s="145">
         <v>120</v>
       </c>
-      <c r="D127" s="71"/>
-      <c r="E127" s="126">
+      <c r="D127" s="93"/>
+      <c r="E127" s="146">
         <v>6</v>
       </c>
-      <c r="F127" s="71"/>
-      <c r="G127" s="125"/>
-      <c r="H127" s="71"/>
-      <c r="I127" s="127">
+      <c r="F127" s="93"/>
+      <c r="G127" s="145"/>
+      <c r="H127" s="93"/>
+      <c r="I127" s="154">
         <v>6.38</v>
       </c>
-      <c r="J127" s="71"/>
-      <c r="K127" s="128">
+      <c r="J127" s="93"/>
+      <c r="K127" s="147">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L127" s="71"/>
-      <c r="M127" s="129">
+      <c r="L127" s="93"/>
+      <c r="M127" s="148">
         <v>48.95</v>
       </c>
-      <c r="N127" s="71"/>
-      <c r="O127" s="129">
+      <c r="N127" s="93"/>
+      <c r="O127" s="148">
         <v>1.8</v>
       </c>
-      <c r="P127" s="71"/>
-      <c r="Q127" s="130">
+      <c r="P127" s="93"/>
+      <c r="Q127" s="149">
         <v>47.12</v>
       </c>
-      <c r="R127" s="78"/>
-      <c r="S127" s="126">
+      <c r="R127" s="100"/>
+      <c r="S127" s="146">
         <v>1.4</v>
       </c>
-      <c r="T127" s="71"/>
+      <c r="T127" s="93"/>
     </row>
     <row r="128" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A128" s="132" t="s">
+      <c r="A128" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="B128" s="71"/>
-      <c r="C128" s="132">
+      <c r="B128" s="93"/>
+      <c r="C128" s="150">
         <v>140</v>
       </c>
-      <c r="D128" s="71"/>
-      <c r="E128" s="131">
+      <c r="D128" s="93"/>
+      <c r="E128" s="143">
         <v>9</v>
       </c>
-      <c r="F128" s="71"/>
-      <c r="G128" s="132"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="133">
+      <c r="F128" s="93"/>
+      <c r="G128" s="150"/>
+      <c r="H128" s="93"/>
+      <c r="I128" s="153">
         <v>8.44</v>
       </c>
-      <c r="J128" s="71"/>
-      <c r="K128" s="134">
+      <c r="J128" s="93"/>
+      <c r="K128" s="151">
         <v>0.45</v>
       </c>
-      <c r="L128" s="71"/>
-      <c r="M128" s="135">
+      <c r="L128" s="93"/>
+      <c r="M128" s="152">
         <v>58.06</v>
       </c>
-      <c r="N128" s="71"/>
-      <c r="O128" s="135">
+      <c r="N128" s="93"/>
+      <c r="O128" s="152">
         <v>1.8</v>
       </c>
-      <c r="P128" s="71"/>
-      <c r="Q128" s="130">
+      <c r="P128" s="93"/>
+      <c r="Q128" s="149">
         <v>47.32</v>
       </c>
-      <c r="R128" s="78"/>
-      <c r="S128" s="131">
+      <c r="R128" s="100"/>
+      <c r="S128" s="143">
         <v>1.4</v>
       </c>
-      <c r="T128" s="71"/>
+      <c r="T128" s="93"/>
     </row>
     <row r="129" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A129" s="125" t="s">
+      <c r="A129" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="B129" s="71"/>
-      <c r="C129" s="125">
+      <c r="B129" s="93"/>
+      <c r="C129" s="145">
         <v>150</v>
       </c>
-      <c r="D129" s="71"/>
-      <c r="E129" s="126">
+      <c r="D129" s="93"/>
+      <c r="E129" s="146">
         <v>4</v>
       </c>
-      <c r="F129" s="71"/>
-      <c r="G129" s="126">
+      <c r="F129" s="93"/>
+      <c r="G129" s="146">
         <v>0.5</v>
       </c>
-      <c r="H129" s="71"/>
-      <c r="I129" s="125"/>
-      <c r="J129" s="71"/>
-      <c r="K129" s="128">
+      <c r="H129" s="93"/>
+      <c r="I129" s="145"/>
+      <c r="J129" s="93"/>
+      <c r="K129" s="147">
         <v>0.84</v>
       </c>
-      <c r="L129" s="71"/>
-      <c r="M129" s="129">
+      <c r="L129" s="93"/>
+      <c r="M129" s="148">
         <v>72.150000000000006</v>
       </c>
-      <c r="N129" s="71"/>
-      <c r="O129" s="129">
+      <c r="N129" s="93"/>
+      <c r="O129" s="148">
         <v>1.4</v>
       </c>
-      <c r="P129" s="71"/>
-      <c r="Q129" s="130">
+      <c r="P129" s="93"/>
+      <c r="Q129" s="149">
         <v>47.63</v>
       </c>
-      <c r="R129" s="78"/>
-      <c r="S129" s="126">
+      <c r="R129" s="100"/>
+      <c r="S129" s="146">
         <v>1.4</v>
       </c>
-      <c r="T129" s="71"/>
+      <c r="T129" s="93"/>
     </row>
     <row r="130" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A130" s="132" t="s">
+      <c r="A130" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="B130" s="71"/>
-      <c r="C130" s="132">
+      <c r="B130" s="93"/>
+      <c r="C130" s="150">
         <v>200</v>
       </c>
-      <c r="D130" s="71"/>
-      <c r="E130" s="131">
+      <c r="D130" s="93"/>
+      <c r="E130" s="143">
         <v>4</v>
       </c>
-      <c r="F130" s="71"/>
-      <c r="G130" s="131">
+      <c r="F130" s="93"/>
+      <c r="G130" s="143">
         <v>1</v>
       </c>
-      <c r="H130" s="71"/>
-      <c r="I130" s="132"/>
-      <c r="J130" s="71"/>
-      <c r="K130" s="134">
+      <c r="H130" s="93"/>
+      <c r="I130" s="150"/>
+      <c r="J130" s="93"/>
+      <c r="K130" s="151">
         <v>1.63</v>
       </c>
-      <c r="L130" s="71"/>
-      <c r="M130" s="135">
+      <c r="L130" s="93"/>
+      <c r="M130" s="152">
         <v>94.74</v>
       </c>
-      <c r="N130" s="71"/>
-      <c r="O130" s="135">
+      <c r="N130" s="93"/>
+      <c r="O130" s="152">
         <v>1.6</v>
       </c>
-      <c r="P130" s="71"/>
-      <c r="Q130" s="130">
+      <c r="P130" s="93"/>
+      <c r="Q130" s="149">
         <v>47.78</v>
       </c>
-      <c r="R130" s="78"/>
-      <c r="S130" s="131">
+      <c r="R130" s="100"/>
+      <c r="S130" s="143">
         <v>1.4</v>
       </c>
-      <c r="T130" s="71"/>
+      <c r="T130" s="93"/>
     </row>
     <row r="131" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A131" s="125" t="s">
+      <c r="A131" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="B131" s="71"/>
-      <c r="C131" s="125">
+      <c r="B131" s="93"/>
+      <c r="C131" s="145">
         <v>250</v>
       </c>
-      <c r="D131" s="71"/>
-      <c r="E131" s="126">
+      <c r="D131" s="93"/>
+      <c r="E131" s="146">
         <v>4</v>
       </c>
-      <c r="F131" s="71"/>
-      <c r="G131" s="126">
+      <c r="F131" s="93"/>
+      <c r="G131" s="146">
         <v>1.6</v>
       </c>
-      <c r="H131" s="71"/>
-      <c r="I131" s="125"/>
-      <c r="J131" s="71"/>
-      <c r="K131" s="128">
+      <c r="H131" s="93"/>
+      <c r="I131" s="145"/>
+      <c r="J131" s="93"/>
+      <c r="K131" s="147">
         <v>2.57</v>
       </c>
-      <c r="L131" s="71"/>
-      <c r="M131" s="129">
+      <c r="L131" s="93"/>
+      <c r="M131" s="148">
         <v>120.1</v>
       </c>
-      <c r="N131" s="71"/>
-      <c r="O131" s="129">
+      <c r="N131" s="93"/>
+      <c r="O131" s="148">
         <v>1.8</v>
       </c>
-      <c r="P131" s="71"/>
-      <c r="Q131" s="130">
+      <c r="P131" s="93"/>
+      <c r="Q131" s="149">
         <v>47.82</v>
       </c>
-      <c r="R131" s="78"/>
-      <c r="S131" s="126">
+      <c r="R131" s="100"/>
+      <c r="S131" s="146">
         <v>1.4</v>
       </c>
-      <c r="T131" s="71"/>
+      <c r="T131" s="93"/>
     </row>
     <row r="132" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A132" s="132" t="s">
+      <c r="A132" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="B132" s="71"/>
-      <c r="C132" s="132">
+      <c r="B132" s="93"/>
+      <c r="C132" s="150">
         <v>280</v>
       </c>
-      <c r="D132" s="71"/>
-      <c r="E132" s="131">
+      <c r="D132" s="93"/>
+      <c r="E132" s="143">
         <v>4</v>
       </c>
-      <c r="F132" s="71"/>
-      <c r="G132" s="131">
+      <c r="F132" s="93"/>
+      <c r="G132" s="143">
         <v>3</v>
       </c>
-      <c r="H132" s="71"/>
-      <c r="I132" s="132"/>
-      <c r="J132" s="71"/>
-      <c r="K132" s="134">
+      <c r="H132" s="93"/>
+      <c r="I132" s="150"/>
+      <c r="J132" s="93"/>
+      <c r="K132" s="151">
         <v>3.5</v>
       </c>
-      <c r="L132" s="71"/>
-      <c r="M132" s="135">
+      <c r="L132" s="93"/>
+      <c r="M132" s="152">
         <v>147.05000000000001</v>
       </c>
-      <c r="N132" s="71"/>
-      <c r="O132" s="135">
+      <c r="N132" s="93"/>
+      <c r="O132" s="152">
         <v>1.4</v>
       </c>
-      <c r="P132" s="71"/>
-      <c r="Q132" s="130">
+      <c r="P132" s="93"/>
+      <c r="Q132" s="149">
         <v>47.84</v>
       </c>
-      <c r="R132" s="78"/>
-      <c r="S132" s="131">
+      <c r="R132" s="100"/>
+      <c r="S132" s="143">
         <v>1.4</v>
       </c>
-      <c r="T132" s="71"/>
+      <c r="T132" s="93"/>
     </row>
     <row r="133" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A133" s="136" t="s">
+      <c r="A133" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="B133" s="80"/>
-      <c r="C133" s="125">
+      <c r="B133" s="115"/>
+      <c r="C133" s="145">
         <v>300</v>
       </c>
-      <c r="D133" s="71"/>
-      <c r="E133" s="126">
+      <c r="D133" s="93"/>
+      <c r="E133" s="146">
         <v>4</v>
       </c>
-      <c r="F133" s="71"/>
-      <c r="G133" s="126">
+      <c r="F133" s="93"/>
+      <c r="G133" s="146">
         <v>3</v>
       </c>
-      <c r="H133" s="71"/>
-      <c r="I133" s="125"/>
-      <c r="J133" s="71"/>
-      <c r="K133" s="128">
+      <c r="H133" s="93"/>
+      <c r="I133" s="145"/>
+      <c r="J133" s="93"/>
+      <c r="K133" s="147">
         <v>3.7</v>
       </c>
-      <c r="L133" s="71"/>
-      <c r="M133" s="129">
+      <c r="L133" s="93"/>
+      <c r="M133" s="148">
         <v>153.21</v>
       </c>
-      <c r="N133" s="71"/>
-      <c r="O133" s="129">
+      <c r="N133" s="93"/>
+      <c r="O133" s="148">
         <v>1.7</v>
       </c>
-      <c r="P133" s="71"/>
-      <c r="Q133" s="130">
+      <c r="P133" s="93"/>
+      <c r="Q133" s="149">
         <v>47.76</v>
       </c>
-      <c r="R133" s="78"/>
-      <c r="S133" s="126">
+      <c r="R133" s="100"/>
+      <c r="S133" s="146">
         <v>1.4</v>
       </c>
-      <c r="T133" s="71"/>
+      <c r="T133" s="93"/>
     </row>
     <row r="134" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A134" s="140" t="s">
+      <c r="A134" s="139" t="s">
         <v>131</v>
       </c>
-      <c r="B134" s="111"/>
-      <c r="C134" s="140">
+      <c r="B134" s="66"/>
+      <c r="C134" s="139">
         <v>300</v>
       </c>
-      <c r="D134" s="111"/>
-      <c r="E134" s="137">
+      <c r="D134" s="66"/>
+      <c r="E134" s="136">
         <v>4</v>
       </c>
-      <c r="F134" s="111"/>
-      <c r="G134" s="137">
+      <c r="F134" s="66"/>
+      <c r="G134" s="136">
         <v>3</v>
       </c>
-      <c r="H134" s="111"/>
-      <c r="I134" s="140"/>
-      <c r="J134" s="111"/>
-      <c r="K134" s="141">
+      <c r="H134" s="66"/>
+      <c r="I134" s="139"/>
+      <c r="J134" s="66"/>
+      <c r="K134" s="140">
         <v>3.7</v>
       </c>
-      <c r="L134" s="111"/>
-      <c r="M134" s="142">
+      <c r="L134" s="66"/>
+      <c r="M134" s="141">
         <v>153.21</v>
       </c>
-      <c r="N134" s="111"/>
-      <c r="O134" s="142">
+      <c r="N134" s="66"/>
+      <c r="O134" s="141">
         <v>1.7</v>
       </c>
-      <c r="P134" s="111"/>
-      <c r="Q134" s="143">
+      <c r="P134" s="66"/>
+      <c r="Q134" s="142">
         <v>47.85</v>
       </c>
-      <c r="R134" s="144"/>
-      <c r="S134" s="137">
+      <c r="R134" s="64"/>
+      <c r="S134" s="136">
         <v>1.4</v>
       </c>
-      <c r="T134" s="111"/>
+      <c r="T134" s="66"/>
     </row>
     <row r="135" spans="1:20" ht="14.1" customHeight="1">
       <c r="A135" s="27" t="s">
@@ -5244,7 +5256,7 @@
       <c r="J139" s="27"/>
       <c r="K139" s="27"/>
       <c r="L139" s="60" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M139" s="60"/>
       <c r="N139" s="60"/>
@@ -5371,1660 +5383,1660 @@
       <c r="Q144" s="27"/>
     </row>
     <row r="145" spans="1:20" ht="59.25" customHeight="1">
-      <c r="A145" s="138" t="s">
+      <c r="A145" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="B145" s="65"/>
-      <c r="C145" s="138" t="s">
+      <c r="B145" s="91"/>
+      <c r="C145" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="D145" s="65"/>
-      <c r="E145" s="138" t="s">
+      <c r="D145" s="91"/>
+      <c r="E145" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="F145" s="65"/>
-      <c r="G145" s="138" t="s">
+      <c r="F145" s="91"/>
+      <c r="G145" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="H145" s="65"/>
-      <c r="I145" s="138" t="s">
+      <c r="H145" s="91"/>
+      <c r="I145" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="J145" s="65"/>
-      <c r="K145" s="138" t="s">
+      <c r="J145" s="91"/>
+      <c r="K145" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="L145" s="65"/>
-      <c r="M145" s="138" t="s">
+      <c r="L145" s="91"/>
+      <c r="M145" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="N145" s="65"/>
-      <c r="O145" s="138" t="s">
+      <c r="N145" s="91"/>
+      <c r="O145" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="P145" s="65"/>
-      <c r="Q145" s="139" t="s">
+      <c r="P145" s="91"/>
+      <c r="Q145" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="R145" s="65"/>
-      <c r="S145" s="138" t="s">
+      <c r="R145" s="91"/>
+      <c r="S145" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="T145" s="65"/>
+      <c r="T145" s="91"/>
     </row>
     <row r="146" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A146" s="63"/>
-      <c r="B146" s="62"/>
-      <c r="C146" s="61" t="s">
+      <c r="A146" s="165"/>
+      <c r="B146" s="164"/>
+      <c r="C146" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="D146" s="62"/>
-      <c r="E146" s="61" t="s">
+      <c r="D146" s="164"/>
+      <c r="E146" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="F146" s="62"/>
-      <c r="G146" s="61" t="s">
+      <c r="F146" s="164"/>
+      <c r="G146" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="H146" s="62"/>
-      <c r="I146" s="61" t="s">
+      <c r="H146" s="164"/>
+      <c r="I146" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="J146" s="62"/>
-      <c r="K146" s="61" t="s">
+      <c r="J146" s="164"/>
+      <c r="K146" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="L146" s="62"/>
-      <c r="M146" s="61" t="s">
+      <c r="L146" s="164"/>
+      <c r="M146" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="N146" s="62"/>
-      <c r="O146" s="61" t="s">
+      <c r="N146" s="164"/>
+      <c r="O146" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="P146" s="62"/>
-      <c r="Q146" s="61" t="s">
+      <c r="P146" s="164"/>
+      <c r="Q146" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="R146" s="62"/>
-      <c r="S146" s="61" t="s">
+      <c r="R146" s="164"/>
+      <c r="S146" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="T146" s="62"/>
+      <c r="T146" s="164"/>
     </row>
     <row r="147" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A147" s="84" t="s">
+      <c r="A147" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="B147" s="65"/>
-      <c r="C147" s="84">
+      <c r="B147" s="91"/>
+      <c r="C147" s="116">
         <v>40</v>
       </c>
-      <c r="D147" s="65"/>
-      <c r="E147" s="85">
+      <c r="D147" s="91"/>
+      <c r="E147" s="117">
         <v>0.5</v>
       </c>
-      <c r="F147" s="65"/>
-      <c r="G147" s="85"/>
-      <c r="H147" s="65"/>
-      <c r="I147" s="86">
+      <c r="F147" s="91"/>
+      <c r="G147" s="117"/>
+      <c r="H147" s="91"/>
+      <c r="I147" s="118">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J147" s="65"/>
-      <c r="K147" s="87"/>
-      <c r="L147" s="65"/>
-      <c r="M147" s="102">
+      <c r="J147" s="91"/>
+      <c r="K147" s="119"/>
+      <c r="L147" s="91"/>
+      <c r="M147" s="120">
         <v>17.96</v>
       </c>
-      <c r="N147" s="65"/>
-      <c r="O147" s="103">
+      <c r="N147" s="91"/>
+      <c r="O147" s="121">
         <v>1.8</v>
       </c>
-      <c r="P147" s="65"/>
-      <c r="Q147" s="104">
+      <c r="P147" s="91"/>
+      <c r="Q147" s="106">
         <v>51.03</v>
       </c>
-      <c r="R147" s="68"/>
-      <c r="S147" s="85">
+      <c r="R147" s="107"/>
+      <c r="S147" s="117">
         <v>1.4</v>
       </c>
-      <c r="T147" s="65"/>
+      <c r="T147" s="91"/>
     </row>
     <row r="148" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A148" s="92" t="s">
+      <c r="A148" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="B148" s="71"/>
-      <c r="C148" s="92">
+      <c r="B148" s="93"/>
+      <c r="C148" s="109">
         <v>40</v>
       </c>
-      <c r="D148" s="71"/>
-      <c r="E148" s="90">
+      <c r="D148" s="93"/>
+      <c r="E148" s="108">
         <v>1</v>
       </c>
-      <c r="F148" s="71"/>
-      <c r="G148" s="90"/>
-      <c r="H148" s="71"/>
-      <c r="I148" s="93">
+      <c r="F148" s="93"/>
+      <c r="G148" s="108"/>
+      <c r="H148" s="93"/>
+      <c r="I148" s="110">
         <v>0.93</v>
       </c>
-      <c r="J148" s="71"/>
-      <c r="K148" s="91"/>
-      <c r="L148" s="71"/>
-      <c r="M148" s="100">
+      <c r="J148" s="93"/>
+      <c r="K148" s="111"/>
+      <c r="L148" s="93"/>
+      <c r="M148" s="112">
         <v>20.93</v>
       </c>
-      <c r="N148" s="71"/>
-      <c r="O148" s="101">
+      <c r="N148" s="93"/>
+      <c r="O148" s="113">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P148" s="71"/>
-      <c r="Q148" s="77">
+      <c r="P148" s="93"/>
+      <c r="Q148" s="99">
         <v>48.78</v>
       </c>
-      <c r="R148" s="78"/>
-      <c r="S148" s="90">
+      <c r="R148" s="100"/>
+      <c r="S148" s="108">
         <v>1.4</v>
       </c>
-      <c r="T148" s="71"/>
+      <c r="T148" s="93"/>
     </row>
     <row r="149" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A149" s="95" t="s">
+      <c r="A149" s="129" t="s">
         <v>134</v>
       </c>
-      <c r="B149" s="80"/>
-      <c r="C149" s="95">
+      <c r="B149" s="115"/>
+      <c r="C149" s="129">
         <v>40</v>
       </c>
-      <c r="D149" s="80"/>
-      <c r="E149" s="96">
+      <c r="D149" s="115"/>
+      <c r="E149" s="130">
         <v>4</v>
       </c>
-      <c r="F149" s="80"/>
-      <c r="G149" s="96"/>
-      <c r="H149" s="80"/>
-      <c r="I149" s="97">
+      <c r="F149" s="115"/>
+      <c r="G149" s="130"/>
+      <c r="H149" s="115"/>
+      <c r="I149" s="131">
         <v>1.9</v>
       </c>
-      <c r="J149" s="80"/>
-      <c r="K149" s="98">
+      <c r="J149" s="115"/>
+      <c r="K149" s="132">
         <v>0.06</v>
       </c>
-      <c r="L149" s="80"/>
-      <c r="M149" s="99">
+      <c r="L149" s="115"/>
+      <c r="M149" s="133">
         <v>27.07</v>
       </c>
-      <c r="N149" s="80"/>
-      <c r="O149" s="109">
+      <c r="N149" s="115"/>
+      <c r="O149" s="134">
         <v>0.2</v>
       </c>
-      <c r="P149" s="80"/>
-      <c r="Q149" s="107">
+      <c r="P149" s="115"/>
+      <c r="Q149" s="127">
         <v>46.72</v>
       </c>
-      <c r="R149" s="108"/>
-      <c r="S149" s="96">
+      <c r="R149" s="128"/>
+      <c r="S149" s="130">
         <v>1.4</v>
       </c>
-      <c r="T149" s="80"/>
+      <c r="T149" s="115"/>
     </row>
     <row r="150" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A150" s="94" t="s">
+      <c r="A150" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="B150" s="65"/>
-      <c r="C150" s="94">
+      <c r="B150" s="91"/>
+      <c r="C150" s="101">
         <v>50</v>
       </c>
-      <c r="D150" s="65"/>
-      <c r="E150" s="69">
+      <c r="D150" s="91"/>
+      <c r="E150" s="90">
         <v>0.5</v>
       </c>
-      <c r="F150" s="65"/>
-      <c r="G150" s="69"/>
-      <c r="H150" s="65"/>
-      <c r="I150" s="112">
+      <c r="F150" s="91"/>
+      <c r="G150" s="90"/>
+      <c r="H150" s="91"/>
+      <c r="I150" s="102">
         <v>0.68</v>
       </c>
-      <c r="J150" s="65"/>
-      <c r="K150" s="113"/>
-      <c r="L150" s="65"/>
-      <c r="M150" s="88">
+      <c r="J150" s="91"/>
+      <c r="K150" s="103"/>
+      <c r="L150" s="91"/>
+      <c r="M150" s="104">
         <v>19.5</v>
       </c>
-      <c r="N150" s="65"/>
-      <c r="O150" s="89">
+      <c r="N150" s="91"/>
+      <c r="O150" s="105">
         <v>2.7</v>
       </c>
-      <c r="P150" s="65"/>
-      <c r="Q150" s="104">
+      <c r="P150" s="91"/>
+      <c r="Q150" s="106">
         <v>50.26</v>
       </c>
-      <c r="R150" s="68"/>
-      <c r="S150" s="69">
+      <c r="R150" s="107"/>
+      <c r="S150" s="90">
         <v>1.4</v>
       </c>
-      <c r="T150" s="65"/>
+      <c r="T150" s="91"/>
     </row>
     <row r="151" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A151" s="70" t="s">
+      <c r="A151" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="71"/>
-      <c r="C151" s="70">
+      <c r="B151" s="93"/>
+      <c r="C151" s="92">
         <v>50</v>
       </c>
-      <c r="D151" s="71"/>
-      <c r="E151" s="72">
+      <c r="D151" s="93"/>
+      <c r="E151" s="94">
         <v>1</v>
       </c>
-      <c r="F151" s="71"/>
-      <c r="G151" s="72"/>
-      <c r="H151" s="71"/>
-      <c r="I151" s="73">
+      <c r="F151" s="93"/>
+      <c r="G151" s="94"/>
+      <c r="H151" s="93"/>
+      <c r="I151" s="95">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J151" s="71"/>
-      <c r="K151" s="74"/>
-      <c r="L151" s="71"/>
-      <c r="M151" s="75">
+      <c r="J151" s="93"/>
+      <c r="K151" s="96"/>
+      <c r="L151" s="93"/>
+      <c r="M151" s="97">
         <v>22.65</v>
       </c>
-      <c r="N151" s="71"/>
-      <c r="O151" s="76">
+      <c r="N151" s="93"/>
+      <c r="O151" s="98">
         <v>1.6</v>
       </c>
-      <c r="P151" s="71"/>
-      <c r="Q151" s="77">
+      <c r="P151" s="93"/>
+      <c r="Q151" s="99">
         <v>48.32</v>
       </c>
-      <c r="R151" s="78"/>
-      <c r="S151" s="72">
+      <c r="R151" s="100"/>
+      <c r="S151" s="94">
         <v>1.4</v>
       </c>
-      <c r="T151" s="71"/>
+      <c r="T151" s="93"/>
     </row>
     <row r="152" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A152" s="92" t="s">
+      <c r="A152" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="B152" s="71"/>
-      <c r="C152" s="92">
+      <c r="B152" s="93"/>
+      <c r="C152" s="109">
         <v>50</v>
       </c>
-      <c r="D152" s="71"/>
-      <c r="E152" s="90">
+      <c r="D152" s="93"/>
+      <c r="E152" s="108">
         <v>4</v>
       </c>
-      <c r="F152" s="71"/>
-      <c r="G152" s="90"/>
-      <c r="H152" s="71"/>
-      <c r="I152" s="93">
+      <c r="F152" s="93"/>
+      <c r="G152" s="108"/>
+      <c r="H152" s="93"/>
+      <c r="I152" s="110">
         <v>2.39</v>
       </c>
-      <c r="J152" s="71"/>
-      <c r="K152" s="91">
+      <c r="J152" s="93"/>
+      <c r="K152" s="111">
         <v>0.08</v>
       </c>
-      <c r="L152" s="71"/>
-      <c r="M152" s="100">
+      <c r="L152" s="93"/>
+      <c r="M152" s="112">
         <v>29.93</v>
       </c>
-      <c r="N152" s="71"/>
-      <c r="O152" s="101">
+      <c r="N152" s="93"/>
+      <c r="O152" s="113">
         <v>0.4</v>
       </c>
-      <c r="P152" s="71"/>
-      <c r="Q152" s="77">
+      <c r="P152" s="93"/>
+      <c r="Q152" s="99">
         <v>46.6</v>
       </c>
-      <c r="R152" s="78"/>
-      <c r="S152" s="90">
+      <c r="R152" s="100"/>
+      <c r="S152" s="108">
         <v>1.4</v>
       </c>
-      <c r="T152" s="71"/>
+      <c r="T152" s="93"/>
     </row>
     <row r="153" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A153" s="95" t="s">
+      <c r="A153" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="B153" s="80"/>
-      <c r="C153" s="95">
+      <c r="B153" s="115"/>
+      <c r="C153" s="129">
         <v>50</v>
       </c>
-      <c r="D153" s="80"/>
-      <c r="E153" s="96">
+      <c r="D153" s="115"/>
+      <c r="E153" s="130">
         <v>4.5</v>
       </c>
-      <c r="F153" s="80"/>
-      <c r="G153" s="96"/>
-      <c r="H153" s="80"/>
-      <c r="I153" s="97">
+      <c r="F153" s="115"/>
+      <c r="G153" s="130"/>
+      <c r="H153" s="115"/>
+      <c r="I153" s="131">
         <v>2.5299999999999998</v>
       </c>
-      <c r="J153" s="80"/>
-      <c r="K153" s="98">
+      <c r="J153" s="115"/>
+      <c r="K153" s="132">
         <v>0.08</v>
       </c>
-      <c r="L153" s="80"/>
-      <c r="M153" s="99">
+      <c r="L153" s="115"/>
+      <c r="M153" s="133">
         <v>30.62</v>
       </c>
-      <c r="N153" s="80"/>
-      <c r="O153" s="109">
+      <c r="N153" s="115"/>
+      <c r="O153" s="134">
         <v>0.3</v>
       </c>
-      <c r="P153" s="80"/>
-      <c r="Q153" s="107">
+      <c r="P153" s="115"/>
+      <c r="Q153" s="127">
         <v>46.51</v>
       </c>
-      <c r="R153" s="108"/>
-      <c r="S153" s="96">
+      <c r="R153" s="128"/>
+      <c r="S153" s="130">
         <v>1.4</v>
       </c>
-      <c r="T153" s="80"/>
+      <c r="T153" s="115"/>
     </row>
     <row r="154" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A154" s="94" t="s">
+      <c r="A154" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="B154" s="65"/>
-      <c r="C154" s="94">
+      <c r="B154" s="91"/>
+      <c r="C154" s="101">
         <v>60</v>
       </c>
-      <c r="D154" s="65"/>
-      <c r="E154" s="69">
+      <c r="D154" s="91"/>
+      <c r="E154" s="90">
         <v>0.5</v>
       </c>
-      <c r="F154" s="65"/>
-      <c r="G154" s="69"/>
-      <c r="H154" s="65"/>
-      <c r="I154" s="112">
+      <c r="F154" s="91"/>
+      <c r="G154" s="90"/>
+      <c r="H154" s="91"/>
+      <c r="I154" s="102">
         <v>0.79</v>
       </c>
-      <c r="J154" s="65"/>
-      <c r="K154" s="113"/>
-      <c r="L154" s="65"/>
-      <c r="M154" s="88">
+      <c r="J154" s="91"/>
+      <c r="K154" s="103"/>
+      <c r="L154" s="91"/>
+      <c r="M154" s="104">
         <v>20.86</v>
       </c>
-      <c r="N154" s="65"/>
-      <c r="O154" s="89">
+      <c r="N154" s="91"/>
+      <c r="O154" s="105">
         <v>3.5</v>
       </c>
-      <c r="P154" s="65"/>
-      <c r="Q154" s="104">
+      <c r="P154" s="91"/>
+      <c r="Q154" s="106">
         <v>49.76</v>
       </c>
-      <c r="R154" s="68"/>
-      <c r="S154" s="69">
+      <c r="R154" s="107"/>
+      <c r="S154" s="90">
         <v>1.4</v>
       </c>
-      <c r="T154" s="65"/>
+      <c r="T154" s="91"/>
     </row>
     <row r="155" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A155" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="B155" s="71"/>
-      <c r="C155" s="70">
+      <c r="A155" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="B155" s="93"/>
+      <c r="C155" s="92">
         <v>60</v>
       </c>
-      <c r="D155" s="71"/>
-      <c r="E155" s="72">
+      <c r="D155" s="93"/>
+      <c r="E155" s="94">
         <v>1</v>
       </c>
-      <c r="F155" s="71"/>
-      <c r="G155" s="72"/>
-      <c r="H155" s="71"/>
-      <c r="I155" s="73">
+      <c r="F155" s="93"/>
+      <c r="G155" s="94"/>
+      <c r="H155" s="93"/>
+      <c r="I155" s="95">
         <v>1.29</v>
       </c>
-      <c r="J155" s="71"/>
-      <c r="K155" s="74"/>
-      <c r="L155" s="71"/>
-      <c r="M155" s="75">
+      <c r="J155" s="93"/>
+      <c r="K155" s="96"/>
+      <c r="L155" s="93"/>
+      <c r="M155" s="97">
         <v>24.09</v>
       </c>
-      <c r="N155" s="71"/>
-      <c r="O155" s="76">
+      <c r="N155" s="93"/>
+      <c r="O155" s="98">
         <v>2.1</v>
       </c>
-      <c r="P155" s="71"/>
-      <c r="Q155" s="77">
+      <c r="P155" s="93"/>
+      <c r="Q155" s="99">
         <v>48.06</v>
       </c>
-      <c r="R155" s="78"/>
-      <c r="S155" s="72">
+      <c r="R155" s="100"/>
+      <c r="S155" s="94">
         <v>1.4</v>
       </c>
-      <c r="T155" s="71"/>
+      <c r="T155" s="93"/>
     </row>
     <row r="156" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A156" s="79" t="s">
+      <c r="A156" s="122" t="s">
+        <v>141</v>
+      </c>
+      <c r="B156" s="115"/>
+      <c r="C156" s="122">
+        <v>60</v>
+      </c>
+      <c r="D156" s="115"/>
+      <c r="E156" s="114">
+        <v>4</v>
+      </c>
+      <c r="F156" s="115"/>
+      <c r="G156" s="114"/>
+      <c r="H156" s="115"/>
+      <c r="I156" s="123">
+        <v>2.81</v>
+      </c>
+      <c r="J156" s="115"/>
+      <c r="K156" s="124">
+        <v>0.1</v>
+      </c>
+      <c r="L156" s="115"/>
+      <c r="M156" s="125">
+        <v>32.25</v>
+      </c>
+      <c r="N156" s="115"/>
+      <c r="O156" s="126">
+        <v>0.6</v>
+      </c>
+      <c r="P156" s="115"/>
+      <c r="Q156" s="127">
+        <v>46.7</v>
+      </c>
+      <c r="R156" s="128"/>
+      <c r="S156" s="114">
+        <v>1.4</v>
+      </c>
+      <c r="T156" s="115"/>
+    </row>
+    <row r="157" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A157" s="116" t="s">
+        <v>142</v>
+      </c>
+      <c r="B157" s="91"/>
+      <c r="C157" s="116">
+        <v>70</v>
+      </c>
+      <c r="D157" s="91"/>
+      <c r="E157" s="117">
+        <v>0.5</v>
+      </c>
+      <c r="F157" s="91"/>
+      <c r="G157" s="117"/>
+      <c r="H157" s="91"/>
+      <c r="I157" s="118">
+        <v>0.9</v>
+      </c>
+      <c r="J157" s="91"/>
+      <c r="K157" s="119"/>
+      <c r="L157" s="91"/>
+      <c r="M157" s="120">
+        <v>22.15</v>
+      </c>
+      <c r="N157" s="91"/>
+      <c r="O157" s="121">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P157" s="91"/>
+      <c r="Q157" s="106">
+        <v>49.35</v>
+      </c>
+      <c r="R157" s="107"/>
+      <c r="S157" s="117">
+        <v>1.4</v>
+      </c>
+      <c r="T157" s="91"/>
+    </row>
+    <row r="158" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A158" s="109" t="s">
+        <v>143</v>
+      </c>
+      <c r="B158" s="93"/>
+      <c r="C158" s="109">
+        <v>70</v>
+      </c>
+      <c r="D158" s="93"/>
+      <c r="E158" s="108">
+        <v>1</v>
+      </c>
+      <c r="F158" s="93"/>
+      <c r="G158" s="108"/>
+      <c r="H158" s="93"/>
+      <c r="I158" s="110">
+        <v>1.46</v>
+      </c>
+      <c r="J158" s="93"/>
+      <c r="K158" s="111"/>
+      <c r="L158" s="93"/>
+      <c r="M158" s="112">
+        <v>25.44</v>
+      </c>
+      <c r="N158" s="93"/>
+      <c r="O158" s="113">
+        <v>2.6</v>
+      </c>
+      <c r="P158" s="93"/>
+      <c r="Q158" s="99">
+        <v>47.87</v>
+      </c>
+      <c r="R158" s="100"/>
+      <c r="S158" s="108">
+        <v>1.4</v>
+      </c>
+      <c r="T158" s="93"/>
+    </row>
+    <row r="159" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A159" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="B159" s="93"/>
+      <c r="C159" s="92">
+        <v>70</v>
+      </c>
+      <c r="D159" s="93"/>
+      <c r="E159" s="94">
+        <v>4</v>
+      </c>
+      <c r="F159" s="93"/>
+      <c r="G159" s="94"/>
+      <c r="H159" s="93"/>
+      <c r="I159" s="95">
+        <v>3.19</v>
+      </c>
+      <c r="J159" s="93"/>
+      <c r="K159" s="96">
+        <v>0.11</v>
+      </c>
+      <c r="L159" s="93"/>
+      <c r="M159" s="97">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="N159" s="93"/>
+      <c r="O159" s="98">
+        <v>0.8</v>
+      </c>
+      <c r="P159" s="93"/>
+      <c r="Q159" s="99">
+        <v>46.74</v>
+      </c>
+      <c r="R159" s="100"/>
+      <c r="S159" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T159" s="93"/>
+    </row>
+    <row r="160" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A160" s="109" t="s">
+        <v>145</v>
+      </c>
+      <c r="B160" s="93"/>
+      <c r="C160" s="109">
+        <v>70</v>
+      </c>
+      <c r="D160" s="93"/>
+      <c r="E160" s="108">
+        <v>4.5</v>
+      </c>
+      <c r="F160" s="93"/>
+      <c r="G160" s="108"/>
+      <c r="H160" s="93"/>
+      <c r="I160" s="110">
+        <v>3.39</v>
+      </c>
+      <c r="J160" s="93"/>
+      <c r="K160" s="111">
+        <v>0.12</v>
+      </c>
+      <c r="L160" s="93"/>
+      <c r="M160" s="112">
+        <v>35.19</v>
+      </c>
+      <c r="N160" s="93"/>
+      <c r="O160" s="113">
+        <v>0.7</v>
+      </c>
+      <c r="P160" s="93"/>
+      <c r="Q160" s="99">
+        <v>46.7</v>
+      </c>
+      <c r="R160" s="100"/>
+      <c r="S160" s="108">
+        <v>1.4</v>
+      </c>
+      <c r="T160" s="93"/>
+    </row>
+    <row r="161" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A161" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="B161" s="93"/>
+      <c r="C161" s="92">
+        <v>70</v>
+      </c>
+      <c r="D161" s="93"/>
+      <c r="E161" s="94">
+        <v>6</v>
+      </c>
+      <c r="F161" s="93"/>
+      <c r="G161" s="94"/>
+      <c r="H161" s="93"/>
+      <c r="I161" s="95">
+        <v>3.95</v>
+      </c>
+      <c r="J161" s="93"/>
+      <c r="K161" s="96">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L161" s="93"/>
+      <c r="M161" s="97">
+        <v>37.51</v>
+      </c>
+      <c r="N161" s="93"/>
+      <c r="O161" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="P161" s="93"/>
+      <c r="Q161" s="99">
+        <v>46.63</v>
+      </c>
+      <c r="R161" s="100"/>
+      <c r="S161" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T161" s="93"/>
+    </row>
+    <row r="162" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A162" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="B162" s="91"/>
+      <c r="C162" s="101">
+        <v>80</v>
+      </c>
+      <c r="D162" s="91"/>
+      <c r="E162" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="F162" s="91"/>
+      <c r="G162" s="90"/>
+      <c r="H162" s="91"/>
+      <c r="I162" s="102">
+        <v>1.02</v>
+      </c>
+      <c r="J162" s="91"/>
+      <c r="K162" s="103"/>
+      <c r="L162" s="91"/>
+      <c r="M162" s="104">
+        <v>23.48</v>
+      </c>
+      <c r="N162" s="91"/>
+      <c r="O162" s="105">
+        <v>4.8</v>
+      </c>
+      <c r="P162" s="91"/>
+      <c r="Q162" s="106">
+        <v>49.06</v>
+      </c>
+      <c r="R162" s="107"/>
+      <c r="S162" s="90">
+        <v>1.4</v>
+      </c>
+      <c r="T162" s="91"/>
+    </row>
+    <row r="163" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A163" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="B163" s="93"/>
+      <c r="C163" s="92">
+        <v>80</v>
+      </c>
+      <c r="D163" s="93"/>
+      <c r="E163" s="94">
+        <v>1</v>
+      </c>
+      <c r="F163" s="93"/>
+      <c r="G163" s="94"/>
+      <c r="H163" s="93"/>
+      <c r="I163" s="95">
+        <v>1.64</v>
+      </c>
+      <c r="J163" s="93"/>
+      <c r="K163" s="96"/>
+      <c r="L163" s="93"/>
+      <c r="M163" s="97">
+        <v>26.84</v>
+      </c>
+      <c r="N163" s="93"/>
+      <c r="O163" s="98">
+        <v>3.2</v>
+      </c>
+      <c r="P163" s="93"/>
+      <c r="Q163" s="99">
+        <v>47.74</v>
+      </c>
+      <c r="R163" s="100"/>
+      <c r="S163" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T163" s="93"/>
+    </row>
+    <row r="164" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A164" s="122" t="s">
+        <v>149</v>
+      </c>
+      <c r="B164" s="115"/>
+      <c r="C164" s="122">
+        <v>80</v>
+      </c>
+      <c r="D164" s="115"/>
+      <c r="E164" s="114">
+        <v>4</v>
+      </c>
+      <c r="F164" s="115"/>
+      <c r="G164" s="114"/>
+      <c r="H164" s="115"/>
+      <c r="I164" s="123">
+        <v>3.62</v>
+      </c>
+      <c r="J164" s="115"/>
+      <c r="K164" s="124">
+        <v>0.13</v>
+      </c>
+      <c r="L164" s="115"/>
+      <c r="M164" s="125">
+        <v>36.33</v>
+      </c>
+      <c r="N164" s="115"/>
+      <c r="O164" s="126">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P164" s="115"/>
+      <c r="Q164" s="127">
+        <v>46.8</v>
+      </c>
+      <c r="R164" s="128"/>
+      <c r="S164" s="114">
+        <v>1.4</v>
+      </c>
+      <c r="T164" s="115"/>
+    </row>
+    <row r="165" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A165" s="116" t="s">
+        <v>150</v>
+      </c>
+      <c r="B165" s="91"/>
+      <c r="C165" s="116">
+        <v>90</v>
+      </c>
+      <c r="D165" s="91"/>
+      <c r="E165" s="117">
+        <v>0.5</v>
+      </c>
+      <c r="F165" s="91"/>
+      <c r="G165" s="117"/>
+      <c r="H165" s="91"/>
+      <c r="I165" s="118">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J165" s="91"/>
+      <c r="K165" s="119"/>
+      <c r="L165" s="91"/>
+      <c r="M165" s="120">
+        <v>24.88</v>
+      </c>
+      <c r="N165" s="91"/>
+      <c r="O165" s="121">
+        <v>5.5</v>
+      </c>
+      <c r="P165" s="91"/>
+      <c r="Q165" s="106">
+        <v>48.8</v>
+      </c>
+      <c r="R165" s="107"/>
+      <c r="S165" s="117">
+        <v>1.4</v>
+      </c>
+      <c r="T165" s="91"/>
+    </row>
+    <row r="166" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A166" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B166" s="93"/>
+      <c r="C166" s="109">
+        <v>90</v>
+      </c>
+      <c r="D166" s="93"/>
+      <c r="E166" s="108">
+        <v>1</v>
+      </c>
+      <c r="F166" s="93"/>
+      <c r="G166" s="108"/>
+      <c r="H166" s="93"/>
+      <c r="I166" s="110">
+        <v>1.84</v>
+      </c>
+      <c r="J166" s="93"/>
+      <c r="K166" s="111"/>
+      <c r="L166" s="93"/>
+      <c r="M166" s="112">
+        <v>28.32</v>
+      </c>
+      <c r="N166" s="93"/>
+      <c r="O166" s="113">
+        <v>3.7</v>
+      </c>
+      <c r="P166" s="93"/>
+      <c r="Q166" s="99">
+        <v>47.61</v>
+      </c>
+      <c r="R166" s="100"/>
+      <c r="S166" s="108">
+        <v>1.4</v>
+      </c>
+      <c r="T166" s="93"/>
+    </row>
+    <row r="167" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A167" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="B167" s="93"/>
+      <c r="C167" s="92">
+        <v>90</v>
+      </c>
+      <c r="D167" s="93"/>
+      <c r="E167" s="94">
+        <v>4</v>
+      </c>
+      <c r="F167" s="93"/>
+      <c r="G167" s="94"/>
+      <c r="H167" s="93"/>
+      <c r="I167" s="95">
+        <v>4.04</v>
+      </c>
+      <c r="J167" s="93"/>
+      <c r="K167" s="96">
+        <v>0.15</v>
+      </c>
+      <c r="L167" s="93"/>
+      <c r="M167" s="97">
+        <v>38.380000000000003</v>
+      </c>
+      <c r="N167" s="93"/>
+      <c r="O167" s="98">
+        <v>1.4</v>
+      </c>
+      <c r="P167" s="93"/>
+      <c r="Q167" s="99">
+        <v>46.89</v>
+      </c>
+      <c r="R167" s="100"/>
+      <c r="S167" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T167" s="93"/>
+    </row>
+    <row r="168" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A168" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B168" s="91"/>
+      <c r="C168" s="101">
+        <v>100</v>
+      </c>
+      <c r="D168" s="91"/>
+      <c r="E168" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="F168" s="91"/>
+      <c r="G168" s="90"/>
+      <c r="H168" s="91"/>
+      <c r="I168" s="102">
+        <v>1.3</v>
+      </c>
+      <c r="J168" s="91"/>
+      <c r="K168" s="103"/>
+      <c r="L168" s="91"/>
+      <c r="M168" s="104">
+        <v>26.34</v>
+      </c>
+      <c r="N168" s="91"/>
+      <c r="O168" s="105">
+        <v>6.1</v>
+      </c>
+      <c r="P168" s="91"/>
+      <c r="Q168" s="106">
+        <v>48.59</v>
+      </c>
+      <c r="R168" s="107"/>
+      <c r="S168" s="90">
+        <v>1.4</v>
+      </c>
+      <c r="T168" s="91"/>
+    </row>
+    <row r="169" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A169" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B169" s="93"/>
+      <c r="C169" s="92">
+        <v>100</v>
+      </c>
+      <c r="D169" s="93"/>
+      <c r="E169" s="94">
+        <v>1</v>
+      </c>
+      <c r="F169" s="93"/>
+      <c r="G169" s="94"/>
+      <c r="H169" s="93"/>
+      <c r="I169" s="95">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J169" s="93"/>
+      <c r="K169" s="96"/>
+      <c r="L169" s="93"/>
+      <c r="M169" s="97">
+        <v>29.87</v>
+      </c>
+      <c r="N169" s="93"/>
+      <c r="O169" s="98">
+        <v>4.3</v>
+      </c>
+      <c r="P169" s="93"/>
+      <c r="Q169" s="99">
+        <v>47.54</v>
+      </c>
+      <c r="R169" s="100"/>
+      <c r="S169" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T169" s="93"/>
+    </row>
+    <row r="170" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A170" s="109" t="s">
+        <v>155</v>
+      </c>
+      <c r="B170" s="93"/>
+      <c r="C170" s="109">
+        <v>100</v>
+      </c>
+      <c r="D170" s="93"/>
+      <c r="E170" s="108">
+        <v>4.5</v>
+      </c>
+      <c r="F170" s="93"/>
+      <c r="G170" s="108"/>
+      <c r="H170" s="93"/>
+      <c r="I170" s="110">
+        <v>4.74</v>
+      </c>
+      <c r="J170" s="93"/>
+      <c r="K170" s="111">
+        <v>0.18</v>
+      </c>
+      <c r="L170" s="93"/>
+      <c r="M170" s="112">
+        <v>41.59</v>
+      </c>
+      <c r="N170" s="93"/>
+      <c r="O170" s="113">
+        <v>1.6</v>
+      </c>
+      <c r="P170" s="93"/>
+      <c r="Q170" s="99">
+        <v>46.94</v>
+      </c>
+      <c r="R170" s="100"/>
+      <c r="S170" s="108">
+        <v>1.4</v>
+      </c>
+      <c r="T170" s="93"/>
+    </row>
+    <row r="171" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A171" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="B171" s="93"/>
+      <c r="C171" s="92">
+        <v>100</v>
+      </c>
+      <c r="D171" s="93"/>
+      <c r="E171" s="94">
+        <v>6</v>
+      </c>
+      <c r="F171" s="93"/>
+      <c r="G171" s="94"/>
+      <c r="H171" s="93"/>
+      <c r="I171" s="95">
+        <v>5.49</v>
+      </c>
+      <c r="J171" s="93"/>
+      <c r="K171" s="96">
+        <v>0.22</v>
+      </c>
+      <c r="L171" s="93"/>
+      <c r="M171" s="97">
+        <v>44.58</v>
+      </c>
+      <c r="N171" s="93"/>
+      <c r="O171" s="98">
+        <v>1.2</v>
+      </c>
+      <c r="P171" s="93"/>
+      <c r="Q171" s="99">
+        <v>47.02</v>
+      </c>
+      <c r="R171" s="100"/>
+      <c r="S171" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T171" s="93"/>
+    </row>
+    <row r="172" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A172" s="122" t="s">
+        <v>157</v>
+      </c>
+      <c r="B172" s="115"/>
+      <c r="C172" s="122">
+        <v>100</v>
+      </c>
+      <c r="D172" s="115"/>
+      <c r="E172" s="114">
+        <v>9</v>
+      </c>
+      <c r="F172" s="115"/>
+      <c r="G172" s="114"/>
+      <c r="H172" s="115"/>
+      <c r="I172" s="123">
+        <v>6.61</v>
+      </c>
+      <c r="J172" s="115"/>
+      <c r="K172" s="124">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L172" s="115"/>
+      <c r="M172" s="125">
+        <v>49.08</v>
+      </c>
+      <c r="N172" s="115"/>
+      <c r="O172" s="126">
+        <v>0.8</v>
+      </c>
+      <c r="P172" s="115"/>
+      <c r="Q172" s="127">
+        <v>47.12</v>
+      </c>
+      <c r="R172" s="128"/>
+      <c r="S172" s="114">
+        <v>1.4</v>
+      </c>
+      <c r="T172" s="115"/>
+    </row>
+    <row r="173" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A173" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="B173" s="93"/>
+      <c r="C173" s="92">
+        <v>120</v>
+      </c>
+      <c r="D173" s="93"/>
+      <c r="E173" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="F173" s="93"/>
+      <c r="G173" s="94"/>
+      <c r="H173" s="93"/>
+      <c r="I173" s="95">
+        <v>5.56</v>
+      </c>
+      <c r="J173" s="93"/>
+      <c r="K173" s="96">
+        <v>0.23</v>
+      </c>
+      <c r="L173" s="93"/>
+      <c r="M173" s="97">
+        <v>45.74</v>
+      </c>
+      <c r="N173" s="93"/>
+      <c r="O173" s="98">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P173" s="93"/>
+      <c r="Q173" s="99">
+        <v>47.04</v>
+      </c>
+      <c r="R173" s="100"/>
+      <c r="S173" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T173" s="93"/>
+    </row>
+    <row r="174" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A174" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="B174" s="93"/>
+      <c r="C174" s="109">
+        <v>120</v>
+      </c>
+      <c r="D174" s="93"/>
+      <c r="E174" s="108">
+        <v>6</v>
+      </c>
+      <c r="F174" s="93"/>
+      <c r="G174" s="108"/>
+      <c r="H174" s="93"/>
+      <c r="I174" s="110">
+        <v>6.38</v>
+      </c>
+      <c r="J174" s="93"/>
+      <c r="K174" s="111">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L174" s="93"/>
+      <c r="M174" s="112">
+        <v>48.95</v>
+      </c>
+      <c r="N174" s="93"/>
+      <c r="O174" s="113">
+        <v>1.8</v>
+      </c>
+      <c r="P174" s="93"/>
+      <c r="Q174" s="99">
+        <v>47.12</v>
+      </c>
+      <c r="R174" s="100"/>
+      <c r="S174" s="108">
+        <v>1.4</v>
+      </c>
+      <c r="T174" s="93"/>
+    </row>
+    <row r="175" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A175" s="92" t="s">
+        <v>160</v>
+      </c>
+      <c r="B175" s="93"/>
+      <c r="C175" s="92">
+        <v>120</v>
+      </c>
+      <c r="D175" s="93"/>
+      <c r="E175" s="94">
+        <v>9</v>
+      </c>
+      <c r="F175" s="93"/>
+      <c r="G175" s="94"/>
+      <c r="H175" s="93"/>
+      <c r="I175" s="95">
+        <v>7.59</v>
+      </c>
+      <c r="J175" s="93"/>
+      <c r="K175" s="96">
+        <v>0.37</v>
+      </c>
+      <c r="L175" s="93"/>
+      <c r="M175" s="97">
+        <v>53.75</v>
+      </c>
+      <c r="N175" s="93"/>
+      <c r="O175" s="98">
+        <v>1.2</v>
+      </c>
+      <c r="P175" s="93"/>
+      <c r="Q175" s="99">
+        <v>47.24</v>
+      </c>
+      <c r="R175" s="100"/>
+      <c r="S175" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T175" s="93"/>
+    </row>
+    <row r="176" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A176" s="122" t="s">
+        <v>161</v>
+      </c>
+      <c r="B176" s="115"/>
+      <c r="C176" s="122">
+        <v>120</v>
+      </c>
+      <c r="D176" s="115"/>
+      <c r="E176" s="114">
+        <v>4</v>
+      </c>
+      <c r="F176" s="115"/>
+      <c r="G176" s="114">
+        <v>0.5</v>
+      </c>
+      <c r="H176" s="115"/>
+      <c r="I176" s="123">
+        <v>10.31</v>
+      </c>
+      <c r="J176" s="115"/>
+      <c r="K176" s="124">
+        <v>0.63</v>
+      </c>
+      <c r="L176" s="115"/>
+      <c r="M176" s="125">
+        <v>65</v>
+      </c>
+      <c r="N176" s="115"/>
+      <c r="O176" s="126">
+        <v>0.7</v>
+      </c>
+      <c r="P176" s="115"/>
+      <c r="Q176" s="127">
+        <v>47.56</v>
+      </c>
+      <c r="R176" s="128"/>
+      <c r="S176" s="114">
+        <v>1.4</v>
+      </c>
+      <c r="T176" s="115"/>
+    </row>
+    <row r="177" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A177" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="B177" s="91"/>
+      <c r="C177" s="116">
         <v>140</v>
       </c>
-      <c r="B156" s="80"/>
-      <c r="C156" s="79">
-        <v>60</v>
-      </c>
-      <c r="D156" s="80"/>
-      <c r="E156" s="81">
+      <c r="D177" s="91"/>
+      <c r="E177" s="117">
+        <v>4.5</v>
+      </c>
+      <c r="F177" s="91"/>
+      <c r="G177" s="117"/>
+      <c r="H177" s="91"/>
+      <c r="I177" s="118">
+        <v>6.33</v>
+      </c>
+      <c r="J177" s="91"/>
+      <c r="K177" s="119">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L177" s="91"/>
+      <c r="M177" s="120">
+        <v>49.87</v>
+      </c>
+      <c r="N177" s="91"/>
+      <c r="O177" s="121">
+        <v>3</v>
+      </c>
+      <c r="P177" s="91"/>
+      <c r="Q177" s="106">
+        <v>47.1</v>
+      </c>
+      <c r="R177" s="107"/>
+      <c r="S177" s="117">
+        <v>1.4</v>
+      </c>
+      <c r="T177" s="91"/>
+    </row>
+    <row r="178" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A178" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="B178" s="93"/>
+      <c r="C178" s="109">
+        <v>140</v>
+      </c>
+      <c r="D178" s="93"/>
+      <c r="E178" s="108">
+        <v>6</v>
+      </c>
+      <c r="F178" s="93"/>
+      <c r="G178" s="108"/>
+      <c r="H178" s="93"/>
+      <c r="I178" s="110">
+        <v>7.2</v>
+      </c>
+      <c r="J178" s="93"/>
+      <c r="K178" s="111">
+        <v>0.34</v>
+      </c>
+      <c r="L178" s="93"/>
+      <c r="M178" s="112">
+        <v>53.14</v>
+      </c>
+      <c r="N178" s="93"/>
+      <c r="O178" s="113">
+        <v>2.5</v>
+      </c>
+      <c r="P178" s="93"/>
+      <c r="Q178" s="99">
+        <v>47.18</v>
+      </c>
+      <c r="R178" s="100"/>
+      <c r="S178" s="108">
+        <v>1.4</v>
+      </c>
+      <c r="T178" s="93"/>
+    </row>
+    <row r="179" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A179" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="B179" s="93"/>
+      <c r="C179" s="92">
+        <v>140</v>
+      </c>
+      <c r="D179" s="93"/>
+      <c r="E179" s="94">
+        <v>9</v>
+      </c>
+      <c r="F179" s="93"/>
+      <c r="G179" s="94"/>
+      <c r="H179" s="93"/>
+      <c r="I179" s="95">
+        <v>8.44</v>
+      </c>
+      <c r="J179" s="93"/>
+      <c r="K179" s="96">
+        <v>0.45</v>
+      </c>
+      <c r="L179" s="93"/>
+      <c r="M179" s="97">
+        <v>58.06</v>
+      </c>
+      <c r="N179" s="93"/>
+      <c r="O179" s="98">
+        <v>1.8</v>
+      </c>
+      <c r="P179" s="93"/>
+      <c r="Q179" s="99">
+        <v>47.32</v>
+      </c>
+      <c r="R179" s="100"/>
+      <c r="S179" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T179" s="93"/>
+    </row>
+    <row r="180" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A180" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="B180" s="93"/>
+      <c r="C180" s="109">
+        <v>140</v>
+      </c>
+      <c r="D180" s="93"/>
+      <c r="E180" s="108">
         <v>4</v>
       </c>
-      <c r="F156" s="80"/>
-      <c r="G156" s="81"/>
-      <c r="H156" s="80"/>
-      <c r="I156" s="82">
-        <v>2.81</v>
-      </c>
-      <c r="J156" s="80"/>
-      <c r="K156" s="83">
-        <v>0.1</v>
-      </c>
-      <c r="L156" s="80"/>
-      <c r="M156" s="105">
-        <v>32.25</v>
-      </c>
-      <c r="N156" s="80"/>
-      <c r="O156" s="106">
+      <c r="F180" s="93"/>
+      <c r="G180" s="108">
+        <v>0.5</v>
+      </c>
+      <c r="H180" s="93"/>
+      <c r="I180" s="110"/>
+      <c r="J180" s="93"/>
+      <c r="K180" s="111">
+        <v>0.77</v>
+      </c>
+      <c r="L180" s="93"/>
+      <c r="M180" s="112">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="N180" s="93"/>
+      <c r="O180" s="113">
+        <v>1.2</v>
+      </c>
+      <c r="P180" s="93"/>
+      <c r="Q180" s="99">
+        <v>47.62</v>
+      </c>
+      <c r="R180" s="100"/>
+      <c r="S180" s="108">
+        <v>1.4</v>
+      </c>
+      <c r="T180" s="93"/>
+    </row>
+    <row r="181" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A181" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="B181" s="115"/>
+      <c r="C181" s="129">
+        <v>140</v>
+      </c>
+      <c r="D181" s="115"/>
+      <c r="E181" s="130">
+        <v>4</v>
+      </c>
+      <c r="F181" s="115"/>
+      <c r="G181" s="130">
+        <v>1</v>
+      </c>
+      <c r="H181" s="115"/>
+      <c r="I181" s="131"/>
+      <c r="J181" s="115"/>
+      <c r="K181" s="132">
+        <v>1.03</v>
+      </c>
+      <c r="L181" s="115"/>
+      <c r="M181" s="133">
+        <v>78.52</v>
+      </c>
+      <c r="N181" s="115"/>
+      <c r="O181" s="134">
         <v>0.6</v>
       </c>
-      <c r="P156" s="80"/>
-      <c r="Q156" s="107">
-        <v>46.7</v>
-      </c>
-      <c r="R156" s="108"/>
-      <c r="S156" s="81">
+      <c r="P181" s="115"/>
+      <c r="Q181" s="127">
+        <v>47.7</v>
+      </c>
+      <c r="R181" s="128"/>
+      <c r="S181" s="130">
         <v>1.4</v>
       </c>
-      <c r="T156" s="80"/>
-    </row>
-    <row r="157" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A157" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="B157" s="65"/>
-      <c r="C157" s="84">
-        <v>70</v>
-      </c>
-      <c r="D157" s="65"/>
-      <c r="E157" s="85">
+      <c r="T181" s="115"/>
+    </row>
+    <row r="182" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A182" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="B182" s="91"/>
+      <c r="C182" s="101">
+        <v>150</v>
+      </c>
+      <c r="D182" s="91"/>
+      <c r="E182" s="90">
+        <v>6</v>
+      </c>
+      <c r="F182" s="91"/>
+      <c r="G182" s="90"/>
+      <c r="H182" s="91"/>
+      <c r="I182" s="102">
+        <v>7.58</v>
+      </c>
+      <c r="J182" s="91"/>
+      <c r="K182" s="103">
+        <v>0.38</v>
+      </c>
+      <c r="L182" s="91"/>
+      <c r="M182" s="104">
+        <v>55.19</v>
+      </c>
+      <c r="N182" s="91"/>
+      <c r="O182" s="105">
+        <v>2.8</v>
+      </c>
+      <c r="P182" s="91"/>
+      <c r="Q182" s="106">
+        <v>47.21</v>
+      </c>
+      <c r="R182" s="107"/>
+      <c r="S182" s="90">
+        <v>1.4</v>
+      </c>
+      <c r="T182" s="91"/>
+    </row>
+    <row r="183" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A183" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B183" s="93"/>
+      <c r="C183" s="92">
+        <v>150</v>
+      </c>
+      <c r="D183" s="93"/>
+      <c r="E183" s="94">
+        <v>9</v>
+      </c>
+      <c r="F183" s="93"/>
+      <c r="G183" s="94"/>
+      <c r="H183" s="93"/>
+      <c r="I183" s="95">
+        <v>8.83</v>
+      </c>
+      <c r="J183" s="93"/>
+      <c r="K183" s="96">
+        <v>0.49</v>
+      </c>
+      <c r="L183" s="93"/>
+      <c r="M183" s="97">
+        <v>60.13</v>
+      </c>
+      <c r="N183" s="93"/>
+      <c r="O183" s="98">
+        <v>2.1</v>
+      </c>
+      <c r="P183" s="93"/>
+      <c r="Q183" s="99">
+        <v>47.36</v>
+      </c>
+      <c r="R183" s="100"/>
+      <c r="S183" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T183" s="93"/>
+    </row>
+    <row r="184" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A184" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="B184" s="93"/>
+      <c r="C184" s="109">
+        <v>150</v>
+      </c>
+      <c r="D184" s="93"/>
+      <c r="E184" s="108">
+        <v>4</v>
+      </c>
+      <c r="F184" s="93"/>
+      <c r="G184" s="108">
         <v>0.5</v>
       </c>
-      <c r="F157" s="65"/>
-      <c r="G157" s="85"/>
-      <c r="H157" s="65"/>
-      <c r="I157" s="86">
+      <c r="H184" s="93"/>
+      <c r="I184" s="110"/>
+      <c r="J184" s="93"/>
+      <c r="K184" s="111">
+        <v>0.84</v>
+      </c>
+      <c r="L184" s="93"/>
+      <c r="M184" s="112">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="N184" s="93"/>
+      <c r="O184" s="113">
+        <v>1.4</v>
+      </c>
+      <c r="P184" s="93"/>
+      <c r="Q184" s="99">
+        <v>47.63</v>
+      </c>
+      <c r="R184" s="100"/>
+      <c r="S184" s="108">
+        <v>1.4</v>
+      </c>
+      <c r="T184" s="93"/>
+    </row>
+    <row r="185" spans="1:20" ht="14.1" customHeight="1">
+      <c r="A185" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B185" s="93"/>
+      <c r="C185" s="92">
+        <v>150</v>
+      </c>
+      <c r="D185" s="93"/>
+      <c r="E185" s="94">
+        <v>4</v>
+      </c>
+      <c r="F185" s="93"/>
+      <c r="G185" s="94">
+        <v>1</v>
+      </c>
+      <c r="H185" s="93"/>
+      <c r="I185" s="95"/>
+      <c r="J185" s="93"/>
+      <c r="K185" s="96">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L185" s="93"/>
+      <c r="M185" s="97">
+        <v>81.36</v>
+      </c>
+      <c r="N185" s="93"/>
+      <c r="O185" s="98">
         <v>0.9</v>
       </c>
-      <c r="J157" s="65"/>
-      <c r="K157" s="87"/>
-      <c r="L157" s="65"/>
-      <c r="M157" s="102">
-        <v>22.15</v>
-      </c>
-      <c r="N157" s="65"/>
-      <c r="O157" s="103">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P157" s="65"/>
-      <c r="Q157" s="104">
-        <v>49.35</v>
-      </c>
-      <c r="R157" s="68"/>
-      <c r="S157" s="85">
+      <c r="P185" s="93"/>
+      <c r="Q185" s="99">
+        <v>47.74</v>
+      </c>
+      <c r="R185" s="100"/>
+      <c r="S185" s="94">
         <v>1.4</v>
       </c>
-      <c r="T157" s="65"/>
-    </row>
-    <row r="158" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A158" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="B158" s="71"/>
-      <c r="C158" s="92">
-        <v>70</v>
-      </c>
-      <c r="D158" s="71"/>
-      <c r="E158" s="90">
-        <v>1</v>
-      </c>
-      <c r="F158" s="71"/>
-      <c r="G158" s="90"/>
-      <c r="H158" s="71"/>
-      <c r="I158" s="93">
-        <v>1.46</v>
-      </c>
-      <c r="J158" s="71"/>
-      <c r="K158" s="91"/>
-      <c r="L158" s="71"/>
-      <c r="M158" s="100">
-        <v>25.44</v>
-      </c>
-      <c r="N158" s="71"/>
-      <c r="O158" s="101">
-        <v>2.6</v>
-      </c>
-      <c r="P158" s="71"/>
-      <c r="Q158" s="77">
-        <v>47.87</v>
-      </c>
-      <c r="R158" s="78"/>
-      <c r="S158" s="90">
+      <c r="T185" s="93"/>
+    </row>
+    <row r="186" spans="1:20" ht="16.5" customHeight="1">
+      <c r="A186" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="B186" s="115"/>
+      <c r="C186" s="122">
+        <v>150</v>
+      </c>
+      <c r="D186" s="115"/>
+      <c r="E186" s="114">
+        <v>4</v>
+      </c>
+      <c r="F186" s="115"/>
+      <c r="G186" s="114">
+        <v>1.6</v>
+      </c>
+      <c r="H186" s="115"/>
+      <c r="I186" s="123"/>
+      <c r="J186" s="115"/>
+      <c r="K186" s="124">
+        <v>1.38</v>
+      </c>
+      <c r="L186" s="115"/>
+      <c r="M186" s="125">
+        <v>89.07</v>
+      </c>
+      <c r="N186" s="115"/>
+      <c r="O186" s="126">
+        <v>0.4</v>
+      </c>
+      <c r="P186" s="115"/>
+      <c r="Q186" s="127">
+        <v>47.72</v>
+      </c>
+      <c r="R186" s="128"/>
+      <c r="S186" s="114">
         <v>1.4</v>
       </c>
-      <c r="T158" s="71"/>
-    </row>
-    <row r="159" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A159" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="B159" s="71"/>
-      <c r="C159" s="70">
-        <v>70</v>
-      </c>
-      <c r="D159" s="71"/>
-      <c r="E159" s="72">
-        <v>4</v>
-      </c>
-      <c r="F159" s="71"/>
-      <c r="G159" s="72"/>
-      <c r="H159" s="71"/>
-      <c r="I159" s="73">
-        <v>3.19</v>
-      </c>
-      <c r="J159" s="71"/>
-      <c r="K159" s="74">
-        <v>0.11</v>
-      </c>
-      <c r="L159" s="71"/>
-      <c r="M159" s="75">
-        <v>34.270000000000003</v>
-      </c>
-      <c r="N159" s="71"/>
-      <c r="O159" s="76">
-        <v>0.8</v>
-      </c>
-      <c r="P159" s="71"/>
-      <c r="Q159" s="77">
-        <v>46.74</v>
-      </c>
-      <c r="R159" s="78"/>
-      <c r="S159" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T159" s="71"/>
-    </row>
-    <row r="160" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A160" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="B160" s="71"/>
-      <c r="C160" s="92">
-        <v>70</v>
-      </c>
-      <c r="D160" s="71"/>
-      <c r="E160" s="90">
-        <v>4.5</v>
-      </c>
-      <c r="F160" s="71"/>
-      <c r="G160" s="90"/>
-      <c r="H160" s="71"/>
-      <c r="I160" s="93">
-        <v>3.39</v>
-      </c>
-      <c r="J160" s="71"/>
-      <c r="K160" s="91">
-        <v>0.12</v>
-      </c>
-      <c r="L160" s="71"/>
-      <c r="M160" s="100">
-        <v>35.19</v>
-      </c>
-      <c r="N160" s="71"/>
-      <c r="O160" s="101">
-        <v>0.7</v>
-      </c>
-      <c r="P160" s="71"/>
-      <c r="Q160" s="77">
-        <v>46.7</v>
-      </c>
-      <c r="R160" s="78"/>
-      <c r="S160" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="T160" s="71"/>
-    </row>
-    <row r="161" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A161" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="B161" s="71"/>
-      <c r="C161" s="70">
-        <v>70</v>
-      </c>
-      <c r="D161" s="71"/>
-      <c r="E161" s="72">
-        <v>6</v>
-      </c>
-      <c r="F161" s="71"/>
-      <c r="G161" s="72"/>
-      <c r="H161" s="71"/>
-      <c r="I161" s="73">
-        <v>3.95</v>
-      </c>
-      <c r="J161" s="71"/>
-      <c r="K161" s="74">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L161" s="71"/>
-      <c r="M161" s="75">
-        <v>37.51</v>
-      </c>
-      <c r="N161" s="71"/>
-      <c r="O161" s="76">
-        <v>0.5</v>
-      </c>
-      <c r="P161" s="71"/>
-      <c r="Q161" s="77">
-        <v>46.63</v>
-      </c>
-      <c r="R161" s="78"/>
-      <c r="S161" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T161" s="71"/>
-    </row>
-    <row r="162" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A162" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="B162" s="65"/>
-      <c r="C162" s="94">
-        <v>80</v>
-      </c>
-      <c r="D162" s="65"/>
-      <c r="E162" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="F162" s="65"/>
-      <c r="G162" s="69"/>
-      <c r="H162" s="65"/>
-      <c r="I162" s="112">
-        <v>1.02</v>
-      </c>
-      <c r="J162" s="65"/>
-      <c r="K162" s="113"/>
-      <c r="L162" s="65"/>
-      <c r="M162" s="88">
-        <v>23.48</v>
-      </c>
-      <c r="N162" s="65"/>
-      <c r="O162" s="89">
-        <v>4.8</v>
-      </c>
-      <c r="P162" s="65"/>
-      <c r="Q162" s="104">
-        <v>49.06</v>
-      </c>
-      <c r="R162" s="68"/>
-      <c r="S162" s="69">
-        <v>1.4</v>
-      </c>
-      <c r="T162" s="65"/>
-    </row>
-    <row r="163" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A163" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="B163" s="71"/>
-      <c r="C163" s="70">
-        <v>80</v>
-      </c>
-      <c r="D163" s="71"/>
-      <c r="E163" s="72">
-        <v>1</v>
-      </c>
-      <c r="F163" s="71"/>
-      <c r="G163" s="72"/>
-      <c r="H163" s="71"/>
-      <c r="I163" s="73">
-        <v>1.64</v>
-      </c>
-      <c r="J163" s="71"/>
-      <c r="K163" s="74"/>
-      <c r="L163" s="71"/>
-      <c r="M163" s="75">
-        <v>26.84</v>
-      </c>
-      <c r="N163" s="71"/>
-      <c r="O163" s="76">
-        <v>3.2</v>
-      </c>
-      <c r="P163" s="71"/>
-      <c r="Q163" s="77">
-        <v>47.74</v>
-      </c>
-      <c r="R163" s="78"/>
-      <c r="S163" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T163" s="71"/>
-    </row>
-    <row r="164" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A164" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="B164" s="80"/>
-      <c r="C164" s="79">
-        <v>80</v>
-      </c>
-      <c r="D164" s="80"/>
-      <c r="E164" s="81">
-        <v>4</v>
-      </c>
-      <c r="F164" s="80"/>
-      <c r="G164" s="81"/>
-      <c r="H164" s="80"/>
-      <c r="I164" s="82">
-        <v>3.62</v>
-      </c>
-      <c r="J164" s="80"/>
-      <c r="K164" s="83">
-        <v>0.13</v>
-      </c>
-      <c r="L164" s="80"/>
-      <c r="M164" s="105">
-        <v>36.33</v>
-      </c>
-      <c r="N164" s="80"/>
-      <c r="O164" s="106">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P164" s="80"/>
-      <c r="Q164" s="107">
-        <v>46.8</v>
-      </c>
-      <c r="R164" s="108"/>
-      <c r="S164" s="81">
-        <v>1.4</v>
-      </c>
-      <c r="T164" s="80"/>
-    </row>
-    <row r="165" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A165" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="B165" s="65"/>
-      <c r="C165" s="84">
-        <v>90</v>
-      </c>
-      <c r="D165" s="65"/>
-      <c r="E165" s="85">
-        <v>0.5</v>
-      </c>
-      <c r="F165" s="65"/>
-      <c r="G165" s="85"/>
-      <c r="H165" s="65"/>
-      <c r="I165" s="86">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J165" s="65"/>
-      <c r="K165" s="87"/>
-      <c r="L165" s="65"/>
-      <c r="M165" s="102">
-        <v>24.88</v>
-      </c>
-      <c r="N165" s="65"/>
-      <c r="O165" s="103">
-        <v>5.5</v>
-      </c>
-      <c r="P165" s="65"/>
-      <c r="Q165" s="104">
-        <v>48.8</v>
-      </c>
-      <c r="R165" s="68"/>
-      <c r="S165" s="85">
-        <v>1.4</v>
-      </c>
-      <c r="T165" s="65"/>
-    </row>
-    <row r="166" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A166" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="B166" s="71"/>
-      <c r="C166" s="92">
-        <v>90</v>
-      </c>
-      <c r="D166" s="71"/>
-      <c r="E166" s="90">
-        <v>1</v>
-      </c>
-      <c r="F166" s="71"/>
-      <c r="G166" s="90"/>
-      <c r="H166" s="71"/>
-      <c r="I166" s="93">
-        <v>1.84</v>
-      </c>
-      <c r="J166" s="71"/>
-      <c r="K166" s="91"/>
-      <c r="L166" s="71"/>
-      <c r="M166" s="100">
-        <v>28.32</v>
-      </c>
-      <c r="N166" s="71"/>
-      <c r="O166" s="101">
-        <v>3.7</v>
-      </c>
-      <c r="P166" s="71"/>
-      <c r="Q166" s="77">
-        <v>47.61</v>
-      </c>
-      <c r="R166" s="78"/>
-      <c r="S166" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="T166" s="71"/>
-    </row>
-    <row r="167" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A167" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="B167" s="71"/>
-      <c r="C167" s="70">
-        <v>90</v>
-      </c>
-      <c r="D167" s="71"/>
-      <c r="E167" s="72">
-        <v>4</v>
-      </c>
-      <c r="F167" s="71"/>
-      <c r="G167" s="72"/>
-      <c r="H167" s="71"/>
-      <c r="I167" s="73">
-        <v>4.04</v>
-      </c>
-      <c r="J167" s="71"/>
-      <c r="K167" s="74">
-        <v>0.15</v>
-      </c>
-      <c r="L167" s="71"/>
-      <c r="M167" s="75">
-        <v>38.380000000000003</v>
-      </c>
-      <c r="N167" s="71"/>
-      <c r="O167" s="76">
-        <v>1.4</v>
-      </c>
-      <c r="P167" s="71"/>
-      <c r="Q167" s="77">
-        <v>46.89</v>
-      </c>
-      <c r="R167" s="78"/>
-      <c r="S167" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T167" s="71"/>
-    </row>
-    <row r="168" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A168" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="B168" s="65"/>
-      <c r="C168" s="94">
-        <v>100</v>
-      </c>
-      <c r="D168" s="65"/>
-      <c r="E168" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="F168" s="65"/>
-      <c r="G168" s="69"/>
-      <c r="H168" s="65"/>
-      <c r="I168" s="112">
-        <v>1.3</v>
-      </c>
-      <c r="J168" s="65"/>
-      <c r="K168" s="113"/>
-      <c r="L168" s="65"/>
-      <c r="M168" s="88">
-        <v>26.34</v>
-      </c>
-      <c r="N168" s="65"/>
-      <c r="O168" s="89">
-        <v>6.1</v>
-      </c>
-      <c r="P168" s="65"/>
-      <c r="Q168" s="104">
-        <v>48.59</v>
-      </c>
-      <c r="R168" s="68"/>
-      <c r="S168" s="69">
-        <v>1.4</v>
-      </c>
-      <c r="T168" s="65"/>
-    </row>
-    <row r="169" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A169" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="B169" s="71"/>
-      <c r="C169" s="70">
-        <v>100</v>
-      </c>
-      <c r="D169" s="71"/>
-      <c r="E169" s="72">
-        <v>1</v>
-      </c>
-      <c r="F169" s="71"/>
-      <c r="G169" s="72"/>
-      <c r="H169" s="71"/>
-      <c r="I169" s="73">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J169" s="71"/>
-      <c r="K169" s="74"/>
-      <c r="L169" s="71"/>
-      <c r="M169" s="75">
-        <v>29.87</v>
-      </c>
-      <c r="N169" s="71"/>
-      <c r="O169" s="76">
-        <v>4.3</v>
-      </c>
-      <c r="P169" s="71"/>
-      <c r="Q169" s="77">
-        <v>47.54</v>
-      </c>
-      <c r="R169" s="78"/>
-      <c r="S169" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T169" s="71"/>
-    </row>
-    <row r="170" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A170" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="B170" s="71"/>
-      <c r="C170" s="92">
-        <v>100</v>
-      </c>
-      <c r="D170" s="71"/>
-      <c r="E170" s="90">
-        <v>4.5</v>
-      </c>
-      <c r="F170" s="71"/>
-      <c r="G170" s="90"/>
-      <c r="H170" s="71"/>
-      <c r="I170" s="93">
-        <v>4.74</v>
-      </c>
-      <c r="J170" s="71"/>
-      <c r="K170" s="91">
-        <v>0.18</v>
-      </c>
-      <c r="L170" s="71"/>
-      <c r="M170" s="100">
-        <v>41.59</v>
-      </c>
-      <c r="N170" s="71"/>
-      <c r="O170" s="101">
-        <v>1.6</v>
-      </c>
-      <c r="P170" s="71"/>
-      <c r="Q170" s="77">
-        <v>46.94</v>
-      </c>
-      <c r="R170" s="78"/>
-      <c r="S170" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="T170" s="71"/>
-    </row>
-    <row r="171" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A171" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="B171" s="71"/>
-      <c r="C171" s="70">
-        <v>100</v>
-      </c>
-      <c r="D171" s="71"/>
-      <c r="E171" s="72">
-        <v>6</v>
-      </c>
-      <c r="F171" s="71"/>
-      <c r="G171" s="72"/>
-      <c r="H171" s="71"/>
-      <c r="I171" s="73">
-        <v>5.49</v>
-      </c>
-      <c r="J171" s="71"/>
-      <c r="K171" s="74">
-        <v>0.22</v>
-      </c>
-      <c r="L171" s="71"/>
-      <c r="M171" s="75">
-        <v>44.58</v>
-      </c>
-      <c r="N171" s="71"/>
-      <c r="O171" s="76">
-        <v>1.2</v>
-      </c>
-      <c r="P171" s="71"/>
-      <c r="Q171" s="77">
-        <v>47.02</v>
-      </c>
-      <c r="R171" s="78"/>
-      <c r="S171" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T171" s="71"/>
-    </row>
-    <row r="172" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A172" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B172" s="80"/>
-      <c r="C172" s="79">
-        <v>100</v>
-      </c>
-      <c r="D172" s="80"/>
-      <c r="E172" s="81">
-        <v>9</v>
-      </c>
-      <c r="F172" s="80"/>
-      <c r="G172" s="81"/>
-      <c r="H172" s="80"/>
-      <c r="I172" s="82">
-        <v>6.61</v>
-      </c>
-      <c r="J172" s="80"/>
-      <c r="K172" s="83">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L172" s="80"/>
-      <c r="M172" s="105">
-        <v>49.08</v>
-      </c>
-      <c r="N172" s="80"/>
-      <c r="O172" s="106">
-        <v>0.8</v>
-      </c>
-      <c r="P172" s="80"/>
-      <c r="Q172" s="107">
-        <v>47.12</v>
-      </c>
-      <c r="R172" s="108"/>
-      <c r="S172" s="81">
-        <v>1.4</v>
-      </c>
-      <c r="T172" s="80"/>
-    </row>
-    <row r="173" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A173" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="B173" s="71"/>
-      <c r="C173" s="70">
-        <v>120</v>
-      </c>
-      <c r="D173" s="71"/>
-      <c r="E173" s="72">
-        <v>4.5</v>
-      </c>
-      <c r="F173" s="71"/>
-      <c r="G173" s="72"/>
-      <c r="H173" s="71"/>
-      <c r="I173" s="73">
-        <v>5.56</v>
-      </c>
-      <c r="J173" s="71"/>
-      <c r="K173" s="74">
-        <v>0.23</v>
-      </c>
-      <c r="L173" s="71"/>
-      <c r="M173" s="75">
-        <v>45.74</v>
-      </c>
-      <c r="N173" s="71"/>
-      <c r="O173" s="76">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P173" s="71"/>
-      <c r="Q173" s="77">
-        <v>47.04</v>
-      </c>
-      <c r="R173" s="78"/>
-      <c r="S173" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T173" s="71"/>
-    </row>
-    <row r="174" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A174" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="B174" s="71"/>
-      <c r="C174" s="92">
-        <v>120</v>
-      </c>
-      <c r="D174" s="71"/>
-      <c r="E174" s="90">
-        <v>6</v>
-      </c>
-      <c r="F174" s="71"/>
-      <c r="G174" s="90"/>
-      <c r="H174" s="71"/>
-      <c r="I174" s="93">
-        <v>6.38</v>
-      </c>
-      <c r="J174" s="71"/>
-      <c r="K174" s="91">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L174" s="71"/>
-      <c r="M174" s="100">
-        <v>48.95</v>
-      </c>
-      <c r="N174" s="71"/>
-      <c r="O174" s="101">
-        <v>1.8</v>
-      </c>
-      <c r="P174" s="71"/>
-      <c r="Q174" s="77">
-        <v>47.12</v>
-      </c>
-      <c r="R174" s="78"/>
-      <c r="S174" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="T174" s="71"/>
-    </row>
-    <row r="175" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A175" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="B175" s="71"/>
-      <c r="C175" s="70">
-        <v>120</v>
-      </c>
-      <c r="D175" s="71"/>
-      <c r="E175" s="72">
-        <v>9</v>
-      </c>
-      <c r="F175" s="71"/>
-      <c r="G175" s="72"/>
-      <c r="H175" s="71"/>
-      <c r="I175" s="73">
-        <v>7.59</v>
-      </c>
-      <c r="J175" s="71"/>
-      <c r="K175" s="74">
-        <v>0.37</v>
-      </c>
-      <c r="L175" s="71"/>
-      <c r="M175" s="75">
-        <v>53.75</v>
-      </c>
-      <c r="N175" s="71"/>
-      <c r="O175" s="76">
-        <v>1.2</v>
-      </c>
-      <c r="P175" s="71"/>
-      <c r="Q175" s="77">
-        <v>47.24</v>
-      </c>
-      <c r="R175" s="78"/>
-      <c r="S175" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T175" s="71"/>
-    </row>
-    <row r="176" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A176" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="B176" s="80"/>
-      <c r="C176" s="79">
-        <v>120</v>
-      </c>
-      <c r="D176" s="80"/>
-      <c r="E176" s="81">
-        <v>4</v>
-      </c>
-      <c r="F176" s="80"/>
-      <c r="G176" s="81">
-        <v>0.5</v>
-      </c>
-      <c r="H176" s="80"/>
-      <c r="I176" s="82">
-        <v>10.31</v>
-      </c>
-      <c r="J176" s="80"/>
-      <c r="K176" s="83">
-        <v>0.63</v>
-      </c>
-      <c r="L176" s="80"/>
-      <c r="M176" s="105">
-        <v>65</v>
-      </c>
-      <c r="N176" s="80"/>
-      <c r="O176" s="106">
-        <v>0.7</v>
-      </c>
-      <c r="P176" s="80"/>
-      <c r="Q176" s="107">
-        <v>47.56</v>
-      </c>
-      <c r="R176" s="108"/>
-      <c r="S176" s="81">
-        <v>1.4</v>
-      </c>
-      <c r="T176" s="80"/>
-    </row>
-    <row r="177" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A177" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="B177" s="65"/>
-      <c r="C177" s="84">
-        <v>140</v>
-      </c>
-      <c r="D177" s="65"/>
-      <c r="E177" s="85">
-        <v>4.5</v>
-      </c>
-      <c r="F177" s="65"/>
-      <c r="G177" s="85"/>
-      <c r="H177" s="65"/>
-      <c r="I177" s="86">
-        <v>6.33</v>
-      </c>
-      <c r="J177" s="65"/>
-      <c r="K177" s="87">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L177" s="65"/>
-      <c r="M177" s="102">
-        <v>49.87</v>
-      </c>
-      <c r="N177" s="65"/>
-      <c r="O177" s="103">
-        <v>3</v>
-      </c>
-      <c r="P177" s="65"/>
-      <c r="Q177" s="104">
-        <v>47.1</v>
-      </c>
-      <c r="R177" s="68"/>
-      <c r="S177" s="85">
-        <v>1.4</v>
-      </c>
-      <c r="T177" s="65"/>
-    </row>
-    <row r="178" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A178" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="B178" s="71"/>
-      <c r="C178" s="92">
-        <v>140</v>
-      </c>
-      <c r="D178" s="71"/>
-      <c r="E178" s="90">
-        <v>6</v>
-      </c>
-      <c r="F178" s="71"/>
-      <c r="G178" s="90"/>
-      <c r="H178" s="71"/>
-      <c r="I178" s="93">
-        <v>7.2</v>
-      </c>
-      <c r="J178" s="71"/>
-      <c r="K178" s="91">
-        <v>0.34</v>
-      </c>
-      <c r="L178" s="71"/>
-      <c r="M178" s="100">
-        <v>53.14</v>
-      </c>
-      <c r="N178" s="71"/>
-      <c r="O178" s="101">
-        <v>2.5</v>
-      </c>
-      <c r="P178" s="71"/>
-      <c r="Q178" s="77">
-        <v>47.18</v>
-      </c>
-      <c r="R178" s="78"/>
-      <c r="S178" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="T178" s="71"/>
-    </row>
-    <row r="179" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A179" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="B179" s="71"/>
-      <c r="C179" s="70">
-        <v>140</v>
-      </c>
-      <c r="D179" s="71"/>
-      <c r="E179" s="72">
-        <v>9</v>
-      </c>
-      <c r="F179" s="71"/>
-      <c r="G179" s="72"/>
-      <c r="H179" s="71"/>
-      <c r="I179" s="73">
-        <v>8.44</v>
-      </c>
-      <c r="J179" s="71"/>
-      <c r="K179" s="74">
-        <v>0.45</v>
-      </c>
-      <c r="L179" s="71"/>
-      <c r="M179" s="75">
-        <v>58.06</v>
-      </c>
-      <c r="N179" s="71"/>
-      <c r="O179" s="76">
-        <v>1.8</v>
-      </c>
-      <c r="P179" s="71"/>
-      <c r="Q179" s="77">
-        <v>47.32</v>
-      </c>
-      <c r="R179" s="78"/>
-      <c r="S179" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T179" s="71"/>
-    </row>
-    <row r="180" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A180" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="B180" s="71"/>
-      <c r="C180" s="92">
-        <v>140</v>
-      </c>
-      <c r="D180" s="71"/>
-      <c r="E180" s="90">
-        <v>4</v>
-      </c>
-      <c r="F180" s="71"/>
-      <c r="G180" s="90">
-        <v>0.5</v>
-      </c>
-      <c r="H180" s="71"/>
-      <c r="I180" s="93"/>
-      <c r="J180" s="71"/>
-      <c r="K180" s="91">
-        <v>0.77</v>
-      </c>
-      <c r="L180" s="71"/>
-      <c r="M180" s="100">
-        <v>69.849999999999994</v>
-      </c>
-      <c r="N180" s="71"/>
-      <c r="O180" s="101">
-        <v>1.2</v>
-      </c>
-      <c r="P180" s="71"/>
-      <c r="Q180" s="77">
-        <v>47.62</v>
-      </c>
-      <c r="R180" s="78"/>
-      <c r="S180" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="T180" s="71"/>
-    </row>
-    <row r="181" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A181" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="B181" s="80"/>
-      <c r="C181" s="95">
-        <v>140</v>
-      </c>
-      <c r="D181" s="80"/>
-      <c r="E181" s="96">
-        <v>4</v>
-      </c>
-      <c r="F181" s="80"/>
-      <c r="G181" s="96">
-        <v>1</v>
-      </c>
-      <c r="H181" s="80"/>
-      <c r="I181" s="97"/>
-      <c r="J181" s="80"/>
-      <c r="K181" s="98">
-        <v>1.03</v>
-      </c>
-      <c r="L181" s="80"/>
-      <c r="M181" s="99">
-        <v>78.52</v>
-      </c>
-      <c r="N181" s="80"/>
-      <c r="O181" s="109">
-        <v>0.6</v>
-      </c>
-      <c r="P181" s="80"/>
-      <c r="Q181" s="107">
-        <v>47.7</v>
-      </c>
-      <c r="R181" s="108"/>
-      <c r="S181" s="96">
-        <v>1.4</v>
-      </c>
-      <c r="T181" s="80"/>
-    </row>
-    <row r="182" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A182" s="94" t="s">
-        <v>163</v>
-      </c>
-      <c r="B182" s="65"/>
-      <c r="C182" s="94">
-        <v>150</v>
-      </c>
-      <c r="D182" s="65"/>
-      <c r="E182" s="69">
-        <v>6</v>
-      </c>
-      <c r="F182" s="65"/>
-      <c r="G182" s="69"/>
-      <c r="H182" s="65"/>
-      <c r="I182" s="112">
-        <v>7.58</v>
-      </c>
-      <c r="J182" s="65"/>
-      <c r="K182" s="113">
-        <v>0.38</v>
-      </c>
-      <c r="L182" s="65"/>
-      <c r="M182" s="88">
-        <v>55.19</v>
-      </c>
-      <c r="N182" s="65"/>
-      <c r="O182" s="89">
-        <v>2.8</v>
-      </c>
-      <c r="P182" s="65"/>
-      <c r="Q182" s="104">
-        <v>47.21</v>
-      </c>
-      <c r="R182" s="68"/>
-      <c r="S182" s="69">
-        <v>1.4</v>
-      </c>
-      <c r="T182" s="65"/>
-    </row>
-    <row r="183" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A183" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="B183" s="71"/>
-      <c r="C183" s="70">
-        <v>150</v>
-      </c>
-      <c r="D183" s="71"/>
-      <c r="E183" s="72">
-        <v>9</v>
-      </c>
-      <c r="F183" s="71"/>
-      <c r="G183" s="72"/>
-      <c r="H183" s="71"/>
-      <c r="I183" s="73">
-        <v>8.83</v>
-      </c>
-      <c r="J183" s="71"/>
-      <c r="K183" s="74">
-        <v>0.49</v>
-      </c>
-      <c r="L183" s="71"/>
-      <c r="M183" s="75">
-        <v>60.13</v>
-      </c>
-      <c r="N183" s="71"/>
-      <c r="O183" s="76">
-        <v>2.1</v>
-      </c>
-      <c r="P183" s="71"/>
-      <c r="Q183" s="77">
-        <v>47.36</v>
-      </c>
-      <c r="R183" s="78"/>
-      <c r="S183" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T183" s="71"/>
-    </row>
-    <row r="184" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A184" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="B184" s="71"/>
-      <c r="C184" s="92">
-        <v>150</v>
-      </c>
-      <c r="D184" s="71"/>
-      <c r="E184" s="90">
-        <v>4</v>
-      </c>
-      <c r="F184" s="71"/>
-      <c r="G184" s="90">
-        <v>0.5</v>
-      </c>
-      <c r="H184" s="71"/>
-      <c r="I184" s="93"/>
-      <c r="J184" s="71"/>
-      <c r="K184" s="91">
-        <v>0.84</v>
-      </c>
-      <c r="L184" s="71"/>
-      <c r="M184" s="100">
-        <v>72.150000000000006</v>
-      </c>
-      <c r="N184" s="71"/>
-      <c r="O184" s="101">
-        <v>1.4</v>
-      </c>
-      <c r="P184" s="71"/>
-      <c r="Q184" s="77">
-        <v>47.63</v>
-      </c>
-      <c r="R184" s="78"/>
-      <c r="S184" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="T184" s="71"/>
-    </row>
-    <row r="185" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A185" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="B185" s="71"/>
-      <c r="C185" s="70">
-        <v>150</v>
-      </c>
-      <c r="D185" s="71"/>
-      <c r="E185" s="72">
-        <v>4</v>
-      </c>
-      <c r="F185" s="71"/>
-      <c r="G185" s="72">
-        <v>1</v>
-      </c>
-      <c r="H185" s="71"/>
-      <c r="I185" s="73"/>
-      <c r="J185" s="71"/>
-      <c r="K185" s="74">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="L185" s="71"/>
-      <c r="M185" s="75">
-        <v>81.36</v>
-      </c>
-      <c r="N185" s="71"/>
-      <c r="O185" s="76">
-        <v>0.9</v>
-      </c>
-      <c r="P185" s="71"/>
-      <c r="Q185" s="77">
-        <v>47.74</v>
-      </c>
-      <c r="R185" s="78"/>
-      <c r="S185" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T185" s="71"/>
-    </row>
-    <row r="186" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A186" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B186" s="80"/>
-      <c r="C186" s="79">
-        <v>150</v>
-      </c>
-      <c r="D186" s="80"/>
-      <c r="E186" s="81">
-        <v>4</v>
-      </c>
-      <c r="F186" s="80"/>
-      <c r="G186" s="81">
-        <v>1.6</v>
-      </c>
-      <c r="H186" s="80"/>
-      <c r="I186" s="82"/>
-      <c r="J186" s="80"/>
-      <c r="K186" s="83">
-        <v>1.38</v>
-      </c>
-      <c r="L186" s="80"/>
-      <c r="M186" s="105">
-        <v>89.07</v>
-      </c>
-      <c r="N186" s="80"/>
-      <c r="O186" s="106">
-        <v>0.4</v>
-      </c>
-      <c r="P186" s="80"/>
-      <c r="Q186" s="107">
-        <v>47.72</v>
-      </c>
-      <c r="R186" s="108"/>
-      <c r="S186" s="81">
-        <v>1.4</v>
-      </c>
-      <c r="T186" s="80"/>
+      <c r="T186" s="115"/>
     </row>
     <row r="187" spans="1:20" ht="8.1" customHeight="1"/>
     <row r="188" spans="1:20" ht="21" customHeight="1" thickBot="1">
@@ -7087,966 +7099,966 @@
       <c r="T191" s="22"/>
     </row>
     <row r="192" spans="1:20" ht="60" customHeight="1">
-      <c r="A192" s="110" t="s">
+      <c r="A192" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="B192" s="111"/>
-      <c r="C192" s="110" t="s">
+      <c r="B192" s="66"/>
+      <c r="C192" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="D192" s="111"/>
-      <c r="E192" s="110" t="s">
+      <c r="D192" s="66"/>
+      <c r="E192" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="F192" s="111"/>
-      <c r="G192" s="110" t="s">
+      <c r="F192" s="66"/>
+      <c r="G192" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="H192" s="111"/>
-      <c r="I192" s="110" t="s">
+      <c r="H192" s="66"/>
+      <c r="I192" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="J192" s="111"/>
-      <c r="K192" s="110" t="s">
+      <c r="J192" s="66"/>
+      <c r="K192" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="L192" s="111"/>
-      <c r="M192" s="110" t="s">
+      <c r="L192" s="66"/>
+      <c r="M192" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="N192" s="111"/>
-      <c r="O192" s="110" t="s">
+      <c r="N192" s="66"/>
+      <c r="O192" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="P192" s="111"/>
-      <c r="Q192" s="119" t="s">
+      <c r="P192" s="66"/>
+      <c r="Q192" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="R192" s="111"/>
-      <c r="S192" s="110" t="s">
+      <c r="R192" s="66"/>
+      <c r="S192" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="T192" s="111"/>
+      <c r="T192" s="66"/>
     </row>
     <row r="193" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A193" s="63"/>
-      <c r="B193" s="62"/>
-      <c r="C193" s="61" t="s">
+      <c r="A193" s="165"/>
+      <c r="B193" s="164"/>
+      <c r="C193" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="D193" s="62"/>
-      <c r="E193" s="61" t="s">
+      <c r="D193" s="164"/>
+      <c r="E193" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="F193" s="62"/>
-      <c r="G193" s="61" t="s">
+      <c r="F193" s="164"/>
+      <c r="G193" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="H193" s="62"/>
-      <c r="I193" s="61" t="s">
+      <c r="H193" s="164"/>
+      <c r="I193" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="J193" s="62"/>
-      <c r="K193" s="61" t="s">
+      <c r="J193" s="164"/>
+      <c r="K193" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="L193" s="62"/>
-      <c r="M193" s="61" t="s">
+      <c r="L193" s="164"/>
+      <c r="M193" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="N193" s="62"/>
-      <c r="O193" s="61" t="s">
+      <c r="N193" s="164"/>
+      <c r="O193" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="P193" s="62"/>
-      <c r="Q193" s="61" t="s">
+      <c r="P193" s="164"/>
+      <c r="Q193" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="R193" s="62"/>
-      <c r="S193" s="61" t="s">
+      <c r="R193" s="164"/>
+      <c r="S193" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="T193" s="62"/>
+      <c r="T193" s="164"/>
     </row>
     <row r="194" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A194" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="B194" s="65"/>
-      <c r="C194" s="84">
+      <c r="A194" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="B194" s="91"/>
+      <c r="C194" s="116">
         <v>200</v>
       </c>
-      <c r="D194" s="65"/>
-      <c r="E194" s="85">
+      <c r="D194" s="91"/>
+      <c r="E194" s="117">
         <v>9</v>
       </c>
-      <c r="F194" s="65"/>
-      <c r="G194" s="85"/>
-      <c r="H194" s="65"/>
-      <c r="I194" s="86">
+      <c r="F194" s="91"/>
+      <c r="G194" s="117"/>
+      <c r="H194" s="91"/>
+      <c r="I194" s="118">
         <v>10.53</v>
       </c>
-      <c r="J194" s="65"/>
-      <c r="K194" s="87">
+      <c r="J194" s="91"/>
+      <c r="K194" s="119">
         <v>0.73</v>
       </c>
-      <c r="L194" s="65"/>
-      <c r="M194" s="102">
+      <c r="L194" s="91"/>
+      <c r="M194" s="120">
         <v>69.760000000000005</v>
       </c>
-      <c r="N194" s="65"/>
-      <c r="O194" s="103">
+      <c r="N194" s="91"/>
+      <c r="O194" s="121">
         <v>2.9</v>
       </c>
-      <c r="P194" s="65"/>
-      <c r="Q194" s="104">
+      <c r="P194" s="91"/>
+      <c r="Q194" s="106">
         <v>47.47</v>
       </c>
-      <c r="R194" s="68"/>
-      <c r="S194" s="85">
+      <c r="R194" s="107"/>
+      <c r="S194" s="117">
         <v>1.4</v>
       </c>
-      <c r="T194" s="65"/>
+      <c r="T194" s="91"/>
     </row>
     <row r="195" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A195" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="B195" s="71"/>
-      <c r="C195" s="92">
+      <c r="A195" s="109" t="s">
+        <v>172</v>
+      </c>
+      <c r="B195" s="93"/>
+      <c r="C195" s="109">
         <v>200</v>
       </c>
-      <c r="D195" s="71"/>
-      <c r="E195" s="90">
+      <c r="D195" s="93"/>
+      <c r="E195" s="108">
         <v>4</v>
       </c>
-      <c r="F195" s="71"/>
-      <c r="G195" s="90">
+      <c r="F195" s="93"/>
+      <c r="G195" s="108">
         <v>0.5</v>
       </c>
-      <c r="H195" s="71"/>
-      <c r="I195" s="93"/>
-      <c r="J195" s="71"/>
-      <c r="K195" s="91">
+      <c r="H195" s="93"/>
+      <c r="I195" s="110"/>
+      <c r="J195" s="93"/>
+      <c r="K195" s="111">
         <v>1.21</v>
       </c>
-      <c r="L195" s="71"/>
-      <c r="M195" s="100">
+      <c r="L195" s="93"/>
+      <c r="M195" s="112">
         <v>82.81</v>
       </c>
-      <c r="N195" s="71"/>
-      <c r="O195" s="101">
+      <c r="N195" s="93"/>
+      <c r="O195" s="113">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P195" s="71"/>
-      <c r="Q195" s="77">
+      <c r="P195" s="93"/>
+      <c r="Q195" s="99">
         <v>47.68</v>
       </c>
-      <c r="R195" s="78"/>
-      <c r="S195" s="90">
+      <c r="R195" s="100"/>
+      <c r="S195" s="108">
         <v>1.4</v>
       </c>
-      <c r="T195" s="71"/>
+      <c r="T195" s="93"/>
     </row>
     <row r="196" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A196" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="B196" s="71"/>
-      <c r="C196" s="70">
+      <c r="A196" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B196" s="93"/>
+      <c r="C196" s="92">
         <v>200</v>
       </c>
-      <c r="D196" s="71"/>
-      <c r="E196" s="72">
+      <c r="D196" s="93"/>
+      <c r="E196" s="94">
         <v>4</v>
       </c>
-      <c r="F196" s="71"/>
-      <c r="G196" s="72">
+      <c r="F196" s="93"/>
+      <c r="G196" s="94">
         <v>1</v>
       </c>
-      <c r="H196" s="71"/>
-      <c r="I196" s="73"/>
-      <c r="J196" s="71"/>
-      <c r="K196" s="74">
+      <c r="H196" s="93"/>
+      <c r="I196" s="95"/>
+      <c r="J196" s="93"/>
+      <c r="K196" s="96">
         <v>1.63</v>
       </c>
-      <c r="L196" s="71"/>
-      <c r="M196" s="75">
+      <c r="L196" s="93"/>
+      <c r="M196" s="97">
         <v>94.74</v>
       </c>
-      <c r="N196" s="71"/>
-      <c r="O196" s="76">
+      <c r="N196" s="93"/>
+      <c r="O196" s="98">
         <v>1.6</v>
       </c>
-      <c r="P196" s="71"/>
-      <c r="Q196" s="77">
+      <c r="P196" s="93"/>
+      <c r="Q196" s="99">
         <v>47.78</v>
       </c>
-      <c r="R196" s="78"/>
-      <c r="S196" s="72">
+      <c r="R196" s="100"/>
+      <c r="S196" s="94">
         <v>1.4</v>
       </c>
-      <c r="T196" s="71"/>
+      <c r="T196" s="93"/>
     </row>
     <row r="197" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A197" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="B197" s="71"/>
-      <c r="C197" s="92">
+      <c r="A197" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="B197" s="93"/>
+      <c r="C197" s="109">
         <v>200</v>
       </c>
-      <c r="D197" s="71"/>
-      <c r="E197" s="90">
+      <c r="D197" s="93"/>
+      <c r="E197" s="108">
         <v>4</v>
       </c>
-      <c r="F197" s="71"/>
-      <c r="G197" s="90">
+      <c r="F197" s="93"/>
+      <c r="G197" s="108">
         <v>1.6</v>
       </c>
-      <c r="H197" s="71"/>
-      <c r="I197" s="93"/>
-      <c r="J197" s="71"/>
-      <c r="K197" s="91">
+      <c r="H197" s="93"/>
+      <c r="I197" s="110"/>
+      <c r="J197" s="93"/>
+      <c r="K197" s="111">
         <v>2</v>
       </c>
-      <c r="L197" s="71"/>
-      <c r="M197" s="100">
+      <c r="L197" s="93"/>
+      <c r="M197" s="112">
         <v>105.25</v>
       </c>
-      <c r="N197" s="71"/>
-      <c r="O197" s="101">
+      <c r="N197" s="93"/>
+      <c r="O197" s="113">
         <v>1.2</v>
       </c>
-      <c r="P197" s="71"/>
-      <c r="Q197" s="77">
+      <c r="P197" s="93"/>
+      <c r="Q197" s="99">
         <v>47.8</v>
       </c>
-      <c r="R197" s="78"/>
-      <c r="S197" s="90">
+      <c r="R197" s="100"/>
+      <c r="S197" s="108">
         <v>1.4</v>
       </c>
-      <c r="T197" s="71"/>
+      <c r="T197" s="93"/>
     </row>
     <row r="198" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A198" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="B198" s="80"/>
-      <c r="C198" s="95">
+      <c r="A198" s="129" t="s">
+        <v>175</v>
+      </c>
+      <c r="B198" s="115"/>
+      <c r="C198" s="129">
         <v>200</v>
       </c>
-      <c r="D198" s="80"/>
-      <c r="E198" s="96">
+      <c r="D198" s="115"/>
+      <c r="E198" s="130">
         <v>4</v>
       </c>
-      <c r="F198" s="80"/>
-      <c r="G198" s="96">
+      <c r="F198" s="115"/>
+      <c r="G198" s="130">
         <v>3</v>
       </c>
-      <c r="H198" s="80"/>
-      <c r="I198" s="97"/>
-      <c r="J198" s="80"/>
-      <c r="K198" s="98">
+      <c r="H198" s="115"/>
+      <c r="I198" s="131"/>
+      <c r="J198" s="115"/>
+      <c r="K198" s="132">
         <v>2.54</v>
       </c>
-      <c r="L198" s="80"/>
-      <c r="M198" s="99">
+      <c r="L198" s="115"/>
+      <c r="M198" s="133">
         <v>120.15</v>
       </c>
-      <c r="N198" s="80"/>
-      <c r="O198" s="109">
+      <c r="N198" s="115"/>
+      <c r="O198" s="134">
         <v>0.6</v>
       </c>
-      <c r="P198" s="80"/>
-      <c r="Q198" s="107">
+      <c r="P198" s="115"/>
+      <c r="Q198" s="127">
         <v>47.78</v>
       </c>
-      <c r="R198" s="108"/>
-      <c r="S198" s="96">
+      <c r="R198" s="128"/>
+      <c r="S198" s="130">
         <v>1.4</v>
       </c>
-      <c r="T198" s="80"/>
+      <c r="T198" s="115"/>
     </row>
     <row r="199" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A199" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="B199" s="65"/>
-      <c r="C199" s="94">
+      <c r="A199" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="B199" s="91"/>
+      <c r="C199" s="101">
         <v>250</v>
       </c>
-      <c r="D199" s="65"/>
-      <c r="E199" s="69">
+      <c r="D199" s="91"/>
+      <c r="E199" s="90">
         <v>4</v>
       </c>
-      <c r="F199" s="65"/>
-      <c r="G199" s="69">
+      <c r="F199" s="91"/>
+      <c r="G199" s="90">
         <v>0.5</v>
       </c>
-      <c r="H199" s="65"/>
-      <c r="I199" s="112"/>
-      <c r="J199" s="65"/>
-      <c r="K199" s="113">
+      <c r="H199" s="91"/>
+      <c r="I199" s="102"/>
+      <c r="J199" s="91"/>
+      <c r="K199" s="103">
         <v>1.61</v>
       </c>
-      <c r="L199" s="65"/>
-      <c r="M199" s="88">
+      <c r="L199" s="91"/>
+      <c r="M199" s="104">
         <v>92.84</v>
       </c>
-      <c r="N199" s="65"/>
-      <c r="O199" s="89">
+      <c r="N199" s="91"/>
+      <c r="O199" s="105">
         <v>3</v>
       </c>
-      <c r="P199" s="65"/>
-      <c r="Q199" s="104">
+      <c r="P199" s="91"/>
+      <c r="Q199" s="106">
         <v>47.72</v>
       </c>
-      <c r="R199" s="68"/>
-      <c r="S199" s="69">
+      <c r="R199" s="107"/>
+      <c r="S199" s="90">
         <v>1.4</v>
       </c>
-      <c r="T199" s="65"/>
+      <c r="T199" s="91"/>
     </row>
     <row r="200" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A200" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="B200" s="71"/>
-      <c r="C200" s="70">
+      <c r="A200" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="B200" s="93"/>
+      <c r="C200" s="92">
         <v>250</v>
       </c>
-      <c r="D200" s="71"/>
-      <c r="E200" s="72">
+      <c r="D200" s="93"/>
+      <c r="E200" s="94">
         <v>4</v>
       </c>
-      <c r="F200" s="71"/>
-      <c r="G200" s="72">
+      <c r="F200" s="93"/>
+      <c r="G200" s="94">
         <v>1</v>
       </c>
-      <c r="H200" s="71"/>
-      <c r="I200" s="73"/>
-      <c r="J200" s="71"/>
-      <c r="K200" s="74">
+      <c r="H200" s="93"/>
+      <c r="I200" s="95"/>
+      <c r="J200" s="93"/>
+      <c r="K200" s="96">
         <v>2.14</v>
       </c>
-      <c r="L200" s="71"/>
-      <c r="M200" s="75">
+      <c r="L200" s="93"/>
+      <c r="M200" s="97">
         <v>107.32</v>
       </c>
-      <c r="N200" s="71"/>
-      <c r="O200" s="76">
+      <c r="N200" s="93"/>
+      <c r="O200" s="98">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P200" s="71"/>
-      <c r="Q200" s="77">
+      <c r="P200" s="93"/>
+      <c r="Q200" s="99">
         <v>47.78</v>
       </c>
-      <c r="R200" s="78"/>
-      <c r="S200" s="72">
+      <c r="R200" s="100"/>
+      <c r="S200" s="94">
         <v>1.4</v>
       </c>
-      <c r="T200" s="71"/>
+      <c r="T200" s="93"/>
     </row>
     <row r="201" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A201" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="B201" s="71"/>
-      <c r="C201" s="92">
+      <c r="A201" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="B201" s="93"/>
+      <c r="C201" s="109">
         <v>250</v>
       </c>
-      <c r="D201" s="71"/>
-      <c r="E201" s="90">
+      <c r="D201" s="93"/>
+      <c r="E201" s="108">
         <v>4</v>
       </c>
-      <c r="F201" s="71"/>
-      <c r="G201" s="90">
+      <c r="F201" s="93"/>
+      <c r="G201" s="108">
         <v>1.6</v>
       </c>
-      <c r="H201" s="71"/>
-      <c r="I201" s="93"/>
-      <c r="J201" s="71"/>
-      <c r="K201" s="91">
+      <c r="H201" s="93"/>
+      <c r="I201" s="110"/>
+      <c r="J201" s="93"/>
+      <c r="K201" s="111">
         <v>2.57</v>
       </c>
-      <c r="L201" s="71"/>
-      <c r="M201" s="100">
+      <c r="L201" s="93"/>
+      <c r="M201" s="112">
         <v>120.1</v>
       </c>
-      <c r="N201" s="71"/>
-      <c r="O201" s="101">
+      <c r="N201" s="93"/>
+      <c r="O201" s="113">
         <v>1.8</v>
       </c>
-      <c r="P201" s="71"/>
-      <c r="Q201" s="77">
+      <c r="P201" s="93"/>
+      <c r="Q201" s="99">
         <v>47.82</v>
       </c>
-      <c r="R201" s="78"/>
-      <c r="S201" s="90">
+      <c r="R201" s="100"/>
+      <c r="S201" s="108">
         <v>1.4</v>
       </c>
-      <c r="T201" s="71"/>
+      <c r="T201" s="93"/>
     </row>
     <row r="202" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A202" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B202" s="71"/>
-      <c r="C202" s="70">
+      <c r="A202" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B202" s="93"/>
+      <c r="C202" s="92">
         <v>250</v>
       </c>
-      <c r="D202" s="71"/>
-      <c r="E202" s="72">
+      <c r="D202" s="93"/>
+      <c r="E202" s="94">
         <v>4</v>
       </c>
-      <c r="F202" s="71"/>
-      <c r="G202" s="72">
+      <c r="F202" s="93"/>
+      <c r="G202" s="94">
         <v>3</v>
       </c>
-      <c r="H202" s="71"/>
-      <c r="I202" s="73"/>
-      <c r="J202" s="71"/>
-      <c r="K202" s="74">
+      <c r="H202" s="93"/>
+      <c r="I202" s="95"/>
+      <c r="J202" s="93"/>
+      <c r="K202" s="96">
         <v>3.16</v>
       </c>
-      <c r="L202" s="71"/>
-      <c r="M202" s="75">
+      <c r="L202" s="93"/>
+      <c r="M202" s="97">
         <v>137.46</v>
       </c>
-      <c r="N202" s="71"/>
-      <c r="O202" s="76">
+      <c r="N202" s="93"/>
+      <c r="O202" s="98">
         <v>1.2</v>
       </c>
-      <c r="P202" s="71"/>
-      <c r="Q202" s="77">
+      <c r="P202" s="93"/>
+      <c r="Q202" s="99">
         <v>47.88</v>
       </c>
-      <c r="R202" s="78"/>
-      <c r="S202" s="72">
+      <c r="R202" s="100"/>
+      <c r="S202" s="94">
         <v>1.4</v>
       </c>
-      <c r="T202" s="71"/>
+      <c r="T202" s="93"/>
     </row>
     <row r="203" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A203" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="B203" s="80"/>
-      <c r="C203" s="79">
+      <c r="A203" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="B203" s="115"/>
+      <c r="C203" s="122">
         <v>250</v>
       </c>
-      <c r="D203" s="80"/>
-      <c r="E203" s="81">
+      <c r="D203" s="115"/>
+      <c r="E203" s="114">
         <v>4</v>
       </c>
-      <c r="F203" s="80"/>
-      <c r="G203" s="81">
+      <c r="F203" s="115"/>
+      <c r="G203" s="114">
         <v>5</v>
       </c>
-      <c r="H203" s="80"/>
-      <c r="I203" s="82"/>
-      <c r="J203" s="80"/>
-      <c r="K203" s="83">
+      <c r="H203" s="115"/>
+      <c r="I203" s="123"/>
+      <c r="J203" s="115"/>
+      <c r="K203" s="124">
         <v>3.6</v>
       </c>
-      <c r="L203" s="80"/>
-      <c r="M203" s="105">
+      <c r="L203" s="115"/>
+      <c r="M203" s="125">
         <v>149.51</v>
       </c>
-      <c r="N203" s="80"/>
-      <c r="O203" s="106">
+      <c r="N203" s="115"/>
+      <c r="O203" s="126">
         <v>0.7</v>
       </c>
-      <c r="P203" s="80"/>
-      <c r="Q203" s="107">
+      <c r="P203" s="115"/>
+      <c r="Q203" s="127">
         <v>47.85</v>
       </c>
-      <c r="R203" s="108"/>
-      <c r="S203" s="81">
+      <c r="R203" s="128"/>
+      <c r="S203" s="114">
         <v>1.4</v>
       </c>
-      <c r="T203" s="80"/>
+      <c r="T203" s="115"/>
     </row>
     <row r="204" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A204" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="B204" s="71"/>
-      <c r="C204" s="70">
+      <c r="A204" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B204" s="93"/>
+      <c r="C204" s="92">
         <v>280</v>
       </c>
-      <c r="D204" s="71"/>
-      <c r="E204" s="72">
+      <c r="D204" s="93"/>
+      <c r="E204" s="94">
         <v>4</v>
       </c>
-      <c r="F204" s="71"/>
-      <c r="G204" s="72">
+      <c r="F204" s="93"/>
+      <c r="G204" s="94">
         <v>1</v>
       </c>
-      <c r="H204" s="71"/>
-      <c r="I204" s="73"/>
-      <c r="J204" s="71"/>
-      <c r="K204" s="74">
+      <c r="H204" s="93"/>
+      <c r="I204" s="95"/>
+      <c r="J204" s="93"/>
+      <c r="K204" s="96">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L204" s="71"/>
-      <c r="M204" s="75">
+      <c r="L204" s="93"/>
+      <c r="M204" s="97">
         <v>114.61</v>
       </c>
-      <c r="N204" s="71"/>
-      <c r="O204" s="76">
+      <c r="N204" s="93"/>
+      <c r="O204" s="98">
         <v>2.5</v>
       </c>
-      <c r="P204" s="71"/>
-      <c r="Q204" s="77">
+      <c r="P204" s="93"/>
+      <c r="Q204" s="99">
         <v>47.78</v>
       </c>
-      <c r="R204" s="78"/>
-      <c r="S204" s="72">
+      <c r="R204" s="100"/>
+      <c r="S204" s="94">
         <v>1.4</v>
       </c>
-      <c r="T204" s="71"/>
+      <c r="T204" s="93"/>
     </row>
     <row r="205" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A205" s="92" t="s">
-        <v>178</v>
-      </c>
-      <c r="B205" s="71"/>
-      <c r="C205" s="92">
+      <c r="A205" s="109" t="s">
+        <v>182</v>
+      </c>
+      <c r="B205" s="93"/>
+      <c r="C205" s="109">
         <v>280</v>
       </c>
-      <c r="D205" s="71"/>
-      <c r="E205" s="90">
+      <c r="D205" s="93"/>
+      <c r="E205" s="108">
         <v>4</v>
       </c>
-      <c r="F205" s="71"/>
-      <c r="G205" s="90">
+      <c r="F205" s="93"/>
+      <c r="G205" s="108">
         <v>1.6</v>
       </c>
-      <c r="H205" s="71"/>
-      <c r="I205" s="93"/>
-      <c r="J205" s="71"/>
-      <c r="K205" s="91">
+      <c r="H205" s="93"/>
+      <c r="I205" s="110"/>
+      <c r="J205" s="93"/>
+      <c r="K205" s="111">
         <v>2.88</v>
       </c>
-      <c r="L205" s="71"/>
-      <c r="M205" s="100">
+      <c r="L205" s="93"/>
+      <c r="M205" s="112">
         <v>128.5</v>
       </c>
-      <c r="N205" s="71"/>
-      <c r="O205" s="101">
+      <c r="N205" s="93"/>
+      <c r="O205" s="113">
         <v>2</v>
       </c>
-      <c r="P205" s="71"/>
-      <c r="Q205" s="77">
+      <c r="P205" s="93"/>
+      <c r="Q205" s="99">
         <v>47.8</v>
       </c>
-      <c r="R205" s="78"/>
-      <c r="S205" s="90">
+      <c r="R205" s="100"/>
+      <c r="S205" s="108">
         <v>1.4</v>
       </c>
-      <c r="T205" s="71"/>
+      <c r="T205" s="93"/>
     </row>
     <row r="206" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A206" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="B206" s="71"/>
-      <c r="C206" s="70">
+      <c r="A206" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="B206" s="93"/>
+      <c r="C206" s="92">
         <v>280</v>
       </c>
-      <c r="D206" s="71"/>
-      <c r="E206" s="72">
+      <c r="D206" s="93"/>
+      <c r="E206" s="94">
         <v>4</v>
       </c>
-      <c r="F206" s="71"/>
-      <c r="G206" s="72">
+      <c r="F206" s="93"/>
+      <c r="G206" s="94">
         <v>3</v>
       </c>
-      <c r="H206" s="71"/>
-      <c r="I206" s="73"/>
-      <c r="J206" s="71"/>
-      <c r="K206" s="74">
+      <c r="H206" s="93"/>
+      <c r="I206" s="95"/>
+      <c r="J206" s="93"/>
+      <c r="K206" s="96">
         <v>3.5</v>
       </c>
-      <c r="L206" s="71"/>
-      <c r="M206" s="75">
+      <c r="L206" s="93"/>
+      <c r="M206" s="97">
         <v>147.05000000000001</v>
       </c>
-      <c r="N206" s="71"/>
-      <c r="O206" s="76">
+      <c r="N206" s="93"/>
+      <c r="O206" s="98">
         <v>1.4</v>
       </c>
-      <c r="P206" s="71"/>
-      <c r="Q206" s="77">
+      <c r="P206" s="93"/>
+      <c r="Q206" s="99">
         <v>47.84</v>
       </c>
-      <c r="R206" s="78"/>
-      <c r="S206" s="72">
+      <c r="R206" s="100"/>
+      <c r="S206" s="94">
         <v>1.4</v>
       </c>
-      <c r="T206" s="71"/>
+      <c r="T206" s="93"/>
     </row>
     <row r="207" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A207" s="79" t="s">
-        <v>180</v>
-      </c>
-      <c r="B207" s="80"/>
-      <c r="C207" s="79">
+      <c r="A207" s="122" t="s">
+        <v>183</v>
+      </c>
+      <c r="B207" s="115"/>
+      <c r="C207" s="122">
         <v>280</v>
       </c>
-      <c r="D207" s="80"/>
-      <c r="E207" s="81">
+      <c r="D207" s="115"/>
+      <c r="E207" s="114">
         <v>4</v>
       </c>
-      <c r="F207" s="80"/>
-      <c r="G207" s="81">
+      <c r="F207" s="115"/>
+      <c r="G207" s="114">
         <v>5</v>
       </c>
-      <c r="H207" s="80"/>
-      <c r="I207" s="82"/>
-      <c r="J207" s="80"/>
-      <c r="K207" s="83">
+      <c r="H207" s="115"/>
+      <c r="I207" s="123"/>
+      <c r="J207" s="115"/>
+      <c r="K207" s="124">
         <v>3.93</v>
       </c>
-      <c r="L207" s="80"/>
-      <c r="M207" s="105">
+      <c r="L207" s="115"/>
+      <c r="M207" s="125">
         <v>159.91999999999999</v>
       </c>
-      <c r="N207" s="80"/>
-      <c r="O207" s="106">
+      <c r="N207" s="115"/>
+      <c r="O207" s="126">
         <v>0.9</v>
       </c>
-      <c r="P207" s="80"/>
-      <c r="Q207" s="107">
+      <c r="P207" s="115"/>
+      <c r="Q207" s="127">
         <v>47.82</v>
       </c>
-      <c r="R207" s="108"/>
-      <c r="S207" s="81">
+      <c r="R207" s="128"/>
+      <c r="S207" s="114">
         <v>1.4</v>
       </c>
-      <c r="T207" s="80"/>
+      <c r="T207" s="115"/>
     </row>
     <row r="208" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A208" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="B208" s="65"/>
-      <c r="C208" s="84">
+      <c r="A208" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="B208" s="91"/>
+      <c r="C208" s="116">
         <v>300</v>
       </c>
-      <c r="D208" s="65"/>
-      <c r="E208" s="85">
+      <c r="D208" s="91"/>
+      <c r="E208" s="117">
         <v>4</v>
       </c>
-      <c r="F208" s="65"/>
-      <c r="G208" s="85">
+      <c r="F208" s="91"/>
+      <c r="G208" s="117">
         <v>1.6</v>
       </c>
-      <c r="H208" s="65"/>
-      <c r="I208" s="86"/>
-      <c r="J208" s="65"/>
-      <c r="K208" s="87">
+      <c r="H208" s="91"/>
+      <c r="I208" s="118"/>
+      <c r="J208" s="91"/>
+      <c r="K208" s="119">
         <v>3.1</v>
       </c>
-      <c r="L208" s="65"/>
-      <c r="M208" s="102">
+      <c r="L208" s="91"/>
+      <c r="M208" s="120">
         <v>133.91999999999999</v>
       </c>
-      <c r="N208" s="65"/>
-      <c r="O208" s="103">
+      <c r="N208" s="91"/>
+      <c r="O208" s="121">
         <v>2.4</v>
       </c>
-      <c r="P208" s="65"/>
-      <c r="Q208" s="104">
+      <c r="P208" s="91"/>
+      <c r="Q208" s="106">
         <v>47.74</v>
       </c>
-      <c r="R208" s="68"/>
-      <c r="S208" s="85">
+      <c r="R208" s="107"/>
+      <c r="S208" s="117">
         <v>1.4</v>
       </c>
-      <c r="T208" s="65"/>
+      <c r="T208" s="91"/>
     </row>
     <row r="209" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A209" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="B209" s="71"/>
-      <c r="C209" s="92">
+      <c r="A209" s="109" t="s">
+        <v>185</v>
+      </c>
+      <c r="B209" s="93"/>
+      <c r="C209" s="109">
         <v>300</v>
       </c>
-      <c r="D209" s="71"/>
-      <c r="E209" s="90">
+      <c r="D209" s="93"/>
+      <c r="E209" s="108">
         <v>4</v>
       </c>
-      <c r="F209" s="71"/>
-      <c r="G209" s="90">
+      <c r="F209" s="93"/>
+      <c r="G209" s="108">
         <v>3</v>
       </c>
-      <c r="H209" s="71"/>
-      <c r="I209" s="93"/>
-      <c r="J209" s="71"/>
-      <c r="K209" s="91">
+      <c r="H209" s="93"/>
+      <c r="I209" s="110"/>
+      <c r="J209" s="93"/>
+      <c r="K209" s="111">
         <v>3.7</v>
       </c>
-      <c r="L209" s="71"/>
-      <c r="M209" s="100">
+      <c r="L209" s="93"/>
+      <c r="M209" s="112">
         <v>153.21</v>
       </c>
-      <c r="N209" s="71"/>
-      <c r="O209" s="101">
+      <c r="N209" s="93"/>
+      <c r="O209" s="113">
         <v>1.7</v>
       </c>
-      <c r="P209" s="71"/>
-      <c r="Q209" s="77">
+      <c r="P209" s="93"/>
+      <c r="Q209" s="99">
         <v>47.76</v>
       </c>
-      <c r="R209" s="78"/>
-      <c r="S209" s="90">
+      <c r="R209" s="100"/>
+      <c r="S209" s="108">
         <v>1.4</v>
       </c>
-      <c r="T209" s="71"/>
+      <c r="T209" s="93"/>
     </row>
     <row r="210" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A210" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="B210" s="71"/>
-      <c r="C210" s="70">
+      <c r="A210" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="B210" s="93"/>
+      <c r="C210" s="92">
         <v>300</v>
       </c>
-      <c r="D210" s="71"/>
-      <c r="E210" s="72">
+      <c r="D210" s="93"/>
+      <c r="E210" s="94">
         <v>4</v>
       </c>
-      <c r="F210" s="71"/>
-      <c r="G210" s="72">
+      <c r="F210" s="93"/>
+      <c r="G210" s="94">
         <v>5</v>
       </c>
-      <c r="H210" s="71"/>
-      <c r="I210" s="73"/>
-      <c r="J210" s="71"/>
-      <c r="K210" s="74">
+      <c r="H210" s="93"/>
+      <c r="I210" s="95"/>
+      <c r="J210" s="93"/>
+      <c r="K210" s="96">
         <v>4.1500000000000004</v>
       </c>
-      <c r="L210" s="71"/>
-      <c r="M210" s="75">
+      <c r="L210" s="93"/>
+      <c r="M210" s="97">
         <v>166.58</v>
       </c>
-      <c r="N210" s="71"/>
-      <c r="O210" s="76">
+      <c r="N210" s="93"/>
+      <c r="O210" s="98">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P210" s="71"/>
-      <c r="Q210" s="77">
+      <c r="P210" s="93"/>
+      <c r="Q210" s="99">
         <v>47.74</v>
       </c>
-      <c r="R210" s="78"/>
-      <c r="S210" s="72">
+      <c r="R210" s="100"/>
+      <c r="S210" s="94">
         <v>1.4</v>
       </c>
-      <c r="T210" s="71"/>
+      <c r="T210" s="93"/>
     </row>
     <row r="211" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A211" s="94" t="s">
-        <v>183</v>
-      </c>
-      <c r="B211" s="65"/>
-      <c r="C211" s="94">
+      <c r="A211" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="B211" s="91"/>
+      <c r="C211" s="101">
         <v>320</v>
       </c>
-      <c r="D211" s="65"/>
-      <c r="E211" s="69">
+      <c r="D211" s="91"/>
+      <c r="E211" s="90">
         <v>4</v>
       </c>
-      <c r="F211" s="65"/>
-      <c r="G211" s="69">
+      <c r="F211" s="91"/>
+      <c r="G211" s="90">
         <v>3</v>
       </c>
-      <c r="H211" s="65"/>
-      <c r="I211" s="112"/>
-      <c r="J211" s="65"/>
-      <c r="K211" s="113">
+      <c r="H211" s="91"/>
+      <c r="I211" s="102"/>
+      <c r="J211" s="91"/>
+      <c r="K211" s="103">
         <v>3.9</v>
       </c>
-      <c r="L211" s="65"/>
-      <c r="M211" s="88">
+      <c r="L211" s="91"/>
+      <c r="M211" s="104">
         <v>159.22</v>
       </c>
-      <c r="N211" s="65"/>
-      <c r="O211" s="89">
+      <c r="N211" s="91"/>
+      <c r="O211" s="105">
         <v>1.6</v>
       </c>
-      <c r="P211" s="65"/>
-      <c r="Q211" s="104">
+      <c r="P211" s="91"/>
+      <c r="Q211" s="106">
         <v>47.66</v>
       </c>
-      <c r="R211" s="68"/>
-      <c r="S211" s="69">
+      <c r="R211" s="107"/>
+      <c r="S211" s="90">
         <v>1.4</v>
       </c>
-      <c r="T211" s="65"/>
+      <c r="T211" s="91"/>
     </row>
     <row r="212" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A212" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="B212" s="71"/>
-      <c r="C212" s="70">
+      <c r="A212" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="B212" s="93"/>
+      <c r="C212" s="92">
         <v>320</v>
       </c>
-      <c r="D212" s="71"/>
-      <c r="E212" s="72">
+      <c r="D212" s="93"/>
+      <c r="E212" s="94">
         <v>4</v>
       </c>
-      <c r="F212" s="71"/>
-      <c r="G212" s="72">
+      <c r="F212" s="93"/>
+      <c r="G212" s="94">
         <v>5</v>
       </c>
-      <c r="H212" s="71"/>
-      <c r="I212" s="73"/>
-      <c r="J212" s="71"/>
-      <c r="K212" s="74">
+      <c r="H212" s="93"/>
+      <c r="I212" s="95"/>
+      <c r="J212" s="93"/>
+      <c r="K212" s="96">
         <v>4.34</v>
       </c>
-      <c r="L212" s="71"/>
-      <c r="M212" s="75">
+      <c r="L212" s="93"/>
+      <c r="M212" s="97">
         <v>173.06</v>
       </c>
-      <c r="N212" s="71"/>
-      <c r="O212" s="76">
+      <c r="N212" s="93"/>
+      <c r="O212" s="98">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P212" s="71"/>
-      <c r="Q212" s="77">
+      <c r="P212" s="93"/>
+      <c r="Q212" s="99">
         <v>47.66</v>
       </c>
-      <c r="R212" s="78"/>
-      <c r="S212" s="72">
+      <c r="R212" s="100"/>
+      <c r="S212" s="94">
         <v>1.4</v>
       </c>
-      <c r="T212" s="71"/>
+      <c r="T212" s="93"/>
     </row>
     <row r="213" spans="1:20" ht="15" customHeight="1">
-      <c r="A213" s="145" t="s">
-        <v>185</v>
-      </c>
-      <c r="B213" s="111"/>
-      <c r="C213" s="145">
+      <c r="A213" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="B213" s="66"/>
+      <c r="C213" s="69">
         <v>250</v>
       </c>
-      <c r="D213" s="111"/>
-      <c r="E213" s="146">
+      <c r="D213" s="66"/>
+      <c r="E213" s="65">
         <v>4</v>
       </c>
-      <c r="F213" s="111"/>
-      <c r="G213" s="146">
+      <c r="F213" s="66"/>
+      <c r="G213" s="65">
         <v>1.6</v>
       </c>
-      <c r="H213" s="111"/>
-      <c r="I213" s="147"/>
-      <c r="J213" s="111"/>
-      <c r="K213" s="148">
+      <c r="H213" s="66"/>
+      <c r="I213" s="70"/>
+      <c r="J213" s="66"/>
+      <c r="K213" s="71">
         <v>2.57</v>
       </c>
-      <c r="L213" s="111"/>
-      <c r="M213" s="149">
+      <c r="L213" s="66"/>
+      <c r="M213" s="72">
         <v>120.1</v>
       </c>
-      <c r="N213" s="111"/>
-      <c r="O213" s="150">
+      <c r="N213" s="66"/>
+      <c r="O213" s="73">
         <v>1.8</v>
       </c>
-      <c r="P213" s="111"/>
-      <c r="Q213" s="151">
+      <c r="P213" s="66"/>
+      <c r="Q213" s="63">
         <v>47.69</v>
       </c>
-      <c r="R213" s="144"/>
-      <c r="S213" s="146">
+      <c r="R213" s="64"/>
+      <c r="S213" s="65">
         <v>1.4</v>
       </c>
-      <c r="T213" s="111"/>
+      <c r="T213" s="66"/>
     </row>
     <row r="214" spans="1:20" ht="15" customHeight="1">
-      <c r="A214" s="164" t="s">
-        <v>186</v>
-      </c>
-      <c r="B214" s="111"/>
-      <c r="C214" s="164">
+      <c r="A214" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="B214" s="66"/>
+      <c r="C214" s="74">
         <v>280</v>
       </c>
-      <c r="D214" s="111"/>
-      <c r="E214" s="163">
+      <c r="D214" s="66"/>
+      <c r="E214" s="68">
         <v>4</v>
       </c>
-      <c r="F214" s="111"/>
-      <c r="G214" s="163">
+      <c r="F214" s="66"/>
+      <c r="G214" s="68">
         <v>3</v>
       </c>
-      <c r="H214" s="111"/>
-      <c r="I214" s="165"/>
-      <c r="J214" s="111"/>
-      <c r="K214" s="166">
+      <c r="H214" s="66"/>
+      <c r="I214" s="75"/>
+      <c r="J214" s="66"/>
+      <c r="K214" s="76">
         <v>3.5</v>
       </c>
-      <c r="L214" s="111"/>
-      <c r="M214" s="167">
+      <c r="L214" s="66"/>
+      <c r="M214" s="77">
         <v>147.05000000000001</v>
       </c>
-      <c r="N214" s="111"/>
-      <c r="O214" s="168">
+      <c r="N214" s="66"/>
+      <c r="O214" s="78">
         <v>1.4</v>
       </c>
-      <c r="P214" s="111"/>
-      <c r="Q214" s="151">
+      <c r="P214" s="66"/>
+      <c r="Q214" s="63">
         <v>47.87</v>
       </c>
-      <c r="R214" s="144"/>
-      <c r="S214" s="163">
+      <c r="R214" s="64"/>
+      <c r="S214" s="68">
         <v>1.4</v>
       </c>
-      <c r="T214" s="111"/>
+      <c r="T214" s="66"/>
     </row>
     <row r="215" spans="1:20" ht="15" customHeight="1">
-      <c r="A215" s="145" t="s">
-        <v>131</v>
-      </c>
-      <c r="B215" s="111"/>
-      <c r="C215" s="145">
+      <c r="A215" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B215" s="66"/>
+      <c r="C215" s="69">
         <v>300</v>
       </c>
-      <c r="D215" s="111"/>
-      <c r="E215" s="146">
+      <c r="D215" s="66"/>
+      <c r="E215" s="65">
         <v>4</v>
       </c>
-      <c r="F215" s="111"/>
-      <c r="G215" s="146">
+      <c r="F215" s="66"/>
+      <c r="G215" s="65">
         <v>3</v>
       </c>
-      <c r="H215" s="111"/>
-      <c r="I215" s="147"/>
-      <c r="J215" s="111"/>
-      <c r="K215" s="148">
+      <c r="H215" s="66"/>
+      <c r="I215" s="70"/>
+      <c r="J215" s="66"/>
+      <c r="K215" s="71">
         <v>3.7</v>
       </c>
-      <c r="L215" s="111"/>
-      <c r="M215" s="149">
+      <c r="L215" s="66"/>
+      <c r="M215" s="72">
         <v>153.21</v>
       </c>
-      <c r="N215" s="111"/>
-      <c r="O215" s="150">
+      <c r="N215" s="66"/>
+      <c r="O215" s="73">
         <v>1.7</v>
       </c>
-      <c r="P215" s="111"/>
-      <c r="Q215" s="151">
+      <c r="P215" s="66"/>
+      <c r="Q215" s="63">
         <v>47.85</v>
       </c>
-      <c r="R215" s="144"/>
-      <c r="S215" s="146">
+      <c r="R215" s="64"/>
+      <c r="S215" s="65">
         <v>1.4</v>
       </c>
-      <c r="T215" s="111"/>
+      <c r="T215" s="66"/>
     </row>
     <row r="216" spans="1:20" ht="15" customHeight="1">
       <c r="A216" s="27" t="s">
@@ -8083,29 +8095,29 @@
     <row r="236" spans="1:20" ht="15" customHeight="1"/>
     <row r="237" spans="1:20" ht="9.9499999999999993" customHeight="1"/>
     <row r="238" spans="1:20" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A238" s="114" t="e">
+      <c r="A238" s="61" t="e">
         <f>"Figure 1: Calibration coefficients for "&amp;#REF! &amp; " serial number " &amp;#REF! &amp; " grouped by kVp"</f>
         <v>#REF!</v>
       </c>
-      <c r="B238" s="115"/>
-      <c r="C238" s="115"/>
-      <c r="D238" s="115"/>
-      <c r="E238" s="115"/>
-      <c r="F238" s="115"/>
-      <c r="G238" s="115"/>
-      <c r="H238" s="115"/>
-      <c r="I238" s="115"/>
-      <c r="J238" s="115"/>
-      <c r="K238" s="115"/>
-      <c r="L238" s="115"/>
-      <c r="M238" s="115"/>
-      <c r="N238" s="115"/>
-      <c r="O238" s="115"/>
-      <c r="P238" s="115"/>
-      <c r="Q238" s="115"/>
-      <c r="R238" s="115"/>
-      <c r="S238" s="115"/>
-      <c r="T238" s="115"/>
+      <c r="B238" s="62"/>
+      <c r="C238" s="62"/>
+      <c r="D238" s="62"/>
+      <c r="E238" s="62"/>
+      <c r="F238" s="62"/>
+      <c r="G238" s="62"/>
+      <c r="H238" s="62"/>
+      <c r="I238" s="62"/>
+      <c r="J238" s="62"/>
+      <c r="K238" s="62"/>
+      <c r="L238" s="62"/>
+      <c r="M238" s="62"/>
+      <c r="N238" s="62"/>
+      <c r="O238" s="62"/>
+      <c r="P238" s="62"/>
+      <c r="Q238" s="62"/>
+      <c r="R238" s="62"/>
+      <c r="S238" s="62"/>
+      <c r="T238" s="62"/>
     </row>
     <row r="239" spans="1:20" s="48" customFormat="1" ht="23.1" customHeight="1">
       <c r="A239" s="43" t="str">
@@ -8143,54 +8155,54 @@
       <c r="H240" s="48"/>
     </row>
     <row r="266" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A266" s="114" t="e">
+      <c r="A266" s="61" t="e">
         <f>"Figure 2: Calibration coefficients for "&amp;#REF! &amp; " serial number " &amp;#REF! &amp; " versus HVL (mm Al)"</f>
         <v>#REF!</v>
       </c>
-      <c r="B266" s="115"/>
-      <c r="C266" s="115"/>
-      <c r="D266" s="115"/>
-      <c r="E266" s="115"/>
-      <c r="F266" s="115"/>
-      <c r="G266" s="115"/>
-      <c r="H266" s="115"/>
-      <c r="I266" s="115"/>
-      <c r="J266" s="115"/>
-      <c r="K266" s="115"/>
-      <c r="L266" s="115"/>
-      <c r="M266" s="115"/>
-      <c r="N266" s="115"/>
-      <c r="O266" s="115"/>
-      <c r="P266" s="115"/>
-      <c r="Q266" s="115"/>
-      <c r="R266" s="115"/>
-      <c r="S266" s="115"/>
-      <c r="T266" s="115"/>
+      <c r="B266" s="62"/>
+      <c r="C266" s="62"/>
+      <c r="D266" s="62"/>
+      <c r="E266" s="62"/>
+      <c r="F266" s="62"/>
+      <c r="G266" s="62"/>
+      <c r="H266" s="62"/>
+      <c r="I266" s="62"/>
+      <c r="J266" s="62"/>
+      <c r="K266" s="62"/>
+      <c r="L266" s="62"/>
+      <c r="M266" s="62"/>
+      <c r="N266" s="62"/>
+      <c r="O266" s="62"/>
+      <c r="P266" s="62"/>
+      <c r="Q266" s="62"/>
+      <c r="R266" s="62"/>
+      <c r="S266" s="62"/>
+      <c r="T266" s="62"/>
     </row>
     <row r="293" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A293" s="114" t="e">
+      <c r="A293" s="61" t="e">
         <f>"Figure 3: Calibration coefficients for "&amp;#REF! &amp; " serial number " &amp;#REF! &amp; " versus HVL (mm Cu)"</f>
         <v>#REF!</v>
       </c>
-      <c r="B293" s="115"/>
-      <c r="C293" s="115"/>
-      <c r="D293" s="115"/>
-      <c r="E293" s="115"/>
-      <c r="F293" s="115"/>
-      <c r="G293" s="115"/>
-      <c r="H293" s="115"/>
-      <c r="I293" s="115"/>
-      <c r="J293" s="115"/>
-      <c r="K293" s="115"/>
-      <c r="L293" s="115"/>
-      <c r="M293" s="115"/>
-      <c r="N293" s="115"/>
-      <c r="O293" s="115"/>
-      <c r="P293" s="115"/>
-      <c r="Q293" s="115"/>
-      <c r="R293" s="115"/>
-      <c r="S293" s="115"/>
-      <c r="T293" s="115"/>
+      <c r="B293" s="62"/>
+      <c r="C293" s="62"/>
+      <c r="D293" s="62"/>
+      <c r="E293" s="62"/>
+      <c r="F293" s="62"/>
+      <c r="G293" s="62"/>
+      <c r="H293" s="62"/>
+      <c r="I293" s="62"/>
+      <c r="J293" s="62"/>
+      <c r="K293" s="62"/>
+      <c r="L293" s="62"/>
+      <c r="M293" s="62"/>
+      <c r="N293" s="62"/>
+      <c r="O293" s="62"/>
+      <c r="P293" s="62"/>
+      <c r="Q293" s="62"/>
+      <c r="R293" s="62"/>
+      <c r="S293" s="62"/>
+      <c r="T293" s="62"/>
     </row>
     <row r="298" spans="1:20" ht="14.1" customHeight="1" thickBot="1"/>
     <row r="299" spans="1:20" s="48" customFormat="1">
@@ -8228,6 +8240,793 @@
     <row r="301" spans="1:20" ht="19.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="811">
+    <mergeCell ref="S193:T193"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="I193:J193"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="O193:P193"/>
+    <mergeCell ref="Q193:R193"/>
+    <mergeCell ref="S123:T123"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="I146:J146"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="O146:P146"/>
+    <mergeCell ref="Q146:R146"/>
+    <mergeCell ref="S146:T146"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="O123:P123"/>
+    <mergeCell ref="Q123:R123"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="O124:P124"/>
+    <mergeCell ref="Q124:R124"/>
+    <mergeCell ref="S168:T168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="I169:J169"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="Q163:R163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="I164:J164"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="I165:J165"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="O168:P168"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="O155:P155"/>
+    <mergeCell ref="Q155:R155"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="I153:J153"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="Q169:R169"/>
+    <mergeCell ref="S169:T169"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="O166:P166"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="O157:P157"/>
+    <mergeCell ref="Q165:R165"/>
+    <mergeCell ref="Q157:R157"/>
+    <mergeCell ref="S157:T157"/>
+    <mergeCell ref="S163:T163"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="O158:P158"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="O164:P164"/>
+    <mergeCell ref="Q164:R164"/>
+    <mergeCell ref="S164:T164"/>
+    <mergeCell ref="O153:P153"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="I192:J192"/>
+    <mergeCell ref="K192:L192"/>
+    <mergeCell ref="M192:N192"/>
+    <mergeCell ref="O192:P192"/>
+    <mergeCell ref="O159:P159"/>
+    <mergeCell ref="Q159:R159"/>
+    <mergeCell ref="S159:T159"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="O160:P160"/>
+    <mergeCell ref="Q160:R160"/>
+    <mergeCell ref="S160:T160"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="S161:T161"/>
+    <mergeCell ref="S162:T162"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="O169:P169"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="Q151:R151"/>
+    <mergeCell ref="S151:T151"/>
+    <mergeCell ref="Q150:R150"/>
+    <mergeCell ref="S150:T150"/>
+    <mergeCell ref="Q153:R153"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="O154:P154"/>
+    <mergeCell ref="Q154:R154"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="S152:T152"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="A238:T238"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="O122:P122"/>
+    <mergeCell ref="B65:T65"/>
+    <mergeCell ref="B68:T68"/>
+    <mergeCell ref="B69:T69"/>
+    <mergeCell ref="B72:Q72"/>
+    <mergeCell ref="B75:Q75"/>
+    <mergeCell ref="Q192:R192"/>
+    <mergeCell ref="B82:T82"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="A103:T103"/>
+    <mergeCell ref="Q122:R122"/>
+    <mergeCell ref="S122:T122"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="S124:T124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="M125:N125"/>
+    <mergeCell ref="O125:P125"/>
+    <mergeCell ref="Q125:R125"/>
+    <mergeCell ref="S125:T125"/>
+    <mergeCell ref="S126:T126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="O127:P127"/>
+    <mergeCell ref="Q127:R127"/>
+    <mergeCell ref="S127:T127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="K126:L126"/>
+    <mergeCell ref="M126:N126"/>
+    <mergeCell ref="O126:P126"/>
+    <mergeCell ref="Q126:R126"/>
+    <mergeCell ref="S128:T128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="O129:P129"/>
+    <mergeCell ref="Q129:R129"/>
+    <mergeCell ref="S129:T129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="O128:P128"/>
+    <mergeCell ref="Q128:R128"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="O131:P131"/>
+    <mergeCell ref="Q131:R131"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="O130:P130"/>
+    <mergeCell ref="Q130:R130"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="O133:P133"/>
+    <mergeCell ref="Q133:R133"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="O132:P132"/>
+    <mergeCell ref="Q132:R132"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="O145:P145"/>
+    <mergeCell ref="Q145:R145"/>
+    <mergeCell ref="S145:T145"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="O134:P134"/>
+    <mergeCell ref="Q134:R134"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="I147:J147"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="O147:P147"/>
+    <mergeCell ref="Q147:R147"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="I149:J149"/>
+    <mergeCell ref="K149:L149"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="O149:P149"/>
+    <mergeCell ref="Q149:R149"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="I152:J152"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="O152:P152"/>
+    <mergeCell ref="Q152:R152"/>
+    <mergeCell ref="S147:T147"/>
+    <mergeCell ref="S149:T149"/>
+    <mergeCell ref="O148:P148"/>
+    <mergeCell ref="Q148:R148"/>
+    <mergeCell ref="S148:T148"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="I150:J150"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="O150:P150"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="S156:T156"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="O156:P156"/>
+    <mergeCell ref="Q156:R156"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="I162:J162"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="O162:P162"/>
+    <mergeCell ref="Q162:R162"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="O161:P161"/>
+    <mergeCell ref="Q161:R161"/>
+    <mergeCell ref="S167:T167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="I167:J167"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="O165:P165"/>
+    <mergeCell ref="S166:T166"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="O167:P167"/>
+    <mergeCell ref="Q166:R166"/>
+    <mergeCell ref="S165:T165"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="I168:J168"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="Q168:R168"/>
+    <mergeCell ref="Q167:R167"/>
+    <mergeCell ref="S170:T170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="I171:J171"/>
+    <mergeCell ref="K171:L171"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="O171:P171"/>
+    <mergeCell ref="Q171:R171"/>
+    <mergeCell ref="S171:T171"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="O170:P170"/>
+    <mergeCell ref="Q170:R170"/>
+    <mergeCell ref="S172:T172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="O173:P173"/>
+    <mergeCell ref="Q173:R173"/>
+    <mergeCell ref="S173:T173"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="Q172:R172"/>
+    <mergeCell ref="S174:T174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="O175:P175"/>
+    <mergeCell ref="Q175:R175"/>
+    <mergeCell ref="S175:T175"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="O174:P174"/>
+    <mergeCell ref="Q174:R174"/>
+    <mergeCell ref="S176:T176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="I177:J177"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="O177:P177"/>
+    <mergeCell ref="Q177:R177"/>
+    <mergeCell ref="S177:T177"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="I176:J176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="O176:P176"/>
+    <mergeCell ref="Q176:R176"/>
+    <mergeCell ref="S178:T178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="O179:P179"/>
+    <mergeCell ref="Q179:R179"/>
+    <mergeCell ref="S179:T179"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="M178:N178"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="Q178:R178"/>
+    <mergeCell ref="S180:T180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="I181:J181"/>
+    <mergeCell ref="K181:L181"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="O181:P181"/>
+    <mergeCell ref="Q181:R181"/>
+    <mergeCell ref="S181:T181"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="O180:P180"/>
+    <mergeCell ref="Q180:R180"/>
+    <mergeCell ref="S182:T182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="I183:J183"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="O183:P183"/>
+    <mergeCell ref="Q183:R183"/>
+    <mergeCell ref="S183:T183"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="O182:P182"/>
+    <mergeCell ref="Q182:R182"/>
+    <mergeCell ref="S184:T184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="O185:P185"/>
+    <mergeCell ref="Q185:R185"/>
+    <mergeCell ref="S185:T185"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="I184:J184"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="O184:P184"/>
+    <mergeCell ref="Q184:R184"/>
+    <mergeCell ref="S186:T186"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="I194:J194"/>
+    <mergeCell ref="K194:L194"/>
+    <mergeCell ref="M194:N194"/>
+    <mergeCell ref="O194:P194"/>
+    <mergeCell ref="Q194:R194"/>
+    <mergeCell ref="S194:T194"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="O186:P186"/>
+    <mergeCell ref="Q186:R186"/>
+    <mergeCell ref="S192:T192"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="S195:T195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="I196:J196"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="O196:P196"/>
+    <mergeCell ref="Q196:R196"/>
+    <mergeCell ref="S196:T196"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="I195:J195"/>
+    <mergeCell ref="K195:L195"/>
+    <mergeCell ref="M195:N195"/>
+    <mergeCell ref="O195:P195"/>
+    <mergeCell ref="Q195:R195"/>
+    <mergeCell ref="S197:T197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="I198:J198"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="O198:P198"/>
+    <mergeCell ref="Q198:R198"/>
+    <mergeCell ref="S198:T198"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="I197:J197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="O197:P197"/>
+    <mergeCell ref="Q197:R197"/>
+    <mergeCell ref="S199:T199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="E200:F200"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="I200:J200"/>
+    <mergeCell ref="K200:L200"/>
+    <mergeCell ref="M200:N200"/>
+    <mergeCell ref="O200:P200"/>
+    <mergeCell ref="Q200:R200"/>
+    <mergeCell ref="S200:T200"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="I199:J199"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="M199:N199"/>
+    <mergeCell ref="O199:P199"/>
+    <mergeCell ref="Q199:R199"/>
+    <mergeCell ref="S201:T201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="I202:J202"/>
+    <mergeCell ref="K202:L202"/>
+    <mergeCell ref="M202:N202"/>
+    <mergeCell ref="O202:P202"/>
+    <mergeCell ref="Q202:R202"/>
+    <mergeCell ref="S202:T202"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="I201:J201"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="O201:P201"/>
+    <mergeCell ref="Q201:R201"/>
+    <mergeCell ref="S203:T203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="I204:J204"/>
+    <mergeCell ref="K204:L204"/>
+    <mergeCell ref="M204:N204"/>
+    <mergeCell ref="O204:P204"/>
+    <mergeCell ref="Q204:R204"/>
+    <mergeCell ref="S204:T204"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="I203:J203"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="O203:P203"/>
+    <mergeCell ref="Q203:R203"/>
+    <mergeCell ref="S205:T205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="I206:J206"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="O206:P206"/>
+    <mergeCell ref="Q206:R206"/>
+    <mergeCell ref="S206:T206"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="I205:J205"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="O205:P205"/>
+    <mergeCell ref="Q205:R205"/>
+    <mergeCell ref="S207:T207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="I208:J208"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M208:N208"/>
+    <mergeCell ref="O208:P208"/>
+    <mergeCell ref="Q208:R208"/>
+    <mergeCell ref="S208:T208"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="I207:J207"/>
+    <mergeCell ref="K207:L207"/>
+    <mergeCell ref="M207:N207"/>
+    <mergeCell ref="O207:P207"/>
+    <mergeCell ref="Q207:R207"/>
+    <mergeCell ref="S209:T209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="I210:J210"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="O210:P210"/>
+    <mergeCell ref="Q210:R210"/>
+    <mergeCell ref="S210:T210"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="I209:J209"/>
+    <mergeCell ref="K209:L209"/>
+    <mergeCell ref="M209:N209"/>
+    <mergeCell ref="O209:P209"/>
+    <mergeCell ref="Q209:R209"/>
+    <mergeCell ref="S211:T211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="I212:J212"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="M212:N212"/>
+    <mergeCell ref="O212:P212"/>
+    <mergeCell ref="Q212:R212"/>
+    <mergeCell ref="S212:T212"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="I211:J211"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="O211:P211"/>
+    <mergeCell ref="Q211:R211"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="I213:J213"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="M213:N213"/>
+    <mergeCell ref="O213:P213"/>
+    <mergeCell ref="Q213:R213"/>
+    <mergeCell ref="A7:T7"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="A59:T59"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="B79:T79"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="T29:T41"/>
     <mergeCell ref="A266:T266"/>
     <mergeCell ref="A293:T293"/>
     <mergeCell ref="Q215:R215"/>
@@ -8252,793 +9051,6 @@
     <mergeCell ref="K214:L214"/>
     <mergeCell ref="M214:N214"/>
     <mergeCell ref="O214:P214"/>
-    <mergeCell ref="A7:T7"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="A59:T59"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="B79:T79"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="T29:T41"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="I213:J213"/>
-    <mergeCell ref="K213:L213"/>
-    <mergeCell ref="M213:N213"/>
-    <mergeCell ref="O213:P213"/>
-    <mergeCell ref="Q213:R213"/>
-    <mergeCell ref="S211:T211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="I212:J212"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="M212:N212"/>
-    <mergeCell ref="O212:P212"/>
-    <mergeCell ref="Q212:R212"/>
-    <mergeCell ref="S212:T212"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="I211:J211"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="O211:P211"/>
-    <mergeCell ref="Q211:R211"/>
-    <mergeCell ref="S209:T209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="I210:J210"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="O210:P210"/>
-    <mergeCell ref="Q210:R210"/>
-    <mergeCell ref="S210:T210"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="I209:J209"/>
-    <mergeCell ref="K209:L209"/>
-    <mergeCell ref="M209:N209"/>
-    <mergeCell ref="O209:P209"/>
-    <mergeCell ref="Q209:R209"/>
-    <mergeCell ref="S207:T207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="I208:J208"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M208:N208"/>
-    <mergeCell ref="O208:P208"/>
-    <mergeCell ref="Q208:R208"/>
-    <mergeCell ref="S208:T208"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="I207:J207"/>
-    <mergeCell ref="K207:L207"/>
-    <mergeCell ref="M207:N207"/>
-    <mergeCell ref="O207:P207"/>
-    <mergeCell ref="Q207:R207"/>
-    <mergeCell ref="S205:T205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="I206:J206"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="O206:P206"/>
-    <mergeCell ref="Q206:R206"/>
-    <mergeCell ref="S206:T206"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="I205:J205"/>
-    <mergeCell ref="K205:L205"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="O205:P205"/>
-    <mergeCell ref="Q205:R205"/>
-    <mergeCell ref="S203:T203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="I204:J204"/>
-    <mergeCell ref="K204:L204"/>
-    <mergeCell ref="M204:N204"/>
-    <mergeCell ref="O204:P204"/>
-    <mergeCell ref="Q204:R204"/>
-    <mergeCell ref="S204:T204"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="I203:J203"/>
-    <mergeCell ref="K203:L203"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="O203:P203"/>
-    <mergeCell ref="Q203:R203"/>
-    <mergeCell ref="S201:T201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="I202:J202"/>
-    <mergeCell ref="K202:L202"/>
-    <mergeCell ref="M202:N202"/>
-    <mergeCell ref="O202:P202"/>
-    <mergeCell ref="Q202:R202"/>
-    <mergeCell ref="S202:T202"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="I201:J201"/>
-    <mergeCell ref="K201:L201"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="O201:P201"/>
-    <mergeCell ref="Q201:R201"/>
-    <mergeCell ref="S199:T199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="E200:F200"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="I200:J200"/>
-    <mergeCell ref="K200:L200"/>
-    <mergeCell ref="M200:N200"/>
-    <mergeCell ref="O200:P200"/>
-    <mergeCell ref="Q200:R200"/>
-    <mergeCell ref="S200:T200"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="I199:J199"/>
-    <mergeCell ref="K199:L199"/>
-    <mergeCell ref="M199:N199"/>
-    <mergeCell ref="O199:P199"/>
-    <mergeCell ref="Q199:R199"/>
-    <mergeCell ref="S197:T197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="I198:J198"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="O198:P198"/>
-    <mergeCell ref="Q198:R198"/>
-    <mergeCell ref="S198:T198"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="I197:J197"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="O197:P197"/>
-    <mergeCell ref="Q197:R197"/>
-    <mergeCell ref="S195:T195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="I196:J196"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="O196:P196"/>
-    <mergeCell ref="Q196:R196"/>
-    <mergeCell ref="S196:T196"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="I195:J195"/>
-    <mergeCell ref="K195:L195"/>
-    <mergeCell ref="M195:N195"/>
-    <mergeCell ref="O195:P195"/>
-    <mergeCell ref="Q195:R195"/>
-    <mergeCell ref="S186:T186"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="I194:J194"/>
-    <mergeCell ref="K194:L194"/>
-    <mergeCell ref="M194:N194"/>
-    <mergeCell ref="O194:P194"/>
-    <mergeCell ref="Q194:R194"/>
-    <mergeCell ref="S194:T194"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="O186:P186"/>
-    <mergeCell ref="Q186:R186"/>
-    <mergeCell ref="S192:T192"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="S184:T184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="O185:P185"/>
-    <mergeCell ref="Q185:R185"/>
-    <mergeCell ref="S185:T185"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="I184:J184"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="O184:P184"/>
-    <mergeCell ref="Q184:R184"/>
-    <mergeCell ref="S182:T182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="I183:J183"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="O183:P183"/>
-    <mergeCell ref="Q183:R183"/>
-    <mergeCell ref="S183:T183"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="K182:L182"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="O182:P182"/>
-    <mergeCell ref="Q182:R182"/>
-    <mergeCell ref="S180:T180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="I181:J181"/>
-    <mergeCell ref="K181:L181"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="O181:P181"/>
-    <mergeCell ref="Q181:R181"/>
-    <mergeCell ref="S181:T181"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="O180:P180"/>
-    <mergeCell ref="Q180:R180"/>
-    <mergeCell ref="S178:T178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="M179:N179"/>
-    <mergeCell ref="O179:P179"/>
-    <mergeCell ref="Q179:R179"/>
-    <mergeCell ref="S179:T179"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="K178:L178"/>
-    <mergeCell ref="M178:N178"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="Q178:R178"/>
-    <mergeCell ref="S176:T176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="I177:J177"/>
-    <mergeCell ref="K177:L177"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="O177:P177"/>
-    <mergeCell ref="Q177:R177"/>
-    <mergeCell ref="S177:T177"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="I176:J176"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="O176:P176"/>
-    <mergeCell ref="Q176:R176"/>
-    <mergeCell ref="S174:T174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="I175:J175"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="O175:P175"/>
-    <mergeCell ref="Q175:R175"/>
-    <mergeCell ref="S175:T175"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="O174:P174"/>
-    <mergeCell ref="Q174:R174"/>
-    <mergeCell ref="S172:T172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="O173:P173"/>
-    <mergeCell ref="Q173:R173"/>
-    <mergeCell ref="S173:T173"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="Q172:R172"/>
-    <mergeCell ref="S170:T170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="I171:J171"/>
-    <mergeCell ref="K171:L171"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="O171:P171"/>
-    <mergeCell ref="Q171:R171"/>
-    <mergeCell ref="S171:T171"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="I170:J170"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="O170:P170"/>
-    <mergeCell ref="Q170:R170"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="I168:J168"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="Q168:R168"/>
-    <mergeCell ref="Q167:R167"/>
-    <mergeCell ref="S167:T167"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="I167:J167"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="O165:P165"/>
-    <mergeCell ref="S166:T166"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="O167:P167"/>
-    <mergeCell ref="Q166:R166"/>
-    <mergeCell ref="S165:T165"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="O161:P161"/>
-    <mergeCell ref="Q161:R161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="O162:P162"/>
-    <mergeCell ref="Q162:R162"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="S156:T156"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="K155:L155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="K156:L156"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="O156:P156"/>
-    <mergeCell ref="Q156:R156"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="I152:J152"/>
-    <mergeCell ref="K152:L152"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="O152:P152"/>
-    <mergeCell ref="Q152:R152"/>
-    <mergeCell ref="S147:T147"/>
-    <mergeCell ref="S149:T149"/>
-    <mergeCell ref="O148:P148"/>
-    <mergeCell ref="Q148:R148"/>
-    <mergeCell ref="S148:T148"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="I150:J150"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="O150:P150"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="I149:J149"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="O149:P149"/>
-    <mergeCell ref="Q149:R149"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="I147:J147"/>
-    <mergeCell ref="K147:L147"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="O147:P147"/>
-    <mergeCell ref="Q147:R147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="O145:P145"/>
-    <mergeCell ref="Q145:R145"/>
-    <mergeCell ref="S145:T145"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="K134:L134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="O134:P134"/>
-    <mergeCell ref="Q134:R134"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="K133:L133"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="O133:P133"/>
-    <mergeCell ref="Q133:R133"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="O132:P132"/>
-    <mergeCell ref="Q132:R132"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="O131:P131"/>
-    <mergeCell ref="Q131:R131"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="O130:P130"/>
-    <mergeCell ref="Q130:R130"/>
-    <mergeCell ref="S128:T128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="O129:P129"/>
-    <mergeCell ref="Q129:R129"/>
-    <mergeCell ref="S129:T129"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="O128:P128"/>
-    <mergeCell ref="Q128:R128"/>
-    <mergeCell ref="S126:T126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="O127:P127"/>
-    <mergeCell ref="Q127:R127"/>
-    <mergeCell ref="S127:T127"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="K126:L126"/>
-    <mergeCell ref="M126:N126"/>
-    <mergeCell ref="O126:P126"/>
-    <mergeCell ref="Q126:R126"/>
-    <mergeCell ref="S124:T124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="M125:N125"/>
-    <mergeCell ref="O125:P125"/>
-    <mergeCell ref="Q125:R125"/>
-    <mergeCell ref="S125:T125"/>
-    <mergeCell ref="A238:T238"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="M122:N122"/>
-    <mergeCell ref="O122:P122"/>
-    <mergeCell ref="B65:T65"/>
-    <mergeCell ref="B68:T68"/>
-    <mergeCell ref="B69:T69"/>
-    <mergeCell ref="B72:Q72"/>
-    <mergeCell ref="B75:Q75"/>
-    <mergeCell ref="Q192:R192"/>
-    <mergeCell ref="B82:T82"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="A103:T103"/>
-    <mergeCell ref="Q122:R122"/>
-    <mergeCell ref="S122:T122"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="Q151:R151"/>
-    <mergeCell ref="S151:T151"/>
-    <mergeCell ref="Q150:R150"/>
-    <mergeCell ref="S150:T150"/>
-    <mergeCell ref="Q153:R153"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="O154:P154"/>
-    <mergeCell ref="Q154:R154"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="S152:T152"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="O164:P164"/>
-    <mergeCell ref="Q164:R164"/>
-    <mergeCell ref="S164:T164"/>
-    <mergeCell ref="O153:P153"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="I192:J192"/>
-    <mergeCell ref="K192:L192"/>
-    <mergeCell ref="M192:N192"/>
-    <mergeCell ref="O192:P192"/>
-    <mergeCell ref="O159:P159"/>
-    <mergeCell ref="Q159:R159"/>
-    <mergeCell ref="S159:T159"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="O160:P160"/>
-    <mergeCell ref="Q160:R160"/>
-    <mergeCell ref="S160:T160"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="S161:T161"/>
-    <mergeCell ref="S162:T162"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="O169:P169"/>
-    <mergeCell ref="Q169:R169"/>
-    <mergeCell ref="S169:T169"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="O166:P166"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="I157:J157"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="O157:P157"/>
-    <mergeCell ref="Q165:R165"/>
-    <mergeCell ref="Q157:R157"/>
-    <mergeCell ref="S157:T157"/>
-    <mergeCell ref="S163:T163"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="O158:P158"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="O155:P155"/>
-    <mergeCell ref="Q155:R155"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="I153:J153"/>
-    <mergeCell ref="K153:L153"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="S168:T168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="I169:J169"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="Q163:R163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="I164:J164"/>
-    <mergeCell ref="K164:L164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="I165:J165"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="O168:P168"/>
-    <mergeCell ref="S123:T123"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="I146:J146"/>
-    <mergeCell ref="K146:L146"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="O146:P146"/>
-    <mergeCell ref="Q146:R146"/>
-    <mergeCell ref="S146:T146"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="O123:P123"/>
-    <mergeCell ref="Q123:R123"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="M124:N124"/>
-    <mergeCell ref="O124:P124"/>
-    <mergeCell ref="Q124:R124"/>
-    <mergeCell ref="S193:T193"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="I193:J193"/>
-    <mergeCell ref="K193:L193"/>
-    <mergeCell ref="M193:N193"/>
-    <mergeCell ref="O193:P193"/>
-    <mergeCell ref="Q193:R193"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.35433070866141742" bottom="0.35433070866141742" header="0.31496062992125978" footer="0.31496062992125978"/>

--- a/app/core/testing.xlsx
+++ b/app/core/testing.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master of IT\Semester4\software project\DC-Boxjelly\app\core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DC-Boxjelly\app\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8563AE57-1CB4-403E-956F-CE9D29F360B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="180" windowWidth="17280" windowHeight="11580" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="180" windowWidth="17280" windowHeight="11580" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="MEXReport" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="REPORT_Dir">#REF!</definedName>
     <definedName name="THIS_Dir">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="189">
   <si>
     <t>Primary Standards Dosimetry Laboratory,  Medical Radiation Services</t>
   </si>
@@ -366,231 +365,344 @@
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>CAL00001</t>
-  </si>
-  <si>
-    <t>ClientA_Name</t>
-  </si>
-  <si>
-    <t>Calibrated by: ClientA_Name</t>
-  </si>
-  <si>
-    <t>200 Street Name</t>
-  </si>
-  <si>
-    <t>Suburb NSW 2020</t>
-  </si>
-  <si>
-    <t>PTW 30013 5122</t>
-  </si>
-  <si>
-    <t>12 Feb 2021 to 12 Feb 2021</t>
-  </si>
-  <si>
-    <t>Duncan Butler</t>
+    <t>CAL00003</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientC_Name</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibrated by: ClientC_Name</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>555 Street Name</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suburb ACT 1020</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE 2571 3661</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE 2571 3661</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 Feb 2021 to 17 Feb 2021</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 Feb 2021 to 17 Feb 2021</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chris Oliver</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">05 Oct 2021 </t>
-  </si>
-  <si>
-    <t>(-250) on the guard electrode Positive (Central Electrode Negative)</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-300) on the guard electrode Positive (Central Electrode Negative)</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXA50</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXA70</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXB100</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXC120</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXD140</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXE150</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXF200</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXG250</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXH280</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXH300</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXH300*</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXJ40</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXK40</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXA40</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXJ50</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXK50</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXB50</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXJ60</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXK60</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXA60</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXJ70</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXK70</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA70</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXB70</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXC70</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXJ80</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXK80</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXA80</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXJ90</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXK90</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXA90</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXJ100</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXK100</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB100</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXC100</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXD100</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXB120</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXD120</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXE120</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXB140</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXC140</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXE140</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXF140</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXC150</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXD150</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXE150</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXF150</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXG150</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXD200</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXE200</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXF200</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXG200</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXH200</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXE250</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXF250</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXG250</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXH250</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXI250</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXF280</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXG280</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH280</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXI280</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXG300</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH300</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXI300</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXH320</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXI320</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXG250*</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXH280*</t>
-  </si>
-  <si>
-    <t>Calibration No: CAL00001</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH300*</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibration No: CAL00003</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -661,21 +773,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -683,7 +795,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -691,7 +803,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -699,14 +811,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -714,7 +826,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -722,7 +834,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -730,28 +842,28 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -759,7 +871,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -767,14 +879,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -813,7 +925,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1512,6 +1624,293 @@
     <xf numFmtId="49" fontId="28" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1522,347 +1921,60 @@
     <xf numFmtId="2" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Calculation 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Check Cell 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Good 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Heading 1 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Heading 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Heading 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Heading 4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Input 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Neutral 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Normal 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Normal 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normal 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Normal 6" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Note 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Output 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Total 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Warning Text 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="2"/>
+    <cellStyle name="20% - Accent3 2" xfId="3"/>
+    <cellStyle name="20% - Accent4 2" xfId="4"/>
+    <cellStyle name="20% - Accent5 2" xfId="5"/>
+    <cellStyle name="20% - Accent6 2" xfId="6"/>
+    <cellStyle name="40% - Accent1 2" xfId="7"/>
+    <cellStyle name="40% - Accent2 2" xfId="8"/>
+    <cellStyle name="40% - Accent3 2" xfId="9"/>
+    <cellStyle name="40% - Accent4 2" xfId="10"/>
+    <cellStyle name="40% - Accent5 2" xfId="11"/>
+    <cellStyle name="40% - Accent6 2" xfId="12"/>
+    <cellStyle name="60% - Accent1 2" xfId="13"/>
+    <cellStyle name="60% - Accent2 2" xfId="14"/>
+    <cellStyle name="60% - Accent3 2" xfId="15"/>
+    <cellStyle name="60% - Accent4 2" xfId="16"/>
+    <cellStyle name="60% - Accent5 2" xfId="17"/>
+    <cellStyle name="60% - Accent6 2" xfId="18"/>
+    <cellStyle name="Accent1 2" xfId="19"/>
+    <cellStyle name="Accent2 2" xfId="20"/>
+    <cellStyle name="Accent3 2" xfId="21"/>
+    <cellStyle name="Accent4 2" xfId="22"/>
+    <cellStyle name="Accent5 2" xfId="23"/>
+    <cellStyle name="Accent6 2" xfId="24"/>
+    <cellStyle name="Bad 2" xfId="25"/>
+    <cellStyle name="Calculation 2" xfId="26"/>
+    <cellStyle name="Check Cell 2" xfId="27"/>
+    <cellStyle name="Explanatory Text 2" xfId="28"/>
+    <cellStyle name="Good 2" xfId="29"/>
+    <cellStyle name="Heading 1 2" xfId="30"/>
+    <cellStyle name="Heading 2 2" xfId="31"/>
+    <cellStyle name="Heading 3 2" xfId="32"/>
+    <cellStyle name="Heading 4 2" xfId="33"/>
+    <cellStyle name="Input 2" xfId="34"/>
+    <cellStyle name="Linked Cell 2" xfId="35"/>
+    <cellStyle name="Neutral 2" xfId="36"/>
+    <cellStyle name="Normal 2" xfId="37"/>
+    <cellStyle name="Normal 2 2" xfId="38"/>
+    <cellStyle name="Normal 3" xfId="39"/>
+    <cellStyle name="Normal 4" xfId="40"/>
+    <cellStyle name="Normal 6" xfId="41"/>
+    <cellStyle name="Note 2" xfId="42"/>
+    <cellStyle name="Output 2" xfId="43"/>
+    <cellStyle name="Total 2" xfId="44"/>
+    <cellStyle name="Warning Text 2" xfId="45"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2134,23 +2246,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>223</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>240</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="kVp">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC52595-D671-4208-B415-8AD42483C067}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="kVp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2169,8 +2275,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="46413421"/>
-          <a:ext cx="5629910" cy="3352800"/>
+          <a:off x="0" y="46739175"/>
+          <a:ext cx="5454650" cy="3352800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2184,23 +2290,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>269</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Al">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14F04CD-06B6-4DBD-B5B3-F7C2FD711B05}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Al"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2219,8 +2319,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="51267361"/>
-          <a:ext cx="5629910" cy="3539490"/>
+          <a:off x="0" y="51558825"/>
+          <a:ext cx="5454650" cy="3419475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2234,23 +2334,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>275</xdr:row>
-      <xdr:rowOff>4</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>296</xdr:row>
-      <xdr:rowOff>19054</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Cu">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C3535F-2CE3-4597-85E6-66D253B38A93}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Cu"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2269,8 +2363,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="55801264"/>
-          <a:ext cx="5629910" cy="3539490"/>
+          <a:off x="0" y="55940325"/>
+          <a:ext cx="5454650" cy="3419475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2283,7 +2377,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2358,23 +2452,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2410,23 +2487,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2602,7 +2662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:X308"/>
   <sheetViews>
@@ -2610,127 +2670,127 @@
       <selection activeCell="Q122" sqref="Q122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="4.44140625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" style="32" customWidth="1"/>
-    <col min="11" max="11" width="4.44140625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" style="32" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" style="32" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="32" customWidth="1"/>
-    <col min="15" max="16" width="4.44140625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="32" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" style="32" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" style="32" customWidth="1"/>
+    <col min="15" max="16" width="4.42578125" style="32" customWidth="1"/>
     <col min="17" max="17" width="5" style="32" customWidth="1"/>
-    <col min="18" max="18" width="1.109375" style="32" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="32" customWidth="1"/>
-    <col min="20" max="20" width="4.44140625" style="32" customWidth="1"/>
+    <col min="18" max="18" width="1.140625" style="32" customWidth="1"/>
+    <col min="19" max="19" width="0.85546875" style="32" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" style="32" customWidth="1"/>
     <col min="21" max="24" width="5" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12" customHeight="1"/>
     <row r="6" spans="1:20" ht="8.25" customHeight="1"/>
     <row r="7" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
     </row>
     <row r="10" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A10" s="155" t="s">
+      <c r="A10" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="156"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
     </row>
     <row r="11" spans="1:20" ht="22.5" customHeight="1">
       <c r="A11" s="26"/>
@@ -2754,7 +2814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.9" customHeight="1">
+    <row r="12" spans="1:20" ht="15.95" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -2775,7 +2835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.9" customHeight="1">
+    <row r="13" spans="1:20" ht="15.95" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -2821,76 +2881,76 @@
       <c r="S14" s="26"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="115"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
     </row>
     <row r="18" spans="1:20" ht="15" customHeight="1"/>
     <row r="19" spans="1:20" ht="14.1" customHeight="1">
@@ -2914,7 +2974,7 @@
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
     </row>
-    <row r="20" spans="1:20" ht="15.9" customHeight="1">
+    <row r="20" spans="1:20" ht="15.95" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>9</v>
       </c>
@@ -2939,7 +2999,7 @@
       <c r="R20" s="26"/>
       <c r="S20" s="26"/>
     </row>
-    <row r="21" spans="1:20" ht="15.9" customHeight="1">
+    <row r="21" spans="1:20" ht="15.95" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2962,7 +3022,7 @@
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
     </row>
-    <row r="22" spans="1:20" ht="15.9" customHeight="1">
+    <row r="22" spans="1:20" ht="15.95" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2985,7 +3045,7 @@
       <c r="R22" s="26"/>
       <c r="S22" s="26"/>
     </row>
-    <row r="23" spans="1:20" ht="15.9" customHeight="1">
+    <row r="23" spans="1:20" ht="15.95" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -3006,7 +3066,7 @@
       <c r="R23" s="26"/>
       <c r="S23" s="26"/>
     </row>
-    <row r="24" spans="1:20" ht="15.9" customHeight="1">
+    <row r="24" spans="1:20" ht="15.95" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -3027,7 +3087,7 @@
       <c r="R24" s="26"/>
       <c r="S24" s="26"/>
     </row>
-    <row r="25" spans="1:20" ht="15.9" customHeight="1">
+    <row r="25" spans="1:20" ht="15.95" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>10</v>
       </c>
@@ -3052,7 +3112,7 @@
       <c r="R25" s="26"/>
       <c r="S25" s="26"/>
     </row>
-    <row r="26" spans="1:20" ht="15.9" customHeight="1">
+    <row r="26" spans="1:20" ht="15.95" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -3073,7 +3133,7 @@
       <c r="R26" s="26"/>
       <c r="S26" s="26"/>
     </row>
-    <row r="27" spans="1:20" ht="15.9" customHeight="1">
+    <row r="27" spans="1:20" ht="15.95" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>105</v>
       </c>
@@ -3083,7 +3143,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
@@ -3098,7 +3158,7 @@
       <c r="R27" s="26"/>
       <c r="S27" s="26"/>
     </row>
-    <row r="28" spans="1:20" ht="15.9" customHeight="1">
+    <row r="28" spans="1:20" ht="15.95" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -3141,11 +3201,11 @@
       <c r="P29" s="13"/>
       <c r="R29" s="26"/>
       <c r="S29" s="26"/>
-      <c r="T29" s="162" t="s">
+      <c r="T29" s="89" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.9" customHeight="1">
+    <row r="30" spans="1:20" ht="15.95" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -3164,9 +3224,9 @@
       <c r="P30" s="13"/>
       <c r="R30" s="26"/>
       <c r="S30" s="26"/>
-      <c r="T30" s="115"/>
-    </row>
-    <row r="31" spans="1:20" ht="15.9" customHeight="1">
+      <c r="T30" s="62"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.95" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>14</v>
       </c>
@@ -3176,7 +3236,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="52" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H31" s="51"/>
       <c r="I31" s="51"/>
@@ -3189,7 +3249,7 @@
       <c r="P31" s="13"/>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
-      <c r="T31" s="115"/>
+      <c r="T31" s="62"/>
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
@@ -3201,7 +3261,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="51" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="51"/>
@@ -3214,9 +3274,9 @@
       <c r="P32" s="13"/>
       <c r="R32" s="26"/>
       <c r="S32" s="26"/>
-      <c r="T32" s="115"/>
-    </row>
-    <row r="33" spans="1:20" ht="15.9" customHeight="1">
+      <c r="T32" s="62"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.95" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>16</v>
       </c>
@@ -3226,7 +3286,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="52" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H33" s="51"/>
       <c r="I33" s="51"/>
@@ -3239,9 +3299,9 @@
       <c r="P33" s="13"/>
       <c r="R33" s="26"/>
       <c r="S33" s="26"/>
-      <c r="T33" s="115"/>
-    </row>
-    <row r="34" spans="1:20" ht="15.9" customHeight="1">
+      <c r="T33" s="62"/>
+    </row>
+    <row r="34" spans="1:20" ht="15.95" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -3260,9 +3320,9 @@
       <c r="P34" s="13"/>
       <c r="R34" s="26"/>
       <c r="S34" s="26"/>
-      <c r="T34" s="115"/>
-    </row>
-    <row r="35" spans="1:20" ht="15.9" customHeight="1">
+      <c r="T34" s="62"/>
+    </row>
+    <row r="35" spans="1:20" ht="15.95" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>17</v>
       </c>
@@ -3285,9 +3345,9 @@
       <c r="P35" s="13"/>
       <c r="R35" s="26"/>
       <c r="S35" s="26"/>
-      <c r="T35" s="115"/>
-    </row>
-    <row r="36" spans="1:20" ht="15.9" customHeight="1">
+      <c r="T35" s="62"/>
+    </row>
+    <row r="36" spans="1:20" ht="15.95" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>19</v>
       </c>
@@ -3310,9 +3370,9 @@
       <c r="P36" s="13"/>
       <c r="R36" s="26"/>
       <c r="S36" s="26"/>
-      <c r="T36" s="115"/>
-    </row>
-    <row r="37" spans="1:20" ht="12.9" customHeight="1">
+      <c r="T36" s="62"/>
+    </row>
+    <row r="37" spans="1:20" ht="12.95" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -3331,7 +3391,7 @@
       <c r="P37" s="13"/>
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
-      <c r="T37" s="115"/>
+      <c r="T37" s="62"/>
     </row>
     <row r="38" spans="1:20" ht="27" hidden="1" customHeight="1">
       <c r="A38" s="13"/>
@@ -3353,9 +3413,9 @@
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
       <c r="S38" s="26"/>
-      <c r="T38" s="115"/>
-    </row>
-    <row r="39" spans="1:20" ht="15.9" customHeight="1">
+      <c r="T38" s="62"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.95" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>21</v>
       </c>
@@ -3375,14 +3435,14 @@
       <c r="N39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O39" s="160"/>
-      <c r="P39" s="161"/>
-      <c r="Q39" s="161"/>
-      <c r="R39" s="161"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
       <c r="S39" s="26"/>
-      <c r="T39" s="115"/>
-    </row>
-    <row r="40" spans="1:20" ht="15.9" customHeight="1">
+      <c r="T39" s="62"/>
+    </row>
+    <row r="40" spans="1:20" ht="15.95" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -3402,9 +3462,9 @@
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
       <c r="S40" s="26"/>
-      <c r="T40" s="115"/>
-    </row>
-    <row r="41" spans="1:20" ht="15.9" customHeight="1">
+      <c r="T40" s="62"/>
+    </row>
+    <row r="41" spans="1:20" ht="15.95" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>24</v>
       </c>
@@ -3426,9 +3486,9 @@
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
       <c r="S41" s="26"/>
-      <c r="T41" s="115"/>
-    </row>
-    <row r="42" spans="1:20" ht="15.9" customHeight="1">
+      <c r="T41" s="62"/>
+    </row>
+    <row r="42" spans="1:20" ht="15.95" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>25</v>
       </c>
@@ -3475,7 +3535,7 @@
     <row r="46" spans="1:20" ht="15" customHeight="1">
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:20" ht="9.9" customHeight="1"/>
+    <row r="47" spans="1:20" ht="9.9499999999999993" customHeight="1"/>
     <row r="48" spans="1:20" ht="8.1" customHeight="1">
       <c r="N48" s="8" t="s">
         <v>26</v>
@@ -3552,7 +3612,7 @@
     </row>
     <row r="57" spans="1:20" ht="14.1" customHeight="1">
       <c r="A57" s="53" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
@@ -3562,7 +3622,7 @@
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="55" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="J57" s="54"/>
       <c r="K57" s="18"/>
@@ -3580,7 +3640,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.9" customHeight="1">
+    <row r="58" spans="1:20" ht="15.95" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3599,31 +3659,31 @@
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
     </row>
-    <row r="59" spans="1:20" ht="15.9" customHeight="1">
-      <c r="A59" s="157" t="s">
+    <row r="59" spans="1:20" ht="15.95" customHeight="1">
+      <c r="A59" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="115"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="115"/>
-      <c r="H59" s="115"/>
-      <c r="I59" s="115"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="115"/>
-      <c r="L59" s="115"/>
-      <c r="M59" s="115"/>
-      <c r="N59" s="115"/>
-      <c r="O59" s="115"/>
-      <c r="P59" s="115"/>
-      <c r="Q59" s="115"/>
-      <c r="R59" s="115"/>
-      <c r="S59" s="115"/>
-      <c r="T59" s="115"/>
-    </row>
-    <row r="60" spans="1:20" ht="15.9" customHeight="1">
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="62"/>
+      <c r="O59" s="62"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
+      <c r="S59" s="62"/>
+      <c r="T59" s="62"/>
+    </row>
+    <row r="60" spans="1:20" ht="15.95" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -3642,7 +3702,7 @@
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
     </row>
-    <row r="61" spans="1:20" ht="15.9" customHeight="1">
+    <row r="61" spans="1:20" ht="15.95" customHeight="1">
       <c r="A61" s="14" t="s">
         <v>41</v>
       </c>
@@ -3663,7 +3723,7 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
-    <row r="62" spans="1:20" ht="15.9" customHeight="1">
+    <row r="62" spans="1:20" ht="15.95" customHeight="1">
       <c r="A62" s="28" t="s">
         <v>42</v>
       </c>
@@ -3686,7 +3746,7 @@
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
     </row>
-    <row r="63" spans="1:20" ht="15.9" customHeight="1">
+    <row r="63" spans="1:20" ht="15.95" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3705,7 +3765,7 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
     </row>
-    <row r="64" spans="1:20" ht="15.9" customHeight="1">
+    <row r="64" spans="1:20" ht="15.95" customHeight="1">
       <c r="A64" s="15" t="s">
         <v>44</v>
       </c>
@@ -3730,29 +3790,29 @@
       <c r="A65" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="117" t="s">
+      <c r="B65" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="115"/>
-      <c r="D65" s="115"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
-      <c r="G65" s="115"/>
-      <c r="H65" s="115"/>
-      <c r="I65" s="115"/>
-      <c r="J65" s="115"/>
-      <c r="K65" s="115"/>
-      <c r="L65" s="115"/>
-      <c r="M65" s="115"/>
-      <c r="N65" s="115"/>
-      <c r="O65" s="115"/>
-      <c r="P65" s="115"/>
-      <c r="Q65" s="115"/>
-      <c r="R65" s="115"/>
-      <c r="S65" s="115"/>
-      <c r="T65" s="115"/>
-    </row>
-    <row r="66" spans="1:20" ht="15.9" customHeight="1">
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="62"/>
+      <c r="O65" s="62"/>
+      <c r="P65" s="62"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="62"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="62"/>
+    </row>
+    <row r="66" spans="1:20" ht="15.95" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3771,7 +3831,7 @@
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
     </row>
-    <row r="67" spans="1:20" ht="15.9" customHeight="1">
+    <row r="67" spans="1:20" ht="15.95" customHeight="1">
       <c r="A67" s="23" t="s">
         <v>46</v>
       </c>
@@ -3796,114 +3856,114 @@
       <c r="A68" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="118" t="s">
+      <c r="B68" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="115"/>
-      <c r="D68" s="115"/>
-      <c r="E68" s="115"/>
-      <c r="F68" s="115"/>
-      <c r="G68" s="115"/>
-      <c r="H68" s="115"/>
-      <c r="I68" s="115"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="115"/>
-      <c r="L68" s="115"/>
-      <c r="M68" s="115"/>
-      <c r="N68" s="115"/>
-      <c r="O68" s="115"/>
-      <c r="P68" s="115"/>
-      <c r="Q68" s="115"/>
-      <c r="R68" s="115"/>
-      <c r="S68" s="115"/>
-      <c r="T68" s="115"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="62"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="62"/>
+      <c r="N68" s="62"/>
+      <c r="O68" s="62"/>
+      <c r="P68" s="62"/>
+      <c r="Q68" s="62"/>
+      <c r="R68" s="62"/>
+      <c r="S68" s="62"/>
+      <c r="T68" s="62"/>
     </row>
     <row r="69" spans="1:20" ht="33" customHeight="1">
       <c r="A69" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="118" t="s">
+      <c r="B69" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="115"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="115"/>
-      <c r="G69" s="115"/>
-      <c r="H69" s="115"/>
-      <c r="I69" s="115"/>
-      <c r="J69" s="115"/>
-      <c r="K69" s="115"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="115"/>
-      <c r="N69" s="115"/>
-      <c r="O69" s="115"/>
-      <c r="P69" s="115"/>
-      <c r="Q69" s="115"/>
-      <c r="R69" s="115"/>
-      <c r="S69" s="115"/>
-      <c r="T69" s="115"/>
-    </row>
-    <row r="71" spans="1:20" ht="15.9" customHeight="1">
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="62"/>
+      <c r="O69" s="62"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="62"/>
+      <c r="S69" s="62"/>
+      <c r="T69" s="62"/>
+    </row>
+    <row r="71" spans="1:20" ht="15.95" customHeight="1">
       <c r="A71" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.9" customHeight="1">
+    <row r="72" spans="1:20" ht="15.95" customHeight="1">
       <c r="A72" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B72" s="117" t="s">
+      <c r="B72" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="115"/>
-      <c r="D72" s="115"/>
-      <c r="E72" s="115"/>
-      <c r="F72" s="115"/>
-      <c r="G72" s="115"/>
-      <c r="H72" s="115"/>
-      <c r="I72" s="115"/>
-      <c r="J72" s="115"/>
-      <c r="K72" s="115"/>
-      <c r="L72" s="115"/>
-      <c r="M72" s="115"/>
-      <c r="N72" s="115"/>
-      <c r="O72" s="115"/>
-      <c r="P72" s="115"/>
-      <c r="Q72" s="115"/>
-    </row>
-    <row r="73" spans="1:20" ht="15.9" customHeight="1">
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="62"/>
+      <c r="O72" s="62"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="62"/>
+    </row>
+    <row r="73" spans="1:20" ht="15.95" customHeight="1">
       <c r="A73" s="15"/>
     </row>
-    <row r="74" spans="1:20" ht="15.9" customHeight="1">
+    <row r="74" spans="1:20" ht="15.95" customHeight="1">
       <c r="A74" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.9" customHeight="1">
+    <row r="75" spans="1:20" ht="15.95" customHeight="1">
       <c r="A75" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="117" t="s">
+      <c r="B75" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="115"/>
-      <c r="D75" s="115"/>
-      <c r="E75" s="115"/>
-      <c r="F75" s="115"/>
-      <c r="G75" s="115"/>
-      <c r="H75" s="115"/>
-      <c r="I75" s="115"/>
-      <c r="J75" s="115"/>
-      <c r="K75" s="115"/>
-      <c r="L75" s="115"/>
-      <c r="M75" s="115"/>
-      <c r="N75" s="115"/>
-      <c r="O75" s="115"/>
-      <c r="P75" s="115"/>
-      <c r="Q75" s="115"/>
-    </row>
-    <row r="76" spans="1:20" ht="15.9" customHeight="1">
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="62"/>
+      <c r="O75" s="62"/>
+      <c r="P75" s="62"/>
+      <c r="Q75" s="62"/>
+    </row>
+    <row r="76" spans="1:20" ht="15.95" customHeight="1">
       <c r="A76" s="28"/>
       <c r="B76" s="40"/>
       <c r="C76" s="40"/>
@@ -3922,7 +3982,7 @@
       <c r="P76" s="40"/>
       <c r="Q76" s="40"/>
     </row>
-    <row r="77" spans="1:20" ht="15.9" customHeight="1">
+    <row r="77" spans="1:20" ht="15.95" customHeight="1">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -3966,27 +4026,27 @@
       <c r="A79" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B79" s="159" t="s">
+      <c r="B79" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="115"/>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
-      <c r="G79" s="115"/>
-      <c r="H79" s="115"/>
-      <c r="I79" s="115"/>
-      <c r="J79" s="115"/>
-      <c r="K79" s="115"/>
-      <c r="L79" s="115"/>
-      <c r="M79" s="115"/>
-      <c r="N79" s="115"/>
-      <c r="O79" s="115"/>
-      <c r="P79" s="115"/>
-      <c r="Q79" s="115"/>
-      <c r="R79" s="115"/>
-      <c r="S79" s="115"/>
-      <c r="T79" s="115"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="62"/>
+      <c r="O79" s="62"/>
+      <c r="P79" s="62"/>
+      <c r="Q79" s="62"/>
+      <c r="R79" s="62"/>
+      <c r="S79" s="62"/>
+      <c r="T79" s="62"/>
     </row>
     <row r="80" spans="1:20" ht="15" customHeight="1">
       <c r="A80" s="15"/>
@@ -4007,7 +4067,7 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="1:20" ht="15.9" customHeight="1">
+    <row r="81" spans="1:20" ht="15.95" customHeight="1">
       <c r="A81" s="15" t="s">
         <v>54</v>
       </c>
@@ -4028,31 +4088,31 @@
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="1:20" ht="63.9" customHeight="1" thickBot="1">
+    <row r="82" spans="1:20" ht="63.95" customHeight="1" thickBot="1">
       <c r="A82" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="118" t="s">
+      <c r="B82" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="115"/>
-      <c r="D82" s="115"/>
-      <c r="E82" s="115"/>
-      <c r="F82" s="115"/>
-      <c r="G82" s="115"/>
-      <c r="H82" s="115"/>
-      <c r="I82" s="115"/>
-      <c r="J82" s="115"/>
-      <c r="K82" s="115"/>
-      <c r="L82" s="115"/>
-      <c r="M82" s="115"/>
-      <c r="N82" s="115"/>
-      <c r="O82" s="115"/>
-      <c r="P82" s="115"/>
-      <c r="Q82" s="115"/>
-      <c r="R82" s="115"/>
-      <c r="S82" s="115"/>
-      <c r="T82" s="115"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="62"/>
+      <c r="O82" s="62"/>
+      <c r="P82" s="62"/>
+      <c r="Q82" s="62"/>
+      <c r="R82" s="62"/>
+      <c r="S82" s="62"/>
+      <c r="T82" s="62"/>
     </row>
     <row r="83" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A83" s="15"/>
@@ -4073,8 +4133,8 @@
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
     </row>
-    <row r="84" spans="1:20" ht="0.9" customHeight="1"/>
-    <row r="86" spans="1:20" ht="0.9" customHeight="1"/>
+    <row r="84" spans="1:20" ht="0.95" customHeight="1"/>
+    <row r="86" spans="1:20" ht="0.95" customHeight="1"/>
     <row r="87" spans="1:20" ht="17.100000000000001" customHeight="1"/>
     <row r="88" spans="1:20" ht="17.100000000000001" customHeight="1"/>
     <row r="89" spans="1:20" ht="17.100000000000001" customHeight="1"/>
@@ -4091,7 +4151,7 @@
     <row r="101" spans="1:21" ht="12" customHeight="1">
       <c r="A101" s="42" t="str">
         <f>A57</f>
-        <v>Calibration No: CAL00001</v>
+        <v>Calibration No: CAL00003</v>
       </c>
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
@@ -4102,7 +4162,7 @@
       <c r="H101" s="43"/>
       <c r="I101" s="44" t="str">
         <f>I57</f>
-        <v>Calibration No: CAL00001</v>
+        <v>Calibration No: CAL00003</v>
       </c>
       <c r="J101" s="43"/>
       <c r="K101" s="43"/>
@@ -4144,28 +4204,28 @@
       <c r="T102" s="21"/>
     </row>
     <row r="108" spans="1:21" ht="31.5" customHeight="1">
-      <c r="A108" s="120" t="s">
+      <c r="A108" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="B108" s="115"/>
-      <c r="C108" s="115"/>
-      <c r="D108" s="115"/>
-      <c r="E108" s="115"/>
-      <c r="F108" s="115"/>
-      <c r="G108" s="115"/>
-      <c r="H108" s="115"/>
-      <c r="I108" s="115"/>
-      <c r="J108" s="115"/>
-      <c r="K108" s="115"/>
-      <c r="L108" s="115"/>
-      <c r="M108" s="115"/>
-      <c r="N108" s="115"/>
-      <c r="O108" s="115"/>
-      <c r="P108" s="115"/>
-      <c r="Q108" s="115"/>
-      <c r="R108" s="115"/>
-      <c r="S108" s="115"/>
-      <c r="T108" s="115"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="62"/>
+      <c r="I108" s="62"/>
+      <c r="J108" s="62"/>
+      <c r="K108" s="62"/>
+      <c r="L108" s="62"/>
+      <c r="M108" s="62"/>
+      <c r="N108" s="62"/>
+      <c r="O108" s="62"/>
+      <c r="P108" s="62"/>
+      <c r="Q108" s="62"/>
+      <c r="R108" s="62"/>
+      <c r="S108" s="62"/>
+      <c r="T108" s="62"/>
     </row>
     <row r="109" spans="1:21" ht="14.1" customHeight="1">
       <c r="A109" s="26"/>
@@ -4217,7 +4277,7 @@
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
       <c r="G111" s="57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H111" s="48"/>
       <c r="I111" s="48"/>
@@ -4239,7 +4299,7 @@
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
       <c r="G112" s="48">
-        <v>-250</v>
+        <v>-300</v>
       </c>
       <c r="H112" s="48"/>
       <c r="I112" s="48"/>
@@ -4261,7 +4321,7 @@
       <c r="D113" s="26"/>
       <c r="E113" s="26"/>
       <c r="G113" s="58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H113" s="48"/>
       <c r="I113" s="48"/>
@@ -4470,7 +4530,7 @@
       <c r="D123" s="26"/>
       <c r="E123" s="26"/>
       <c r="G123" s="48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H123" s="48"/>
       <c r="I123" s="48"/>
@@ -4504,7 +4564,7 @@
       <c r="P124" s="25"/>
       <c r="Q124" s="25"/>
     </row>
-    <row r="125" spans="1:20" s="28" customFormat="1" ht="9.9" customHeight="1">
+    <row r="125" spans="1:20" s="28" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
@@ -4523,7 +4583,7 @@
       <c r="P125" s="25"/>
       <c r="Q125" s="25"/>
     </row>
-    <row r="126" spans="1:20" ht="15.9" customHeight="1">
+    <row r="126" spans="1:20" ht="15.95" customHeight="1">
       <c r="A126" s="26"/>
       <c r="B126" s="26"/>
       <c r="C126" s="26"/>
@@ -4545,526 +4605,526 @@
       <c r="Q126" s="26"/>
     </row>
     <row r="127" spans="1:20" ht="59.25" customHeight="1">
-      <c r="A127" s="116" t="s">
+      <c r="A127" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="B127" s="65"/>
-      <c r="C127" s="116" t="s">
+      <c r="B127" s="91"/>
+      <c r="C127" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="D127" s="65"/>
-      <c r="E127" s="116" t="s">
+      <c r="D127" s="91"/>
+      <c r="E127" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="F127" s="65"/>
-      <c r="G127" s="116" t="s">
+      <c r="F127" s="91"/>
+      <c r="G127" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="H127" s="65"/>
-      <c r="I127" s="116" t="s">
+      <c r="H127" s="91"/>
+      <c r="I127" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="J127" s="65"/>
-      <c r="K127" s="116" t="s">
+      <c r="J127" s="91"/>
+      <c r="K127" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="L127" s="65"/>
-      <c r="M127" s="116" t="s">
+      <c r="L127" s="91"/>
+      <c r="M127" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="N127" s="65"/>
-      <c r="O127" s="116" t="s">
+      <c r="N127" s="91"/>
+      <c r="O127" s="156" t="s">
         <v>83</v>
       </c>
-      <c r="P127" s="65"/>
-      <c r="Q127" s="121" t="s">
+      <c r="P127" s="91"/>
+      <c r="Q127" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="R127" s="65"/>
-      <c r="S127" s="116" t="s">
+      <c r="R127" s="91"/>
+      <c r="S127" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="T127" s="65"/>
+      <c r="T127" s="91"/>
     </row>
     <row r="128" spans="1:20" ht="30" customHeight="1">
-      <c r="A128" s="63"/>
-      <c r="B128" s="62"/>
-      <c r="C128" s="61" t="s">
+      <c r="A128" s="165"/>
+      <c r="B128" s="164"/>
+      <c r="C128" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="D128" s="62"/>
-      <c r="E128" s="61" t="s">
+      <c r="D128" s="164"/>
+      <c r="E128" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="F128" s="62"/>
-      <c r="G128" s="61" t="s">
+      <c r="F128" s="164"/>
+      <c r="G128" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="H128" s="62"/>
-      <c r="I128" s="61" t="s">
+      <c r="H128" s="164"/>
+      <c r="I128" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="J128" s="62"/>
-      <c r="K128" s="61" t="s">
+      <c r="J128" s="164"/>
+      <c r="K128" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="L128" s="62"/>
-      <c r="M128" s="61" t="s">
+      <c r="L128" s="164"/>
+      <c r="M128" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="N128" s="62"/>
-      <c r="O128" s="61" t="s">
+      <c r="N128" s="164"/>
+      <c r="O128" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="P128" s="62"/>
-      <c r="Q128" s="61" t="s">
+      <c r="P128" s="164"/>
+      <c r="Q128" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="R128" s="62"/>
-      <c r="S128" s="61" t="s">
+      <c r="R128" s="164"/>
+      <c r="S128" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="T128" s="62"/>
+      <c r="T128" s="164"/>
     </row>
     <row r="129" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A129" s="122" t="s">
-        <v>116</v>
-      </c>
-      <c r="B129" s="65"/>
-      <c r="C129" s="122">
+      <c r="A129" s="161" t="s">
+        <v>118</v>
+      </c>
+      <c r="B129" s="91"/>
+      <c r="C129" s="161">
         <v>50</v>
       </c>
-      <c r="D129" s="65"/>
-      <c r="E129" s="123">
+      <c r="D129" s="91"/>
+      <c r="E129" s="155">
         <v>4</v>
       </c>
-      <c r="F129" s="65"/>
-      <c r="G129" s="122"/>
-      <c r="H129" s="65"/>
-      <c r="I129" s="124">
+      <c r="F129" s="91"/>
+      <c r="G129" s="161"/>
+      <c r="H129" s="91"/>
+      <c r="I129" s="162">
         <v>2.39</v>
       </c>
-      <c r="J129" s="65"/>
-      <c r="K129" s="64">
+      <c r="J129" s="91"/>
+      <c r="K129" s="166">
         <v>0.08</v>
       </c>
-      <c r="L129" s="65"/>
-      <c r="M129" s="66">
+      <c r="L129" s="91"/>
+      <c r="M129" s="167">
         <v>29.93</v>
       </c>
-      <c r="N129" s="65"/>
-      <c r="O129" s="66">
+      <c r="N129" s="91"/>
+      <c r="O129" s="167">
         <v>0.4</v>
       </c>
-      <c r="P129" s="65"/>
-      <c r="Q129" s="67">
-        <v>46.63</v>
-      </c>
-      <c r="R129" s="68"/>
-      <c r="S129" s="123">
+      <c r="P129" s="91"/>
+      <c r="Q129" s="168">
+        <v>42.91</v>
+      </c>
+      <c r="R129" s="107"/>
+      <c r="S129" s="155">
         <v>1.4</v>
       </c>
-      <c r="T129" s="65"/>
+      <c r="T129" s="91"/>
     </row>
     <row r="130" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A130" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="B130" s="71"/>
-      <c r="C130" s="125">
+      <c r="A130" s="145" t="s">
+        <v>119</v>
+      </c>
+      <c r="B130" s="93"/>
+      <c r="C130" s="145">
         <v>70</v>
       </c>
-      <c r="D130" s="71"/>
-      <c r="E130" s="126">
+      <c r="D130" s="93"/>
+      <c r="E130" s="146">
         <v>4</v>
       </c>
-      <c r="F130" s="71"/>
-      <c r="G130" s="125"/>
-      <c r="H130" s="71"/>
-      <c r="I130" s="127">
+      <c r="F130" s="93"/>
+      <c r="G130" s="145"/>
+      <c r="H130" s="93"/>
+      <c r="I130" s="154">
         <v>3.19</v>
       </c>
-      <c r="J130" s="71"/>
-      <c r="K130" s="128">
+      <c r="J130" s="93"/>
+      <c r="K130" s="147">
         <v>0.11</v>
       </c>
-      <c r="L130" s="71"/>
-      <c r="M130" s="129">
+      <c r="L130" s="93"/>
+      <c r="M130" s="148">
         <v>34.270000000000003</v>
       </c>
-      <c r="N130" s="71"/>
-      <c r="O130" s="129">
+      <c r="N130" s="93"/>
+      <c r="O130" s="148">
         <v>0.8</v>
       </c>
-      <c r="P130" s="71"/>
-      <c r="Q130" s="130">
-        <v>46.69</v>
-      </c>
-      <c r="R130" s="78"/>
-      <c r="S130" s="126">
+      <c r="P130" s="93"/>
+      <c r="Q130" s="149">
+        <v>42.67</v>
+      </c>
+      <c r="R130" s="100"/>
+      <c r="S130" s="146">
         <v>1.4</v>
       </c>
-      <c r="T130" s="71"/>
+      <c r="T130" s="93"/>
     </row>
     <row r="131" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A131" s="132" t="s">
-        <v>118</v>
-      </c>
-      <c r="B131" s="71"/>
-      <c r="C131" s="132">
+      <c r="A131" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="B131" s="93"/>
+      <c r="C131" s="150">
         <v>100</v>
       </c>
-      <c r="D131" s="71"/>
-      <c r="E131" s="131">
+      <c r="D131" s="93"/>
+      <c r="E131" s="143">
         <v>4.5</v>
       </c>
-      <c r="F131" s="71"/>
-      <c r="G131" s="132"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="133">
+      <c r="F131" s="93"/>
+      <c r="G131" s="150"/>
+      <c r="H131" s="93"/>
+      <c r="I131" s="153">
         <v>4.74</v>
       </c>
-      <c r="J131" s="71"/>
-      <c r="K131" s="134">
+      <c r="J131" s="93"/>
+      <c r="K131" s="151">
         <v>0.18</v>
       </c>
-      <c r="L131" s="71"/>
-      <c r="M131" s="135">
+      <c r="L131" s="93"/>
+      <c r="M131" s="152">
         <v>41.59</v>
       </c>
-      <c r="N131" s="71"/>
-      <c r="O131" s="135">
+      <c r="N131" s="93"/>
+      <c r="O131" s="152">
         <v>1.6</v>
       </c>
-      <c r="P131" s="71"/>
-      <c r="Q131" s="130">
-        <v>46.89</v>
-      </c>
-      <c r="R131" s="78"/>
-      <c r="S131" s="131">
+      <c r="P131" s="93"/>
+      <c r="Q131" s="149">
+        <v>42.38</v>
+      </c>
+      <c r="R131" s="100"/>
+      <c r="S131" s="143">
         <v>1.4</v>
       </c>
-      <c r="T131" s="71"/>
+      <c r="T131" s="93"/>
     </row>
     <row r="132" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A132" s="125" t="s">
-        <v>119</v>
-      </c>
-      <c r="B132" s="71"/>
-      <c r="C132" s="125">
+      <c r="A132" s="145" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132" s="93"/>
+      <c r="C132" s="145">
         <v>120</v>
       </c>
-      <c r="D132" s="71"/>
-      <c r="E132" s="126">
+      <c r="D132" s="93"/>
+      <c r="E132" s="146">
         <v>6</v>
       </c>
-      <c r="F132" s="71"/>
-      <c r="G132" s="125"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="127">
+      <c r="F132" s="93"/>
+      <c r="G132" s="145"/>
+      <c r="H132" s="93"/>
+      <c r="I132" s="154">
         <v>6.38</v>
       </c>
-      <c r="J132" s="71"/>
-      <c r="K132" s="128">
+      <c r="J132" s="93"/>
+      <c r="K132" s="147">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L132" s="71"/>
-      <c r="M132" s="129">
+      <c r="L132" s="93"/>
+      <c r="M132" s="148">
         <v>48.95</v>
       </c>
-      <c r="N132" s="71"/>
-      <c r="O132" s="129">
+      <c r="N132" s="93"/>
+      <c r="O132" s="148">
         <v>1.8</v>
       </c>
-      <c r="P132" s="71"/>
-      <c r="Q132" s="130">
-        <v>47.03</v>
-      </c>
-      <c r="R132" s="78"/>
-      <c r="S132" s="126">
+      <c r="P132" s="93"/>
+      <c r="Q132" s="149">
+        <v>42.12</v>
+      </c>
+      <c r="R132" s="100"/>
+      <c r="S132" s="146">
         <v>1.4</v>
       </c>
-      <c r="T132" s="71"/>
+      <c r="T132" s="93"/>
     </row>
     <row r="133" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A133" s="132" t="s">
-        <v>120</v>
-      </c>
-      <c r="B133" s="71"/>
-      <c r="C133" s="132">
+      <c r="A133" s="150" t="s">
+        <v>122</v>
+      </c>
+      <c r="B133" s="93"/>
+      <c r="C133" s="150">
         <v>140</v>
       </c>
-      <c r="D133" s="71"/>
-      <c r="E133" s="131">
+      <c r="D133" s="93"/>
+      <c r="E133" s="143">
         <v>9</v>
       </c>
-      <c r="F133" s="71"/>
-      <c r="G133" s="132"/>
-      <c r="H133" s="71"/>
-      <c r="I133" s="133">
+      <c r="F133" s="93"/>
+      <c r="G133" s="150"/>
+      <c r="H133" s="93"/>
+      <c r="I133" s="153">
         <v>8.44</v>
       </c>
-      <c r="J133" s="71"/>
-      <c r="K133" s="134">
+      <c r="J133" s="93"/>
+      <c r="K133" s="151">
         <v>0.45</v>
       </c>
-      <c r="L133" s="71"/>
-      <c r="M133" s="135">
+      <c r="L133" s="93"/>
+      <c r="M133" s="152">
         <v>58.06</v>
       </c>
-      <c r="N133" s="71"/>
-      <c r="O133" s="135">
+      <c r="N133" s="93"/>
+      <c r="O133" s="152">
         <v>1.8</v>
       </c>
-      <c r="P133" s="71"/>
-      <c r="Q133" s="130">
-        <v>47.24</v>
-      </c>
-      <c r="R133" s="78"/>
-      <c r="S133" s="131">
+      <c r="P133" s="93"/>
+      <c r="Q133" s="149">
+        <v>41.88</v>
+      </c>
+      <c r="R133" s="100"/>
+      <c r="S133" s="143">
         <v>1.4</v>
       </c>
-      <c r="T133" s="71"/>
+      <c r="T133" s="93"/>
     </row>
     <row r="134" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A134" s="125" t="s">
-        <v>121</v>
-      </c>
-      <c r="B134" s="71"/>
-      <c r="C134" s="125">
+      <c r="A134" s="145" t="s">
+        <v>123</v>
+      </c>
+      <c r="B134" s="93"/>
+      <c r="C134" s="145">
         <v>150</v>
       </c>
-      <c r="D134" s="71"/>
-      <c r="E134" s="126">
+      <c r="D134" s="93"/>
+      <c r="E134" s="146">
         <v>4</v>
       </c>
-      <c r="F134" s="71"/>
-      <c r="G134" s="126">
+      <c r="F134" s="93"/>
+      <c r="G134" s="146">
         <v>0.5</v>
       </c>
-      <c r="H134" s="71"/>
-      <c r="I134" s="125"/>
-      <c r="J134" s="71"/>
-      <c r="K134" s="128">
+      <c r="H134" s="93"/>
+      <c r="I134" s="145"/>
+      <c r="J134" s="93"/>
+      <c r="K134" s="147">
         <v>0.84</v>
       </c>
-      <c r="L134" s="71"/>
-      <c r="M134" s="129">
+      <c r="L134" s="93"/>
+      <c r="M134" s="148">
         <v>72.150000000000006</v>
       </c>
-      <c r="N134" s="71"/>
-      <c r="O134" s="129">
+      <c r="N134" s="93"/>
+      <c r="O134" s="148">
         <v>1.4</v>
       </c>
-      <c r="P134" s="71"/>
-      <c r="Q134" s="130">
-        <v>47.53</v>
-      </c>
-      <c r="R134" s="78"/>
-      <c r="S134" s="126">
+      <c r="P134" s="93"/>
+      <c r="Q134" s="149">
+        <v>41.54</v>
+      </c>
+      <c r="R134" s="100"/>
+      <c r="S134" s="146">
         <v>1.4</v>
       </c>
-      <c r="T134" s="71"/>
+      <c r="T134" s="93"/>
     </row>
     <row r="135" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A135" s="132" t="s">
-        <v>122</v>
-      </c>
-      <c r="B135" s="71"/>
-      <c r="C135" s="132">
+      <c r="A135" s="150" t="s">
+        <v>124</v>
+      </c>
+      <c r="B135" s="93"/>
+      <c r="C135" s="150">
         <v>200</v>
       </c>
-      <c r="D135" s="71"/>
-      <c r="E135" s="131">
+      <c r="D135" s="93"/>
+      <c r="E135" s="143">
         <v>4</v>
       </c>
-      <c r="F135" s="71"/>
-      <c r="G135" s="131">
+      <c r="F135" s="93"/>
+      <c r="G135" s="143">
         <v>1</v>
       </c>
-      <c r="H135" s="71"/>
-      <c r="I135" s="132"/>
-      <c r="J135" s="71"/>
-      <c r="K135" s="134">
+      <c r="H135" s="93"/>
+      <c r="I135" s="150"/>
+      <c r="J135" s="93"/>
+      <c r="K135" s="151">
         <v>1.63</v>
       </c>
-      <c r="L135" s="71"/>
-      <c r="M135" s="135">
+      <c r="L135" s="93"/>
+      <c r="M135" s="152">
         <v>94.74</v>
       </c>
-      <c r="N135" s="71"/>
-      <c r="O135" s="135">
+      <c r="N135" s="93"/>
+      <c r="O135" s="152">
         <v>1.6</v>
       </c>
-      <c r="P135" s="71"/>
-      <c r="Q135" s="130">
-        <v>47.67</v>
-      </c>
-      <c r="R135" s="78"/>
-      <c r="S135" s="131">
+      <c r="P135" s="93"/>
+      <c r="Q135" s="149">
+        <v>41.25</v>
+      </c>
+      <c r="R135" s="100"/>
+      <c r="S135" s="143">
         <v>1.4</v>
       </c>
-      <c r="T135" s="71"/>
+      <c r="T135" s="93"/>
     </row>
     <row r="136" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A136" s="125" t="s">
-        <v>123</v>
-      </c>
-      <c r="B136" s="71"/>
-      <c r="C136" s="125">
+      <c r="A136" s="145" t="s">
+        <v>125</v>
+      </c>
+      <c r="B136" s="93"/>
+      <c r="C136" s="145">
         <v>250</v>
       </c>
-      <c r="D136" s="71"/>
-      <c r="E136" s="126">
+      <c r="D136" s="93"/>
+      <c r="E136" s="146">
         <v>4</v>
       </c>
-      <c r="F136" s="71"/>
-      <c r="G136" s="126">
+      <c r="F136" s="93"/>
+      <c r="G136" s="146">
         <v>1.6</v>
       </c>
-      <c r="H136" s="71"/>
-      <c r="I136" s="125"/>
-      <c r="J136" s="71"/>
-      <c r="K136" s="128">
+      <c r="H136" s="93"/>
+      <c r="I136" s="145"/>
+      <c r="J136" s="93"/>
+      <c r="K136" s="147">
         <v>2.57</v>
       </c>
-      <c r="L136" s="71"/>
-      <c r="M136" s="129">
+      <c r="L136" s="93"/>
+      <c r="M136" s="148">
         <v>120.1</v>
       </c>
-      <c r="N136" s="71"/>
-      <c r="O136" s="129">
+      <c r="N136" s="93"/>
+      <c r="O136" s="148">
         <v>1.8</v>
       </c>
-      <c r="P136" s="71"/>
-      <c r="Q136" s="130">
-        <v>47.72</v>
-      </c>
-      <c r="R136" s="78"/>
-      <c r="S136" s="126">
+      <c r="P136" s="93"/>
+      <c r="Q136" s="149">
+        <v>41.09</v>
+      </c>
+      <c r="R136" s="100"/>
+      <c r="S136" s="146">
         <v>1.4</v>
       </c>
-      <c r="T136" s="71"/>
+      <c r="T136" s="93"/>
     </row>
     <row r="137" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A137" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="B137" s="71"/>
-      <c r="C137" s="132">
+      <c r="A137" s="150" t="s">
+        <v>126</v>
+      </c>
+      <c r="B137" s="93"/>
+      <c r="C137" s="150">
         <v>280</v>
       </c>
-      <c r="D137" s="71"/>
-      <c r="E137" s="131">
+      <c r="D137" s="93"/>
+      <c r="E137" s="143">
         <v>4</v>
       </c>
-      <c r="F137" s="71"/>
-      <c r="G137" s="131">
+      <c r="F137" s="93"/>
+      <c r="G137" s="143">
         <v>3</v>
       </c>
-      <c r="H137" s="71"/>
-      <c r="I137" s="132"/>
-      <c r="J137" s="71"/>
-      <c r="K137" s="134">
+      <c r="H137" s="93"/>
+      <c r="I137" s="150"/>
+      <c r="J137" s="93"/>
+      <c r="K137" s="151">
         <v>3.5</v>
       </c>
-      <c r="L137" s="71"/>
-      <c r="M137" s="135">
+      <c r="L137" s="93"/>
+      <c r="M137" s="152">
         <v>147.05000000000001</v>
       </c>
-      <c r="N137" s="71"/>
-      <c r="O137" s="135">
+      <c r="N137" s="93"/>
+      <c r="O137" s="152">
         <v>1.4</v>
       </c>
-      <c r="P137" s="71"/>
-      <c r="Q137" s="130">
-        <v>47.76</v>
-      </c>
-      <c r="R137" s="78"/>
-      <c r="S137" s="131">
+      <c r="P137" s="93"/>
+      <c r="Q137" s="149">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="R137" s="100"/>
+      <c r="S137" s="143">
         <v>1.4</v>
       </c>
-      <c r="T137" s="71"/>
+      <c r="T137" s="93"/>
     </row>
     <row r="138" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A138" s="136" t="s">
-        <v>125</v>
-      </c>
-      <c r="B138" s="80"/>
-      <c r="C138" s="125">
+      <c r="A138" s="144" t="s">
+        <v>127</v>
+      </c>
+      <c r="B138" s="115"/>
+      <c r="C138" s="145">
         <v>300</v>
       </c>
-      <c r="D138" s="71"/>
-      <c r="E138" s="126">
+      <c r="D138" s="93"/>
+      <c r="E138" s="146">
         <v>4</v>
       </c>
-      <c r="F138" s="71"/>
-      <c r="G138" s="126">
+      <c r="F138" s="93"/>
+      <c r="G138" s="146">
         <v>3</v>
       </c>
-      <c r="H138" s="71"/>
-      <c r="I138" s="125"/>
-      <c r="J138" s="71"/>
-      <c r="K138" s="128">
+      <c r="H138" s="93"/>
+      <c r="I138" s="145"/>
+      <c r="J138" s="93"/>
+      <c r="K138" s="147">
         <v>3.7</v>
       </c>
-      <c r="L138" s="71"/>
-      <c r="M138" s="129">
+      <c r="L138" s="93"/>
+      <c r="M138" s="148">
         <v>153.21</v>
       </c>
-      <c r="N138" s="71"/>
-      <c r="O138" s="129">
+      <c r="N138" s="93"/>
+      <c r="O138" s="148">
         <v>1.7</v>
       </c>
-      <c r="P138" s="71"/>
-      <c r="Q138" s="130">
-        <v>47.66</v>
-      </c>
-      <c r="R138" s="78"/>
-      <c r="S138" s="126">
+      <c r="P138" s="93"/>
+      <c r="Q138" s="149">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="R138" s="100"/>
+      <c r="S138" s="146">
         <v>1.4</v>
       </c>
-      <c r="T138" s="71"/>
+      <c r="T138" s="93"/>
     </row>
     <row r="139" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A139" s="140" t="s">
-        <v>126</v>
-      </c>
-      <c r="B139" s="111"/>
-      <c r="C139" s="140">
+      <c r="A139" s="139" t="s">
+        <v>128</v>
+      </c>
+      <c r="B139" s="66"/>
+      <c r="C139" s="139">
         <v>300</v>
       </c>
-      <c r="D139" s="111"/>
-      <c r="E139" s="137">
+      <c r="D139" s="66"/>
+      <c r="E139" s="136">
         <v>4</v>
       </c>
-      <c r="F139" s="111"/>
-      <c r="G139" s="137">
+      <c r="F139" s="66"/>
+      <c r="G139" s="136">
         <v>3</v>
       </c>
-      <c r="H139" s="111"/>
-      <c r="I139" s="140"/>
-      <c r="J139" s="111"/>
-      <c r="K139" s="141">
+      <c r="H139" s="66"/>
+      <c r="I139" s="139"/>
+      <c r="J139" s="66"/>
+      <c r="K139" s="140">
         <v>3.7</v>
       </c>
-      <c r="L139" s="111"/>
-      <c r="M139" s="142">
+      <c r="L139" s="66"/>
+      <c r="M139" s="141">
         <v>153.21</v>
       </c>
-      <c r="N139" s="111"/>
-      <c r="O139" s="142">
+      <c r="N139" s="66"/>
+      <c r="O139" s="141">
         <v>1.7</v>
       </c>
-      <c r="P139" s="111"/>
-      <c r="Q139" s="143">
-        <v>47.79</v>
-      </c>
-      <c r="R139" s="144"/>
-      <c r="S139" s="137">
+      <c r="P139" s="66"/>
+      <c r="Q139" s="142">
+        <v>41.01</v>
+      </c>
+      <c r="R139" s="64"/>
+      <c r="S139" s="136">
         <v>1.4</v>
       </c>
-      <c r="T139" s="111"/>
+      <c r="T139" s="66"/>
     </row>
     <row r="140" spans="1:20" ht="14.1" customHeight="1">
       <c r="A140" s="26" t="s">
@@ -5153,10 +5213,10 @@
       <c r="S143" s="17"/>
     </row>
     <row r="144" spans="1:20" ht="15" customHeight="1" thickBot="1"/>
-    <row r="145" spans="1:21" ht="14.4" customHeight="1">
+    <row r="145" spans="1:21" ht="14.45" customHeight="1">
       <c r="A145" s="42" t="str">
         <f>A57</f>
-        <v>Calibration No: CAL00001</v>
+        <v>Calibration No: CAL00003</v>
       </c>
       <c r="B145" s="43"/>
       <c r="C145" s="43"/>
@@ -5167,7 +5227,7 @@
       <c r="H145" s="43"/>
       <c r="I145" s="44" t="str">
         <f>I57</f>
-        <v>Calibration No: CAL00001</v>
+        <v>Calibration No: CAL00003</v>
       </c>
       <c r="J145" s="43"/>
       <c r="K145" s="43"/>
@@ -5231,1662 +5291,1662 @@
       <c r="Q148" s="26"/>
     </row>
     <row r="149" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A149" s="138" t="s">
+      <c r="A149" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="B149" s="65"/>
-      <c r="C149" s="138" t="s">
+      <c r="B149" s="91"/>
+      <c r="C149" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="D149" s="65"/>
-      <c r="E149" s="138" t="s">
+      <c r="D149" s="91"/>
+      <c r="E149" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="F149" s="65"/>
-      <c r="G149" s="138" t="s">
+      <c r="F149" s="91"/>
+      <c r="G149" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="H149" s="65"/>
-      <c r="I149" s="138" t="s">
+      <c r="H149" s="91"/>
+      <c r="I149" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="J149" s="65"/>
-      <c r="K149" s="138" t="s">
+      <c r="J149" s="91"/>
+      <c r="K149" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="L149" s="65"/>
-      <c r="M149" s="138" t="s">
+      <c r="L149" s="91"/>
+      <c r="M149" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="N149" s="65"/>
-      <c r="O149" s="138" t="s">
+      <c r="N149" s="91"/>
+      <c r="O149" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="P149" s="65"/>
-      <c r="Q149" s="139" t="s">
+      <c r="P149" s="91"/>
+      <c r="Q149" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="R149" s="65"/>
-      <c r="S149" s="138" t="s">
+      <c r="R149" s="91"/>
+      <c r="S149" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="T149" s="65"/>
+      <c r="T149" s="91"/>
     </row>
     <row r="150" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A150" s="63"/>
-      <c r="B150" s="62"/>
-      <c r="C150" s="61" t="s">
+      <c r="A150" s="165"/>
+      <c r="B150" s="164"/>
+      <c r="C150" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="D150" s="62"/>
-      <c r="E150" s="61" t="s">
+      <c r="D150" s="164"/>
+      <c r="E150" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="F150" s="62"/>
-      <c r="G150" s="61" t="s">
+      <c r="F150" s="164"/>
+      <c r="G150" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="H150" s="62"/>
-      <c r="I150" s="61" t="s">
+      <c r="H150" s="164"/>
+      <c r="I150" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="J150" s="62"/>
-      <c r="K150" s="61" t="s">
+      <c r="J150" s="164"/>
+      <c r="K150" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="L150" s="62"/>
-      <c r="M150" s="61" t="s">
+      <c r="L150" s="164"/>
+      <c r="M150" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="N150" s="62"/>
-      <c r="O150" s="61" t="s">
+      <c r="N150" s="164"/>
+      <c r="O150" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="P150" s="62"/>
-      <c r="Q150" s="61" t="s">
+      <c r="P150" s="164"/>
+      <c r="Q150" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="R150" s="62"/>
-      <c r="S150" s="61" t="s">
+      <c r="R150" s="164"/>
+      <c r="S150" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="T150" s="62"/>
+      <c r="T150" s="164"/>
     </row>
     <row r="151" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A151" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="B151" s="65"/>
-      <c r="C151" s="84">
+      <c r="A151" s="116" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" s="91"/>
+      <c r="C151" s="116">
         <v>40</v>
       </c>
-      <c r="D151" s="65"/>
-      <c r="E151" s="85">
+      <c r="D151" s="91"/>
+      <c r="E151" s="117">
         <v>0.5</v>
       </c>
-      <c r="F151" s="65"/>
-      <c r="G151" s="85"/>
-      <c r="H151" s="65"/>
-      <c r="I151" s="86">
+      <c r="F151" s="91"/>
+      <c r="G151" s="117"/>
+      <c r="H151" s="91"/>
+      <c r="I151" s="118">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J151" s="65"/>
-      <c r="K151" s="87"/>
-      <c r="L151" s="65"/>
-      <c r="M151" s="102">
+      <c r="J151" s="91"/>
+      <c r="K151" s="119"/>
+      <c r="L151" s="91"/>
+      <c r="M151" s="120">
         <v>17.96</v>
       </c>
-      <c r="N151" s="65"/>
-      <c r="O151" s="103">
+      <c r="N151" s="91"/>
+      <c r="O151" s="121">
         <v>1.8</v>
       </c>
-      <c r="P151" s="65"/>
-      <c r="Q151" s="104">
-        <v>51.05</v>
-      </c>
-      <c r="R151" s="68"/>
-      <c r="S151" s="85">
+      <c r="P151" s="91"/>
+      <c r="Q151" s="106">
+        <v>45.7</v>
+      </c>
+      <c r="R151" s="107"/>
+      <c r="S151" s="117">
         <v>1.4</v>
       </c>
-      <c r="T151" s="65"/>
+      <c r="T151" s="91"/>
     </row>
     <row r="152" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A152" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="B152" s="71"/>
-      <c r="C152" s="92">
+      <c r="A152" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="B152" s="93"/>
+      <c r="C152" s="109">
         <v>40</v>
       </c>
-      <c r="D152" s="71"/>
-      <c r="E152" s="90">
+      <c r="D152" s="93"/>
+      <c r="E152" s="108">
         <v>1</v>
       </c>
-      <c r="F152" s="71"/>
-      <c r="G152" s="90"/>
-      <c r="H152" s="71"/>
-      <c r="I152" s="93">
+      <c r="F152" s="93"/>
+      <c r="G152" s="108"/>
+      <c r="H152" s="93"/>
+      <c r="I152" s="110">
         <v>0.93</v>
       </c>
-      <c r="J152" s="71"/>
-      <c r="K152" s="91"/>
-      <c r="L152" s="71"/>
-      <c r="M152" s="100">
+      <c r="J152" s="93"/>
+      <c r="K152" s="111"/>
+      <c r="L152" s="93"/>
+      <c r="M152" s="112">
         <v>20.93</v>
       </c>
-      <c r="N152" s="71"/>
-      <c r="O152" s="101">
+      <c r="N152" s="93"/>
+      <c r="O152" s="113">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P152" s="71"/>
-      <c r="Q152" s="77">
-        <v>48.8</v>
-      </c>
-      <c r="R152" s="78"/>
-      <c r="S152" s="90">
+      <c r="P152" s="93"/>
+      <c r="Q152" s="99">
+        <v>44.29</v>
+      </c>
+      <c r="R152" s="100"/>
+      <c r="S152" s="108">
         <v>1.4</v>
       </c>
-      <c r="T152" s="71"/>
+      <c r="T152" s="93"/>
     </row>
     <row r="153" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A153" s="95" t="s">
-        <v>129</v>
-      </c>
-      <c r="B153" s="80"/>
-      <c r="C153" s="95">
+      <c r="A153" s="129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B153" s="115"/>
+      <c r="C153" s="129">
         <v>40</v>
       </c>
-      <c r="D153" s="80"/>
-      <c r="E153" s="96">
+      <c r="D153" s="115"/>
+      <c r="E153" s="130">
         <v>4</v>
       </c>
-      <c r="F153" s="80"/>
-      <c r="G153" s="96"/>
-      <c r="H153" s="80"/>
-      <c r="I153" s="97">
+      <c r="F153" s="115"/>
+      <c r="G153" s="130"/>
+      <c r="H153" s="115"/>
+      <c r="I153" s="131">
         <v>1.9</v>
       </c>
-      <c r="J153" s="80"/>
-      <c r="K153" s="98">
+      <c r="J153" s="115"/>
+      <c r="K153" s="132">
         <v>0.06</v>
       </c>
-      <c r="L153" s="80"/>
-      <c r="M153" s="99">
+      <c r="L153" s="115"/>
+      <c r="M153" s="133">
         <v>27.07</v>
       </c>
-      <c r="N153" s="80"/>
-      <c r="O153" s="109">
+      <c r="N153" s="115"/>
+      <c r="O153" s="134">
         <v>0.2</v>
       </c>
-      <c r="P153" s="80"/>
-      <c r="Q153" s="107">
-        <v>46.76</v>
-      </c>
-      <c r="R153" s="108"/>
-      <c r="S153" s="96">
+      <c r="P153" s="115"/>
+      <c r="Q153" s="127">
+        <v>43.07</v>
+      </c>
+      <c r="R153" s="128"/>
+      <c r="S153" s="130">
         <v>1.4</v>
       </c>
-      <c r="T153" s="80"/>
+      <c r="T153" s="115"/>
     </row>
     <row r="154" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A154" s="94" t="s">
-        <v>130</v>
-      </c>
-      <c r="B154" s="65"/>
-      <c r="C154" s="94">
+      <c r="A154" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="B154" s="91"/>
+      <c r="C154" s="101">
         <v>50</v>
       </c>
-      <c r="D154" s="65"/>
-      <c r="E154" s="69">
+      <c r="D154" s="91"/>
+      <c r="E154" s="90">
         <v>0.5</v>
       </c>
-      <c r="F154" s="65"/>
-      <c r="G154" s="69"/>
-      <c r="H154" s="65"/>
-      <c r="I154" s="112">
+      <c r="F154" s="91"/>
+      <c r="G154" s="90"/>
+      <c r="H154" s="91"/>
+      <c r="I154" s="102">
         <v>0.68</v>
       </c>
-      <c r="J154" s="65"/>
-      <c r="K154" s="113"/>
-      <c r="L154" s="65"/>
-      <c r="M154" s="88">
+      <c r="J154" s="91"/>
+      <c r="K154" s="103"/>
+      <c r="L154" s="91"/>
+      <c r="M154" s="104">
         <v>19.5</v>
       </c>
-      <c r="N154" s="65"/>
-      <c r="O154" s="89">
+      <c r="N154" s="91"/>
+      <c r="O154" s="105">
         <v>2.7</v>
       </c>
-      <c r="P154" s="65"/>
-      <c r="Q154" s="104">
-        <v>50.27</v>
-      </c>
-      <c r="R154" s="68"/>
-      <c r="S154" s="69">
+      <c r="P154" s="91"/>
+      <c r="Q154" s="106">
+        <v>45.19</v>
+      </c>
+      <c r="R154" s="107"/>
+      <c r="S154" s="90">
         <v>1.4</v>
       </c>
-      <c r="T154" s="65"/>
+      <c r="T154" s="91"/>
     </row>
     <row r="155" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A155" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="B155" s="71"/>
-      <c r="C155" s="70">
+      <c r="A155" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="B155" s="93"/>
+      <c r="C155" s="92">
         <v>50</v>
       </c>
-      <c r="D155" s="71"/>
-      <c r="E155" s="72">
+      <c r="D155" s="93"/>
+      <c r="E155" s="94">
         <v>1</v>
       </c>
-      <c r="F155" s="71"/>
-      <c r="G155" s="72"/>
-      <c r="H155" s="71"/>
-      <c r="I155" s="73">
+      <c r="F155" s="93"/>
+      <c r="G155" s="94"/>
+      <c r="H155" s="93"/>
+      <c r="I155" s="95">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J155" s="71"/>
-      <c r="K155" s="74"/>
-      <c r="L155" s="71"/>
-      <c r="M155" s="75">
+      <c r="J155" s="93"/>
+      <c r="K155" s="96"/>
+      <c r="L155" s="93"/>
+      <c r="M155" s="97">
         <v>22.65</v>
       </c>
-      <c r="N155" s="71"/>
-      <c r="O155" s="76">
+      <c r="N155" s="93"/>
+      <c r="O155" s="98">
         <v>1.6</v>
       </c>
-      <c r="P155" s="71"/>
-      <c r="Q155" s="77">
-        <v>48.31</v>
-      </c>
-      <c r="R155" s="78"/>
-      <c r="S155" s="72">
+      <c r="P155" s="93"/>
+      <c r="Q155" s="99">
+        <v>44</v>
+      </c>
+      <c r="R155" s="100"/>
+      <c r="S155" s="94">
         <v>1.4</v>
       </c>
-      <c r="T155" s="71"/>
+      <c r="T155" s="93"/>
     </row>
     <row r="156" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A156" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="B156" s="71"/>
-      <c r="C156" s="92">
+      <c r="A156" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B156" s="93"/>
+      <c r="C156" s="109">
         <v>50</v>
       </c>
-      <c r="D156" s="71"/>
-      <c r="E156" s="90">
+      <c r="D156" s="93"/>
+      <c r="E156" s="108">
         <v>4</v>
       </c>
-      <c r="F156" s="71"/>
-      <c r="G156" s="90"/>
-      <c r="H156" s="71"/>
-      <c r="I156" s="93">
+      <c r="F156" s="93"/>
+      <c r="G156" s="108"/>
+      <c r="H156" s="93"/>
+      <c r="I156" s="110">
         <v>2.39</v>
       </c>
-      <c r="J156" s="71"/>
-      <c r="K156" s="91">
+      <c r="J156" s="93"/>
+      <c r="K156" s="111">
         <v>0.08</v>
       </c>
-      <c r="L156" s="71"/>
-      <c r="M156" s="100">
+      <c r="L156" s="93"/>
+      <c r="M156" s="112">
         <v>29.93</v>
       </c>
-      <c r="N156" s="71"/>
-      <c r="O156" s="101">
+      <c r="N156" s="93"/>
+      <c r="O156" s="113">
         <v>0.4</v>
       </c>
-      <c r="P156" s="71"/>
-      <c r="Q156" s="77">
-        <v>46.63</v>
-      </c>
-      <c r="R156" s="78"/>
-      <c r="S156" s="90">
+      <c r="P156" s="93"/>
+      <c r="Q156" s="99">
+        <v>42.91</v>
+      </c>
+      <c r="R156" s="100"/>
+      <c r="S156" s="108">
         <v>1.4</v>
       </c>
-      <c r="T156" s="71"/>
+      <c r="T156" s="93"/>
     </row>
     <row r="157" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A157" s="95" t="s">
-        <v>132</v>
-      </c>
-      <c r="B157" s="80"/>
-      <c r="C157" s="95">
+      <c r="A157" s="129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B157" s="115"/>
+      <c r="C157" s="129">
         <v>50</v>
       </c>
-      <c r="D157" s="80"/>
-      <c r="E157" s="96">
+      <c r="D157" s="115"/>
+      <c r="E157" s="130">
         <v>4.5</v>
       </c>
-      <c r="F157" s="80"/>
-      <c r="G157" s="96"/>
-      <c r="H157" s="80"/>
-      <c r="I157" s="97">
+      <c r="F157" s="115"/>
+      <c r="G157" s="130"/>
+      <c r="H157" s="115"/>
+      <c r="I157" s="131">
         <v>2.5299999999999998</v>
       </c>
-      <c r="J157" s="80"/>
-      <c r="K157" s="98">
+      <c r="J157" s="115"/>
+      <c r="K157" s="132">
         <v>0.08</v>
       </c>
-      <c r="L157" s="80"/>
-      <c r="M157" s="99">
+      <c r="L157" s="115"/>
+      <c r="M157" s="133">
         <v>30.62</v>
       </c>
-      <c r="N157" s="80"/>
-      <c r="O157" s="109">
+      <c r="N157" s="115"/>
+      <c r="O157" s="134">
         <v>0.3</v>
       </c>
-      <c r="P157" s="80"/>
-      <c r="Q157" s="107">
-        <v>46.5</v>
-      </c>
-      <c r="R157" s="108"/>
-      <c r="S157" s="96">
+      <c r="P157" s="115"/>
+      <c r="Q157" s="127">
+        <v>42.86</v>
+      </c>
+      <c r="R157" s="128"/>
+      <c r="S157" s="130">
         <v>1.4</v>
       </c>
-      <c r="T157" s="80"/>
+      <c r="T157" s="115"/>
     </row>
     <row r="158" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A158" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="B158" s="65"/>
-      <c r="C158" s="94">
+      <c r="A158" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="B158" s="91"/>
+      <c r="C158" s="101">
         <v>60</v>
       </c>
-      <c r="D158" s="65"/>
-      <c r="E158" s="69">
+      <c r="D158" s="91"/>
+      <c r="E158" s="90">
         <v>0.5</v>
       </c>
-      <c r="F158" s="65"/>
-      <c r="G158" s="69"/>
-      <c r="H158" s="65"/>
-      <c r="I158" s="112">
+      <c r="F158" s="91"/>
+      <c r="G158" s="90"/>
+      <c r="H158" s="91"/>
+      <c r="I158" s="102">
         <v>0.79</v>
       </c>
-      <c r="J158" s="65"/>
-      <c r="K158" s="113"/>
-      <c r="L158" s="65"/>
-      <c r="M158" s="88">
+      <c r="J158" s="91"/>
+      <c r="K158" s="103"/>
+      <c r="L158" s="91"/>
+      <c r="M158" s="104">
         <v>20.86</v>
       </c>
-      <c r="N158" s="65"/>
-      <c r="O158" s="89">
+      <c r="N158" s="91"/>
+      <c r="O158" s="105">
         <v>3.5</v>
       </c>
-      <c r="P158" s="65"/>
-      <c r="Q158" s="104">
-        <v>49.76</v>
-      </c>
-      <c r="R158" s="68"/>
-      <c r="S158" s="69">
+      <c r="P158" s="91"/>
+      <c r="Q158" s="106">
+        <v>44.83</v>
+      </c>
+      <c r="R158" s="107"/>
+      <c r="S158" s="90">
         <v>1.4</v>
       </c>
-      <c r="T158" s="65"/>
+      <c r="T158" s="91"/>
     </row>
     <row r="159" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A159" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="B159" s="71"/>
-      <c r="C159" s="70">
+      <c r="A159" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="B159" s="93"/>
+      <c r="C159" s="92">
         <v>60</v>
       </c>
-      <c r="D159" s="71"/>
-      <c r="E159" s="72">
+      <c r="D159" s="93"/>
+      <c r="E159" s="94">
         <v>1</v>
       </c>
-      <c r="F159" s="71"/>
-      <c r="G159" s="72"/>
-      <c r="H159" s="71"/>
-      <c r="I159" s="73">
+      <c r="F159" s="93"/>
+      <c r="G159" s="94"/>
+      <c r="H159" s="93"/>
+      <c r="I159" s="95">
         <v>1.29</v>
       </c>
-      <c r="J159" s="71"/>
-      <c r="K159" s="74"/>
-      <c r="L159" s="71"/>
-      <c r="M159" s="75">
+      <c r="J159" s="93"/>
+      <c r="K159" s="96"/>
+      <c r="L159" s="93"/>
+      <c r="M159" s="97">
         <v>24.09</v>
       </c>
-      <c r="N159" s="71"/>
-      <c r="O159" s="76">
+      <c r="N159" s="93"/>
+      <c r="O159" s="98">
         <v>2.1</v>
       </c>
-      <c r="P159" s="71"/>
-      <c r="Q159" s="77">
-        <v>48.04</v>
-      </c>
-      <c r="R159" s="78"/>
-      <c r="S159" s="72">
+      <c r="P159" s="93"/>
+      <c r="Q159" s="99">
+        <v>43.78</v>
+      </c>
+      <c r="R159" s="100"/>
+      <c r="S159" s="94">
         <v>1.4</v>
       </c>
-      <c r="T159" s="71"/>
+      <c r="T159" s="93"/>
     </row>
     <row r="160" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A160" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="B160" s="80"/>
-      <c r="C160" s="79">
+      <c r="A160" s="122" t="s">
+        <v>137</v>
+      </c>
+      <c r="B160" s="115"/>
+      <c r="C160" s="122">
         <v>60</v>
       </c>
-      <c r="D160" s="80"/>
-      <c r="E160" s="81">
+      <c r="D160" s="115"/>
+      <c r="E160" s="114">
         <v>4</v>
       </c>
-      <c r="F160" s="80"/>
-      <c r="G160" s="81"/>
-      <c r="H160" s="80"/>
-      <c r="I160" s="82">
+      <c r="F160" s="115"/>
+      <c r="G160" s="114"/>
+      <c r="H160" s="115"/>
+      <c r="I160" s="123">
         <v>2.81</v>
       </c>
-      <c r="J160" s="80"/>
-      <c r="K160" s="83">
+      <c r="J160" s="115"/>
+      <c r="K160" s="124">
         <v>0.1</v>
       </c>
-      <c r="L160" s="80"/>
-      <c r="M160" s="105">
+      <c r="L160" s="115"/>
+      <c r="M160" s="125">
         <v>32.25</v>
       </c>
-      <c r="N160" s="80"/>
-      <c r="O160" s="106">
+      <c r="N160" s="115"/>
+      <c r="O160" s="126">
         <v>0.6</v>
       </c>
-      <c r="P160" s="80"/>
-      <c r="Q160" s="107">
-        <v>46.67</v>
-      </c>
-      <c r="R160" s="108"/>
-      <c r="S160" s="81">
+      <c r="P160" s="115"/>
+      <c r="Q160" s="127">
+        <v>42.75</v>
+      </c>
+      <c r="R160" s="128"/>
+      <c r="S160" s="114">
         <v>1.4</v>
       </c>
-      <c r="T160" s="80"/>
+      <c r="T160" s="115"/>
     </row>
     <row r="161" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A161" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="B161" s="65"/>
-      <c r="C161" s="84">
+      <c r="A161" s="116" t="s">
+        <v>138</v>
+      </c>
+      <c r="B161" s="91"/>
+      <c r="C161" s="116">
         <v>70</v>
       </c>
-      <c r="D161" s="65"/>
-      <c r="E161" s="85">
+      <c r="D161" s="91"/>
+      <c r="E161" s="117">
         <v>0.5</v>
       </c>
-      <c r="F161" s="65"/>
-      <c r="G161" s="85"/>
-      <c r="H161" s="65"/>
-      <c r="I161" s="86">
+      <c r="F161" s="91"/>
+      <c r="G161" s="117"/>
+      <c r="H161" s="91"/>
+      <c r="I161" s="118">
         <v>0.9</v>
       </c>
-      <c r="J161" s="65"/>
-      <c r="K161" s="87"/>
-      <c r="L161" s="65"/>
-      <c r="M161" s="102">
+      <c r="J161" s="91"/>
+      <c r="K161" s="119"/>
+      <c r="L161" s="91"/>
+      <c r="M161" s="120">
         <v>22.15</v>
       </c>
-      <c r="N161" s="65"/>
-      <c r="O161" s="103">
+      <c r="N161" s="91"/>
+      <c r="O161" s="121">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P161" s="65"/>
-      <c r="Q161" s="104">
-        <v>49.37</v>
-      </c>
-      <c r="R161" s="68"/>
-      <c r="S161" s="85">
+      <c r="P161" s="91"/>
+      <c r="Q161" s="106">
+        <v>44.53</v>
+      </c>
+      <c r="R161" s="107"/>
+      <c r="S161" s="117">
         <v>1.4</v>
       </c>
-      <c r="T161" s="65"/>
+      <c r="T161" s="91"/>
     </row>
     <row r="162" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A162" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="B162" s="71"/>
-      <c r="C162" s="92">
+      <c r="A162" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="B162" s="93"/>
+      <c r="C162" s="109">
         <v>70</v>
       </c>
-      <c r="D162" s="71"/>
-      <c r="E162" s="90">
+      <c r="D162" s="93"/>
+      <c r="E162" s="108">
         <v>1</v>
       </c>
-      <c r="F162" s="71"/>
-      <c r="G162" s="90"/>
-      <c r="H162" s="71"/>
-      <c r="I162" s="93">
+      <c r="F162" s="93"/>
+      <c r="G162" s="108"/>
+      <c r="H162" s="93"/>
+      <c r="I162" s="110">
         <v>1.46</v>
       </c>
-      <c r="J162" s="71"/>
-      <c r="K162" s="91"/>
-      <c r="L162" s="71"/>
-      <c r="M162" s="100">
+      <c r="J162" s="93"/>
+      <c r="K162" s="111"/>
+      <c r="L162" s="93"/>
+      <c r="M162" s="112">
         <v>25.44</v>
       </c>
-      <c r="N162" s="71"/>
-      <c r="O162" s="101">
+      <c r="N162" s="93"/>
+      <c r="O162" s="113">
         <v>2.6</v>
       </c>
-      <c r="P162" s="71"/>
-      <c r="Q162" s="77">
-        <v>47.84</v>
-      </c>
-      <c r="R162" s="78"/>
-      <c r="S162" s="90">
+      <c r="P162" s="93"/>
+      <c r="Q162" s="99">
+        <v>43.59</v>
+      </c>
+      <c r="R162" s="100"/>
+      <c r="S162" s="108">
         <v>1.4</v>
       </c>
-      <c r="T162" s="71"/>
+      <c r="T162" s="93"/>
     </row>
     <row r="163" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A163" s="70" t="s">
-        <v>117</v>
-      </c>
-      <c r="B163" s="71"/>
-      <c r="C163" s="70">
+      <c r="A163" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="B163" s="93"/>
+      <c r="C163" s="92">
         <v>70</v>
       </c>
-      <c r="D163" s="71"/>
-      <c r="E163" s="72">
+      <c r="D163" s="93"/>
+      <c r="E163" s="94">
         <v>4</v>
       </c>
-      <c r="F163" s="71"/>
-      <c r="G163" s="72"/>
-      <c r="H163" s="71"/>
-      <c r="I163" s="73">
+      <c r="F163" s="93"/>
+      <c r="G163" s="94"/>
+      <c r="H163" s="93"/>
+      <c r="I163" s="95">
         <v>3.19</v>
       </c>
-      <c r="J163" s="71"/>
-      <c r="K163" s="74">
+      <c r="J163" s="93"/>
+      <c r="K163" s="96">
         <v>0.11</v>
       </c>
-      <c r="L163" s="71"/>
-      <c r="M163" s="75">
+      <c r="L163" s="93"/>
+      <c r="M163" s="97">
         <v>34.270000000000003</v>
       </c>
-      <c r="N163" s="71"/>
-      <c r="O163" s="76">
+      <c r="N163" s="93"/>
+      <c r="O163" s="98">
         <v>0.8</v>
       </c>
-      <c r="P163" s="71"/>
-      <c r="Q163" s="77">
-        <v>46.69</v>
-      </c>
-      <c r="R163" s="78"/>
-      <c r="S163" s="72">
+      <c r="P163" s="93"/>
+      <c r="Q163" s="99">
+        <v>42.67</v>
+      </c>
+      <c r="R163" s="100"/>
+      <c r="S163" s="94">
         <v>1.4</v>
       </c>
-      <c r="T163" s="71"/>
+      <c r="T163" s="93"/>
     </row>
     <row r="164" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A164" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="B164" s="71"/>
-      <c r="C164" s="92">
+      <c r="A164" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="B164" s="93"/>
+      <c r="C164" s="109">
         <v>70</v>
       </c>
-      <c r="D164" s="71"/>
-      <c r="E164" s="90">
+      <c r="D164" s="93"/>
+      <c r="E164" s="108">
         <v>4.5</v>
       </c>
-      <c r="F164" s="71"/>
-      <c r="G164" s="90"/>
-      <c r="H164" s="71"/>
-      <c r="I164" s="93">
+      <c r="F164" s="93"/>
+      <c r="G164" s="108"/>
+      <c r="H164" s="93"/>
+      <c r="I164" s="110">
         <v>3.39</v>
       </c>
-      <c r="J164" s="71"/>
-      <c r="K164" s="91">
+      <c r="J164" s="93"/>
+      <c r="K164" s="111">
         <v>0.12</v>
       </c>
-      <c r="L164" s="71"/>
-      <c r="M164" s="100">
+      <c r="L164" s="93"/>
+      <c r="M164" s="112">
         <v>35.19</v>
       </c>
-      <c r="N164" s="71"/>
-      <c r="O164" s="101">
+      <c r="N164" s="93"/>
+      <c r="O164" s="113">
         <v>0.7</v>
       </c>
-      <c r="P164" s="71"/>
-      <c r="Q164" s="77">
-        <v>46.65</v>
-      </c>
-      <c r="R164" s="78"/>
-      <c r="S164" s="90">
+      <c r="P164" s="93"/>
+      <c r="Q164" s="99">
+        <v>42.66</v>
+      </c>
+      <c r="R164" s="100"/>
+      <c r="S164" s="108">
         <v>1.4</v>
       </c>
-      <c r="T164" s="71"/>
+      <c r="T164" s="93"/>
     </row>
     <row r="165" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A165" s="70" t="s">
-        <v>139</v>
-      </c>
-      <c r="B165" s="71"/>
-      <c r="C165" s="70">
+      <c r="A165" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="B165" s="93"/>
+      <c r="C165" s="92">
         <v>70</v>
       </c>
-      <c r="D165" s="71"/>
-      <c r="E165" s="72">
+      <c r="D165" s="93"/>
+      <c r="E165" s="94">
         <v>6</v>
       </c>
-      <c r="F165" s="71"/>
-      <c r="G165" s="72"/>
-      <c r="H165" s="71"/>
-      <c r="I165" s="73">
+      <c r="F165" s="93"/>
+      <c r="G165" s="94"/>
+      <c r="H165" s="93"/>
+      <c r="I165" s="95">
         <v>3.95</v>
       </c>
-      <c r="J165" s="71"/>
-      <c r="K165" s="74">
+      <c r="J165" s="93"/>
+      <c r="K165" s="96">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L165" s="71"/>
-      <c r="M165" s="75">
+      <c r="L165" s="93"/>
+      <c r="M165" s="97">
         <v>37.51</v>
       </c>
-      <c r="N165" s="71"/>
-      <c r="O165" s="76">
+      <c r="N165" s="93"/>
+      <c r="O165" s="98">
         <v>0.5</v>
       </c>
-      <c r="P165" s="71"/>
-      <c r="Q165" s="77">
-        <v>46.59</v>
-      </c>
-      <c r="R165" s="78"/>
-      <c r="S165" s="72">
+      <c r="P165" s="93"/>
+      <c r="Q165" s="99">
+        <v>42.52</v>
+      </c>
+      <c r="R165" s="100"/>
+      <c r="S165" s="94">
         <v>1.4</v>
       </c>
-      <c r="T165" s="71"/>
+      <c r="T165" s="93"/>
     </row>
     <row r="166" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A166" s="94" t="s">
+      <c r="A166" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="B166" s="91"/>
+      <c r="C166" s="101">
+        <v>80</v>
+      </c>
+      <c r="D166" s="91"/>
+      <c r="E166" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="F166" s="91"/>
+      <c r="G166" s="90"/>
+      <c r="H166" s="91"/>
+      <c r="I166" s="102">
+        <v>1.02</v>
+      </c>
+      <c r="J166" s="91"/>
+      <c r="K166" s="103"/>
+      <c r="L166" s="91"/>
+      <c r="M166" s="104">
+        <v>23.48</v>
+      </c>
+      <c r="N166" s="91"/>
+      <c r="O166" s="105">
+        <v>4.8</v>
+      </c>
+      <c r="P166" s="91"/>
+      <c r="Q166" s="106">
+        <v>44.27</v>
+      </c>
+      <c r="R166" s="107"/>
+      <c r="S166" s="90">
+        <v>1.4</v>
+      </c>
+      <c r="T166" s="91"/>
+    </row>
+    <row r="167" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A167" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="B167" s="93"/>
+      <c r="C167" s="92">
+        <v>80</v>
+      </c>
+      <c r="D167" s="93"/>
+      <c r="E167" s="94">
+        <v>1</v>
+      </c>
+      <c r="F167" s="93"/>
+      <c r="G167" s="94"/>
+      <c r="H167" s="93"/>
+      <c r="I167" s="95">
+        <v>1.64</v>
+      </c>
+      <c r="J167" s="93"/>
+      <c r="K167" s="96"/>
+      <c r="L167" s="93"/>
+      <c r="M167" s="97">
+        <v>26.84</v>
+      </c>
+      <c r="N167" s="93"/>
+      <c r="O167" s="98">
+        <v>3.2</v>
+      </c>
+      <c r="P167" s="93"/>
+      <c r="Q167" s="99">
+        <v>43.39</v>
+      </c>
+      <c r="R167" s="100"/>
+      <c r="S167" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T167" s="93"/>
+    </row>
+    <row r="168" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A168" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="B168" s="115"/>
+      <c r="C168" s="122">
+        <v>80</v>
+      </c>
+      <c r="D168" s="115"/>
+      <c r="E168" s="114">
+        <v>4</v>
+      </c>
+      <c r="F168" s="115"/>
+      <c r="G168" s="114"/>
+      <c r="H168" s="115"/>
+      <c r="I168" s="123">
+        <v>3.62</v>
+      </c>
+      <c r="J168" s="115"/>
+      <c r="K168" s="124">
+        <v>0.13</v>
+      </c>
+      <c r="L168" s="115"/>
+      <c r="M168" s="125">
+        <v>36.33</v>
+      </c>
+      <c r="N168" s="115"/>
+      <c r="O168" s="126">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P168" s="115"/>
+      <c r="Q168" s="127">
+        <v>42.6</v>
+      </c>
+      <c r="R168" s="128"/>
+      <c r="S168" s="114">
+        <v>1.4</v>
+      </c>
+      <c r="T168" s="115"/>
+    </row>
+    <row r="169" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A169" s="116" t="s">
+        <v>146</v>
+      </c>
+      <c r="B169" s="91"/>
+      <c r="C169" s="116">
+        <v>90</v>
+      </c>
+      <c r="D169" s="91"/>
+      <c r="E169" s="117">
+        <v>0.5</v>
+      </c>
+      <c r="F169" s="91"/>
+      <c r="G169" s="117"/>
+      <c r="H169" s="91"/>
+      <c r="I169" s="118">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J169" s="91"/>
+      <c r="K169" s="119"/>
+      <c r="L169" s="91"/>
+      <c r="M169" s="120">
+        <v>24.88</v>
+      </c>
+      <c r="N169" s="91"/>
+      <c r="O169" s="121">
+        <v>5.5</v>
+      </c>
+      <c r="P169" s="91"/>
+      <c r="Q169" s="106">
+        <v>44.05</v>
+      </c>
+      <c r="R169" s="107"/>
+      <c r="S169" s="117">
+        <v>1.4</v>
+      </c>
+      <c r="T169" s="91"/>
+    </row>
+    <row r="170" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A170" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="B170" s="93"/>
+      <c r="C170" s="109">
+        <v>90</v>
+      </c>
+      <c r="D170" s="93"/>
+      <c r="E170" s="108">
+        <v>1</v>
+      </c>
+      <c r="F170" s="93"/>
+      <c r="G170" s="108"/>
+      <c r="H170" s="93"/>
+      <c r="I170" s="110">
+        <v>1.84</v>
+      </c>
+      <c r="J170" s="93"/>
+      <c r="K170" s="111"/>
+      <c r="L170" s="93"/>
+      <c r="M170" s="112">
+        <v>28.32</v>
+      </c>
+      <c r="N170" s="93"/>
+      <c r="O170" s="113">
+        <v>3.7</v>
+      </c>
+      <c r="P170" s="93"/>
+      <c r="Q170" s="99">
+        <v>43.27</v>
+      </c>
+      <c r="R170" s="100"/>
+      <c r="S170" s="108">
+        <v>1.4</v>
+      </c>
+      <c r="T170" s="93"/>
+    </row>
+    <row r="171" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A171" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="B171" s="93"/>
+      <c r="C171" s="92">
+        <v>90</v>
+      </c>
+      <c r="D171" s="93"/>
+      <c r="E171" s="94">
+        <v>4</v>
+      </c>
+      <c r="F171" s="93"/>
+      <c r="G171" s="94"/>
+      <c r="H171" s="93"/>
+      <c r="I171" s="95">
+        <v>4.04</v>
+      </c>
+      <c r="J171" s="93"/>
+      <c r="K171" s="96">
+        <v>0.15</v>
+      </c>
+      <c r="L171" s="93"/>
+      <c r="M171" s="97">
+        <v>38.380000000000003</v>
+      </c>
+      <c r="N171" s="93"/>
+      <c r="O171" s="98">
+        <v>1.4</v>
+      </c>
+      <c r="P171" s="93"/>
+      <c r="Q171" s="99">
+        <v>42.49</v>
+      </c>
+      <c r="R171" s="100"/>
+      <c r="S171" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T171" s="93"/>
+    </row>
+    <row r="172" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A172" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="B172" s="91"/>
+      <c r="C172" s="101">
+        <v>100</v>
+      </c>
+      <c r="D172" s="91"/>
+      <c r="E172" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="F172" s="91"/>
+      <c r="G172" s="90"/>
+      <c r="H172" s="91"/>
+      <c r="I172" s="102">
+        <v>1.3</v>
+      </c>
+      <c r="J172" s="91"/>
+      <c r="K172" s="103"/>
+      <c r="L172" s="91"/>
+      <c r="M172" s="104">
+        <v>26.34</v>
+      </c>
+      <c r="N172" s="91"/>
+      <c r="O172" s="105">
+        <v>6.1</v>
+      </c>
+      <c r="P172" s="91"/>
+      <c r="Q172" s="106">
+        <v>43.83</v>
+      </c>
+      <c r="R172" s="107"/>
+      <c r="S172" s="90">
+        <v>1.4</v>
+      </c>
+      <c r="T172" s="91"/>
+    </row>
+    <row r="173" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A173" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="B173" s="93"/>
+      <c r="C173" s="92">
+        <v>100</v>
+      </c>
+      <c r="D173" s="93"/>
+      <c r="E173" s="94">
+        <v>1</v>
+      </c>
+      <c r="F173" s="93"/>
+      <c r="G173" s="94"/>
+      <c r="H173" s="93"/>
+      <c r="I173" s="95">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J173" s="93"/>
+      <c r="K173" s="96"/>
+      <c r="L173" s="93"/>
+      <c r="M173" s="97">
+        <v>29.87</v>
+      </c>
+      <c r="N173" s="93"/>
+      <c r="O173" s="98">
+        <v>4.3</v>
+      </c>
+      <c r="P173" s="93"/>
+      <c r="Q173" s="99">
+        <v>43.11</v>
+      </c>
+      <c r="R173" s="100"/>
+      <c r="S173" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T173" s="93"/>
+    </row>
+    <row r="174" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A174" s="109" t="s">
+        <v>151</v>
+      </c>
+      <c r="B174" s="93"/>
+      <c r="C174" s="109">
+        <v>100</v>
+      </c>
+      <c r="D174" s="93"/>
+      <c r="E174" s="108">
+        <v>4.5</v>
+      </c>
+      <c r="F174" s="93"/>
+      <c r="G174" s="108"/>
+      <c r="H174" s="93"/>
+      <c r="I174" s="110">
+        <v>4.74</v>
+      </c>
+      <c r="J174" s="93"/>
+      <c r="K174" s="111">
+        <v>0.18</v>
+      </c>
+      <c r="L174" s="93"/>
+      <c r="M174" s="112">
+        <v>41.59</v>
+      </c>
+      <c r="N174" s="93"/>
+      <c r="O174" s="113">
+        <v>1.6</v>
+      </c>
+      <c r="P174" s="93"/>
+      <c r="Q174" s="99">
+        <v>42.38</v>
+      </c>
+      <c r="R174" s="100"/>
+      <c r="S174" s="108">
+        <v>1.4</v>
+      </c>
+      <c r="T174" s="93"/>
+    </row>
+    <row r="175" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A175" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="B175" s="93"/>
+      <c r="C175" s="92">
+        <v>100</v>
+      </c>
+      <c r="D175" s="93"/>
+      <c r="E175" s="94">
+        <v>6</v>
+      </c>
+      <c r="F175" s="93"/>
+      <c r="G175" s="94"/>
+      <c r="H175" s="93"/>
+      <c r="I175" s="95">
+        <v>5.49</v>
+      </c>
+      <c r="J175" s="93"/>
+      <c r="K175" s="96">
+        <v>0.22</v>
+      </c>
+      <c r="L175" s="93"/>
+      <c r="M175" s="97">
+        <v>44.58</v>
+      </c>
+      <c r="N175" s="93"/>
+      <c r="O175" s="98">
+        <v>1.2</v>
+      </c>
+      <c r="P175" s="93"/>
+      <c r="Q175" s="99">
+        <v>42.3</v>
+      </c>
+      <c r="R175" s="100"/>
+      <c r="S175" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T175" s="93"/>
+    </row>
+    <row r="176" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A176" s="122" t="s">
+        <v>153</v>
+      </c>
+      <c r="B176" s="115"/>
+      <c r="C176" s="122">
+        <v>100</v>
+      </c>
+      <c r="D176" s="115"/>
+      <c r="E176" s="114">
+        <v>9</v>
+      </c>
+      <c r="F176" s="115"/>
+      <c r="G176" s="114"/>
+      <c r="H176" s="115"/>
+      <c r="I176" s="123">
+        <v>6.61</v>
+      </c>
+      <c r="J176" s="115"/>
+      <c r="K176" s="124">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L176" s="115"/>
+      <c r="M176" s="125">
+        <v>49.08</v>
+      </c>
+      <c r="N176" s="115"/>
+      <c r="O176" s="126">
+        <v>0.8</v>
+      </c>
+      <c r="P176" s="115"/>
+      <c r="Q176" s="127">
+        <v>42.17</v>
+      </c>
+      <c r="R176" s="128"/>
+      <c r="S176" s="114">
+        <v>1.4</v>
+      </c>
+      <c r="T176" s="115"/>
+    </row>
+    <row r="177" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A177" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B177" s="93"/>
+      <c r="C177" s="92">
+        <v>120</v>
+      </c>
+      <c r="D177" s="93"/>
+      <c r="E177" s="94">
+        <v>4.5</v>
+      </c>
+      <c r="F177" s="93"/>
+      <c r="G177" s="94"/>
+      <c r="H177" s="93"/>
+      <c r="I177" s="95">
+        <v>5.56</v>
+      </c>
+      <c r="J177" s="93"/>
+      <c r="K177" s="96">
+        <v>0.23</v>
+      </c>
+      <c r="L177" s="93"/>
+      <c r="M177" s="97">
+        <v>45.74</v>
+      </c>
+      <c r="N177" s="93"/>
+      <c r="O177" s="98">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P177" s="93"/>
+      <c r="Q177" s="99">
+        <v>42.22</v>
+      </c>
+      <c r="R177" s="100"/>
+      <c r="S177" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T177" s="93"/>
+    </row>
+    <row r="178" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A178" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B178" s="93"/>
+      <c r="C178" s="109">
+        <v>120</v>
+      </c>
+      <c r="D178" s="93"/>
+      <c r="E178" s="108">
+        <v>6</v>
+      </c>
+      <c r="F178" s="93"/>
+      <c r="G178" s="108"/>
+      <c r="H178" s="93"/>
+      <c r="I178" s="110">
+        <v>6.38</v>
+      </c>
+      <c r="J178" s="93"/>
+      <c r="K178" s="111">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L178" s="93"/>
+      <c r="M178" s="112">
+        <v>48.95</v>
+      </c>
+      <c r="N178" s="93"/>
+      <c r="O178" s="113">
+        <v>1.8</v>
+      </c>
+      <c r="P178" s="93"/>
+      <c r="Q178" s="99">
+        <v>42.12</v>
+      </c>
+      <c r="R178" s="100"/>
+      <c r="S178" s="108">
+        <v>1.4</v>
+      </c>
+      <c r="T178" s="93"/>
+    </row>
+    <row r="179" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A179" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="B179" s="93"/>
+      <c r="C179" s="92">
+        <v>120</v>
+      </c>
+      <c r="D179" s="93"/>
+      <c r="E179" s="94">
+        <v>9</v>
+      </c>
+      <c r="F179" s="93"/>
+      <c r="G179" s="94"/>
+      <c r="H179" s="93"/>
+      <c r="I179" s="95">
+        <v>7.59</v>
+      </c>
+      <c r="J179" s="93"/>
+      <c r="K179" s="96">
+        <v>0.37</v>
+      </c>
+      <c r="L179" s="93"/>
+      <c r="M179" s="97">
+        <v>53.75</v>
+      </c>
+      <c r="N179" s="93"/>
+      <c r="O179" s="98">
+        <v>1.2</v>
+      </c>
+      <c r="P179" s="93"/>
+      <c r="Q179" s="99">
+        <v>42</v>
+      </c>
+      <c r="R179" s="100"/>
+      <c r="S179" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T179" s="93"/>
+    </row>
+    <row r="180" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A180" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="B180" s="115"/>
+      <c r="C180" s="122">
+        <v>120</v>
+      </c>
+      <c r="D180" s="115"/>
+      <c r="E180" s="114">
+        <v>4</v>
+      </c>
+      <c r="F180" s="115"/>
+      <c r="G180" s="114">
+        <v>0.5</v>
+      </c>
+      <c r="H180" s="115"/>
+      <c r="I180" s="123">
+        <v>10.31</v>
+      </c>
+      <c r="J180" s="115"/>
+      <c r="K180" s="124">
+        <v>0.63</v>
+      </c>
+      <c r="L180" s="115"/>
+      <c r="M180" s="125">
+        <v>65</v>
+      </c>
+      <c r="N180" s="115"/>
+      <c r="O180" s="126">
+        <v>0.7</v>
+      </c>
+      <c r="P180" s="115"/>
+      <c r="Q180" s="127">
+        <v>41.76</v>
+      </c>
+      <c r="R180" s="128"/>
+      <c r="S180" s="114">
+        <v>1.4</v>
+      </c>
+      <c r="T180" s="115"/>
+    </row>
+    <row r="181" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A181" s="116" t="s">
+        <v>157</v>
+      </c>
+      <c r="B181" s="91"/>
+      <c r="C181" s="116">
         <v>140</v>
       </c>
-      <c r="B166" s="65"/>
-      <c r="C166" s="94">
-        <v>80</v>
-      </c>
-      <c r="D166" s="65"/>
-      <c r="E166" s="69">
+      <c r="D181" s="91"/>
+      <c r="E181" s="117">
+        <v>4.5</v>
+      </c>
+      <c r="F181" s="91"/>
+      <c r="G181" s="117"/>
+      <c r="H181" s="91"/>
+      <c r="I181" s="118">
+        <v>6.33</v>
+      </c>
+      <c r="J181" s="91"/>
+      <c r="K181" s="119">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L181" s="91"/>
+      <c r="M181" s="120">
+        <v>49.87</v>
+      </c>
+      <c r="N181" s="91"/>
+      <c r="O181" s="121">
+        <v>3</v>
+      </c>
+      <c r="P181" s="91"/>
+      <c r="Q181" s="106">
+        <v>42.08</v>
+      </c>
+      <c r="R181" s="107"/>
+      <c r="S181" s="117">
+        <v>1.4</v>
+      </c>
+      <c r="T181" s="91"/>
+    </row>
+    <row r="182" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A182" s="109" t="s">
+        <v>158</v>
+      </c>
+      <c r="B182" s="93"/>
+      <c r="C182" s="109">
+        <v>140</v>
+      </c>
+      <c r="D182" s="93"/>
+      <c r="E182" s="108">
+        <v>6</v>
+      </c>
+      <c r="F182" s="93"/>
+      <c r="G182" s="108"/>
+      <c r="H182" s="93"/>
+      <c r="I182" s="110">
+        <v>7.2</v>
+      </c>
+      <c r="J182" s="93"/>
+      <c r="K182" s="111">
+        <v>0.34</v>
+      </c>
+      <c r="L182" s="93"/>
+      <c r="M182" s="112">
+        <v>53.14</v>
+      </c>
+      <c r="N182" s="93"/>
+      <c r="O182" s="113">
+        <v>2.5</v>
+      </c>
+      <c r="P182" s="93"/>
+      <c r="Q182" s="99">
+        <v>41.99</v>
+      </c>
+      <c r="R182" s="100"/>
+      <c r="S182" s="108">
+        <v>1.4</v>
+      </c>
+      <c r="T182" s="93"/>
+    </row>
+    <row r="183" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A183" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="B183" s="93"/>
+      <c r="C183" s="92">
+        <v>140</v>
+      </c>
+      <c r="D183" s="93"/>
+      <c r="E183" s="94">
+        <v>9</v>
+      </c>
+      <c r="F183" s="93"/>
+      <c r="G183" s="94"/>
+      <c r="H183" s="93"/>
+      <c r="I183" s="95">
+        <v>8.44</v>
+      </c>
+      <c r="J183" s="93"/>
+      <c r="K183" s="96">
+        <v>0.45</v>
+      </c>
+      <c r="L183" s="93"/>
+      <c r="M183" s="97">
+        <v>58.06</v>
+      </c>
+      <c r="N183" s="93"/>
+      <c r="O183" s="98">
+        <v>1.8</v>
+      </c>
+      <c r="P183" s="93"/>
+      <c r="Q183" s="99">
+        <v>41.88</v>
+      </c>
+      <c r="R183" s="100"/>
+      <c r="S183" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T183" s="93"/>
+    </row>
+    <row r="184" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A184" s="109" t="s">
+        <v>159</v>
+      </c>
+      <c r="B184" s="93"/>
+      <c r="C184" s="109">
+        <v>140</v>
+      </c>
+      <c r="D184" s="93"/>
+      <c r="E184" s="108">
+        <v>4</v>
+      </c>
+      <c r="F184" s="93"/>
+      <c r="G184" s="108">
         <v>0.5</v>
       </c>
-      <c r="F166" s="65"/>
-      <c r="G166" s="69"/>
-      <c r="H166" s="65"/>
-      <c r="I166" s="112">
-        <v>1.02</v>
-      </c>
-      <c r="J166" s="65"/>
-      <c r="K166" s="113"/>
-      <c r="L166" s="65"/>
-      <c r="M166" s="88">
-        <v>23.48</v>
-      </c>
-      <c r="N166" s="65"/>
-      <c r="O166" s="89">
-        <v>4.8</v>
-      </c>
-      <c r="P166" s="65"/>
-      <c r="Q166" s="104">
-        <v>49.05</v>
-      </c>
-      <c r="R166" s="68"/>
-      <c r="S166" s="69">
+      <c r="H184" s="93"/>
+      <c r="I184" s="110"/>
+      <c r="J184" s="93"/>
+      <c r="K184" s="111">
+        <v>0.77</v>
+      </c>
+      <c r="L184" s="93"/>
+      <c r="M184" s="112">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="N184" s="93"/>
+      <c r="O184" s="113">
+        <v>1.2</v>
+      </c>
+      <c r="P184" s="93"/>
+      <c r="Q184" s="99">
+        <v>41.62</v>
+      </c>
+      <c r="R184" s="100"/>
+      <c r="S184" s="108">
         <v>1.4</v>
       </c>
-      <c r="T166" s="65"/>
-    </row>
-    <row r="167" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A167" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="B167" s="71"/>
-      <c r="C167" s="70">
-        <v>80</v>
-      </c>
-      <c r="D167" s="71"/>
-      <c r="E167" s="72">
+      <c r="T184" s="93"/>
+    </row>
+    <row r="185" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A185" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="B185" s="115"/>
+      <c r="C185" s="129">
+        <v>140</v>
+      </c>
+      <c r="D185" s="115"/>
+      <c r="E185" s="130">
+        <v>4</v>
+      </c>
+      <c r="F185" s="115"/>
+      <c r="G185" s="130">
         <v>1</v>
       </c>
-      <c r="F167" s="71"/>
-      <c r="G167" s="72"/>
-      <c r="H167" s="71"/>
-      <c r="I167" s="73">
-        <v>1.64</v>
-      </c>
-      <c r="J167" s="71"/>
-      <c r="K167" s="74"/>
-      <c r="L167" s="71"/>
-      <c r="M167" s="75">
-        <v>26.84</v>
-      </c>
-      <c r="N167" s="71"/>
-      <c r="O167" s="76">
-        <v>3.2</v>
-      </c>
-      <c r="P167" s="71"/>
-      <c r="Q167" s="77">
-        <v>47.73</v>
-      </c>
-      <c r="R167" s="78"/>
-      <c r="S167" s="72">
+      <c r="H185" s="115"/>
+      <c r="I185" s="131"/>
+      <c r="J185" s="115"/>
+      <c r="K185" s="132">
+        <v>1.03</v>
+      </c>
+      <c r="L185" s="115"/>
+      <c r="M185" s="133">
+        <v>78.52</v>
+      </c>
+      <c r="N185" s="115"/>
+      <c r="O185" s="134">
+        <v>0.6</v>
+      </c>
+      <c r="P185" s="115"/>
+      <c r="Q185" s="127">
+        <v>41.46</v>
+      </c>
+      <c r="R185" s="128"/>
+      <c r="S185" s="130">
         <v>1.4</v>
       </c>
-      <c r="T167" s="71"/>
-    </row>
-    <row r="168" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A168" s="79" t="s">
-        <v>142</v>
-      </c>
-      <c r="B168" s="80"/>
-      <c r="C168" s="79">
-        <v>80</v>
-      </c>
-      <c r="D168" s="80"/>
-      <c r="E168" s="81">
+      <c r="T185" s="115"/>
+    </row>
+    <row r="186" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A186" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="B186" s="91"/>
+      <c r="C186" s="101">
+        <v>150</v>
+      </c>
+      <c r="D186" s="91"/>
+      <c r="E186" s="90">
+        <v>6</v>
+      </c>
+      <c r="F186" s="91"/>
+      <c r="G186" s="90"/>
+      <c r="H186" s="91"/>
+      <c r="I186" s="102">
+        <v>7.58</v>
+      </c>
+      <c r="J186" s="91"/>
+      <c r="K186" s="103">
+        <v>0.38</v>
+      </c>
+      <c r="L186" s="91"/>
+      <c r="M186" s="104">
+        <v>55.19</v>
+      </c>
+      <c r="N186" s="91"/>
+      <c r="O186" s="105">
+        <v>2.8</v>
+      </c>
+      <c r="P186" s="91"/>
+      <c r="Q186" s="106">
+        <v>41.95</v>
+      </c>
+      <c r="R186" s="107"/>
+      <c r="S186" s="90">
+        <v>1.4</v>
+      </c>
+      <c r="T186" s="91"/>
+    </row>
+    <row r="187" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A187" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B187" s="93"/>
+      <c r="C187" s="92">
+        <v>150</v>
+      </c>
+      <c r="D187" s="93"/>
+      <c r="E187" s="94">
+        <v>9</v>
+      </c>
+      <c r="F187" s="93"/>
+      <c r="G187" s="94"/>
+      <c r="H187" s="93"/>
+      <c r="I187" s="95">
+        <v>8.83</v>
+      </c>
+      <c r="J187" s="93"/>
+      <c r="K187" s="96">
+        <v>0.49</v>
+      </c>
+      <c r="L187" s="93"/>
+      <c r="M187" s="97">
+        <v>60.13</v>
+      </c>
+      <c r="N187" s="93"/>
+      <c r="O187" s="98">
+        <v>2.1</v>
+      </c>
+      <c r="P187" s="93"/>
+      <c r="Q187" s="99">
+        <v>41.82</v>
+      </c>
+      <c r="R187" s="100"/>
+      <c r="S187" s="94">
+        <v>1.4</v>
+      </c>
+      <c r="T187" s="93"/>
+    </row>
+    <row r="188" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A188" s="109" t="s">
+        <v>163</v>
+      </c>
+      <c r="B188" s="93"/>
+      <c r="C188" s="109">
+        <v>150</v>
+      </c>
+      <c r="D188" s="93"/>
+      <c r="E188" s="108">
         <v>4</v>
       </c>
-      <c r="F168" s="80"/>
-      <c r="G168" s="81"/>
-      <c r="H168" s="80"/>
-      <c r="I168" s="82">
-        <v>3.62</v>
-      </c>
-      <c r="J168" s="80"/>
-      <c r="K168" s="83">
-        <v>0.13</v>
-      </c>
-      <c r="L168" s="80"/>
-      <c r="M168" s="105">
-        <v>36.33</v>
-      </c>
-      <c r="N168" s="80"/>
-      <c r="O168" s="106">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P168" s="80"/>
-      <c r="Q168" s="107">
-        <v>46.74</v>
-      </c>
-      <c r="R168" s="108"/>
-      <c r="S168" s="81">
+      <c r="F188" s="93"/>
+      <c r="G188" s="108">
+        <v>0.5</v>
+      </c>
+      <c r="H188" s="93"/>
+      <c r="I188" s="110"/>
+      <c r="J188" s="93"/>
+      <c r="K188" s="111">
+        <v>0.84</v>
+      </c>
+      <c r="L188" s="93"/>
+      <c r="M188" s="112">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="N188" s="93"/>
+      <c r="O188" s="113">
         <v>1.4</v>
       </c>
-      <c r="T168" s="80"/>
-    </row>
-    <row r="169" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A169" s="84" t="s">
-        <v>143</v>
-      </c>
-      <c r="B169" s="65"/>
-      <c r="C169" s="84">
-        <v>90</v>
-      </c>
-      <c r="D169" s="65"/>
-      <c r="E169" s="85">
-        <v>0.5</v>
-      </c>
-      <c r="F169" s="65"/>
-      <c r="G169" s="85"/>
-      <c r="H169" s="65"/>
-      <c r="I169" s="86">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="J169" s="65"/>
-      <c r="K169" s="87"/>
-      <c r="L169" s="65"/>
-      <c r="M169" s="102">
-        <v>24.88</v>
-      </c>
-      <c r="N169" s="65"/>
-      <c r="O169" s="103">
-        <v>5.5</v>
-      </c>
-      <c r="P169" s="65"/>
-      <c r="Q169" s="104">
-        <v>48.78</v>
-      </c>
-      <c r="R169" s="68"/>
-      <c r="S169" s="85">
+      <c r="P188" s="93"/>
+      <c r="Q188" s="99">
+        <v>41.54</v>
+      </c>
+      <c r="R188" s="100"/>
+      <c r="S188" s="108">
         <v>1.4</v>
       </c>
-      <c r="T169" s="65"/>
-    </row>
-    <row r="170" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A170" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="B170" s="71"/>
-      <c r="C170" s="92">
-        <v>90</v>
-      </c>
-      <c r="D170" s="71"/>
-      <c r="E170" s="90">
+      <c r="T188" s="93"/>
+    </row>
+    <row r="189" spans="1:20" ht="14.1" customHeight="1">
+      <c r="A189" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="B189" s="93"/>
+      <c r="C189" s="92">
+        <v>150</v>
+      </c>
+      <c r="D189" s="93"/>
+      <c r="E189" s="94">
+        <v>4</v>
+      </c>
+      <c r="F189" s="93"/>
+      <c r="G189" s="94">
         <v>1</v>
       </c>
-      <c r="F170" s="71"/>
-      <c r="G170" s="90"/>
-      <c r="H170" s="71"/>
-      <c r="I170" s="93">
-        <v>1.84</v>
-      </c>
-      <c r="J170" s="71"/>
-      <c r="K170" s="91"/>
-      <c r="L170" s="71"/>
-      <c r="M170" s="100">
-        <v>28.32</v>
-      </c>
-      <c r="N170" s="71"/>
-      <c r="O170" s="101">
-        <v>3.7</v>
-      </c>
-      <c r="P170" s="71"/>
-      <c r="Q170" s="77">
-        <v>47.61</v>
-      </c>
-      <c r="R170" s="78"/>
-      <c r="S170" s="90">
+      <c r="H189" s="93"/>
+      <c r="I189" s="95"/>
+      <c r="J189" s="93"/>
+      <c r="K189" s="96">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L189" s="93"/>
+      <c r="M189" s="97">
+        <v>81.36</v>
+      </c>
+      <c r="N189" s="93"/>
+      <c r="O189" s="98">
+        <v>0.9</v>
+      </c>
+      <c r="P189" s="93"/>
+      <c r="Q189" s="99">
+        <v>41.42</v>
+      </c>
+      <c r="R189" s="100"/>
+      <c r="S189" s="94">
         <v>1.4</v>
       </c>
-      <c r="T170" s="71"/>
-    </row>
-    <row r="171" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A171" s="70" t="s">
-        <v>145</v>
-      </c>
-      <c r="B171" s="71"/>
-      <c r="C171" s="70">
-        <v>90</v>
-      </c>
-      <c r="D171" s="71"/>
-      <c r="E171" s="72">
+      <c r="T189" s="93"/>
+    </row>
+    <row r="190" spans="1:20" ht="16.5" customHeight="1">
+      <c r="A190" s="122" t="s">
+        <v>165</v>
+      </c>
+      <c r="B190" s="115"/>
+      <c r="C190" s="122">
+        <v>150</v>
+      </c>
+      <c r="D190" s="115"/>
+      <c r="E190" s="114">
         <v>4</v>
       </c>
-      <c r="F171" s="71"/>
-      <c r="G171" s="72"/>
-      <c r="H171" s="71"/>
-      <c r="I171" s="73">
-        <v>4.04</v>
-      </c>
-      <c r="J171" s="71"/>
-      <c r="K171" s="74">
-        <v>0.15</v>
-      </c>
-      <c r="L171" s="71"/>
-      <c r="M171" s="75">
-        <v>38.380000000000003</v>
-      </c>
-      <c r="N171" s="71"/>
-      <c r="O171" s="76">
+      <c r="F190" s="115"/>
+      <c r="G190" s="114">
+        <v>1.6</v>
+      </c>
+      <c r="H190" s="115"/>
+      <c r="I190" s="123"/>
+      <c r="J190" s="115"/>
+      <c r="K190" s="124">
+        <v>1.38</v>
+      </c>
+      <c r="L190" s="115"/>
+      <c r="M190" s="125">
+        <v>89.07</v>
+      </c>
+      <c r="N190" s="115"/>
+      <c r="O190" s="126">
+        <v>0.4</v>
+      </c>
+      <c r="P190" s="115"/>
+      <c r="Q190" s="127">
+        <v>41.25</v>
+      </c>
+      <c r="R190" s="128"/>
+      <c r="S190" s="114">
         <v>1.4</v>
       </c>
-      <c r="P171" s="71"/>
-      <c r="Q171" s="77">
-        <v>46.81</v>
-      </c>
-      <c r="R171" s="78"/>
-      <c r="S171" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T171" s="71"/>
-    </row>
-    <row r="172" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A172" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="B172" s="65"/>
-      <c r="C172" s="94">
-        <v>100</v>
-      </c>
-      <c r="D172" s="65"/>
-      <c r="E172" s="69">
-        <v>0.5</v>
-      </c>
-      <c r="F172" s="65"/>
-      <c r="G172" s="69"/>
-      <c r="H172" s="65"/>
-      <c r="I172" s="112">
-        <v>1.3</v>
-      </c>
-      <c r="J172" s="65"/>
-      <c r="K172" s="113"/>
-      <c r="L172" s="65"/>
-      <c r="M172" s="88">
-        <v>26.34</v>
-      </c>
-      <c r="N172" s="65"/>
-      <c r="O172" s="89">
-        <v>6.1</v>
-      </c>
-      <c r="P172" s="65"/>
-      <c r="Q172" s="104">
-        <v>48.63</v>
-      </c>
-      <c r="R172" s="68"/>
-      <c r="S172" s="69">
-        <v>1.4</v>
-      </c>
-      <c r="T172" s="65"/>
-    </row>
-    <row r="173" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A173" s="70" t="s">
-        <v>147</v>
-      </c>
-      <c r="B173" s="71"/>
-      <c r="C173" s="70">
-        <v>100</v>
-      </c>
-      <c r="D173" s="71"/>
-      <c r="E173" s="72">
-        <v>1</v>
-      </c>
-      <c r="F173" s="71"/>
-      <c r="G173" s="72"/>
-      <c r="H173" s="71"/>
-      <c r="I173" s="73">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J173" s="71"/>
-      <c r="K173" s="74"/>
-      <c r="L173" s="71"/>
-      <c r="M173" s="75">
-        <v>29.87</v>
-      </c>
-      <c r="N173" s="71"/>
-      <c r="O173" s="76">
-        <v>4.3</v>
-      </c>
-      <c r="P173" s="71"/>
-      <c r="Q173" s="77">
-        <v>47.54</v>
-      </c>
-      <c r="R173" s="78"/>
-      <c r="S173" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T173" s="71"/>
-    </row>
-    <row r="174" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A174" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B174" s="71"/>
-      <c r="C174" s="92">
-        <v>100</v>
-      </c>
-      <c r="D174" s="71"/>
-      <c r="E174" s="90">
-        <v>4.5</v>
-      </c>
-      <c r="F174" s="71"/>
-      <c r="G174" s="90"/>
-      <c r="H174" s="71"/>
-      <c r="I174" s="93">
-        <v>4.74</v>
-      </c>
-      <c r="J174" s="71"/>
-      <c r="K174" s="91">
-        <v>0.18</v>
-      </c>
-      <c r="L174" s="71"/>
-      <c r="M174" s="100">
-        <v>41.59</v>
-      </c>
-      <c r="N174" s="71"/>
-      <c r="O174" s="101">
-        <v>1.6</v>
-      </c>
-      <c r="P174" s="71"/>
-      <c r="Q174" s="77">
-        <v>46.89</v>
-      </c>
-      <c r="R174" s="78"/>
-      <c r="S174" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="T174" s="71"/>
-    </row>
-    <row r="175" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A175" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="B175" s="71"/>
-      <c r="C175" s="70">
-        <v>100</v>
-      </c>
-      <c r="D175" s="71"/>
-      <c r="E175" s="72">
-        <v>6</v>
-      </c>
-      <c r="F175" s="71"/>
-      <c r="G175" s="72"/>
-      <c r="H175" s="71"/>
-      <c r="I175" s="73">
-        <v>5.49</v>
-      </c>
-      <c r="J175" s="71"/>
-      <c r="K175" s="74">
-        <v>0.22</v>
-      </c>
-      <c r="L175" s="71"/>
-      <c r="M175" s="75">
-        <v>44.58</v>
-      </c>
-      <c r="N175" s="71"/>
-      <c r="O175" s="76">
-        <v>1.2</v>
-      </c>
-      <c r="P175" s="71"/>
-      <c r="Q175" s="77">
-        <v>46.96</v>
-      </c>
-      <c r="R175" s="78"/>
-      <c r="S175" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T175" s="71"/>
-    </row>
-    <row r="176" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A176" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="B176" s="80"/>
-      <c r="C176" s="79">
-        <v>100</v>
-      </c>
-      <c r="D176" s="80"/>
-      <c r="E176" s="81">
-        <v>9</v>
-      </c>
-      <c r="F176" s="80"/>
-      <c r="G176" s="81"/>
-      <c r="H176" s="80"/>
-      <c r="I176" s="82">
-        <v>6.61</v>
-      </c>
-      <c r="J176" s="80"/>
-      <c r="K176" s="83">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L176" s="80"/>
-      <c r="M176" s="105">
-        <v>49.08</v>
-      </c>
-      <c r="N176" s="80"/>
-      <c r="O176" s="106">
-        <v>0.8</v>
-      </c>
-      <c r="P176" s="80"/>
-      <c r="Q176" s="107">
-        <v>47.04</v>
-      </c>
-      <c r="R176" s="108"/>
-      <c r="S176" s="81">
-        <v>1.4</v>
-      </c>
-      <c r="T176" s="80"/>
-    </row>
-    <row r="177" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A177" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="B177" s="71"/>
-      <c r="C177" s="70">
-        <v>120</v>
-      </c>
-      <c r="D177" s="71"/>
-      <c r="E177" s="72">
-        <v>4.5</v>
-      </c>
-      <c r="F177" s="71"/>
-      <c r="G177" s="72"/>
-      <c r="H177" s="71"/>
-      <c r="I177" s="73">
-        <v>5.56</v>
-      </c>
-      <c r="J177" s="71"/>
-      <c r="K177" s="74">
-        <v>0.23</v>
-      </c>
-      <c r="L177" s="71"/>
-      <c r="M177" s="75">
-        <v>45.74</v>
-      </c>
-      <c r="N177" s="71"/>
-      <c r="O177" s="76">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P177" s="71"/>
-      <c r="Q177" s="77">
-        <v>46.98</v>
-      </c>
-      <c r="R177" s="78"/>
-      <c r="S177" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T177" s="71"/>
-    </row>
-    <row r="178" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A178" s="92" t="s">
-        <v>119</v>
-      </c>
-      <c r="B178" s="71"/>
-      <c r="C178" s="92">
-        <v>120</v>
-      </c>
-      <c r="D178" s="71"/>
-      <c r="E178" s="90">
-        <v>6</v>
-      </c>
-      <c r="F178" s="71"/>
-      <c r="G178" s="90"/>
-      <c r="H178" s="71"/>
-      <c r="I178" s="93">
-        <v>6.38</v>
-      </c>
-      <c r="J178" s="71"/>
-      <c r="K178" s="91">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L178" s="71"/>
-      <c r="M178" s="100">
-        <v>48.95</v>
-      </c>
-      <c r="N178" s="71"/>
-      <c r="O178" s="101">
-        <v>1.8</v>
-      </c>
-      <c r="P178" s="71"/>
-      <c r="Q178" s="77">
-        <v>47.03</v>
-      </c>
-      <c r="R178" s="78"/>
-      <c r="S178" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="T178" s="71"/>
-    </row>
-    <row r="179" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A179" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="B179" s="71"/>
-      <c r="C179" s="70">
-        <v>120</v>
-      </c>
-      <c r="D179" s="71"/>
-      <c r="E179" s="72">
-        <v>9</v>
-      </c>
-      <c r="F179" s="71"/>
-      <c r="G179" s="72"/>
-      <c r="H179" s="71"/>
-      <c r="I179" s="73">
-        <v>7.59</v>
-      </c>
-      <c r="J179" s="71"/>
-      <c r="K179" s="74">
-        <v>0.37</v>
-      </c>
-      <c r="L179" s="71"/>
-      <c r="M179" s="75">
-        <v>53.75</v>
-      </c>
-      <c r="N179" s="71"/>
-      <c r="O179" s="76">
-        <v>1.2</v>
-      </c>
-      <c r="P179" s="71"/>
-      <c r="Q179" s="77">
-        <v>47.19</v>
-      </c>
-      <c r="R179" s="78"/>
-      <c r="S179" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T179" s="71"/>
-    </row>
-    <row r="180" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A180" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="B180" s="80"/>
-      <c r="C180" s="79">
-        <v>120</v>
-      </c>
-      <c r="D180" s="80"/>
-      <c r="E180" s="81">
-        <v>4</v>
-      </c>
-      <c r="F180" s="80"/>
-      <c r="G180" s="81">
-        <v>0.5</v>
-      </c>
-      <c r="H180" s="80"/>
-      <c r="I180" s="82">
-        <v>10.31</v>
-      </c>
-      <c r="J180" s="80"/>
-      <c r="K180" s="83">
-        <v>0.63</v>
-      </c>
-      <c r="L180" s="80"/>
-      <c r="M180" s="105">
-        <v>65</v>
-      </c>
-      <c r="N180" s="80"/>
-      <c r="O180" s="106">
-        <v>0.7</v>
-      </c>
-      <c r="P180" s="80"/>
-      <c r="Q180" s="107">
-        <v>47.49</v>
-      </c>
-      <c r="R180" s="108"/>
-      <c r="S180" s="81">
-        <v>1.4</v>
-      </c>
-      <c r="T180" s="80"/>
-    </row>
-    <row r="181" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A181" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="B181" s="65"/>
-      <c r="C181" s="84">
-        <v>140</v>
-      </c>
-      <c r="D181" s="65"/>
-      <c r="E181" s="85">
-        <v>4.5</v>
-      </c>
-      <c r="F181" s="65"/>
-      <c r="G181" s="85"/>
-      <c r="H181" s="65"/>
-      <c r="I181" s="86">
-        <v>6.33</v>
-      </c>
-      <c r="J181" s="65"/>
-      <c r="K181" s="87">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L181" s="65"/>
-      <c r="M181" s="102">
-        <v>49.87</v>
-      </c>
-      <c r="N181" s="65"/>
-      <c r="O181" s="103">
-        <v>3</v>
-      </c>
-      <c r="P181" s="65"/>
-      <c r="Q181" s="104">
-        <v>47.02</v>
-      </c>
-      <c r="R181" s="68"/>
-      <c r="S181" s="85">
-        <v>1.4</v>
-      </c>
-      <c r="T181" s="65"/>
-    </row>
-    <row r="182" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A182" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="B182" s="71"/>
-      <c r="C182" s="92">
-        <v>140</v>
-      </c>
-      <c r="D182" s="71"/>
-      <c r="E182" s="90">
-        <v>6</v>
-      </c>
-      <c r="F182" s="71"/>
-      <c r="G182" s="90"/>
-      <c r="H182" s="71"/>
-      <c r="I182" s="93">
-        <v>7.2</v>
-      </c>
-      <c r="J182" s="71"/>
-      <c r="K182" s="91">
-        <v>0.34</v>
-      </c>
-      <c r="L182" s="71"/>
-      <c r="M182" s="100">
-        <v>53.14</v>
-      </c>
-      <c r="N182" s="71"/>
-      <c r="O182" s="101">
-        <v>2.5</v>
-      </c>
-      <c r="P182" s="71"/>
-      <c r="Q182" s="77">
-        <v>47.11</v>
-      </c>
-      <c r="R182" s="78"/>
-      <c r="S182" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="T182" s="71"/>
-    </row>
-    <row r="183" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A183" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="B183" s="71"/>
-      <c r="C183" s="70">
-        <v>140</v>
-      </c>
-      <c r="D183" s="71"/>
-      <c r="E183" s="72">
-        <v>9</v>
-      </c>
-      <c r="F183" s="71"/>
-      <c r="G183" s="72"/>
-      <c r="H183" s="71"/>
-      <c r="I183" s="73">
-        <v>8.44</v>
-      </c>
-      <c r="J183" s="71"/>
-      <c r="K183" s="74">
-        <v>0.45</v>
-      </c>
-      <c r="L183" s="71"/>
-      <c r="M183" s="75">
-        <v>58.06</v>
-      </c>
-      <c r="N183" s="71"/>
-      <c r="O183" s="76">
-        <v>1.8</v>
-      </c>
-      <c r="P183" s="71"/>
-      <c r="Q183" s="77">
-        <v>47.24</v>
-      </c>
-      <c r="R183" s="78"/>
-      <c r="S183" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T183" s="71"/>
-    </row>
-    <row r="184" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A184" s="92" t="s">
-        <v>155</v>
-      </c>
-      <c r="B184" s="71"/>
-      <c r="C184" s="92">
-        <v>140</v>
-      </c>
-      <c r="D184" s="71"/>
-      <c r="E184" s="90">
-        <v>4</v>
-      </c>
-      <c r="F184" s="71"/>
-      <c r="G184" s="90">
-        <v>0.5</v>
-      </c>
-      <c r="H184" s="71"/>
-      <c r="I184" s="93"/>
-      <c r="J184" s="71"/>
-      <c r="K184" s="91">
-        <v>0.77</v>
-      </c>
-      <c r="L184" s="71"/>
-      <c r="M184" s="100">
-        <v>69.849999999999994</v>
-      </c>
-      <c r="N184" s="71"/>
-      <c r="O184" s="101">
-        <v>1.2</v>
-      </c>
-      <c r="P184" s="71"/>
-      <c r="Q184" s="77">
-        <v>47.52</v>
-      </c>
-      <c r="R184" s="78"/>
-      <c r="S184" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="T184" s="71"/>
-    </row>
-    <row r="185" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A185" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="B185" s="80"/>
-      <c r="C185" s="95">
-        <v>140</v>
-      </c>
-      <c r="D185" s="80"/>
-      <c r="E185" s="96">
-        <v>4</v>
-      </c>
-      <c r="F185" s="80"/>
-      <c r="G185" s="96">
-        <v>1</v>
-      </c>
-      <c r="H185" s="80"/>
-      <c r="I185" s="97"/>
-      <c r="J185" s="80"/>
-      <c r="K185" s="98">
-        <v>1.03</v>
-      </c>
-      <c r="L185" s="80"/>
-      <c r="M185" s="99">
-        <v>78.52</v>
-      </c>
-      <c r="N185" s="80"/>
-      <c r="O185" s="109">
-        <v>0.6</v>
-      </c>
-      <c r="P185" s="80"/>
-      <c r="Q185" s="107">
-        <v>47.64</v>
-      </c>
-      <c r="R185" s="108"/>
-      <c r="S185" s="96">
-        <v>1.4</v>
-      </c>
-      <c r="T185" s="80"/>
-    </row>
-    <row r="186" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A186" s="94" t="s">
-        <v>157</v>
-      </c>
-      <c r="B186" s="65"/>
-      <c r="C186" s="94">
-        <v>150</v>
-      </c>
-      <c r="D186" s="65"/>
-      <c r="E186" s="69">
-        <v>6</v>
-      </c>
-      <c r="F186" s="65"/>
-      <c r="G186" s="69"/>
-      <c r="H186" s="65"/>
-      <c r="I186" s="112">
-        <v>7.58</v>
-      </c>
-      <c r="J186" s="65"/>
-      <c r="K186" s="113">
-        <v>0.38</v>
-      </c>
-      <c r="L186" s="65"/>
-      <c r="M186" s="88">
-        <v>55.19</v>
-      </c>
-      <c r="N186" s="65"/>
-      <c r="O186" s="89">
-        <v>2.8</v>
-      </c>
-      <c r="P186" s="65"/>
-      <c r="Q186" s="104">
-        <v>47.14</v>
-      </c>
-      <c r="R186" s="68"/>
-      <c r="S186" s="69">
-        <v>1.4</v>
-      </c>
-      <c r="T186" s="65"/>
-    </row>
-    <row r="187" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A187" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="B187" s="71"/>
-      <c r="C187" s="70">
-        <v>150</v>
-      </c>
-      <c r="D187" s="71"/>
-      <c r="E187" s="72">
-        <v>9</v>
-      </c>
-      <c r="F187" s="71"/>
-      <c r="G187" s="72"/>
-      <c r="H187" s="71"/>
-      <c r="I187" s="73">
-        <v>8.83</v>
-      </c>
-      <c r="J187" s="71"/>
-      <c r="K187" s="74">
-        <v>0.49</v>
-      </c>
-      <c r="L187" s="71"/>
-      <c r="M187" s="75">
-        <v>60.13</v>
-      </c>
-      <c r="N187" s="71"/>
-      <c r="O187" s="76">
-        <v>2.1</v>
-      </c>
-      <c r="P187" s="71"/>
-      <c r="Q187" s="77">
-        <v>47.28</v>
-      </c>
-      <c r="R187" s="78"/>
-      <c r="S187" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T187" s="71"/>
-    </row>
-    <row r="188" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A188" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="B188" s="71"/>
-      <c r="C188" s="92">
-        <v>150</v>
-      </c>
-      <c r="D188" s="71"/>
-      <c r="E188" s="90">
-        <v>4</v>
-      </c>
-      <c r="F188" s="71"/>
-      <c r="G188" s="90">
-        <v>0.5</v>
-      </c>
-      <c r="H188" s="71"/>
-      <c r="I188" s="93"/>
-      <c r="J188" s="71"/>
-      <c r="K188" s="91">
-        <v>0.84</v>
-      </c>
-      <c r="L188" s="71"/>
-      <c r="M188" s="100">
-        <v>72.150000000000006</v>
-      </c>
-      <c r="N188" s="71"/>
-      <c r="O188" s="101">
-        <v>1.4</v>
-      </c>
-      <c r="P188" s="71"/>
-      <c r="Q188" s="77">
-        <v>47.53</v>
-      </c>
-      <c r="R188" s="78"/>
-      <c r="S188" s="90">
-        <v>1.4</v>
-      </c>
-      <c r="T188" s="71"/>
-    </row>
-    <row r="189" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A189" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="B189" s="71"/>
-      <c r="C189" s="70">
-        <v>150</v>
-      </c>
-      <c r="D189" s="71"/>
-      <c r="E189" s="72">
-        <v>4</v>
-      </c>
-      <c r="F189" s="71"/>
-      <c r="G189" s="72">
-        <v>1</v>
-      </c>
-      <c r="H189" s="71"/>
-      <c r="I189" s="73"/>
-      <c r="J189" s="71"/>
-      <c r="K189" s="74">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="L189" s="71"/>
-      <c r="M189" s="75">
-        <v>81.36</v>
-      </c>
-      <c r="N189" s="71"/>
-      <c r="O189" s="76">
-        <v>0.9</v>
-      </c>
-      <c r="P189" s="71"/>
-      <c r="Q189" s="77">
-        <v>47.64</v>
-      </c>
-      <c r="R189" s="78"/>
-      <c r="S189" s="72">
-        <v>1.4</v>
-      </c>
-      <c r="T189" s="71"/>
-    </row>
-    <row r="190" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A190" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="B190" s="80"/>
-      <c r="C190" s="79">
-        <v>150</v>
-      </c>
-      <c r="D190" s="80"/>
-      <c r="E190" s="81">
-        <v>4</v>
-      </c>
-      <c r="F190" s="80"/>
-      <c r="G190" s="81">
-        <v>1.6</v>
-      </c>
-      <c r="H190" s="80"/>
-      <c r="I190" s="82"/>
-      <c r="J190" s="80"/>
-      <c r="K190" s="83">
-        <v>1.38</v>
-      </c>
-      <c r="L190" s="80"/>
-      <c r="M190" s="105">
-        <v>89.07</v>
-      </c>
-      <c r="N190" s="80"/>
-      <c r="O190" s="106">
-        <v>0.4</v>
-      </c>
-      <c r="P190" s="80"/>
-      <c r="Q190" s="107">
-        <v>47.63</v>
-      </c>
-      <c r="R190" s="108"/>
-      <c r="S190" s="81">
-        <v>1.4</v>
-      </c>
-      <c r="T190" s="80"/>
-    </row>
-    <row r="191" spans="1:20" ht="7.8" customHeight="1"/>
+      <c r="T190" s="115"/>
+    </row>
+    <row r="191" spans="1:20" ht="7.9" customHeight="1"/>
     <row r="192" spans="1:20" ht="21" customHeight="1">
       <c r="P192" s="22" t="s">
         <v>99</v>
@@ -6896,7 +6956,7 @@
     <row r="194" spans="1:20">
       <c r="A194" s="42" t="str">
         <f>A57</f>
-        <v>Calibration No: CAL00001</v>
+        <v>Calibration No: CAL00003</v>
       </c>
       <c r="B194" s="43"/>
       <c r="C194" s="43"/>
@@ -6907,7 +6967,7 @@
       <c r="H194" s="34"/>
       <c r="I194" s="41" t="str">
         <f>I57</f>
-        <v>Calibration No: CAL00001</v>
+        <v>Calibration No: CAL00003</v>
       </c>
       <c r="J194" s="34"/>
       <c r="K194" s="34"/>
@@ -6948,966 +7008,966 @@
       <c r="T195" s="21"/>
     </row>
     <row r="196" spans="1:20" ht="60" customHeight="1">
-      <c r="A196" s="110" t="s">
+      <c r="A196" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="B196" s="111"/>
-      <c r="C196" s="110" t="s">
+      <c r="B196" s="66"/>
+      <c r="C196" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="D196" s="111"/>
-      <c r="E196" s="110" t="s">
+      <c r="D196" s="66"/>
+      <c r="E196" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="F196" s="111"/>
-      <c r="G196" s="110" t="s">
+      <c r="F196" s="66"/>
+      <c r="G196" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="H196" s="111"/>
-      <c r="I196" s="110" t="s">
+      <c r="H196" s="66"/>
+      <c r="I196" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="J196" s="111"/>
-      <c r="K196" s="110" t="s">
+      <c r="J196" s="66"/>
+      <c r="K196" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="L196" s="111"/>
-      <c r="M196" s="110" t="s">
+      <c r="L196" s="66"/>
+      <c r="M196" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="N196" s="111"/>
-      <c r="O196" s="110" t="s">
+      <c r="N196" s="66"/>
+      <c r="O196" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="P196" s="111"/>
-      <c r="Q196" s="119" t="s">
+      <c r="P196" s="66"/>
+      <c r="Q196" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="R196" s="111"/>
-      <c r="S196" s="110" t="s">
+      <c r="R196" s="66"/>
+      <c r="S196" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="T196" s="111"/>
+      <c r="T196" s="66"/>
     </row>
     <row r="197" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A197" s="63"/>
-      <c r="B197" s="62"/>
-      <c r="C197" s="61" t="s">
+      <c r="A197" s="165"/>
+      <c r="B197" s="164"/>
+      <c r="C197" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="D197" s="62"/>
-      <c r="E197" s="61" t="s">
+      <c r="D197" s="164"/>
+      <c r="E197" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="F197" s="62"/>
-      <c r="G197" s="61" t="s">
+      <c r="F197" s="164"/>
+      <c r="G197" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="H197" s="62"/>
-      <c r="I197" s="61" t="s">
+      <c r="H197" s="164"/>
+      <c r="I197" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="J197" s="62"/>
-      <c r="K197" s="61" t="s">
+      <c r="J197" s="164"/>
+      <c r="K197" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="L197" s="62"/>
-      <c r="M197" s="61" t="s">
+      <c r="L197" s="164"/>
+      <c r="M197" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="N197" s="62"/>
-      <c r="O197" s="61" t="s">
+      <c r="N197" s="164"/>
+      <c r="O197" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="P197" s="62"/>
-      <c r="Q197" s="61" t="s">
+      <c r="P197" s="164"/>
+      <c r="Q197" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="R197" s="62"/>
-      <c r="S197" s="61" t="s">
+      <c r="R197" s="164"/>
+      <c r="S197" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="T197" s="62"/>
+      <c r="T197" s="164"/>
     </row>
     <row r="198" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A198" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="B198" s="65"/>
-      <c r="C198" s="84">
+      <c r="A198" s="116" t="s">
+        <v>166</v>
+      </c>
+      <c r="B198" s="91"/>
+      <c r="C198" s="116">
         <v>200</v>
       </c>
-      <c r="D198" s="65"/>
-      <c r="E198" s="85">
+      <c r="D198" s="91"/>
+      <c r="E198" s="117">
         <v>9</v>
       </c>
-      <c r="F198" s="65"/>
-      <c r="G198" s="85"/>
-      <c r="H198" s="65"/>
-      <c r="I198" s="86">
+      <c r="F198" s="91"/>
+      <c r="G198" s="117"/>
+      <c r="H198" s="91"/>
+      <c r="I198" s="118">
         <v>10.53</v>
       </c>
-      <c r="J198" s="65"/>
-      <c r="K198" s="87">
+      <c r="J198" s="91"/>
+      <c r="K198" s="119">
         <v>0.73</v>
       </c>
-      <c r="L198" s="65"/>
-      <c r="M198" s="102">
+      <c r="L198" s="91"/>
+      <c r="M198" s="120">
         <v>69.760000000000005</v>
       </c>
-      <c r="N198" s="65"/>
-      <c r="O198" s="103">
+      <c r="N198" s="91"/>
+      <c r="O198" s="121">
         <v>2.9</v>
       </c>
-      <c r="P198" s="65"/>
-      <c r="Q198" s="104">
-        <v>47.36</v>
-      </c>
-      <c r="R198" s="68"/>
-      <c r="S198" s="85">
+      <c r="P198" s="91"/>
+      <c r="Q198" s="106">
+        <v>41.61</v>
+      </c>
+      <c r="R198" s="107"/>
+      <c r="S198" s="117">
         <v>1.4</v>
       </c>
-      <c r="T198" s="65"/>
+      <c r="T198" s="91"/>
     </row>
     <row r="199" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A199" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="B199" s="71"/>
-      <c r="C199" s="92">
+      <c r="A199" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="B199" s="93"/>
+      <c r="C199" s="109">
         <v>200</v>
       </c>
-      <c r="D199" s="71"/>
-      <c r="E199" s="90">
+      <c r="D199" s="93"/>
+      <c r="E199" s="108">
         <v>4</v>
       </c>
-      <c r="F199" s="71"/>
-      <c r="G199" s="90">
+      <c r="F199" s="93"/>
+      <c r="G199" s="108">
         <v>0.5</v>
       </c>
-      <c r="H199" s="71"/>
-      <c r="I199" s="93"/>
-      <c r="J199" s="71"/>
-      <c r="K199" s="91">
+      <c r="H199" s="93"/>
+      <c r="I199" s="110"/>
+      <c r="J199" s="93"/>
+      <c r="K199" s="111">
         <v>1.21</v>
       </c>
-      <c r="L199" s="71"/>
-      <c r="M199" s="100">
+      <c r="L199" s="93"/>
+      <c r="M199" s="112">
         <v>82.81</v>
       </c>
-      <c r="N199" s="71"/>
-      <c r="O199" s="101">
+      <c r="N199" s="93"/>
+      <c r="O199" s="113">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P199" s="71"/>
-      <c r="Q199" s="77">
-        <v>47.58</v>
-      </c>
-      <c r="R199" s="78"/>
-      <c r="S199" s="90">
+      <c r="P199" s="93"/>
+      <c r="Q199" s="99">
+        <v>41.4</v>
+      </c>
+      <c r="R199" s="100"/>
+      <c r="S199" s="108">
         <v>1.4</v>
       </c>
-      <c r="T199" s="71"/>
+      <c r="T199" s="93"/>
     </row>
     <row r="200" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A200" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="B200" s="71"/>
-      <c r="C200" s="70">
+      <c r="A200" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="B200" s="93"/>
+      <c r="C200" s="92">
         <v>200</v>
       </c>
-      <c r="D200" s="71"/>
-      <c r="E200" s="72">
+      <c r="D200" s="93"/>
+      <c r="E200" s="94">
         <v>4</v>
       </c>
-      <c r="F200" s="71"/>
-      <c r="G200" s="72">
+      <c r="F200" s="93"/>
+      <c r="G200" s="94">
         <v>1</v>
       </c>
-      <c r="H200" s="71"/>
-      <c r="I200" s="73"/>
-      <c r="J200" s="71"/>
-      <c r="K200" s="74">
+      <c r="H200" s="93"/>
+      <c r="I200" s="95"/>
+      <c r="J200" s="93"/>
+      <c r="K200" s="96">
         <v>1.63</v>
       </c>
-      <c r="L200" s="71"/>
-      <c r="M200" s="75">
+      <c r="L200" s="93"/>
+      <c r="M200" s="97">
         <v>94.74</v>
       </c>
-      <c r="N200" s="71"/>
-      <c r="O200" s="76">
+      <c r="N200" s="93"/>
+      <c r="O200" s="98">
         <v>1.6</v>
       </c>
-      <c r="P200" s="71"/>
-      <c r="Q200" s="77">
-        <v>47.67</v>
-      </c>
-      <c r="R200" s="78"/>
-      <c r="S200" s="72">
+      <c r="P200" s="93"/>
+      <c r="Q200" s="99">
+        <v>41.25</v>
+      </c>
+      <c r="R200" s="100"/>
+      <c r="S200" s="94">
         <v>1.4</v>
       </c>
-      <c r="T200" s="71"/>
+      <c r="T200" s="93"/>
     </row>
     <row r="201" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A201" s="92" t="s">
-        <v>163</v>
-      </c>
-      <c r="B201" s="71"/>
-      <c r="C201" s="92">
+      <c r="A201" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B201" s="93"/>
+      <c r="C201" s="109">
         <v>200</v>
       </c>
-      <c r="D201" s="71"/>
-      <c r="E201" s="90">
+      <c r="D201" s="93"/>
+      <c r="E201" s="108">
         <v>4</v>
       </c>
-      <c r="F201" s="71"/>
-      <c r="G201" s="90">
+      <c r="F201" s="93"/>
+      <c r="G201" s="108">
         <v>1.6</v>
       </c>
-      <c r="H201" s="71"/>
-      <c r="I201" s="93"/>
-      <c r="J201" s="71"/>
-      <c r="K201" s="91">
+      <c r="H201" s="93"/>
+      <c r="I201" s="110"/>
+      <c r="J201" s="93"/>
+      <c r="K201" s="111">
         <v>2</v>
       </c>
-      <c r="L201" s="71"/>
-      <c r="M201" s="100">
+      <c r="L201" s="93"/>
+      <c r="M201" s="112">
         <v>105.25</v>
       </c>
-      <c r="N201" s="71"/>
-      <c r="O201" s="101">
+      <c r="N201" s="93"/>
+      <c r="O201" s="113">
         <v>1.2</v>
       </c>
-      <c r="P201" s="71"/>
-      <c r="Q201" s="77">
-        <v>47.72</v>
-      </c>
-      <c r="R201" s="78"/>
-      <c r="S201" s="90">
+      <c r="P201" s="93"/>
+      <c r="Q201" s="99">
+        <v>41.15</v>
+      </c>
+      <c r="R201" s="100"/>
+      <c r="S201" s="108">
         <v>1.4</v>
       </c>
-      <c r="T201" s="71"/>
+      <c r="T201" s="93"/>
     </row>
     <row r="202" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A202" s="95" t="s">
-        <v>164</v>
-      </c>
-      <c r="B202" s="80"/>
-      <c r="C202" s="95">
+      <c r="A202" s="129" t="s">
+        <v>170</v>
+      </c>
+      <c r="B202" s="115"/>
+      <c r="C202" s="129">
         <v>200</v>
       </c>
-      <c r="D202" s="80"/>
-      <c r="E202" s="96">
+      <c r="D202" s="115"/>
+      <c r="E202" s="130">
         <v>4</v>
       </c>
-      <c r="F202" s="80"/>
-      <c r="G202" s="96">
+      <c r="F202" s="115"/>
+      <c r="G202" s="130">
         <v>3</v>
       </c>
-      <c r="H202" s="80"/>
-      <c r="I202" s="97"/>
-      <c r="J202" s="80"/>
-      <c r="K202" s="98">
+      <c r="H202" s="115"/>
+      <c r="I202" s="131"/>
+      <c r="J202" s="115"/>
+      <c r="K202" s="132">
         <v>2.54</v>
       </c>
-      <c r="L202" s="80"/>
-      <c r="M202" s="99">
+      <c r="L202" s="115"/>
+      <c r="M202" s="133">
         <v>120.15</v>
       </c>
-      <c r="N202" s="80"/>
-      <c r="O202" s="109">
+      <c r="N202" s="115"/>
+      <c r="O202" s="134">
         <v>0.6</v>
       </c>
-      <c r="P202" s="80"/>
-      <c r="Q202" s="107">
-        <v>47.69</v>
-      </c>
-      <c r="R202" s="108"/>
-      <c r="S202" s="96">
+      <c r="P202" s="115"/>
+      <c r="Q202" s="127">
+        <v>41.02</v>
+      </c>
+      <c r="R202" s="128"/>
+      <c r="S202" s="130">
         <v>1.4</v>
       </c>
-      <c r="T202" s="80"/>
+      <c r="T202" s="115"/>
     </row>
     <row r="203" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A203" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="B203" s="65"/>
-      <c r="C203" s="94">
+      <c r="A203" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="B203" s="91"/>
+      <c r="C203" s="101">
         <v>250</v>
       </c>
-      <c r="D203" s="65"/>
-      <c r="E203" s="69">
+      <c r="D203" s="91"/>
+      <c r="E203" s="90">
         <v>4</v>
       </c>
-      <c r="F203" s="65"/>
-      <c r="G203" s="69">
+      <c r="F203" s="91"/>
+      <c r="G203" s="90">
         <v>0.5</v>
       </c>
-      <c r="H203" s="65"/>
-      <c r="I203" s="112"/>
-      <c r="J203" s="65"/>
-      <c r="K203" s="113">
+      <c r="H203" s="91"/>
+      <c r="I203" s="102"/>
+      <c r="J203" s="91"/>
+      <c r="K203" s="103">
         <v>1.61</v>
       </c>
-      <c r="L203" s="65"/>
-      <c r="M203" s="88">
+      <c r="L203" s="91"/>
+      <c r="M203" s="104">
         <v>92.84</v>
       </c>
-      <c r="N203" s="65"/>
-      <c r="O203" s="89">
+      <c r="N203" s="91"/>
+      <c r="O203" s="105">
         <v>3</v>
       </c>
-      <c r="P203" s="65"/>
-      <c r="Q203" s="104">
-        <v>47.61</v>
-      </c>
-      <c r="R203" s="68"/>
-      <c r="S203" s="69">
+      <c r="P203" s="91"/>
+      <c r="Q203" s="106">
+        <v>41.29</v>
+      </c>
+      <c r="R203" s="107"/>
+      <c r="S203" s="90">
         <v>1.4</v>
       </c>
-      <c r="T203" s="65"/>
+      <c r="T203" s="91"/>
     </row>
     <row r="204" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A204" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="B204" s="71"/>
-      <c r="C204" s="70">
+      <c r="A204" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="B204" s="93"/>
+      <c r="C204" s="92">
         <v>250</v>
       </c>
-      <c r="D204" s="71"/>
-      <c r="E204" s="72">
+      <c r="D204" s="93"/>
+      <c r="E204" s="94">
         <v>4</v>
       </c>
-      <c r="F204" s="71"/>
-      <c r="G204" s="72">
+      <c r="F204" s="93"/>
+      <c r="G204" s="94">
         <v>1</v>
       </c>
-      <c r="H204" s="71"/>
-      <c r="I204" s="73"/>
-      <c r="J204" s="71"/>
-      <c r="K204" s="74">
+      <c r="H204" s="93"/>
+      <c r="I204" s="95"/>
+      <c r="J204" s="93"/>
+      <c r="K204" s="96">
         <v>2.14</v>
       </c>
-      <c r="L204" s="71"/>
-      <c r="M204" s="75">
+      <c r="L204" s="93"/>
+      <c r="M204" s="97">
         <v>107.32</v>
       </c>
-      <c r="N204" s="71"/>
-      <c r="O204" s="76">
+      <c r="N204" s="93"/>
+      <c r="O204" s="98">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P204" s="71"/>
-      <c r="Q204" s="77">
-        <v>47.69</v>
-      </c>
-      <c r="R204" s="78"/>
-      <c r="S204" s="72">
+      <c r="P204" s="93"/>
+      <c r="Q204" s="99">
+        <v>41.18</v>
+      </c>
+      <c r="R204" s="100"/>
+      <c r="S204" s="94">
         <v>1.4</v>
       </c>
-      <c r="T204" s="71"/>
+      <c r="T204" s="93"/>
     </row>
     <row r="205" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A205" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="B205" s="71"/>
-      <c r="C205" s="92">
+      <c r="A205" s="109" t="s">
+        <v>173</v>
+      </c>
+      <c r="B205" s="93"/>
+      <c r="C205" s="109">
         <v>250</v>
       </c>
-      <c r="D205" s="71"/>
-      <c r="E205" s="90">
+      <c r="D205" s="93"/>
+      <c r="E205" s="108">
         <v>4</v>
       </c>
-      <c r="F205" s="71"/>
-      <c r="G205" s="90">
+      <c r="F205" s="93"/>
+      <c r="G205" s="108">
         <v>1.6</v>
       </c>
-      <c r="H205" s="71"/>
-      <c r="I205" s="93"/>
-      <c r="J205" s="71"/>
-      <c r="K205" s="91">
+      <c r="H205" s="93"/>
+      <c r="I205" s="110"/>
+      <c r="J205" s="93"/>
+      <c r="K205" s="111">
         <v>2.57</v>
       </c>
-      <c r="L205" s="71"/>
-      <c r="M205" s="100">
+      <c r="L205" s="93"/>
+      <c r="M205" s="112">
         <v>120.1</v>
       </c>
-      <c r="N205" s="71"/>
-      <c r="O205" s="101">
+      <c r="N205" s="93"/>
+      <c r="O205" s="113">
         <v>1.8</v>
       </c>
-      <c r="P205" s="71"/>
-      <c r="Q205" s="77">
-        <v>47.72</v>
-      </c>
-      <c r="R205" s="78"/>
-      <c r="S205" s="90">
+      <c r="P205" s="93"/>
+      <c r="Q205" s="99">
+        <v>41.09</v>
+      </c>
+      <c r="R205" s="100"/>
+      <c r="S205" s="108">
         <v>1.4</v>
       </c>
-      <c r="T205" s="71"/>
+      <c r="T205" s="93"/>
     </row>
     <row r="206" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A206" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="B206" s="71"/>
-      <c r="C206" s="70">
+      <c r="A206" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B206" s="93"/>
+      <c r="C206" s="92">
         <v>250</v>
       </c>
-      <c r="D206" s="71"/>
-      <c r="E206" s="72">
+      <c r="D206" s="93"/>
+      <c r="E206" s="94">
         <v>4</v>
       </c>
-      <c r="F206" s="71"/>
-      <c r="G206" s="72">
+      <c r="F206" s="93"/>
+      <c r="G206" s="94">
         <v>3</v>
       </c>
-      <c r="H206" s="71"/>
-      <c r="I206" s="73"/>
-      <c r="J206" s="71"/>
-      <c r="K206" s="74">
+      <c r="H206" s="93"/>
+      <c r="I206" s="95"/>
+      <c r="J206" s="93"/>
+      <c r="K206" s="96">
         <v>3.16</v>
       </c>
-      <c r="L206" s="71"/>
-      <c r="M206" s="75">
+      <c r="L206" s="93"/>
+      <c r="M206" s="97">
         <v>137.46</v>
       </c>
-      <c r="N206" s="71"/>
-      <c r="O206" s="76">
+      <c r="N206" s="93"/>
+      <c r="O206" s="98">
         <v>1.2</v>
       </c>
-      <c r="P206" s="71"/>
-      <c r="Q206" s="77">
-        <v>47.79</v>
-      </c>
-      <c r="R206" s="78"/>
-      <c r="S206" s="72">
+      <c r="P206" s="93"/>
+      <c r="Q206" s="99">
+        <v>41.02</v>
+      </c>
+      <c r="R206" s="100"/>
+      <c r="S206" s="94">
         <v>1.4</v>
       </c>
-      <c r="T206" s="71"/>
+      <c r="T206" s="93"/>
     </row>
     <row r="207" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A207" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="B207" s="80"/>
-      <c r="C207" s="79">
+      <c r="A207" s="122" t="s">
+        <v>175</v>
+      </c>
+      <c r="B207" s="115"/>
+      <c r="C207" s="122">
         <v>250</v>
       </c>
-      <c r="D207" s="80"/>
-      <c r="E207" s="81">
+      <c r="D207" s="115"/>
+      <c r="E207" s="114">
         <v>4</v>
       </c>
-      <c r="F207" s="80"/>
-      <c r="G207" s="81">
+      <c r="F207" s="115"/>
+      <c r="G207" s="114">
         <v>5</v>
       </c>
-      <c r="H207" s="80"/>
-      <c r="I207" s="82"/>
-      <c r="J207" s="80"/>
-      <c r="K207" s="83">
+      <c r="H207" s="115"/>
+      <c r="I207" s="123"/>
+      <c r="J207" s="115"/>
+      <c r="K207" s="124">
         <v>3.6</v>
       </c>
-      <c r="L207" s="80"/>
-      <c r="M207" s="105">
+      <c r="L207" s="115"/>
+      <c r="M207" s="125">
         <v>149.51</v>
       </c>
-      <c r="N207" s="80"/>
-      <c r="O207" s="106">
+      <c r="N207" s="115"/>
+      <c r="O207" s="126">
         <v>0.7</v>
       </c>
-      <c r="P207" s="80"/>
-      <c r="Q207" s="107">
-        <v>47.75</v>
-      </c>
-      <c r="R207" s="108"/>
-      <c r="S207" s="81">
+      <c r="P207" s="115"/>
+      <c r="Q207" s="127">
+        <v>41.02</v>
+      </c>
+      <c r="R207" s="128"/>
+      <c r="S207" s="114">
         <v>1.4</v>
       </c>
-      <c r="T207" s="80"/>
+      <c r="T207" s="115"/>
     </row>
     <row r="208" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A208" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="B208" s="71"/>
-      <c r="C208" s="70">
+      <c r="A208" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B208" s="93"/>
+      <c r="C208" s="92">
         <v>280</v>
       </c>
-      <c r="D208" s="71"/>
-      <c r="E208" s="72">
+      <c r="D208" s="93"/>
+      <c r="E208" s="94">
         <v>4</v>
       </c>
-      <c r="F208" s="71"/>
-      <c r="G208" s="72">
+      <c r="F208" s="93"/>
+      <c r="G208" s="94">
         <v>1</v>
       </c>
-      <c r="H208" s="71"/>
-      <c r="I208" s="73"/>
-      <c r="J208" s="71"/>
-      <c r="K208" s="74">
+      <c r="H208" s="93"/>
+      <c r="I208" s="95"/>
+      <c r="J208" s="93"/>
+      <c r="K208" s="96">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L208" s="71"/>
-      <c r="M208" s="75">
+      <c r="L208" s="93"/>
+      <c r="M208" s="97">
         <v>114.61</v>
       </c>
-      <c r="N208" s="71"/>
-      <c r="O208" s="76">
+      <c r="N208" s="93"/>
+      <c r="O208" s="98">
         <v>2.5</v>
       </c>
-      <c r="P208" s="71"/>
-      <c r="Q208" s="77">
-        <v>47.69</v>
-      </c>
-      <c r="R208" s="78"/>
-      <c r="S208" s="72">
+      <c r="P208" s="93"/>
+      <c r="Q208" s="99">
+        <v>41.1</v>
+      </c>
+      <c r="R208" s="100"/>
+      <c r="S208" s="94">
         <v>1.4</v>
       </c>
-      <c r="T208" s="71"/>
+      <c r="T208" s="93"/>
     </row>
     <row r="209" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A209" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="B209" s="71"/>
-      <c r="C209" s="92">
+      <c r="A209" s="109" t="s">
+        <v>177</v>
+      </c>
+      <c r="B209" s="93"/>
+      <c r="C209" s="109">
         <v>280</v>
       </c>
-      <c r="D209" s="71"/>
-      <c r="E209" s="90">
+      <c r="D209" s="93"/>
+      <c r="E209" s="108">
         <v>4</v>
       </c>
-      <c r="F209" s="71"/>
-      <c r="G209" s="90">
+      <c r="F209" s="93"/>
+      <c r="G209" s="108">
         <v>1.6</v>
       </c>
-      <c r="H209" s="71"/>
-      <c r="I209" s="93"/>
-      <c r="J209" s="71"/>
-      <c r="K209" s="91">
+      <c r="H209" s="93"/>
+      <c r="I209" s="110"/>
+      <c r="J209" s="93"/>
+      <c r="K209" s="111">
         <v>2.88</v>
       </c>
-      <c r="L209" s="71"/>
-      <c r="M209" s="100">
+      <c r="L209" s="93"/>
+      <c r="M209" s="112">
         <v>128.5</v>
       </c>
-      <c r="N209" s="71"/>
-      <c r="O209" s="101">
+      <c r="N209" s="93"/>
+      <c r="O209" s="113">
         <v>2</v>
       </c>
-      <c r="P209" s="71"/>
-      <c r="Q209" s="77">
-        <v>47.69</v>
-      </c>
-      <c r="R209" s="78"/>
-      <c r="S209" s="90">
+      <c r="P209" s="93"/>
+      <c r="Q209" s="99">
+        <v>41</v>
+      </c>
+      <c r="R209" s="100"/>
+      <c r="S209" s="108">
         <v>1.4</v>
       </c>
-      <c r="T209" s="71"/>
+      <c r="T209" s="93"/>
     </row>
     <row r="210" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A210" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="B210" s="71"/>
-      <c r="C210" s="70">
+      <c r="A210" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="B210" s="93"/>
+      <c r="C210" s="92">
         <v>280</v>
       </c>
-      <c r="D210" s="71"/>
-      <c r="E210" s="72">
+      <c r="D210" s="93"/>
+      <c r="E210" s="94">
         <v>4</v>
       </c>
-      <c r="F210" s="71"/>
-      <c r="G210" s="72">
+      <c r="F210" s="93"/>
+      <c r="G210" s="94">
         <v>3</v>
       </c>
-      <c r="H210" s="71"/>
-      <c r="I210" s="73"/>
-      <c r="J210" s="71"/>
-      <c r="K210" s="74">
+      <c r="H210" s="93"/>
+      <c r="I210" s="95"/>
+      <c r="J210" s="93"/>
+      <c r="K210" s="96">
         <v>3.5</v>
       </c>
-      <c r="L210" s="71"/>
-      <c r="M210" s="75">
+      <c r="L210" s="93"/>
+      <c r="M210" s="97">
         <v>147.05000000000001</v>
       </c>
-      <c r="N210" s="71"/>
-      <c r="O210" s="76">
+      <c r="N210" s="93"/>
+      <c r="O210" s="98">
         <v>1.4</v>
       </c>
-      <c r="P210" s="71"/>
-      <c r="Q210" s="77">
-        <v>47.76</v>
-      </c>
-      <c r="R210" s="78"/>
-      <c r="S210" s="72">
+      <c r="P210" s="93"/>
+      <c r="Q210" s="99">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="R210" s="100"/>
+      <c r="S210" s="94">
         <v>1.4</v>
       </c>
-      <c r="T210" s="71"/>
+      <c r="T210" s="93"/>
     </row>
     <row r="211" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A211" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="B211" s="80"/>
-      <c r="C211" s="79">
+      <c r="A211" s="122" t="s">
+        <v>179</v>
+      </c>
+      <c r="B211" s="115"/>
+      <c r="C211" s="122">
         <v>280</v>
       </c>
-      <c r="D211" s="80"/>
-      <c r="E211" s="81">
+      <c r="D211" s="115"/>
+      <c r="E211" s="114">
         <v>4</v>
       </c>
-      <c r="F211" s="80"/>
-      <c r="G211" s="81">
+      <c r="F211" s="115"/>
+      <c r="G211" s="114">
         <v>5</v>
       </c>
-      <c r="H211" s="80"/>
-      <c r="I211" s="82"/>
-      <c r="J211" s="80"/>
-      <c r="K211" s="83">
+      <c r="H211" s="115"/>
+      <c r="I211" s="123"/>
+      <c r="J211" s="115"/>
+      <c r="K211" s="124">
         <v>3.93</v>
       </c>
-      <c r="L211" s="80"/>
-      <c r="M211" s="105">
+      <c r="L211" s="115"/>
+      <c r="M211" s="125">
         <v>159.91999999999999</v>
       </c>
-      <c r="N211" s="80"/>
-      <c r="O211" s="106">
+      <c r="N211" s="115"/>
+      <c r="O211" s="126">
         <v>0.9</v>
       </c>
-      <c r="P211" s="80"/>
-      <c r="Q211" s="107">
-        <v>47.76</v>
-      </c>
-      <c r="R211" s="108"/>
-      <c r="S211" s="81">
+      <c r="P211" s="115"/>
+      <c r="Q211" s="127">
+        <v>40.93</v>
+      </c>
+      <c r="R211" s="128"/>
+      <c r="S211" s="114">
         <v>1.4</v>
       </c>
-      <c r="T211" s="80"/>
+      <c r="T211" s="115"/>
     </row>
     <row r="212" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A212" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="B212" s="65"/>
-      <c r="C212" s="84">
+      <c r="A212" s="116" t="s">
+        <v>180</v>
+      </c>
+      <c r="B212" s="91"/>
+      <c r="C212" s="116">
         <v>300</v>
       </c>
-      <c r="D212" s="65"/>
-      <c r="E212" s="85">
+      <c r="D212" s="91"/>
+      <c r="E212" s="117">
         <v>4</v>
       </c>
-      <c r="F212" s="65"/>
-      <c r="G212" s="85">
+      <c r="F212" s="91"/>
+      <c r="G212" s="117">
         <v>1.6</v>
       </c>
-      <c r="H212" s="65"/>
-      <c r="I212" s="86"/>
-      <c r="J212" s="65"/>
-      <c r="K212" s="87">
+      <c r="H212" s="91"/>
+      <c r="I212" s="118"/>
+      <c r="J212" s="91"/>
+      <c r="K212" s="119">
         <v>3.1</v>
       </c>
-      <c r="L212" s="65"/>
-      <c r="M212" s="102">
+      <c r="L212" s="91"/>
+      <c r="M212" s="120">
         <v>133.91999999999999</v>
       </c>
-      <c r="N212" s="65"/>
-      <c r="O212" s="103">
+      <c r="N212" s="91"/>
+      <c r="O212" s="121">
         <v>2.4</v>
       </c>
-      <c r="P212" s="65"/>
-      <c r="Q212" s="104">
-        <v>47.64</v>
-      </c>
-      <c r="R212" s="68"/>
-      <c r="S212" s="85">
+      <c r="P212" s="91"/>
+      <c r="Q212" s="106">
+        <v>40.97</v>
+      </c>
+      <c r="R212" s="107"/>
+      <c r="S212" s="117">
         <v>1.4</v>
       </c>
-      <c r="T212" s="65"/>
+      <c r="T212" s="91"/>
     </row>
     <row r="213" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A213" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="B213" s="71"/>
-      <c r="C213" s="92">
+      <c r="A213" s="109" t="s">
+        <v>181</v>
+      </c>
+      <c r="B213" s="93"/>
+      <c r="C213" s="109">
         <v>300</v>
       </c>
-      <c r="D213" s="71"/>
-      <c r="E213" s="90">
+      <c r="D213" s="93"/>
+      <c r="E213" s="108">
         <v>4</v>
       </c>
-      <c r="F213" s="71"/>
-      <c r="G213" s="90">
+      <c r="F213" s="93"/>
+      <c r="G213" s="108">
         <v>3</v>
       </c>
-      <c r="H213" s="71"/>
-      <c r="I213" s="93"/>
-      <c r="J213" s="71"/>
-      <c r="K213" s="91">
+      <c r="H213" s="93"/>
+      <c r="I213" s="110"/>
+      <c r="J213" s="93"/>
+      <c r="K213" s="111">
         <v>3.7</v>
       </c>
-      <c r="L213" s="71"/>
-      <c r="M213" s="100">
+      <c r="L213" s="93"/>
+      <c r="M213" s="112">
         <v>153.21</v>
       </c>
-      <c r="N213" s="71"/>
-      <c r="O213" s="101">
+      <c r="N213" s="93"/>
+      <c r="O213" s="113">
         <v>1.7</v>
       </c>
-      <c r="P213" s="71"/>
-      <c r="Q213" s="77">
-        <v>47.66</v>
-      </c>
-      <c r="R213" s="78"/>
-      <c r="S213" s="90">
+      <c r="P213" s="93"/>
+      <c r="Q213" s="99">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="R213" s="100"/>
+      <c r="S213" s="108">
         <v>1.4</v>
       </c>
-      <c r="T213" s="71"/>
+      <c r="T213" s="93"/>
     </row>
     <row r="214" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A214" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="B214" s="71"/>
-      <c r="C214" s="70">
+      <c r="A214" s="92" t="s">
+        <v>182</v>
+      </c>
+      <c r="B214" s="93"/>
+      <c r="C214" s="92">
         <v>300</v>
       </c>
-      <c r="D214" s="71"/>
-      <c r="E214" s="72">
+      <c r="D214" s="93"/>
+      <c r="E214" s="94">
         <v>4</v>
       </c>
-      <c r="F214" s="71"/>
-      <c r="G214" s="72">
+      <c r="F214" s="93"/>
+      <c r="G214" s="94">
         <v>5</v>
       </c>
-      <c r="H214" s="71"/>
-      <c r="I214" s="73"/>
-      <c r="J214" s="71"/>
-      <c r="K214" s="74">
+      <c r="H214" s="93"/>
+      <c r="I214" s="95"/>
+      <c r="J214" s="93"/>
+      <c r="K214" s="96">
         <v>4.1500000000000004</v>
       </c>
-      <c r="L214" s="71"/>
-      <c r="M214" s="75">
+      <c r="L214" s="93"/>
+      <c r="M214" s="97">
         <v>166.58</v>
       </c>
-      <c r="N214" s="71"/>
-      <c r="O214" s="76">
+      <c r="N214" s="93"/>
+      <c r="O214" s="98">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P214" s="71"/>
-      <c r="Q214" s="77">
-        <v>47.69</v>
-      </c>
-      <c r="R214" s="78"/>
-      <c r="S214" s="72">
+      <c r="P214" s="93"/>
+      <c r="Q214" s="99">
+        <v>40.869999999999997</v>
+      </c>
+      <c r="R214" s="100"/>
+      <c r="S214" s="94">
         <v>1.4</v>
       </c>
-      <c r="T214" s="71"/>
+      <c r="T214" s="93"/>
     </row>
     <row r="215" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A215" s="94" t="s">
-        <v>174</v>
-      </c>
-      <c r="B215" s="65"/>
-      <c r="C215" s="94">
+      <c r="A215" s="101" t="s">
+        <v>183</v>
+      </c>
+      <c r="B215" s="91"/>
+      <c r="C215" s="101">
         <v>320</v>
       </c>
-      <c r="D215" s="65"/>
-      <c r="E215" s="69">
+      <c r="D215" s="91"/>
+      <c r="E215" s="90">
         <v>4</v>
       </c>
-      <c r="F215" s="65"/>
-      <c r="G215" s="69">
+      <c r="F215" s="91"/>
+      <c r="G215" s="90">
         <v>3</v>
       </c>
-      <c r="H215" s="65"/>
-      <c r="I215" s="112"/>
-      <c r="J215" s="65"/>
-      <c r="K215" s="113">
+      <c r="H215" s="91"/>
+      <c r="I215" s="102"/>
+      <c r="J215" s="91"/>
+      <c r="K215" s="103">
         <v>3.9</v>
       </c>
-      <c r="L215" s="65"/>
-      <c r="M215" s="88">
+      <c r="L215" s="91"/>
+      <c r="M215" s="104">
         <v>159.22</v>
       </c>
-      <c r="N215" s="65"/>
-      <c r="O215" s="89">
+      <c r="N215" s="91"/>
+      <c r="O215" s="105">
         <v>1.6</v>
       </c>
-      <c r="P215" s="65"/>
-      <c r="Q215" s="104">
-        <v>47.57</v>
-      </c>
-      <c r="R215" s="68"/>
-      <c r="S215" s="69">
+      <c r="P215" s="91"/>
+      <c r="Q215" s="106">
+        <v>40.82</v>
+      </c>
+      <c r="R215" s="107"/>
+      <c r="S215" s="90">
         <v>1.4</v>
       </c>
-      <c r="T215" s="65"/>
+      <c r="T215" s="91"/>
     </row>
     <row r="216" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A216" s="70" t="s">
-        <v>175</v>
-      </c>
-      <c r="B216" s="71"/>
-      <c r="C216" s="70">
+      <c r="A216" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B216" s="93"/>
+      <c r="C216" s="92">
         <v>320</v>
       </c>
-      <c r="D216" s="71"/>
-      <c r="E216" s="72">
+      <c r="D216" s="93"/>
+      <c r="E216" s="94">
         <v>4</v>
       </c>
-      <c r="F216" s="71"/>
-      <c r="G216" s="72">
+      <c r="F216" s="93"/>
+      <c r="G216" s="94">
         <v>5</v>
       </c>
-      <c r="H216" s="71"/>
-      <c r="I216" s="73"/>
-      <c r="J216" s="71"/>
-      <c r="K216" s="74">
+      <c r="H216" s="93"/>
+      <c r="I216" s="95"/>
+      <c r="J216" s="93"/>
+      <c r="K216" s="96">
         <v>4.34</v>
       </c>
-      <c r="L216" s="71"/>
-      <c r="M216" s="75">
+      <c r="L216" s="93"/>
+      <c r="M216" s="97">
         <v>173.06</v>
       </c>
-      <c r="N216" s="71"/>
-      <c r="O216" s="76">
+      <c r="N216" s="93"/>
+      <c r="O216" s="98">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P216" s="71"/>
-      <c r="Q216" s="77">
-        <v>47.58</v>
-      </c>
-      <c r="R216" s="78"/>
-      <c r="S216" s="72">
+      <c r="P216" s="93"/>
+      <c r="Q216" s="99">
+        <v>40.76</v>
+      </c>
+      <c r="R216" s="100"/>
+      <c r="S216" s="94">
         <v>1.4</v>
       </c>
-      <c r="T216" s="71"/>
+      <c r="T216" s="93"/>
     </row>
     <row r="217" spans="1:20" ht="15" customHeight="1">
-      <c r="A217" s="145" t="s">
-        <v>176</v>
-      </c>
-      <c r="B217" s="111"/>
-      <c r="C217" s="145">
+      <c r="A217" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="B217" s="66"/>
+      <c r="C217" s="69">
         <v>250</v>
       </c>
-      <c r="D217" s="111"/>
-      <c r="E217" s="146">
+      <c r="D217" s="66"/>
+      <c r="E217" s="65">
         <v>4</v>
       </c>
-      <c r="F217" s="111"/>
-      <c r="G217" s="146">
+      <c r="F217" s="66"/>
+      <c r="G217" s="65">
         <v>1.6</v>
       </c>
-      <c r="H217" s="111"/>
-      <c r="I217" s="147"/>
-      <c r="J217" s="111"/>
-      <c r="K217" s="148">
+      <c r="H217" s="66"/>
+      <c r="I217" s="70"/>
+      <c r="J217" s="66"/>
+      <c r="K217" s="71">
         <v>2.57</v>
       </c>
-      <c r="L217" s="111"/>
-      <c r="M217" s="149">
+      <c r="L217" s="66"/>
+      <c r="M217" s="72">
         <v>120.1</v>
       </c>
-      <c r="N217" s="111"/>
-      <c r="O217" s="150">
+      <c r="N217" s="66"/>
+      <c r="O217" s="73">
         <v>1.8</v>
       </c>
-      <c r="P217" s="111"/>
-      <c r="Q217" s="151">
-        <v>47.64</v>
-      </c>
-      <c r="R217" s="144"/>
-      <c r="S217" s="146">
+      <c r="P217" s="66"/>
+      <c r="Q217" s="63">
+        <v>40.99</v>
+      </c>
+      <c r="R217" s="64"/>
+      <c r="S217" s="65">
         <v>1.4</v>
       </c>
-      <c r="T217" s="111"/>
+      <c r="T217" s="66"/>
     </row>
     <row r="218" spans="1:20" ht="15" customHeight="1">
-      <c r="A218" s="164" t="s">
-        <v>177</v>
-      </c>
-      <c r="B218" s="111"/>
-      <c r="C218" s="164">
+      <c r="A218" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B218" s="66"/>
+      <c r="C218" s="74">
         <v>280</v>
       </c>
-      <c r="D218" s="111"/>
-      <c r="E218" s="163">
+      <c r="D218" s="66"/>
+      <c r="E218" s="68">
         <v>4</v>
       </c>
-      <c r="F218" s="111"/>
-      <c r="G218" s="163">
+      <c r="F218" s="66"/>
+      <c r="G218" s="68">
         <v>3</v>
       </c>
-      <c r="H218" s="111"/>
-      <c r="I218" s="165"/>
-      <c r="J218" s="111"/>
-      <c r="K218" s="166">
+      <c r="H218" s="66"/>
+      <c r="I218" s="75"/>
+      <c r="J218" s="66"/>
+      <c r="K218" s="76">
         <v>3.5</v>
       </c>
-      <c r="L218" s="111"/>
-      <c r="M218" s="167">
+      <c r="L218" s="66"/>
+      <c r="M218" s="77">
         <v>147.05000000000001</v>
       </c>
-      <c r="N218" s="111"/>
-      <c r="O218" s="168">
+      <c r="N218" s="66"/>
+      <c r="O218" s="78">
         <v>1.4</v>
       </c>
-      <c r="P218" s="111"/>
-      <c r="Q218" s="151">
-        <v>47.82</v>
-      </c>
-      <c r="R218" s="144"/>
-      <c r="S218" s="163">
+      <c r="P218" s="66"/>
+      <c r="Q218" s="63">
+        <v>41.06</v>
+      </c>
+      <c r="R218" s="64"/>
+      <c r="S218" s="68">
         <v>1.4</v>
       </c>
-      <c r="T218" s="111"/>
+      <c r="T218" s="66"/>
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1">
-      <c r="A219" s="145" t="s">
-        <v>126</v>
-      </c>
-      <c r="B219" s="111"/>
-      <c r="C219" s="145">
+      <c r="A219" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B219" s="66"/>
+      <c r="C219" s="69">
         <v>300</v>
       </c>
-      <c r="D219" s="111"/>
-      <c r="E219" s="146">
+      <c r="D219" s="66"/>
+      <c r="E219" s="65">
         <v>4</v>
       </c>
-      <c r="F219" s="111"/>
-      <c r="G219" s="146">
+      <c r="F219" s="66"/>
+      <c r="G219" s="65">
         <v>3</v>
       </c>
-      <c r="H219" s="111"/>
-      <c r="I219" s="147"/>
-      <c r="J219" s="111"/>
-      <c r="K219" s="148">
+      <c r="H219" s="66"/>
+      <c r="I219" s="70"/>
+      <c r="J219" s="66"/>
+      <c r="K219" s="71">
         <v>3.7</v>
       </c>
-      <c r="L219" s="111"/>
-      <c r="M219" s="149">
+      <c r="L219" s="66"/>
+      <c r="M219" s="72">
         <v>153.21</v>
       </c>
-      <c r="N219" s="111"/>
-      <c r="O219" s="150">
+      <c r="N219" s="66"/>
+      <c r="O219" s="73">
         <v>1.7</v>
       </c>
-      <c r="P219" s="111"/>
-      <c r="Q219" s="151">
-        <v>47.79</v>
-      </c>
-      <c r="R219" s="144"/>
-      <c r="S219" s="146">
+      <c r="P219" s="66"/>
+      <c r="Q219" s="63">
+        <v>41.01</v>
+      </c>
+      <c r="R219" s="64"/>
+      <c r="S219" s="65">
         <v>1.4</v>
       </c>
-      <c r="T219" s="111"/>
+      <c r="T219" s="66"/>
     </row>
     <row r="220" spans="1:20" ht="15" customHeight="1">
       <c r="A220" s="26" t="s">
@@ -7945,35 +8005,35 @@
     <row r="241" spans="1:20" ht="15" customHeight="1"/>
     <row r="242" spans="1:20" ht="23.1" customHeight="1"/>
     <row r="243" spans="1:20" s="47" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A243" s="114" t="e">
+      <c r="A243" s="61" t="e">
         <f>"Figure 1: Calibration coefficients for "&amp;#REF! &amp; " serial number " &amp;#REF! &amp; " grouped by kVp"</f>
         <v>#REF!</v>
       </c>
-      <c r="B243" s="115"/>
-      <c r="C243" s="115"/>
-      <c r="D243" s="115"/>
-      <c r="E243" s="115"/>
-      <c r="F243" s="115"/>
-      <c r="G243" s="115"/>
-      <c r="H243" s="115"/>
-      <c r="I243" s="115"/>
-      <c r="J243" s="115"/>
-      <c r="K243" s="115"/>
-      <c r="L243" s="115"/>
-      <c r="M243" s="115"/>
-      <c r="N243" s="115"/>
-      <c r="O243" s="115"/>
-      <c r="P243" s="115"/>
-      <c r="Q243" s="115"/>
-      <c r="R243" s="115"/>
-      <c r="S243" s="115"/>
-      <c r="T243" s="115"/>
-    </row>
-    <row r="245" spans="1:20" s="60" customFormat="1" ht="13.8" thickBot="1"/>
+      <c r="B243" s="62"/>
+      <c r="C243" s="62"/>
+      <c r="D243" s="62"/>
+      <c r="E243" s="62"/>
+      <c r="F243" s="62"/>
+      <c r="G243" s="62"/>
+      <c r="H243" s="62"/>
+      <c r="I243" s="62"/>
+      <c r="J243" s="62"/>
+      <c r="K243" s="62"/>
+      <c r="L243" s="62"/>
+      <c r="M243" s="62"/>
+      <c r="N243" s="62"/>
+      <c r="O243" s="62"/>
+      <c r="P243" s="62"/>
+      <c r="Q243" s="62"/>
+      <c r="R243" s="62"/>
+      <c r="S243" s="62"/>
+      <c r="T243" s="62"/>
+    </row>
+    <row r="245" spans="1:20" s="60" customFormat="1" ht="13.5" thickBot="1"/>
     <row r="246" spans="1:20" s="60" customFormat="1">
       <c r="A246" s="42" t="str">
         <f>A57</f>
-        <v>Calibration No: CAL00001</v>
+        <v>Calibration No: CAL00003</v>
       </c>
       <c r="B246" s="43"/>
       <c r="C246" s="43"/>
@@ -7984,7 +8044,7 @@
       <c r="H246" s="43"/>
       <c r="I246" s="44" t="str">
         <f>I57</f>
-        <v>Calibration No: CAL00001</v>
+        <v>Calibration No: CAL00003</v>
       </c>
       <c r="J246" s="43"/>
       <c r="K246" s="43"/>
@@ -8004,63 +8064,63 @@
     </row>
     <row r="247" spans="1:20" s="60" customFormat="1"/>
     <row r="271" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A271" s="114" t="e">
+      <c r="A271" s="61" t="e">
         <f>"Figure 2: Calibration coefficients for "&amp;#REF! &amp; " serial number " &amp;#REF! &amp; " versus HVL (mm Al)"</f>
         <v>#REF!</v>
       </c>
-      <c r="B271" s="115"/>
-      <c r="C271" s="115"/>
-      <c r="D271" s="115"/>
-      <c r="E271" s="115"/>
-      <c r="F271" s="115"/>
-      <c r="G271" s="115"/>
-      <c r="H271" s="115"/>
-      <c r="I271" s="115"/>
-      <c r="J271" s="115"/>
-      <c r="K271" s="115"/>
-      <c r="L271" s="115"/>
-      <c r="M271" s="115"/>
-      <c r="N271" s="115"/>
-      <c r="O271" s="115"/>
-      <c r="P271" s="115"/>
-      <c r="Q271" s="115"/>
-      <c r="R271" s="115"/>
-      <c r="S271" s="115"/>
-      <c r="T271" s="115"/>
+      <c r="B271" s="62"/>
+      <c r="C271" s="62"/>
+      <c r="D271" s="62"/>
+      <c r="E271" s="62"/>
+      <c r="F271" s="62"/>
+      <c r="G271" s="62"/>
+      <c r="H271" s="62"/>
+      <c r="I271" s="62"/>
+      <c r="J271" s="62"/>
+      <c r="K271" s="62"/>
+      <c r="L271" s="62"/>
+      <c r="M271" s="62"/>
+      <c r="N271" s="62"/>
+      <c r="O271" s="62"/>
+      <c r="P271" s="62"/>
+      <c r="Q271" s="62"/>
+      <c r="R271" s="62"/>
+      <c r="S271" s="62"/>
+      <c r="T271" s="62"/>
     </row>
     <row r="298" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A298" s="114" t="e">
+      <c r="A298" s="61" t="e">
         <f>"Figure 3: Calibration coefficients for "&amp;#REF! &amp; " serial number " &amp;#REF! &amp; " versus HVL (mm Cu)"</f>
         <v>#REF!</v>
       </c>
-      <c r="B298" s="115"/>
-      <c r="C298" s="115"/>
-      <c r="D298" s="115"/>
-      <c r="E298" s="115"/>
-      <c r="F298" s="115"/>
-      <c r="G298" s="115"/>
-      <c r="H298" s="115"/>
-      <c r="I298" s="115"/>
-      <c r="J298" s="115"/>
-      <c r="K298" s="115"/>
-      <c r="L298" s="115"/>
-      <c r="M298" s="115"/>
-      <c r="N298" s="115"/>
-      <c r="O298" s="115"/>
-      <c r="P298" s="115"/>
-      <c r="Q298" s="115"/>
-      <c r="R298" s="115"/>
-      <c r="S298" s="115"/>
-      <c r="T298" s="115"/>
+      <c r="B298" s="62"/>
+      <c r="C298" s="62"/>
+      <c r="D298" s="62"/>
+      <c r="E298" s="62"/>
+      <c r="F298" s="62"/>
+      <c r="G298" s="62"/>
+      <c r="H298" s="62"/>
+      <c r="I298" s="62"/>
+      <c r="J298" s="62"/>
+      <c r="K298" s="62"/>
+      <c r="L298" s="62"/>
+      <c r="M298" s="62"/>
+      <c r="N298" s="62"/>
+      <c r="O298" s="62"/>
+      <c r="P298" s="62"/>
+      <c r="Q298" s="62"/>
+      <c r="R298" s="62"/>
+      <c r="S298" s="62"/>
+      <c r="T298" s="62"/>
     </row>
     <row r="303" spans="1:20" ht="14.1" customHeight="1"/>
     <row r="304" spans="1:20" s="47" customFormat="1"/>
     <row r="306" spans="1:20" ht="15" customHeight="1"/>
-    <row r="307" spans="1:20" ht="13.8" thickBot="1"/>
+    <row r="307" spans="1:20" ht="13.5" thickBot="1"/>
     <row r="308" spans="1:20">
       <c r="A308" s="42" t="str">
         <f>A57</f>
-        <v>Calibration No: CAL00001</v>
+        <v>Calibration No: CAL00003</v>
       </c>
       <c r="B308" s="43"/>
       <c r="C308" s="43"/>
@@ -8071,7 +8131,7 @@
       <c r="H308" s="43"/>
       <c r="I308" s="44" t="str">
         <f>I57</f>
-        <v>Calibration No: CAL00001</v>
+        <v>Calibration No: CAL00003</v>
       </c>
       <c r="J308" s="43"/>
       <c r="K308" s="43"/>
@@ -8091,6 +8151,793 @@
     </row>
   </sheetData>
   <mergeCells count="811">
+    <mergeCell ref="S197:T197"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="I197:J197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="O197:P197"/>
+    <mergeCell ref="Q197:R197"/>
+    <mergeCell ref="S128:T128"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="I150:J150"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="O150:P150"/>
+    <mergeCell ref="Q150:R150"/>
+    <mergeCell ref="S150:T150"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="O128:P128"/>
+    <mergeCell ref="Q128:R128"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="O129:P129"/>
+    <mergeCell ref="Q129:R129"/>
+    <mergeCell ref="S172:T172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="O167:P167"/>
+    <mergeCell ref="Q167:R167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="I168:J168"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="I169:J169"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="Q162:R162"/>
+    <mergeCell ref="S162:T162"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="I167:J167"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="I162:J162"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="I164:J164"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="O159:P159"/>
+    <mergeCell ref="Q159:R159"/>
+    <mergeCell ref="S159:T159"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="Q173:R173"/>
+    <mergeCell ref="S173:T173"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="O170:P170"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="O161:P161"/>
+    <mergeCell ref="Q169:R169"/>
+    <mergeCell ref="Q161:R161"/>
+    <mergeCell ref="S161:T161"/>
+    <mergeCell ref="S167:T167"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="O162:P162"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="O168:P168"/>
+    <mergeCell ref="Q168:R168"/>
+    <mergeCell ref="S168:T168"/>
+    <mergeCell ref="O157:P157"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="I196:J196"/>
+    <mergeCell ref="K196:L196"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="O196:P196"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="Q163:R163"/>
+    <mergeCell ref="S163:T163"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="O164:P164"/>
+    <mergeCell ref="Q164:R164"/>
+    <mergeCell ref="S164:T164"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="S165:T165"/>
+    <mergeCell ref="S166:T166"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="O173:P173"/>
+    <mergeCell ref="O155:P155"/>
+    <mergeCell ref="Q155:R155"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="Q154:R154"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="Q157:R157"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="O158:P158"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="S156:T156"/>
+    <mergeCell ref="S157:T157"/>
+    <mergeCell ref="A243:T243"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="M127:N127"/>
+    <mergeCell ref="O127:P127"/>
+    <mergeCell ref="B65:T65"/>
+    <mergeCell ref="B68:T68"/>
+    <mergeCell ref="B69:T69"/>
+    <mergeCell ref="B72:Q72"/>
+    <mergeCell ref="B75:Q75"/>
+    <mergeCell ref="Q196:R196"/>
+    <mergeCell ref="B82:T82"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="A108:T108"/>
+    <mergeCell ref="Q127:R127"/>
+    <mergeCell ref="S127:T127"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="S129:T129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="O130:P130"/>
+    <mergeCell ref="Q130:R130"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="O132:P132"/>
+    <mergeCell ref="Q132:R132"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="O131:P131"/>
+    <mergeCell ref="Q131:R131"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="O134:P134"/>
+    <mergeCell ref="Q134:R134"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="O133:P133"/>
+    <mergeCell ref="Q133:R133"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="K136:L136"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="O136:P136"/>
+    <mergeCell ref="Q136:R136"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="O135:P135"/>
+    <mergeCell ref="Q135:R135"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="O138:P138"/>
+    <mergeCell ref="Q138:R138"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="O137:P137"/>
+    <mergeCell ref="Q137:R137"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="S139:T139"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="I149:J149"/>
+    <mergeCell ref="K149:L149"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="O149:P149"/>
+    <mergeCell ref="Q149:R149"/>
+    <mergeCell ref="S149:T149"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="O139:P139"/>
+    <mergeCell ref="Q139:R139"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="Q151:R151"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="I153:J153"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="O153:P153"/>
+    <mergeCell ref="Q153:R153"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="O156:P156"/>
+    <mergeCell ref="Q156:R156"/>
+    <mergeCell ref="S151:T151"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="O152:P152"/>
+    <mergeCell ref="Q152:R152"/>
+    <mergeCell ref="S152:T152"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="I152:J152"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="O154:P154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="S160:T160"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="O160:P160"/>
+    <mergeCell ref="Q160:R160"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="O166:P166"/>
+    <mergeCell ref="Q166:R166"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="I165:J165"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="O165:P165"/>
+    <mergeCell ref="Q165:R165"/>
+    <mergeCell ref="S171:T171"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="I171:J171"/>
+    <mergeCell ref="K171:L171"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="O169:P169"/>
+    <mergeCell ref="S170:T170"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="O171:P171"/>
+    <mergeCell ref="Q170:R170"/>
+    <mergeCell ref="S169:T169"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="Q172:R172"/>
+    <mergeCell ref="Q171:R171"/>
+    <mergeCell ref="S174:T174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="O175:P175"/>
+    <mergeCell ref="Q175:R175"/>
+    <mergeCell ref="S175:T175"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="O174:P174"/>
+    <mergeCell ref="Q174:R174"/>
+    <mergeCell ref="S176:T176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="I177:J177"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="O177:P177"/>
+    <mergeCell ref="Q177:R177"/>
+    <mergeCell ref="S177:T177"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="I176:J176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="O176:P176"/>
+    <mergeCell ref="Q176:R176"/>
+    <mergeCell ref="S178:T178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="O179:P179"/>
+    <mergeCell ref="Q179:R179"/>
+    <mergeCell ref="S179:T179"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="M178:N178"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="Q178:R178"/>
+    <mergeCell ref="S180:T180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="I181:J181"/>
+    <mergeCell ref="K181:L181"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="O181:P181"/>
+    <mergeCell ref="Q181:R181"/>
+    <mergeCell ref="S181:T181"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="O180:P180"/>
+    <mergeCell ref="Q180:R180"/>
+    <mergeCell ref="S182:T182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="I183:J183"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="O183:P183"/>
+    <mergeCell ref="Q183:R183"/>
+    <mergeCell ref="S183:T183"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="O182:P182"/>
+    <mergeCell ref="Q182:R182"/>
+    <mergeCell ref="S184:T184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="O185:P185"/>
+    <mergeCell ref="Q185:R185"/>
+    <mergeCell ref="S185:T185"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="I184:J184"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="O184:P184"/>
+    <mergeCell ref="Q184:R184"/>
+    <mergeCell ref="S186:T186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="I187:J187"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="O187:P187"/>
+    <mergeCell ref="Q187:R187"/>
+    <mergeCell ref="S187:T187"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="O186:P186"/>
+    <mergeCell ref="Q186:R186"/>
+    <mergeCell ref="S188:T188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="I189:J189"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="O189:P189"/>
+    <mergeCell ref="Q189:R189"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="I188:J188"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="M188:N188"/>
+    <mergeCell ref="O188:P188"/>
+    <mergeCell ref="Q188:R188"/>
+    <mergeCell ref="S190:T190"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="I198:J198"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="O198:P198"/>
+    <mergeCell ref="Q198:R198"/>
+    <mergeCell ref="S198:T198"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="I190:J190"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="O190:P190"/>
+    <mergeCell ref="Q190:R190"/>
+    <mergeCell ref="S196:T196"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="S199:T199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="E200:F200"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="I200:J200"/>
+    <mergeCell ref="K200:L200"/>
+    <mergeCell ref="M200:N200"/>
+    <mergeCell ref="O200:P200"/>
+    <mergeCell ref="Q200:R200"/>
+    <mergeCell ref="S200:T200"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="I199:J199"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="M199:N199"/>
+    <mergeCell ref="O199:P199"/>
+    <mergeCell ref="Q199:R199"/>
+    <mergeCell ref="S201:T201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="I202:J202"/>
+    <mergeCell ref="K202:L202"/>
+    <mergeCell ref="M202:N202"/>
+    <mergeCell ref="O202:P202"/>
+    <mergeCell ref="Q202:R202"/>
+    <mergeCell ref="S202:T202"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="I201:J201"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="O201:P201"/>
+    <mergeCell ref="Q201:R201"/>
+    <mergeCell ref="S203:T203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="I204:J204"/>
+    <mergeCell ref="K204:L204"/>
+    <mergeCell ref="M204:N204"/>
+    <mergeCell ref="O204:P204"/>
+    <mergeCell ref="Q204:R204"/>
+    <mergeCell ref="S204:T204"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="I203:J203"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="O203:P203"/>
+    <mergeCell ref="Q203:R203"/>
+    <mergeCell ref="S205:T205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="I206:J206"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="O206:P206"/>
+    <mergeCell ref="Q206:R206"/>
+    <mergeCell ref="S206:T206"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="I205:J205"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="O205:P205"/>
+    <mergeCell ref="Q205:R205"/>
+    <mergeCell ref="S207:T207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="I208:J208"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M208:N208"/>
+    <mergeCell ref="O208:P208"/>
+    <mergeCell ref="Q208:R208"/>
+    <mergeCell ref="S208:T208"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="I207:J207"/>
+    <mergeCell ref="K207:L207"/>
+    <mergeCell ref="M207:N207"/>
+    <mergeCell ref="O207:P207"/>
+    <mergeCell ref="Q207:R207"/>
+    <mergeCell ref="S209:T209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="I210:J210"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="O210:P210"/>
+    <mergeCell ref="Q210:R210"/>
+    <mergeCell ref="S210:T210"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="I209:J209"/>
+    <mergeCell ref="K209:L209"/>
+    <mergeCell ref="M209:N209"/>
+    <mergeCell ref="O209:P209"/>
+    <mergeCell ref="Q209:R209"/>
+    <mergeCell ref="S211:T211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="I212:J212"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="M212:N212"/>
+    <mergeCell ref="O212:P212"/>
+    <mergeCell ref="Q212:R212"/>
+    <mergeCell ref="S212:T212"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="I211:J211"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="O211:P211"/>
+    <mergeCell ref="Q211:R211"/>
+    <mergeCell ref="S213:T213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="G214:H214"/>
+    <mergeCell ref="I214:J214"/>
+    <mergeCell ref="K214:L214"/>
+    <mergeCell ref="M214:N214"/>
+    <mergeCell ref="O214:P214"/>
+    <mergeCell ref="Q214:R214"/>
+    <mergeCell ref="S214:T214"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="I213:J213"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="M213:N213"/>
+    <mergeCell ref="O213:P213"/>
+    <mergeCell ref="Q213:R213"/>
+    <mergeCell ref="S215:T215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="I216:J216"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="M216:N216"/>
+    <mergeCell ref="O216:P216"/>
+    <mergeCell ref="Q216:R216"/>
+    <mergeCell ref="S216:T216"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="I215:J215"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="M215:N215"/>
+    <mergeCell ref="O215:P215"/>
+    <mergeCell ref="Q215:R215"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="I217:J217"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="M217:N217"/>
+    <mergeCell ref="O217:P217"/>
+    <mergeCell ref="Q217:R217"/>
+    <mergeCell ref="A7:T7"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="A59:T59"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="A17:T17"/>
+    <mergeCell ref="B79:T79"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="T29:T41"/>
     <mergeCell ref="A271:T271"/>
     <mergeCell ref="A298:T298"/>
     <mergeCell ref="Q219:R219"/>
@@ -8115,793 +8962,6 @@
     <mergeCell ref="K218:L218"/>
     <mergeCell ref="M218:N218"/>
     <mergeCell ref="O218:P218"/>
-    <mergeCell ref="A7:T7"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="A59:T59"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="A17:T17"/>
-    <mergeCell ref="B79:T79"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="T29:T41"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="I217:J217"/>
-    <mergeCell ref="K217:L217"/>
-    <mergeCell ref="M217:N217"/>
-    <mergeCell ref="O217:P217"/>
-    <mergeCell ref="Q217:R217"/>
-    <mergeCell ref="S215:T215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="I216:J216"/>
-    <mergeCell ref="K216:L216"/>
-    <mergeCell ref="M216:N216"/>
-    <mergeCell ref="O216:P216"/>
-    <mergeCell ref="Q216:R216"/>
-    <mergeCell ref="S216:T216"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="G215:H215"/>
-    <mergeCell ref="I215:J215"/>
-    <mergeCell ref="K215:L215"/>
-    <mergeCell ref="M215:N215"/>
-    <mergeCell ref="O215:P215"/>
-    <mergeCell ref="Q215:R215"/>
-    <mergeCell ref="S213:T213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="G214:H214"/>
-    <mergeCell ref="I214:J214"/>
-    <mergeCell ref="K214:L214"/>
-    <mergeCell ref="M214:N214"/>
-    <mergeCell ref="O214:P214"/>
-    <mergeCell ref="Q214:R214"/>
-    <mergeCell ref="S214:T214"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="I213:J213"/>
-    <mergeCell ref="K213:L213"/>
-    <mergeCell ref="M213:N213"/>
-    <mergeCell ref="O213:P213"/>
-    <mergeCell ref="Q213:R213"/>
-    <mergeCell ref="S211:T211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="I212:J212"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="M212:N212"/>
-    <mergeCell ref="O212:P212"/>
-    <mergeCell ref="Q212:R212"/>
-    <mergeCell ref="S212:T212"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="I211:J211"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="O211:P211"/>
-    <mergeCell ref="Q211:R211"/>
-    <mergeCell ref="S209:T209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="I210:J210"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="O210:P210"/>
-    <mergeCell ref="Q210:R210"/>
-    <mergeCell ref="S210:T210"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="I209:J209"/>
-    <mergeCell ref="K209:L209"/>
-    <mergeCell ref="M209:N209"/>
-    <mergeCell ref="O209:P209"/>
-    <mergeCell ref="Q209:R209"/>
-    <mergeCell ref="S207:T207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="I208:J208"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M208:N208"/>
-    <mergeCell ref="O208:P208"/>
-    <mergeCell ref="Q208:R208"/>
-    <mergeCell ref="S208:T208"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="I207:J207"/>
-    <mergeCell ref="K207:L207"/>
-    <mergeCell ref="M207:N207"/>
-    <mergeCell ref="O207:P207"/>
-    <mergeCell ref="Q207:R207"/>
-    <mergeCell ref="S205:T205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="I206:J206"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="O206:P206"/>
-    <mergeCell ref="Q206:R206"/>
-    <mergeCell ref="S206:T206"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="I205:J205"/>
-    <mergeCell ref="K205:L205"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="O205:P205"/>
-    <mergeCell ref="Q205:R205"/>
-    <mergeCell ref="S203:T203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="I204:J204"/>
-    <mergeCell ref="K204:L204"/>
-    <mergeCell ref="M204:N204"/>
-    <mergeCell ref="O204:P204"/>
-    <mergeCell ref="Q204:R204"/>
-    <mergeCell ref="S204:T204"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="I203:J203"/>
-    <mergeCell ref="K203:L203"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="O203:P203"/>
-    <mergeCell ref="Q203:R203"/>
-    <mergeCell ref="S201:T201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="I202:J202"/>
-    <mergeCell ref="K202:L202"/>
-    <mergeCell ref="M202:N202"/>
-    <mergeCell ref="O202:P202"/>
-    <mergeCell ref="Q202:R202"/>
-    <mergeCell ref="S202:T202"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="I201:J201"/>
-    <mergeCell ref="K201:L201"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="O201:P201"/>
-    <mergeCell ref="Q201:R201"/>
-    <mergeCell ref="S199:T199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="E200:F200"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="I200:J200"/>
-    <mergeCell ref="K200:L200"/>
-    <mergeCell ref="M200:N200"/>
-    <mergeCell ref="O200:P200"/>
-    <mergeCell ref="Q200:R200"/>
-    <mergeCell ref="S200:T200"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="I199:J199"/>
-    <mergeCell ref="K199:L199"/>
-    <mergeCell ref="M199:N199"/>
-    <mergeCell ref="O199:P199"/>
-    <mergeCell ref="Q199:R199"/>
-    <mergeCell ref="S190:T190"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="I198:J198"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="O198:P198"/>
-    <mergeCell ref="Q198:R198"/>
-    <mergeCell ref="S198:T198"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="I190:J190"/>
-    <mergeCell ref="K190:L190"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="O190:P190"/>
-    <mergeCell ref="Q190:R190"/>
-    <mergeCell ref="S196:T196"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="S188:T188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="I189:J189"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="O189:P189"/>
-    <mergeCell ref="Q189:R189"/>
-    <mergeCell ref="S189:T189"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="I188:J188"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="M188:N188"/>
-    <mergeCell ref="O188:P188"/>
-    <mergeCell ref="Q188:R188"/>
-    <mergeCell ref="S186:T186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="I187:J187"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="O187:P187"/>
-    <mergeCell ref="Q187:R187"/>
-    <mergeCell ref="S187:T187"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="O186:P186"/>
-    <mergeCell ref="Q186:R186"/>
-    <mergeCell ref="S184:T184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="O185:P185"/>
-    <mergeCell ref="Q185:R185"/>
-    <mergeCell ref="S185:T185"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="I184:J184"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="O184:P184"/>
-    <mergeCell ref="Q184:R184"/>
-    <mergeCell ref="S182:T182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="I183:J183"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="O183:P183"/>
-    <mergeCell ref="Q183:R183"/>
-    <mergeCell ref="S183:T183"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="K182:L182"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="O182:P182"/>
-    <mergeCell ref="Q182:R182"/>
-    <mergeCell ref="S180:T180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="I181:J181"/>
-    <mergeCell ref="K181:L181"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="O181:P181"/>
-    <mergeCell ref="Q181:R181"/>
-    <mergeCell ref="S181:T181"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="O180:P180"/>
-    <mergeCell ref="Q180:R180"/>
-    <mergeCell ref="S178:T178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="M179:N179"/>
-    <mergeCell ref="O179:P179"/>
-    <mergeCell ref="Q179:R179"/>
-    <mergeCell ref="S179:T179"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="K178:L178"/>
-    <mergeCell ref="M178:N178"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="Q178:R178"/>
-    <mergeCell ref="S176:T176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="I177:J177"/>
-    <mergeCell ref="K177:L177"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="O177:P177"/>
-    <mergeCell ref="Q177:R177"/>
-    <mergeCell ref="S177:T177"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="I176:J176"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="O176:P176"/>
-    <mergeCell ref="Q176:R176"/>
-    <mergeCell ref="S174:T174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="I175:J175"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="O175:P175"/>
-    <mergeCell ref="Q175:R175"/>
-    <mergeCell ref="S175:T175"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="O174:P174"/>
-    <mergeCell ref="Q174:R174"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="Q172:R172"/>
-    <mergeCell ref="Q171:R171"/>
-    <mergeCell ref="S171:T171"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="I171:J171"/>
-    <mergeCell ref="K171:L171"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="O169:P169"/>
-    <mergeCell ref="S170:T170"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="O171:P171"/>
-    <mergeCell ref="Q170:R170"/>
-    <mergeCell ref="S169:T169"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="I165:J165"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="O165:P165"/>
-    <mergeCell ref="Q165:R165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="O166:P166"/>
-    <mergeCell ref="Q166:R166"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="S160:T160"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="O160:P160"/>
-    <mergeCell ref="Q160:R160"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="K156:L156"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="O156:P156"/>
-    <mergeCell ref="Q156:R156"/>
-    <mergeCell ref="S151:T151"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="O152:P152"/>
-    <mergeCell ref="Q152:R152"/>
-    <mergeCell ref="S152:T152"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="K155:L155"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="I152:J152"/>
-    <mergeCell ref="K152:L152"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="O154:P154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="I153:J153"/>
-    <mergeCell ref="K153:L153"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="O153:P153"/>
-    <mergeCell ref="Q153:R153"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="Q151:R151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="S139:T139"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="I149:J149"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="O149:P149"/>
-    <mergeCell ref="Q149:R149"/>
-    <mergeCell ref="S149:T149"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="O139:P139"/>
-    <mergeCell ref="Q139:R139"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="K138:L138"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="O138:P138"/>
-    <mergeCell ref="Q138:R138"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="K137:L137"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="O137:P137"/>
-    <mergeCell ref="Q137:R137"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="K136:L136"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="O136:P136"/>
-    <mergeCell ref="Q136:R136"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="K135:L135"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="O135:P135"/>
-    <mergeCell ref="Q135:R135"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="K134:L134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="O134:P134"/>
-    <mergeCell ref="Q134:R134"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="K133:L133"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="O133:P133"/>
-    <mergeCell ref="Q133:R133"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="O132:P132"/>
-    <mergeCell ref="Q132:R132"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="O131:P131"/>
-    <mergeCell ref="Q131:R131"/>
-    <mergeCell ref="S129:T129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="O130:P130"/>
-    <mergeCell ref="Q130:R130"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="A243:T243"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="M127:N127"/>
-    <mergeCell ref="O127:P127"/>
-    <mergeCell ref="B65:T65"/>
-    <mergeCell ref="B68:T68"/>
-    <mergeCell ref="B69:T69"/>
-    <mergeCell ref="B72:Q72"/>
-    <mergeCell ref="B75:Q75"/>
-    <mergeCell ref="Q196:R196"/>
-    <mergeCell ref="B82:T82"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="A108:T108"/>
-    <mergeCell ref="Q127:R127"/>
-    <mergeCell ref="S127:T127"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="O155:P155"/>
-    <mergeCell ref="Q155:R155"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="Q154:R154"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="Q157:R157"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="O158:P158"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="S156:T156"/>
-    <mergeCell ref="S157:T157"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="O168:P168"/>
-    <mergeCell ref="Q168:R168"/>
-    <mergeCell ref="S168:T168"/>
-    <mergeCell ref="O157:P157"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="I196:J196"/>
-    <mergeCell ref="K196:L196"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="O196:P196"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="Q163:R163"/>
-    <mergeCell ref="S163:T163"/>
-    <mergeCell ref="K164:L164"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="O164:P164"/>
-    <mergeCell ref="Q164:R164"/>
-    <mergeCell ref="S164:T164"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="S165:T165"/>
-    <mergeCell ref="S166:T166"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="O173:P173"/>
-    <mergeCell ref="Q173:R173"/>
-    <mergeCell ref="S173:T173"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="O170:P170"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="O161:P161"/>
-    <mergeCell ref="Q169:R169"/>
-    <mergeCell ref="Q161:R161"/>
-    <mergeCell ref="S161:T161"/>
-    <mergeCell ref="S167:T167"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="I170:J170"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="O162:P162"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="O159:P159"/>
-    <mergeCell ref="Q159:R159"/>
-    <mergeCell ref="S159:T159"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="I157:J157"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="Q162:R162"/>
-    <mergeCell ref="S162:T162"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="I167:J167"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="I164:J164"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="S172:T172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="O167:P167"/>
-    <mergeCell ref="Q167:R167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="I168:J168"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="I169:J169"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="S128:T128"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="I150:J150"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="O150:P150"/>
-    <mergeCell ref="Q150:R150"/>
-    <mergeCell ref="S150:T150"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="O128:P128"/>
-    <mergeCell ref="Q128:R128"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="O129:P129"/>
-    <mergeCell ref="Q129:R129"/>
-    <mergeCell ref="S197:T197"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="I197:J197"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="O197:P197"/>
-    <mergeCell ref="Q197:R197"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.62990000000000002" right="0.62990000000000002" top="0.3543" bottom="0.5" header="0.31490000000000001" footer="0.31490000000000001"/>

--- a/app/core/testing.xlsx
+++ b/app/core/testing.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="193">
   <si>
     <t>Primary Standards Dosimetry Laboratory,  Medical Radiation Services</t>
   </si>
@@ -365,51 +365,63 @@
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>CAL00003</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClientC_Name</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calibrated by: ClientC_Name</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>555 Street Name</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>Suburb ACT 1020</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE 2571 3661</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>NE 2571 3661</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 Feb 2021 to 17 Feb 2021</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 Feb 2021 to 17 Feb 2021</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chris Oliver</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">05 Oct 2021 </t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>(-300) on the guard electrode Positive (Central Electrode Negative)</t>
+    <t>CAL00001</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientA_Name</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibrated by: ClientA_Name</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>200 Street Name</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suburb NSW 2020</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTW 30013 5122</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Feb 2021 to 01 Mar 2021</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duncan Butler</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-250) on the guard electrode Positive (Central Electrode Negative)</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXI250</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibration No: CAL00001</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTW 30013 5122</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Feb 2021 to 01 Mar 2021</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duncan Butler</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
@@ -477,6 +489,10 @@
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
+    <t>NXA50</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
     <t>NXB50</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
@@ -561,6 +577,10 @@
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
+    <t>NXC120</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
     <t>NXD120</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
@@ -577,6 +597,10 @@
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
+    <t>NXD140</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
     <t>NXE140</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
@@ -641,10 +665,6 @@
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>NXI250</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
     <t>NXF280</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
@@ -689,11 +709,7 @@
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
-    <t>NXH300*</t>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <t>Calibration No: CAL00003</t>
+    <t>Calibration No: CAL00001</t>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
 </sst>
@@ -2856,7 +2872,7 @@
       <c r="R13" s="48"/>
       <c r="S13" s="48"/>
       <c r="T13" s="49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.1" customHeight="1">
@@ -2984,7 +3000,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
@@ -3007,7 +3023,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
@@ -3030,7 +3046,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
@@ -3097,7 +3113,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="51" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="51"/>
@@ -3236,7 +3252,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H31" s="51"/>
       <c r="I31" s="51"/>
@@ -3261,7 +3277,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="51" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="51"/>
@@ -3286,7 +3302,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="52" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H33" s="51"/>
       <c r="I33" s="51"/>
@@ -3612,7 +3628,7 @@
     </row>
     <row r="57" spans="1:20" ht="14.1" customHeight="1">
       <c r="A57" s="53" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
@@ -3622,7 +3638,7 @@
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="55" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J57" s="54"/>
       <c r="K57" s="18"/>
@@ -4151,7 +4167,7 @@
     <row r="101" spans="1:21" ht="12" customHeight="1">
       <c r="A101" s="42" t="str">
         <f>A57</f>
-        <v>Calibration No: CAL00003</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
@@ -4162,7 +4178,7 @@
       <c r="H101" s="43"/>
       <c r="I101" s="44" t="str">
         <f>I57</f>
-        <v>Calibration No: CAL00003</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="J101" s="43"/>
       <c r="K101" s="43"/>
@@ -4255,7 +4271,7 @@
       <c r="D110" s="26"/>
       <c r="E110" s="26"/>
       <c r="G110" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H110" s="48"/>
       <c r="I110" s="48"/>
@@ -4299,7 +4315,7 @@
       <c r="D112" s="26"/>
       <c r="E112" s="26"/>
       <c r="G112" s="48">
-        <v>-300</v>
+        <v>-250</v>
       </c>
       <c r="H112" s="48"/>
       <c r="I112" s="48"/>
@@ -4321,7 +4337,7 @@
       <c r="D113" s="26"/>
       <c r="E113" s="26"/>
       <c r="G113" s="58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H113" s="48"/>
       <c r="I113" s="48"/>
@@ -4530,7 +4546,7 @@
       <c r="D123" s="26"/>
       <c r="E123" s="26"/>
       <c r="G123" s="48" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H123" s="48"/>
       <c r="I123" s="48"/>
@@ -4688,7 +4704,7 @@
     </row>
     <row r="129" spans="1:20" ht="20.25" customHeight="1">
       <c r="A129" s="161" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B129" s="91"/>
       <c r="C129" s="161">
@@ -4718,7 +4734,7 @@
       </c>
       <c r="P129" s="91"/>
       <c r="Q129" s="168">
-        <v>42.91</v>
+        <v>46.6</v>
       </c>
       <c r="R129" s="107"/>
       <c r="S129" s="155">
@@ -4728,7 +4744,7 @@
     </row>
     <row r="130" spans="1:20" ht="20.25" customHeight="1">
       <c r="A130" s="145" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B130" s="93"/>
       <c r="C130" s="145">
@@ -4758,7 +4774,7 @@
       </c>
       <c r="P130" s="93"/>
       <c r="Q130" s="149">
-        <v>42.67</v>
+        <v>46.74</v>
       </c>
       <c r="R130" s="100"/>
       <c r="S130" s="146">
@@ -4768,7 +4784,7 @@
     </row>
     <row r="131" spans="1:20" ht="20.25" customHeight="1">
       <c r="A131" s="150" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B131" s="93"/>
       <c r="C131" s="150">
@@ -4798,7 +4814,7 @@
       </c>
       <c r="P131" s="93"/>
       <c r="Q131" s="149">
-        <v>42.38</v>
+        <v>46.94</v>
       </c>
       <c r="R131" s="100"/>
       <c r="S131" s="143">
@@ -4808,7 +4824,7 @@
     </row>
     <row r="132" spans="1:20" ht="20.25" customHeight="1">
       <c r="A132" s="145" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B132" s="93"/>
       <c r="C132" s="145">
@@ -4838,7 +4854,7 @@
       </c>
       <c r="P132" s="93"/>
       <c r="Q132" s="149">
-        <v>42.12</v>
+        <v>47.12</v>
       </c>
       <c r="R132" s="100"/>
       <c r="S132" s="146">
@@ -4848,7 +4864,7 @@
     </row>
     <row r="133" spans="1:20" ht="20.25" customHeight="1">
       <c r="A133" s="150" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B133" s="93"/>
       <c r="C133" s="150">
@@ -4878,7 +4894,7 @@
       </c>
       <c r="P133" s="93"/>
       <c r="Q133" s="149">
-        <v>41.88</v>
+        <v>47.32</v>
       </c>
       <c r="R133" s="100"/>
       <c r="S133" s="143">
@@ -4888,7 +4904,7 @@
     </row>
     <row r="134" spans="1:20" ht="20.25" customHeight="1">
       <c r="A134" s="145" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B134" s="93"/>
       <c r="C134" s="145">
@@ -4918,7 +4934,7 @@
       </c>
       <c r="P134" s="93"/>
       <c r="Q134" s="149">
-        <v>41.54</v>
+        <v>47.63</v>
       </c>
       <c r="R134" s="100"/>
       <c r="S134" s="146">
@@ -4928,7 +4944,7 @@
     </row>
     <row r="135" spans="1:20" ht="20.25" customHeight="1">
       <c r="A135" s="150" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B135" s="93"/>
       <c r="C135" s="150">
@@ -4958,7 +4974,7 @@
       </c>
       <c r="P135" s="93"/>
       <c r="Q135" s="149">
-        <v>41.25</v>
+        <v>47.78</v>
       </c>
       <c r="R135" s="100"/>
       <c r="S135" s="143">
@@ -4968,7 +4984,7 @@
     </row>
     <row r="136" spans="1:20" ht="20.25" customHeight="1">
       <c r="A136" s="145" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B136" s="93"/>
       <c r="C136" s="145">
@@ -4998,7 +5014,7 @@
       </c>
       <c r="P136" s="93"/>
       <c r="Q136" s="149">
-        <v>41.09</v>
+        <v>47.82</v>
       </c>
       <c r="R136" s="100"/>
       <c r="S136" s="146">
@@ -5008,7 +5024,7 @@
     </row>
     <row r="137" spans="1:20" ht="20.25" customHeight="1">
       <c r="A137" s="150" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B137" s="93"/>
       <c r="C137" s="150">
@@ -5038,7 +5054,7 @@
       </c>
       <c r="P137" s="93"/>
       <c r="Q137" s="149">
-        <v>40.950000000000003</v>
+        <v>47.84</v>
       </c>
       <c r="R137" s="100"/>
       <c r="S137" s="143">
@@ -5048,7 +5064,7 @@
     </row>
     <row r="138" spans="1:20" ht="20.25" customHeight="1">
       <c r="A138" s="144" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B138" s="115"/>
       <c r="C138" s="145">
@@ -5078,7 +5094,7 @@
       </c>
       <c r="P138" s="93"/>
       <c r="Q138" s="149">
-        <v>40.880000000000003</v>
+        <v>47.76</v>
       </c>
       <c r="R138" s="100"/>
       <c r="S138" s="146">
@@ -5088,7 +5104,7 @@
     </row>
     <row r="139" spans="1:20" ht="14.1" customHeight="1">
       <c r="A139" s="139" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B139" s="66"/>
       <c r="C139" s="139">
@@ -5118,7 +5134,7 @@
       </c>
       <c r="P139" s="66"/>
       <c r="Q139" s="142">
-        <v>41.01</v>
+        <v>47.85</v>
       </c>
       <c r="R139" s="64"/>
       <c r="S139" s="136">
@@ -5202,7 +5218,7 @@
       <c r="J143" s="26"/>
       <c r="K143" s="26"/>
       <c r="L143" s="59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M143" s="59"/>
       <c r="N143" s="59"/>
@@ -5216,7 +5232,7 @@
     <row r="145" spans="1:21" ht="14.45" customHeight="1">
       <c r="A145" s="42" t="str">
         <f>A57</f>
-        <v>Calibration No: CAL00003</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="B145" s="43"/>
       <c r="C145" s="43"/>
@@ -5227,7 +5243,7 @@
       <c r="H145" s="43"/>
       <c r="I145" s="44" t="str">
         <f>I57</f>
-        <v>Calibration No: CAL00003</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="J145" s="43"/>
       <c r="K145" s="43"/>
@@ -5374,7 +5390,7 @@
     </row>
     <row r="151" spans="1:21" ht="14.25" customHeight="1">
       <c r="A151" s="116" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B151" s="91"/>
       <c r="C151" s="116">
@@ -5402,7 +5418,7 @@
       </c>
       <c r="P151" s="91"/>
       <c r="Q151" s="106">
-        <v>45.7</v>
+        <v>51.03</v>
       </c>
       <c r="R151" s="107"/>
       <c r="S151" s="117">
@@ -5412,7 +5428,7 @@
     </row>
     <row r="152" spans="1:21" ht="14.25" customHeight="1">
       <c r="A152" s="109" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B152" s="93"/>
       <c r="C152" s="109">
@@ -5440,7 +5456,7 @@
       </c>
       <c r="P152" s="93"/>
       <c r="Q152" s="99">
-        <v>44.29</v>
+        <v>48.78</v>
       </c>
       <c r="R152" s="100"/>
       <c r="S152" s="108">
@@ -5450,7 +5466,7 @@
     </row>
     <row r="153" spans="1:21" ht="14.25" customHeight="1">
       <c r="A153" s="129" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B153" s="115"/>
       <c r="C153" s="129">
@@ -5480,7 +5496,7 @@
       </c>
       <c r="P153" s="115"/>
       <c r="Q153" s="127">
-        <v>43.07</v>
+        <v>46.72</v>
       </c>
       <c r="R153" s="128"/>
       <c r="S153" s="130">
@@ -5490,7 +5506,7 @@
     </row>
     <row r="154" spans="1:21" ht="14.25" customHeight="1">
       <c r="A154" s="101" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B154" s="91"/>
       <c r="C154" s="101">
@@ -5518,7 +5534,7 @@
       </c>
       <c r="P154" s="91"/>
       <c r="Q154" s="106">
-        <v>45.19</v>
+        <v>50.26</v>
       </c>
       <c r="R154" s="107"/>
       <c r="S154" s="90">
@@ -5528,7 +5544,7 @@
     </row>
     <row r="155" spans="1:21" ht="14.25" customHeight="1">
       <c r="A155" s="92" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B155" s="93"/>
       <c r="C155" s="92">
@@ -5556,7 +5572,7 @@
       </c>
       <c r="P155" s="93"/>
       <c r="Q155" s="99">
-        <v>44</v>
+        <v>48.32</v>
       </c>
       <c r="R155" s="100"/>
       <c r="S155" s="94">
@@ -5566,7 +5582,7 @@
     </row>
     <row r="156" spans="1:21" ht="14.25" customHeight="1">
       <c r="A156" s="109" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B156" s="93"/>
       <c r="C156" s="109">
@@ -5596,7 +5612,7 @@
       </c>
       <c r="P156" s="93"/>
       <c r="Q156" s="99">
-        <v>42.91</v>
+        <v>46.6</v>
       </c>
       <c r="R156" s="100"/>
       <c r="S156" s="108">
@@ -5606,7 +5622,7 @@
     </row>
     <row r="157" spans="1:21" ht="14.25" customHeight="1">
       <c r="A157" s="129" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B157" s="115"/>
       <c r="C157" s="129">
@@ -5636,7 +5652,7 @@
       </c>
       <c r="P157" s="115"/>
       <c r="Q157" s="127">
-        <v>42.86</v>
+        <v>46.51</v>
       </c>
       <c r="R157" s="128"/>
       <c r="S157" s="130">
@@ -5646,7 +5662,7 @@
     </row>
     <row r="158" spans="1:21" ht="14.25" customHeight="1">
       <c r="A158" s="101" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B158" s="91"/>
       <c r="C158" s="101">
@@ -5674,7 +5690,7 @@
       </c>
       <c r="P158" s="91"/>
       <c r="Q158" s="106">
-        <v>44.83</v>
+        <v>49.76</v>
       </c>
       <c r="R158" s="107"/>
       <c r="S158" s="90">
@@ -5684,7 +5700,7 @@
     </row>
     <row r="159" spans="1:21" ht="14.25" customHeight="1">
       <c r="A159" s="92" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B159" s="93"/>
       <c r="C159" s="92">
@@ -5712,7 +5728,7 @@
       </c>
       <c r="P159" s="93"/>
       <c r="Q159" s="99">
-        <v>43.78</v>
+        <v>48.06</v>
       </c>
       <c r="R159" s="100"/>
       <c r="S159" s="94">
@@ -5722,7 +5738,7 @@
     </row>
     <row r="160" spans="1:21" ht="14.25" customHeight="1">
       <c r="A160" s="122" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B160" s="115"/>
       <c r="C160" s="122">
@@ -5752,7 +5768,7 @@
       </c>
       <c r="P160" s="115"/>
       <c r="Q160" s="127">
-        <v>42.75</v>
+        <v>46.7</v>
       </c>
       <c r="R160" s="128"/>
       <c r="S160" s="114">
@@ -5762,7 +5778,7 @@
     </row>
     <row r="161" spans="1:20" ht="14.25" customHeight="1">
       <c r="A161" s="116" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B161" s="91"/>
       <c r="C161" s="116">
@@ -5790,7 +5806,7 @@
       </c>
       <c r="P161" s="91"/>
       <c r="Q161" s="106">
-        <v>44.53</v>
+        <v>49.35</v>
       </c>
       <c r="R161" s="107"/>
       <c r="S161" s="117">
@@ -5800,7 +5816,7 @@
     </row>
     <row r="162" spans="1:20" ht="14.25" customHeight="1">
       <c r="A162" s="109" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B162" s="93"/>
       <c r="C162" s="109">
@@ -5828,7 +5844,7 @@
       </c>
       <c r="P162" s="93"/>
       <c r="Q162" s="99">
-        <v>43.59</v>
+        <v>47.87</v>
       </c>
       <c r="R162" s="100"/>
       <c r="S162" s="108">
@@ -5838,7 +5854,7 @@
     </row>
     <row r="163" spans="1:20" ht="14.25" customHeight="1">
       <c r="A163" s="92" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B163" s="93"/>
       <c r="C163" s="92">
@@ -5868,7 +5884,7 @@
       </c>
       <c r="P163" s="93"/>
       <c r="Q163" s="99">
-        <v>42.67</v>
+        <v>46.74</v>
       </c>
       <c r="R163" s="100"/>
       <c r="S163" s="94">
@@ -5878,7 +5894,7 @@
     </row>
     <row r="164" spans="1:20" ht="14.25" customHeight="1">
       <c r="A164" s="109" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B164" s="93"/>
       <c r="C164" s="109">
@@ -5908,7 +5924,7 @@
       </c>
       <c r="P164" s="93"/>
       <c r="Q164" s="99">
-        <v>42.66</v>
+        <v>46.7</v>
       </c>
       <c r="R164" s="100"/>
       <c r="S164" s="108">
@@ -5918,7 +5934,7 @@
     </row>
     <row r="165" spans="1:20" ht="14.25" customHeight="1">
       <c r="A165" s="92" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B165" s="93"/>
       <c r="C165" s="92">
@@ -5948,7 +5964,7 @@
       </c>
       <c r="P165" s="93"/>
       <c r="Q165" s="99">
-        <v>42.52</v>
+        <v>46.63</v>
       </c>
       <c r="R165" s="100"/>
       <c r="S165" s="94">
@@ -5958,7 +5974,7 @@
     </row>
     <row r="166" spans="1:20" ht="14.25" customHeight="1">
       <c r="A166" s="101" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B166" s="91"/>
       <c r="C166" s="101">
@@ -5986,7 +6002,7 @@
       </c>
       <c r="P166" s="91"/>
       <c r="Q166" s="106">
-        <v>44.27</v>
+        <v>49.06</v>
       </c>
       <c r="R166" s="107"/>
       <c r="S166" s="90">
@@ -5996,7 +6012,7 @@
     </row>
     <row r="167" spans="1:20" ht="14.25" customHeight="1">
       <c r="A167" s="92" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B167" s="93"/>
       <c r="C167" s="92">
@@ -6024,7 +6040,7 @@
       </c>
       <c r="P167" s="93"/>
       <c r="Q167" s="99">
-        <v>43.39</v>
+        <v>47.74</v>
       </c>
       <c r="R167" s="100"/>
       <c r="S167" s="94">
@@ -6034,7 +6050,7 @@
     </row>
     <row r="168" spans="1:20" ht="14.25" customHeight="1">
       <c r="A168" s="122" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B168" s="115"/>
       <c r="C168" s="122">
@@ -6064,7 +6080,7 @@
       </c>
       <c r="P168" s="115"/>
       <c r="Q168" s="127">
-        <v>42.6</v>
+        <v>46.8</v>
       </c>
       <c r="R168" s="128"/>
       <c r="S168" s="114">
@@ -6074,7 +6090,7 @@
     </row>
     <row r="169" spans="1:20" ht="14.25" customHeight="1">
       <c r="A169" s="116" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B169" s="91"/>
       <c r="C169" s="116">
@@ -6102,7 +6118,7 @@
       </c>
       <c r="P169" s="91"/>
       <c r="Q169" s="106">
-        <v>44.05</v>
+        <v>48.8</v>
       </c>
       <c r="R169" s="107"/>
       <c r="S169" s="117">
@@ -6112,7 +6128,7 @@
     </row>
     <row r="170" spans="1:20" ht="14.25" customHeight="1">
       <c r="A170" s="109" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B170" s="93"/>
       <c r="C170" s="109">
@@ -6140,7 +6156,7 @@
       </c>
       <c r="P170" s="93"/>
       <c r="Q170" s="99">
-        <v>43.27</v>
+        <v>47.61</v>
       </c>
       <c r="R170" s="100"/>
       <c r="S170" s="108">
@@ -6150,7 +6166,7 @@
     </row>
     <row r="171" spans="1:20" ht="14.25" customHeight="1">
       <c r="A171" s="92" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B171" s="93"/>
       <c r="C171" s="92">
@@ -6180,7 +6196,7 @@
       </c>
       <c r="P171" s="93"/>
       <c r="Q171" s="99">
-        <v>42.49</v>
+        <v>46.89</v>
       </c>
       <c r="R171" s="100"/>
       <c r="S171" s="94">
@@ -6190,7 +6206,7 @@
     </row>
     <row r="172" spans="1:20" ht="14.25" customHeight="1">
       <c r="A172" s="101" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B172" s="91"/>
       <c r="C172" s="101">
@@ -6218,7 +6234,7 @@
       </c>
       <c r="P172" s="91"/>
       <c r="Q172" s="106">
-        <v>43.83</v>
+        <v>48.59</v>
       </c>
       <c r="R172" s="107"/>
       <c r="S172" s="90">
@@ -6228,7 +6244,7 @@
     </row>
     <row r="173" spans="1:20" ht="14.25" customHeight="1">
       <c r="A173" s="92" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B173" s="93"/>
       <c r="C173" s="92">
@@ -6256,7 +6272,7 @@
       </c>
       <c r="P173" s="93"/>
       <c r="Q173" s="99">
-        <v>43.11</v>
+        <v>47.54</v>
       </c>
       <c r="R173" s="100"/>
       <c r="S173" s="94">
@@ -6266,7 +6282,7 @@
     </row>
     <row r="174" spans="1:20" ht="14.25" customHeight="1">
       <c r="A174" s="109" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B174" s="93"/>
       <c r="C174" s="109">
@@ -6296,7 +6312,7 @@
       </c>
       <c r="P174" s="93"/>
       <c r="Q174" s="99">
-        <v>42.38</v>
+        <v>46.94</v>
       </c>
       <c r="R174" s="100"/>
       <c r="S174" s="108">
@@ -6306,7 +6322,7 @@
     </row>
     <row r="175" spans="1:20" ht="14.25" customHeight="1">
       <c r="A175" s="92" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B175" s="93"/>
       <c r="C175" s="92">
@@ -6336,7 +6352,7 @@
       </c>
       <c r="P175" s="93"/>
       <c r="Q175" s="99">
-        <v>42.3</v>
+        <v>47.02</v>
       </c>
       <c r="R175" s="100"/>
       <c r="S175" s="94">
@@ -6346,7 +6362,7 @@
     </row>
     <row r="176" spans="1:20" ht="14.25" customHeight="1">
       <c r="A176" s="122" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B176" s="115"/>
       <c r="C176" s="122">
@@ -6376,7 +6392,7 @@
       </c>
       <c r="P176" s="115"/>
       <c r="Q176" s="127">
-        <v>42.17</v>
+        <v>47.12</v>
       </c>
       <c r="R176" s="128"/>
       <c r="S176" s="114">
@@ -6386,7 +6402,7 @@
     </row>
     <row r="177" spans="1:20" ht="14.25" customHeight="1">
       <c r="A177" s="92" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B177" s="93"/>
       <c r="C177" s="92">
@@ -6416,7 +6432,7 @@
       </c>
       <c r="P177" s="93"/>
       <c r="Q177" s="99">
-        <v>42.22</v>
+        <v>47.04</v>
       </c>
       <c r="R177" s="100"/>
       <c r="S177" s="94">
@@ -6426,7 +6442,7 @@
     </row>
     <row r="178" spans="1:20" ht="14.25" customHeight="1">
       <c r="A178" s="109" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="B178" s="93"/>
       <c r="C178" s="109">
@@ -6456,7 +6472,7 @@
       </c>
       <c r="P178" s="93"/>
       <c r="Q178" s="99">
-        <v>42.12</v>
+        <v>47.12</v>
       </c>
       <c r="R178" s="100"/>
       <c r="S178" s="108">
@@ -6466,7 +6482,7 @@
     </row>
     <row r="179" spans="1:20" ht="14.25" customHeight="1">
       <c r="A179" s="92" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B179" s="93"/>
       <c r="C179" s="92">
@@ -6496,7 +6512,7 @@
       </c>
       <c r="P179" s="93"/>
       <c r="Q179" s="99">
-        <v>42</v>
+        <v>47.24</v>
       </c>
       <c r="R179" s="100"/>
       <c r="S179" s="94">
@@ -6506,7 +6522,7 @@
     </row>
     <row r="180" spans="1:20" ht="14.25" customHeight="1">
       <c r="A180" s="122" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B180" s="115"/>
       <c r="C180" s="122">
@@ -6538,7 +6554,7 @@
       </c>
       <c r="P180" s="115"/>
       <c r="Q180" s="127">
-        <v>41.76</v>
+        <v>47.56</v>
       </c>
       <c r="R180" s="128"/>
       <c r="S180" s="114">
@@ -6548,7 +6564,7 @@
     </row>
     <row r="181" spans="1:20" ht="14.25" customHeight="1">
       <c r="A181" s="116" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B181" s="91"/>
       <c r="C181" s="116">
@@ -6578,7 +6594,7 @@
       </c>
       <c r="P181" s="91"/>
       <c r="Q181" s="106">
-        <v>42.08</v>
+        <v>47.1</v>
       </c>
       <c r="R181" s="107"/>
       <c r="S181" s="117">
@@ -6588,7 +6604,7 @@
     </row>
     <row r="182" spans="1:20" ht="14.25" customHeight="1">
       <c r="A182" s="109" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B182" s="93"/>
       <c r="C182" s="109">
@@ -6618,7 +6634,7 @@
       </c>
       <c r="P182" s="93"/>
       <c r="Q182" s="99">
-        <v>41.99</v>
+        <v>47.18</v>
       </c>
       <c r="R182" s="100"/>
       <c r="S182" s="108">
@@ -6628,7 +6644,7 @@
     </row>
     <row r="183" spans="1:20" ht="14.25" customHeight="1">
       <c r="A183" s="92" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="B183" s="93"/>
       <c r="C183" s="92">
@@ -6658,7 +6674,7 @@
       </c>
       <c r="P183" s="93"/>
       <c r="Q183" s="99">
-        <v>41.88</v>
+        <v>47.32</v>
       </c>
       <c r="R183" s="100"/>
       <c r="S183" s="94">
@@ -6668,7 +6684,7 @@
     </row>
     <row r="184" spans="1:20" ht="14.25" customHeight="1">
       <c r="A184" s="109" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B184" s="93"/>
       <c r="C184" s="109">
@@ -6698,7 +6714,7 @@
       </c>
       <c r="P184" s="93"/>
       <c r="Q184" s="99">
-        <v>41.62</v>
+        <v>47.62</v>
       </c>
       <c r="R184" s="100"/>
       <c r="S184" s="108">
@@ -6708,7 +6724,7 @@
     </row>
     <row r="185" spans="1:20" ht="14.25" customHeight="1">
       <c r="A185" s="129" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B185" s="115"/>
       <c r="C185" s="129">
@@ -6738,7 +6754,7 @@
       </c>
       <c r="P185" s="115"/>
       <c r="Q185" s="127">
-        <v>41.46</v>
+        <v>47.7</v>
       </c>
       <c r="R185" s="128"/>
       <c r="S185" s="130">
@@ -6748,7 +6764,7 @@
     </row>
     <row r="186" spans="1:20" ht="14.25" customHeight="1">
       <c r="A186" s="101" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B186" s="91"/>
       <c r="C186" s="101">
@@ -6778,7 +6794,7 @@
       </c>
       <c r="P186" s="91"/>
       <c r="Q186" s="106">
-        <v>41.95</v>
+        <v>47.21</v>
       </c>
       <c r="R186" s="107"/>
       <c r="S186" s="90">
@@ -6788,7 +6804,7 @@
     </row>
     <row r="187" spans="1:20" ht="14.25" customHeight="1">
       <c r="A187" s="92" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B187" s="93"/>
       <c r="C187" s="92">
@@ -6818,7 +6834,7 @@
       </c>
       <c r="P187" s="93"/>
       <c r="Q187" s="99">
-        <v>41.82</v>
+        <v>47.36</v>
       </c>
       <c r="R187" s="100"/>
       <c r="S187" s="94">
@@ -6828,7 +6844,7 @@
     </row>
     <row r="188" spans="1:20" ht="14.25" customHeight="1">
       <c r="A188" s="109" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B188" s="93"/>
       <c r="C188" s="109">
@@ -6858,7 +6874,7 @@
       </c>
       <c r="P188" s="93"/>
       <c r="Q188" s="99">
-        <v>41.54</v>
+        <v>47.63</v>
       </c>
       <c r="R188" s="100"/>
       <c r="S188" s="108">
@@ -6868,7 +6884,7 @@
     </row>
     <row r="189" spans="1:20" ht="14.1" customHeight="1">
       <c r="A189" s="92" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B189" s="93"/>
       <c r="C189" s="92">
@@ -6898,7 +6914,7 @@
       </c>
       <c r="P189" s="93"/>
       <c r="Q189" s="99">
-        <v>41.42</v>
+        <v>47.74</v>
       </c>
       <c r="R189" s="100"/>
       <c r="S189" s="94">
@@ -6908,7 +6924,7 @@
     </row>
     <row r="190" spans="1:20" ht="16.5" customHeight="1">
       <c r="A190" s="122" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B190" s="115"/>
       <c r="C190" s="122">
@@ -6938,7 +6954,7 @@
       </c>
       <c r="P190" s="115"/>
       <c r="Q190" s="127">
-        <v>41.25</v>
+        <v>47.72</v>
       </c>
       <c r="R190" s="128"/>
       <c r="S190" s="114">
@@ -6956,7 +6972,7 @@
     <row r="194" spans="1:20">
       <c r="A194" s="42" t="str">
         <f>A57</f>
-        <v>Calibration No: CAL00003</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="B194" s="43"/>
       <c r="C194" s="43"/>
@@ -6967,7 +6983,7 @@
       <c r="H194" s="34"/>
       <c r="I194" s="41" t="str">
         <f>I57</f>
-        <v>Calibration No: CAL00003</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="J194" s="34"/>
       <c r="K194" s="34"/>
@@ -7091,7 +7107,7 @@
     </row>
     <row r="198" spans="1:20" ht="14.25" customHeight="1">
       <c r="A198" s="116" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B198" s="91"/>
       <c r="C198" s="116">
@@ -7121,7 +7137,7 @@
       </c>
       <c r="P198" s="91"/>
       <c r="Q198" s="106">
-        <v>41.61</v>
+        <v>47.47</v>
       </c>
       <c r="R198" s="107"/>
       <c r="S198" s="117">
@@ -7131,7 +7147,7 @@
     </row>
     <row r="199" spans="1:20" ht="14.25" customHeight="1">
       <c r="A199" s="109" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B199" s="93"/>
       <c r="C199" s="109">
@@ -7161,7 +7177,7 @@
       </c>
       <c r="P199" s="93"/>
       <c r="Q199" s="99">
-        <v>41.4</v>
+        <v>47.68</v>
       </c>
       <c r="R199" s="100"/>
       <c r="S199" s="108">
@@ -7171,7 +7187,7 @@
     </row>
     <row r="200" spans="1:20" ht="14.25" customHeight="1">
       <c r="A200" s="92" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B200" s="93"/>
       <c r="C200" s="92">
@@ -7201,7 +7217,7 @@
       </c>
       <c r="P200" s="93"/>
       <c r="Q200" s="99">
-        <v>41.25</v>
+        <v>47.78</v>
       </c>
       <c r="R200" s="100"/>
       <c r="S200" s="94">
@@ -7211,7 +7227,7 @@
     </row>
     <row r="201" spans="1:20" ht="14.25" customHeight="1">
       <c r="A201" s="109" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B201" s="93"/>
       <c r="C201" s="109">
@@ -7241,7 +7257,7 @@
       </c>
       <c r="P201" s="93"/>
       <c r="Q201" s="99">
-        <v>41.15</v>
+        <v>47.8</v>
       </c>
       <c r="R201" s="100"/>
       <c r="S201" s="108">
@@ -7251,7 +7267,7 @@
     </row>
     <row r="202" spans="1:20" ht="14.25" customHeight="1">
       <c r="A202" s="129" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B202" s="115"/>
       <c r="C202" s="129">
@@ -7281,7 +7297,7 @@
       </c>
       <c r="P202" s="115"/>
       <c r="Q202" s="127">
-        <v>41.02</v>
+        <v>47.78</v>
       </c>
       <c r="R202" s="128"/>
       <c r="S202" s="130">
@@ -7291,7 +7307,7 @@
     </row>
     <row r="203" spans="1:20" ht="14.25" customHeight="1">
       <c r="A203" s="101" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B203" s="91"/>
       <c r="C203" s="101">
@@ -7321,7 +7337,7 @@
       </c>
       <c r="P203" s="91"/>
       <c r="Q203" s="106">
-        <v>41.29</v>
+        <v>47.72</v>
       </c>
       <c r="R203" s="107"/>
       <c r="S203" s="90">
@@ -7331,7 +7347,7 @@
     </row>
     <row r="204" spans="1:20" ht="14.25" customHeight="1">
       <c r="A204" s="92" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B204" s="93"/>
       <c r="C204" s="92">
@@ -7361,7 +7377,7 @@
       </c>
       <c r="P204" s="93"/>
       <c r="Q204" s="99">
-        <v>41.18</v>
+        <v>47.78</v>
       </c>
       <c r="R204" s="100"/>
       <c r="S204" s="94">
@@ -7371,7 +7387,7 @@
     </row>
     <row r="205" spans="1:20" ht="14.25" customHeight="1">
       <c r="A205" s="109" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B205" s="93"/>
       <c r="C205" s="109">
@@ -7401,7 +7417,7 @@
       </c>
       <c r="P205" s="93"/>
       <c r="Q205" s="99">
-        <v>41.09</v>
+        <v>47.82</v>
       </c>
       <c r="R205" s="100"/>
       <c r="S205" s="108">
@@ -7411,7 +7427,7 @@
     </row>
     <row r="206" spans="1:20" ht="14.25" customHeight="1">
       <c r="A206" s="92" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B206" s="93"/>
       <c r="C206" s="92">
@@ -7441,7 +7457,7 @@
       </c>
       <c r="P206" s="93"/>
       <c r="Q206" s="99">
-        <v>41.02</v>
+        <v>47.88</v>
       </c>
       <c r="R206" s="100"/>
       <c r="S206" s="94">
@@ -7451,7 +7467,7 @@
     </row>
     <row r="207" spans="1:20" ht="14.25" customHeight="1">
       <c r="A207" s="122" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="B207" s="115"/>
       <c r="C207" s="122">
@@ -7481,7 +7497,7 @@
       </c>
       <c r="P207" s="115"/>
       <c r="Q207" s="127">
-        <v>41.02</v>
+        <v>47.85</v>
       </c>
       <c r="R207" s="128"/>
       <c r="S207" s="114">
@@ -7491,7 +7507,7 @@
     </row>
     <row r="208" spans="1:20" ht="14.25" customHeight="1">
       <c r="A208" s="92" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B208" s="93"/>
       <c r="C208" s="92">
@@ -7521,7 +7537,7 @@
       </c>
       <c r="P208" s="93"/>
       <c r="Q208" s="99">
-        <v>41.1</v>
+        <v>47.78</v>
       </c>
       <c r="R208" s="100"/>
       <c r="S208" s="94">
@@ -7531,7 +7547,7 @@
     </row>
     <row r="209" spans="1:20" ht="14.25" customHeight="1">
       <c r="A209" s="109" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B209" s="93"/>
       <c r="C209" s="109">
@@ -7561,7 +7577,7 @@
       </c>
       <c r="P209" s="93"/>
       <c r="Q209" s="99">
-        <v>41</v>
+        <v>47.8</v>
       </c>
       <c r="R209" s="100"/>
       <c r="S209" s="108">
@@ -7571,7 +7587,7 @@
     </row>
     <row r="210" spans="1:20" ht="14.25" customHeight="1">
       <c r="A210" s="92" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B210" s="93"/>
       <c r="C210" s="92">
@@ -7601,7 +7617,7 @@
       </c>
       <c r="P210" s="93"/>
       <c r="Q210" s="99">
-        <v>40.950000000000003</v>
+        <v>47.84</v>
       </c>
       <c r="R210" s="100"/>
       <c r="S210" s="94">
@@ -7611,7 +7627,7 @@
     </row>
     <row r="211" spans="1:20" ht="14.25" customHeight="1">
       <c r="A211" s="122" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B211" s="115"/>
       <c r="C211" s="122">
@@ -7641,7 +7657,7 @@
       </c>
       <c r="P211" s="115"/>
       <c r="Q211" s="127">
-        <v>40.93</v>
+        <v>47.82</v>
       </c>
       <c r="R211" s="128"/>
       <c r="S211" s="114">
@@ -7651,7 +7667,7 @@
     </row>
     <row r="212" spans="1:20" ht="14.25" customHeight="1">
       <c r="A212" s="116" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B212" s="91"/>
       <c r="C212" s="116">
@@ -7681,7 +7697,7 @@
       </c>
       <c r="P212" s="91"/>
       <c r="Q212" s="106">
-        <v>40.97</v>
+        <v>47.74</v>
       </c>
       <c r="R212" s="107"/>
       <c r="S212" s="117">
@@ -7691,7 +7707,7 @@
     </row>
     <row r="213" spans="1:20" ht="14.25" customHeight="1">
       <c r="A213" s="109" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B213" s="93"/>
       <c r="C213" s="109">
@@ -7721,7 +7737,7 @@
       </c>
       <c r="P213" s="93"/>
       <c r="Q213" s="99">
-        <v>40.880000000000003</v>
+        <v>47.76</v>
       </c>
       <c r="R213" s="100"/>
       <c r="S213" s="108">
@@ -7731,7 +7747,7 @@
     </row>
     <row r="214" spans="1:20" ht="14.25" customHeight="1">
       <c r="A214" s="92" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B214" s="93"/>
       <c r="C214" s="92">
@@ -7761,7 +7777,7 @@
       </c>
       <c r="P214" s="93"/>
       <c r="Q214" s="99">
-        <v>40.869999999999997</v>
+        <v>47.74</v>
       </c>
       <c r="R214" s="100"/>
       <c r="S214" s="94">
@@ -7771,7 +7787,7 @@
     </row>
     <row r="215" spans="1:20" ht="14.25" customHeight="1">
       <c r="A215" s="101" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B215" s="91"/>
       <c r="C215" s="101">
@@ -7801,7 +7817,7 @@
       </c>
       <c r="P215" s="91"/>
       <c r="Q215" s="106">
-        <v>40.82</v>
+        <v>47.66</v>
       </c>
       <c r="R215" s="107"/>
       <c r="S215" s="90">
@@ -7811,7 +7827,7 @@
     </row>
     <row r="216" spans="1:20" ht="14.25" customHeight="1">
       <c r="A216" s="92" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B216" s="93"/>
       <c r="C216" s="92">
@@ -7841,7 +7857,7 @@
       </c>
       <c r="P216" s="93"/>
       <c r="Q216" s="99">
-        <v>40.76</v>
+        <v>47.66</v>
       </c>
       <c r="R216" s="100"/>
       <c r="S216" s="94">
@@ -7851,7 +7867,7 @@
     </row>
     <row r="217" spans="1:20" ht="15" customHeight="1">
       <c r="A217" s="69" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B217" s="66"/>
       <c r="C217" s="69">
@@ -7881,7 +7897,7 @@
       </c>
       <c r="P217" s="66"/>
       <c r="Q217" s="63">
-        <v>40.99</v>
+        <v>47.69</v>
       </c>
       <c r="R217" s="64"/>
       <c r="S217" s="65">
@@ -7891,7 +7907,7 @@
     </row>
     <row r="218" spans="1:20" ht="15" customHeight="1">
       <c r="A218" s="74" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B218" s="66"/>
       <c r="C218" s="74">
@@ -7921,7 +7937,7 @@
       </c>
       <c r="P218" s="66"/>
       <c r="Q218" s="63">
-        <v>41.06</v>
+        <v>47.87</v>
       </c>
       <c r="R218" s="64"/>
       <c r="S218" s="68">
@@ -7931,7 +7947,7 @@
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1">
       <c r="A219" s="69" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="B219" s="66"/>
       <c r="C219" s="69">
@@ -7961,7 +7977,7 @@
       </c>
       <c r="P219" s="66"/>
       <c r="Q219" s="63">
-        <v>41.01</v>
+        <v>47.85</v>
       </c>
       <c r="R219" s="64"/>
       <c r="S219" s="65">
@@ -8033,7 +8049,7 @@
     <row r="246" spans="1:20" s="60" customFormat="1">
       <c r="A246" s="42" t="str">
         <f>A57</f>
-        <v>Calibration No: CAL00003</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="B246" s="43"/>
       <c r="C246" s="43"/>
@@ -8044,7 +8060,7 @@
       <c r="H246" s="43"/>
       <c r="I246" s="44" t="str">
         <f>I57</f>
-        <v>Calibration No: CAL00003</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="J246" s="43"/>
       <c r="K246" s="43"/>
@@ -8120,7 +8136,7 @@
     <row r="308" spans="1:20">
       <c r="A308" s="42" t="str">
         <f>A57</f>
-        <v>Calibration No: CAL00003</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="B308" s="43"/>
       <c r="C308" s="43"/>
@@ -8131,7 +8147,7 @@
       <c r="H308" s="43"/>
       <c r="I308" s="44" t="str">
         <f>I57</f>
-        <v>Calibration No: CAL00003</v>
+        <v>Calibration No: CAL00001</v>
       </c>
       <c r="J308" s="43"/>
       <c r="K308" s="43"/>

--- a/app/core/testing.xlsx
+++ b/app/core/testing.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master of IT\Semester4\software project\DC-Boxjelly\app\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8563AE57-1CB4-403E-956F-CE9D29F360B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F34D574-B9E3-4FE5-A3F4-50DFD6A6D3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="852" yWindow="180" windowWidth="17280" windowHeight="11580" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEXReport" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -366,6 +369,195 @@
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
+    <t>(-250) on the guard electrode Positive (Central Electrode Negative)</t>
+  </si>
+  <si>
+    <t>NXA50</t>
+  </si>
+  <si>
+    <t>NXA70</t>
+  </si>
+  <si>
+    <t>NXB100</t>
+  </si>
+  <si>
+    <t>NXC120</t>
+  </si>
+  <si>
+    <t>NXD140</t>
+  </si>
+  <si>
+    <t>NXE150</t>
+  </si>
+  <si>
+    <t>NXF200</t>
+  </si>
+  <si>
+    <t>NXG250</t>
+  </si>
+  <si>
+    <t>NXH280</t>
+  </si>
+  <si>
+    <t>NXH300</t>
+  </si>
+  <si>
+    <t>NXH300*</t>
+  </si>
+  <si>
+    <t>NXJ40</t>
+  </si>
+  <si>
+    <t>NXK40</t>
+  </si>
+  <si>
+    <t>NXA40</t>
+  </si>
+  <si>
+    <t>NXJ50</t>
+  </si>
+  <si>
+    <t>NXK50</t>
+  </si>
+  <si>
+    <t>NXB50</t>
+  </si>
+  <si>
+    <t>NXJ60</t>
+  </si>
+  <si>
+    <t>NXK60</t>
+  </si>
+  <si>
+    <t>NXA60</t>
+  </si>
+  <si>
+    <t>NXJ70</t>
+  </si>
+  <si>
+    <t>NXK70</t>
+  </si>
+  <si>
+    <t>NXB70</t>
+  </si>
+  <si>
+    <t>NXC70</t>
+  </si>
+  <si>
+    <t>NXJ80</t>
+  </si>
+  <si>
+    <t>NXK80</t>
+  </si>
+  <si>
+    <t>NXA80</t>
+  </si>
+  <si>
+    <t>NXJ90</t>
+  </si>
+  <si>
+    <t>NXK90</t>
+  </si>
+  <si>
+    <t>NXA90</t>
+  </si>
+  <si>
+    <t>NXJ100</t>
+  </si>
+  <si>
+    <t>NXK100</t>
+  </si>
+  <si>
+    <t>NXC100</t>
+  </si>
+  <si>
+    <t>NXD100</t>
+  </si>
+  <si>
+    <t>NXB120</t>
+  </si>
+  <si>
+    <t>NXD120</t>
+  </si>
+  <si>
+    <t>NXE120</t>
+  </si>
+  <si>
+    <t>NXB140</t>
+  </si>
+  <si>
+    <t>NXC140</t>
+  </si>
+  <si>
+    <t>NXE140</t>
+  </si>
+  <si>
+    <t>NXF140</t>
+  </si>
+  <si>
+    <t>NXC150</t>
+  </si>
+  <si>
+    <t>NXD150</t>
+  </si>
+  <si>
+    <t>NXF150</t>
+  </si>
+  <si>
+    <t>NXG150</t>
+  </si>
+  <si>
+    <t>NXD200</t>
+  </si>
+  <si>
+    <t>NXE200</t>
+  </si>
+  <si>
+    <t>NXG200</t>
+  </si>
+  <si>
+    <t>NXH200</t>
+  </si>
+  <si>
+    <t>NXE250</t>
+  </si>
+  <si>
+    <t>NXF250</t>
+  </si>
+  <si>
+    <t>NXH250</t>
+  </si>
+  <si>
+    <t>NXI250</t>
+  </si>
+  <si>
+    <t>NXF280</t>
+  </si>
+  <si>
+    <t>NXG280</t>
+  </si>
+  <si>
+    <t>NXI280</t>
+  </si>
+  <si>
+    <t>NXG300</t>
+  </si>
+  <si>
+    <t>NXI300</t>
+  </si>
+  <si>
+    <t>NXH320</t>
+  </si>
+  <si>
+    <t>NXI320</t>
+  </si>
+  <si>
+    <t>NXG250*</t>
+  </si>
+  <si>
+    <t>NXH280*</t>
+  </si>
+  <si>
     <t>CAL00001</t>
   </si>
   <si>
@@ -384,205 +576,16 @@
     <t>PTW 30013 5122</t>
   </si>
   <si>
+    <t>Duncan Butler</t>
+  </si>
+  <si>
+    <t>Calibration No: CAL00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06 Oct 2021 </t>
+  </si>
+  <si>
     <t>12 Feb 2021 to 12 Feb 2021</t>
-  </si>
-  <si>
-    <t>Duncan Butler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 Oct 2021 </t>
-  </si>
-  <si>
-    <t>(-250) on the guard electrode Positive (Central Electrode Negative)</t>
-  </si>
-  <si>
-    <t>NXA50</t>
-  </si>
-  <si>
-    <t>NXA70</t>
-  </si>
-  <si>
-    <t>NXB100</t>
-  </si>
-  <si>
-    <t>NXC120</t>
-  </si>
-  <si>
-    <t>NXD140</t>
-  </si>
-  <si>
-    <t>NXE150</t>
-  </si>
-  <si>
-    <t>NXF200</t>
-  </si>
-  <si>
-    <t>NXG250</t>
-  </si>
-  <si>
-    <t>NXH280</t>
-  </si>
-  <si>
-    <t>NXH300</t>
-  </si>
-  <si>
-    <t>NXH300*</t>
-  </si>
-  <si>
-    <t>NXJ40</t>
-  </si>
-  <si>
-    <t>NXK40</t>
-  </si>
-  <si>
-    <t>NXA40</t>
-  </si>
-  <si>
-    <t>NXJ50</t>
-  </si>
-  <si>
-    <t>NXK50</t>
-  </si>
-  <si>
-    <t>NXB50</t>
-  </si>
-  <si>
-    <t>NXJ60</t>
-  </si>
-  <si>
-    <t>NXK60</t>
-  </si>
-  <si>
-    <t>NXA60</t>
-  </si>
-  <si>
-    <t>NXJ70</t>
-  </si>
-  <si>
-    <t>NXK70</t>
-  </si>
-  <si>
-    <t>NXB70</t>
-  </si>
-  <si>
-    <t>NXC70</t>
-  </si>
-  <si>
-    <t>NXJ80</t>
-  </si>
-  <si>
-    <t>NXK80</t>
-  </si>
-  <si>
-    <t>NXA80</t>
-  </si>
-  <si>
-    <t>NXJ90</t>
-  </si>
-  <si>
-    <t>NXK90</t>
-  </si>
-  <si>
-    <t>NXA90</t>
-  </si>
-  <si>
-    <t>NXJ100</t>
-  </si>
-  <si>
-    <t>NXK100</t>
-  </si>
-  <si>
-    <t>NXC100</t>
-  </si>
-  <si>
-    <t>NXD100</t>
-  </si>
-  <si>
-    <t>NXB120</t>
-  </si>
-  <si>
-    <t>NXD120</t>
-  </si>
-  <si>
-    <t>NXE120</t>
-  </si>
-  <si>
-    <t>NXB140</t>
-  </si>
-  <si>
-    <t>NXC140</t>
-  </si>
-  <si>
-    <t>NXE140</t>
-  </si>
-  <si>
-    <t>NXF140</t>
-  </si>
-  <si>
-    <t>NXC150</t>
-  </si>
-  <si>
-    <t>NXD150</t>
-  </si>
-  <si>
-    <t>NXF150</t>
-  </si>
-  <si>
-    <t>NXG150</t>
-  </si>
-  <si>
-    <t>NXD200</t>
-  </si>
-  <si>
-    <t>NXE200</t>
-  </si>
-  <si>
-    <t>NXG200</t>
-  </si>
-  <si>
-    <t>NXH200</t>
-  </si>
-  <si>
-    <t>NXE250</t>
-  </si>
-  <si>
-    <t>NXF250</t>
-  </si>
-  <si>
-    <t>NXH250</t>
-  </si>
-  <si>
-    <t>NXI250</t>
-  </si>
-  <si>
-    <t>NXF280</t>
-  </si>
-  <si>
-    <t>NXG280</t>
-  </si>
-  <si>
-    <t>NXI280</t>
-  </si>
-  <si>
-    <t>NXG300</t>
-  </si>
-  <si>
-    <t>NXI300</t>
-  </si>
-  <si>
-    <t>NXH320</t>
-  </si>
-  <si>
-    <t>NXI320</t>
-  </si>
-  <si>
-    <t>NXG250*</t>
-  </si>
-  <si>
-    <t>NXH280*</t>
-  </si>
-  <si>
-    <t>Calibration No: CAL00001</t>
   </si>
 </sst>
 </file>
@@ -2137,8 +2140,8 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>240</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
@@ -2147,7 +2150,7 @@
         <xdr:cNvPr id="4" name="kVp">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC52595-D671-4208-B415-8AD42483C067}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334EA707-5F45-464C-A5DF-EC16D2BBFCCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,13 +2159,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2170,7 +2167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="46413421"/>
-          <a:ext cx="5629910" cy="3352800"/>
+          <a:ext cx="5715000" cy="3352800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2187,17 +2184,17 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Al">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14F04CD-06B6-4DBD-B5B3-F7C2FD711B05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CDF684-ED7F-476C-AEF5-BFB1A7E29FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,13 +2203,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2220,7 +2211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="51267361"/>
-          <a:ext cx="5629910" cy="3539490"/>
+          <a:ext cx="5715000" cy="3352800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2233,21 +2224,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>4</xdr:rowOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>167638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>296</xdr:row>
-      <xdr:rowOff>19054</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>167638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Cu">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C3535F-2CE3-4597-85E6-66D253B38A93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078B7652-5463-44E3-BAA6-B27FBE62A48A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,21 +2247,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="55801264"/>
-          <a:ext cx="5629910" cy="3539490"/>
+          <a:off x="0" y="55801258"/>
+          <a:ext cx="5715000" cy="3352800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2606,8 +2591,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:X308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q122" sqref="Q122"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z123" sqref="Z123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -2796,7 +2781,7 @@
       <c r="R13" s="48"/>
       <c r="S13" s="48"/>
       <c r="T13" s="49" t="s">
-        <v>106</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.1" customHeight="1">
@@ -2924,7 +2909,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="50" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
@@ -2947,7 +2932,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="50" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
@@ -2970,7 +2955,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="50" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
@@ -3037,7 +3022,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="51" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="51"/>
@@ -3083,7 +3068,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="51" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
@@ -3176,7 +3161,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="52" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="H31" s="51"/>
       <c r="I31" s="51"/>
@@ -3201,7 +3186,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="51" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="51"/>
@@ -3226,7 +3211,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="52" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="H33" s="51"/>
       <c r="I33" s="51"/>
@@ -3552,7 +3537,7 @@
     </row>
     <row r="57" spans="1:20" ht="14.1" customHeight="1">
       <c r="A57" s="53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
@@ -3562,7 +3547,7 @@
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J57" s="54"/>
       <c r="K57" s="18"/>
@@ -4195,7 +4180,7 @@
       <c r="D110" s="26"/>
       <c r="E110" s="26"/>
       <c r="G110" s="50" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="H110" s="48"/>
       <c r="I110" s="48"/>
@@ -4217,7 +4202,7 @@
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
       <c r="G111" s="57" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="H111" s="48"/>
       <c r="I111" s="48"/>
@@ -4261,7 +4246,7 @@
       <c r="D113" s="26"/>
       <c r="E113" s="26"/>
       <c r="G113" s="58" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H113" s="48"/>
       <c r="I113" s="48"/>
@@ -4470,7 +4455,7 @@
       <c r="D123" s="26"/>
       <c r="E123" s="26"/>
       <c r="G123" s="48" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="H123" s="48"/>
       <c r="I123" s="48"/>
@@ -4628,7 +4613,7 @@
     </row>
     <row r="129" spans="1:20" ht="20.25" customHeight="1">
       <c r="A129" s="122" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B129" s="65"/>
       <c r="C129" s="122">
@@ -4668,7 +4653,7 @@
     </row>
     <row r="130" spans="1:20" ht="20.25" customHeight="1">
       <c r="A130" s="125" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B130" s="71"/>
       <c r="C130" s="125">
@@ -4708,7 +4693,7 @@
     </row>
     <row r="131" spans="1:20" ht="20.25" customHeight="1">
       <c r="A131" s="132" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B131" s="71"/>
       <c r="C131" s="132">
@@ -4748,7 +4733,7 @@
     </row>
     <row r="132" spans="1:20" ht="20.25" customHeight="1">
       <c r="A132" s="125" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B132" s="71"/>
       <c r="C132" s="125">
@@ -4788,7 +4773,7 @@
     </row>
     <row r="133" spans="1:20" ht="20.25" customHeight="1">
       <c r="A133" s="132" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B133" s="71"/>
       <c r="C133" s="132">
@@ -4828,7 +4813,7 @@
     </row>
     <row r="134" spans="1:20" ht="20.25" customHeight="1">
       <c r="A134" s="125" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B134" s="71"/>
       <c r="C134" s="125">
@@ -4868,7 +4853,7 @@
     </row>
     <row r="135" spans="1:20" ht="20.25" customHeight="1">
       <c r="A135" s="132" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B135" s="71"/>
       <c r="C135" s="132">
@@ -4908,7 +4893,7 @@
     </row>
     <row r="136" spans="1:20" ht="20.25" customHeight="1">
       <c r="A136" s="125" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B136" s="71"/>
       <c r="C136" s="125">
@@ -4948,7 +4933,7 @@
     </row>
     <row r="137" spans="1:20" ht="20.25" customHeight="1">
       <c r="A137" s="132" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B137" s="71"/>
       <c r="C137" s="132">
@@ -4988,7 +4973,7 @@
     </row>
     <row r="138" spans="1:20" ht="20.25" customHeight="1">
       <c r="A138" s="136" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B138" s="80"/>
       <c r="C138" s="125">
@@ -5028,7 +5013,7 @@
     </row>
     <row r="139" spans="1:20" ht="14.1" customHeight="1">
       <c r="A139" s="140" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B139" s="111"/>
       <c r="C139" s="140">
@@ -5142,7 +5127,7 @@
       <c r="J143" s="26"/>
       <c r="K143" s="26"/>
       <c r="L143" s="59" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="M143" s="59"/>
       <c r="N143" s="59"/>
@@ -5314,7 +5299,7 @@
     </row>
     <row r="151" spans="1:21" ht="14.25" customHeight="1">
       <c r="A151" s="84" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B151" s="65"/>
       <c r="C151" s="84">
@@ -5352,7 +5337,7 @@
     </row>
     <row r="152" spans="1:21" ht="14.25" customHeight="1">
       <c r="A152" s="92" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B152" s="71"/>
       <c r="C152" s="92">
@@ -5390,7 +5375,7 @@
     </row>
     <row r="153" spans="1:21" ht="14.25" customHeight="1">
       <c r="A153" s="95" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B153" s="80"/>
       <c r="C153" s="95">
@@ -5430,7 +5415,7 @@
     </row>
     <row r="154" spans="1:21" ht="14.25" customHeight="1">
       <c r="A154" s="94" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B154" s="65"/>
       <c r="C154" s="94">
@@ -5468,7 +5453,7 @@
     </row>
     <row r="155" spans="1:21" ht="14.25" customHeight="1">
       <c r="A155" s="70" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B155" s="71"/>
       <c r="C155" s="70">
@@ -5506,7 +5491,7 @@
     </row>
     <row r="156" spans="1:21" ht="14.25" customHeight="1">
       <c r="A156" s="92" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B156" s="71"/>
       <c r="C156" s="92">
@@ -5546,7 +5531,7 @@
     </row>
     <row r="157" spans="1:21" ht="14.25" customHeight="1">
       <c r="A157" s="95" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B157" s="80"/>
       <c r="C157" s="95">
@@ -5586,7 +5571,7 @@
     </row>
     <row r="158" spans="1:21" ht="14.25" customHeight="1">
       <c r="A158" s="94" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B158" s="65"/>
       <c r="C158" s="94">
@@ -5624,7 +5609,7 @@
     </row>
     <row r="159" spans="1:21" ht="14.25" customHeight="1">
       <c r="A159" s="70" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B159" s="71"/>
       <c r="C159" s="70">
@@ -5662,7 +5647,7 @@
     </row>
     <row r="160" spans="1:21" ht="14.25" customHeight="1">
       <c r="A160" s="79" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B160" s="80"/>
       <c r="C160" s="79">
@@ -5702,7 +5687,7 @@
     </row>
     <row r="161" spans="1:20" ht="14.25" customHeight="1">
       <c r="A161" s="84" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B161" s="65"/>
       <c r="C161" s="84">
@@ -5740,7 +5725,7 @@
     </row>
     <row r="162" spans="1:20" ht="14.25" customHeight="1">
       <c r="A162" s="92" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B162" s="71"/>
       <c r="C162" s="92">
@@ -5778,7 +5763,7 @@
     </row>
     <row r="163" spans="1:20" ht="14.25" customHeight="1">
       <c r="A163" s="70" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B163" s="71"/>
       <c r="C163" s="70">
@@ -5818,7 +5803,7 @@
     </row>
     <row r="164" spans="1:20" ht="14.25" customHeight="1">
       <c r="A164" s="92" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B164" s="71"/>
       <c r="C164" s="92">
@@ -5858,7 +5843,7 @@
     </row>
     <row r="165" spans="1:20" ht="14.25" customHeight="1">
       <c r="A165" s="70" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B165" s="71"/>
       <c r="C165" s="70">
@@ -5898,7 +5883,7 @@
     </row>
     <row r="166" spans="1:20" ht="14.25" customHeight="1">
       <c r="A166" s="94" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B166" s="65"/>
       <c r="C166" s="94">
@@ -5936,7 +5921,7 @@
     </row>
     <row r="167" spans="1:20" ht="14.25" customHeight="1">
       <c r="A167" s="70" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B167" s="71"/>
       <c r="C167" s="70">
@@ -5974,7 +5959,7 @@
     </row>
     <row r="168" spans="1:20" ht="14.25" customHeight="1">
       <c r="A168" s="79" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B168" s="80"/>
       <c r="C168" s="79">
@@ -6014,7 +5999,7 @@
     </row>
     <row r="169" spans="1:20" ht="14.25" customHeight="1">
       <c r="A169" s="84" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B169" s="65"/>
       <c r="C169" s="84">
@@ -6052,7 +6037,7 @@
     </row>
     <row r="170" spans="1:20" ht="14.25" customHeight="1">
       <c r="A170" s="92" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B170" s="71"/>
       <c r="C170" s="92">
@@ -6090,7 +6075,7 @@
     </row>
     <row r="171" spans="1:20" ht="14.25" customHeight="1">
       <c r="A171" s="70" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B171" s="71"/>
       <c r="C171" s="70">
@@ -6130,7 +6115,7 @@
     </row>
     <row r="172" spans="1:20" ht="14.25" customHeight="1">
       <c r="A172" s="94" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B172" s="65"/>
       <c r="C172" s="94">
@@ -6168,7 +6153,7 @@
     </row>
     <row r="173" spans="1:20" ht="14.25" customHeight="1">
       <c r="A173" s="70" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B173" s="71"/>
       <c r="C173" s="70">
@@ -6206,7 +6191,7 @@
     </row>
     <row r="174" spans="1:20" ht="14.25" customHeight="1">
       <c r="A174" s="92" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="92">
@@ -6246,7 +6231,7 @@
     </row>
     <row r="175" spans="1:20" ht="14.25" customHeight="1">
       <c r="A175" s="70" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B175" s="71"/>
       <c r="C175" s="70">
@@ -6286,7 +6271,7 @@
     </row>
     <row r="176" spans="1:20" ht="14.25" customHeight="1">
       <c r="A176" s="79" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B176" s="80"/>
       <c r="C176" s="79">
@@ -6326,7 +6311,7 @@
     </row>
     <row r="177" spans="1:20" ht="14.25" customHeight="1">
       <c r="A177" s="70" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B177" s="71"/>
       <c r="C177" s="70">
@@ -6366,7 +6351,7 @@
     </row>
     <row r="178" spans="1:20" ht="14.25" customHeight="1">
       <c r="A178" s="92" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B178" s="71"/>
       <c r="C178" s="92">
@@ -6406,7 +6391,7 @@
     </row>
     <row r="179" spans="1:20" ht="14.25" customHeight="1">
       <c r="A179" s="70" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B179" s="71"/>
       <c r="C179" s="70">
@@ -6446,7 +6431,7 @@
     </row>
     <row r="180" spans="1:20" ht="14.25" customHeight="1">
       <c r="A180" s="79" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B180" s="80"/>
       <c r="C180" s="79">
@@ -6488,7 +6473,7 @@
     </row>
     <row r="181" spans="1:20" ht="14.25" customHeight="1">
       <c r="A181" s="84" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B181" s="65"/>
       <c r="C181" s="84">
@@ -6528,7 +6513,7 @@
     </row>
     <row r="182" spans="1:20" ht="14.25" customHeight="1">
       <c r="A182" s="92" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B182" s="71"/>
       <c r="C182" s="92">
@@ -6568,7 +6553,7 @@
     </row>
     <row r="183" spans="1:20" ht="14.25" customHeight="1">
       <c r="A183" s="70" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B183" s="71"/>
       <c r="C183" s="70">
@@ -6608,7 +6593,7 @@
     </row>
     <row r="184" spans="1:20" ht="14.25" customHeight="1">
       <c r="A184" s="92" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B184" s="71"/>
       <c r="C184" s="92">
@@ -6648,7 +6633,7 @@
     </row>
     <row r="185" spans="1:20" ht="14.25" customHeight="1">
       <c r="A185" s="95" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B185" s="80"/>
       <c r="C185" s="95">
@@ -6688,7 +6673,7 @@
     </row>
     <row r="186" spans="1:20" ht="14.25" customHeight="1">
       <c r="A186" s="94" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B186" s="65"/>
       <c r="C186" s="94">
@@ -6728,7 +6713,7 @@
     </row>
     <row r="187" spans="1:20" ht="14.25" customHeight="1">
       <c r="A187" s="70" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B187" s="71"/>
       <c r="C187" s="70">
@@ -6768,7 +6753,7 @@
     </row>
     <row r="188" spans="1:20" ht="14.25" customHeight="1">
       <c r="A188" s="92" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B188" s="71"/>
       <c r="C188" s="92">
@@ -6808,7 +6793,7 @@
     </row>
     <row r="189" spans="1:20" ht="14.1" customHeight="1">
       <c r="A189" s="70" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B189" s="71"/>
       <c r="C189" s="70">
@@ -6848,7 +6833,7 @@
     </row>
     <row r="190" spans="1:20" ht="16.5" customHeight="1">
       <c r="A190" s="79" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B190" s="80"/>
       <c r="C190" s="79">
@@ -7031,7 +7016,7 @@
     </row>
     <row r="198" spans="1:20" ht="14.25" customHeight="1">
       <c r="A198" s="84" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B198" s="65"/>
       <c r="C198" s="84">
@@ -7071,7 +7056,7 @@
     </row>
     <row r="199" spans="1:20" ht="14.25" customHeight="1">
       <c r="A199" s="92" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B199" s="71"/>
       <c r="C199" s="92">
@@ -7111,7 +7096,7 @@
     </row>
     <row r="200" spans="1:20" ht="14.25" customHeight="1">
       <c r="A200" s="70" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B200" s="71"/>
       <c r="C200" s="70">
@@ -7151,7 +7136,7 @@
     </row>
     <row r="201" spans="1:20" ht="14.25" customHeight="1">
       <c r="A201" s="92" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B201" s="71"/>
       <c r="C201" s="92">
@@ -7191,7 +7176,7 @@
     </row>
     <row r="202" spans="1:20" ht="14.25" customHeight="1">
       <c r="A202" s="95" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B202" s="80"/>
       <c r="C202" s="95">
@@ -7231,7 +7216,7 @@
     </row>
     <row r="203" spans="1:20" ht="14.25" customHeight="1">
       <c r="A203" s="94" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B203" s="65"/>
       <c r="C203" s="94">
@@ -7271,7 +7256,7 @@
     </row>
     <row r="204" spans="1:20" ht="14.25" customHeight="1">
       <c r="A204" s="70" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B204" s="71"/>
       <c r="C204" s="70">
@@ -7311,7 +7296,7 @@
     </row>
     <row r="205" spans="1:20" ht="14.25" customHeight="1">
       <c r="A205" s="92" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B205" s="71"/>
       <c r="C205" s="92">
@@ -7351,7 +7336,7 @@
     </row>
     <row r="206" spans="1:20" ht="14.25" customHeight="1">
       <c r="A206" s="70" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B206" s="71"/>
       <c r="C206" s="70">
@@ -7391,7 +7376,7 @@
     </row>
     <row r="207" spans="1:20" ht="14.25" customHeight="1">
       <c r="A207" s="79" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B207" s="80"/>
       <c r="C207" s="79">
@@ -7431,7 +7416,7 @@
     </row>
     <row r="208" spans="1:20" ht="14.25" customHeight="1">
       <c r="A208" s="70" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B208" s="71"/>
       <c r="C208" s="70">
@@ -7471,7 +7456,7 @@
     </row>
     <row r="209" spans="1:20" ht="14.25" customHeight="1">
       <c r="A209" s="92" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B209" s="71"/>
       <c r="C209" s="92">
@@ -7511,7 +7496,7 @@
     </row>
     <row r="210" spans="1:20" ht="14.25" customHeight="1">
       <c r="A210" s="70" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B210" s="71"/>
       <c r="C210" s="70">
@@ -7551,7 +7536,7 @@
     </row>
     <row r="211" spans="1:20" ht="14.25" customHeight="1">
       <c r="A211" s="79" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B211" s="80"/>
       <c r="C211" s="79">
@@ -7591,7 +7576,7 @@
     </row>
     <row r="212" spans="1:20" ht="14.25" customHeight="1">
       <c r="A212" s="84" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B212" s="65"/>
       <c r="C212" s="84">
@@ -7631,7 +7616,7 @@
     </row>
     <row r="213" spans="1:20" ht="14.25" customHeight="1">
       <c r="A213" s="92" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B213" s="71"/>
       <c r="C213" s="92">
@@ -7671,7 +7656,7 @@
     </row>
     <row r="214" spans="1:20" ht="14.25" customHeight="1">
       <c r="A214" s="70" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B214" s="71"/>
       <c r="C214" s="70">
@@ -7711,7 +7696,7 @@
     </row>
     <row r="215" spans="1:20" ht="14.25" customHeight="1">
       <c r="A215" s="94" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B215" s="65"/>
       <c r="C215" s="94">
@@ -7751,7 +7736,7 @@
     </row>
     <row r="216" spans="1:20" ht="14.25" customHeight="1">
       <c r="A216" s="70" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B216" s="71"/>
       <c r="C216" s="70">
@@ -7791,7 +7776,7 @@
     </row>
     <row r="217" spans="1:20" ht="15" customHeight="1">
       <c r="A217" s="145" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B217" s="111"/>
       <c r="C217" s="145">
@@ -7831,7 +7816,7 @@
     </row>
     <row r="218" spans="1:20" ht="15" customHeight="1">
       <c r="A218" s="164" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B218" s="111"/>
       <c r="C218" s="164">
@@ -7871,7 +7856,7 @@
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1">
       <c r="A219" s="145" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B219" s="111"/>
       <c r="C219" s="145">

--- a/app/core/testing.xlsx
+++ b/app/core/testing.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex0\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DC-Boxjelly\app\core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0CDB7D-1BF1-4C96-9819-E362409E3E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="990" windowWidth="29040" windowHeight="15840" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="990" windowWidth="29040" windowHeight="15840" tabRatio="807"/>
   </bookViews>
   <sheets>
     <sheet name="MEXReport" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="REPORT_Dir">#REF!</definedName>
     <definedName name="THIS_Dir">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="188">
   <si>
     <t>Primary Standards Dosimetry Laboratory,  Medical Radiation Services</t>
   </si>
@@ -366,231 +365,340 @@
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
+    <t>PTW 30013 5122</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">06 Oct 2021 </t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibrated by: ClientA_Name</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duncan Butler</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-250) on the guard electrode Positive (Central Electrode Negative)</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA50</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXC70</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXD200</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXF280</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
     <t>CAL00001</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>ClientA_Name</t>
-  </si>
-  <si>
-    <t>Calibrated by: ClientA_Name</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClientA_Name</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>200 Street Name</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>Suburb NSW 2020</t>
-  </si>
-  <si>
-    <t>PTW 30013 5122</t>
-  </si>
-  <si>
-    <t>12 Feb 2021 to 12 Feb 2021</t>
-  </si>
-  <si>
-    <t>Duncan Butler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 Oct 2021 </t>
-  </si>
-  <si>
-    <t>(-250) on the guard electrode Positive (Central Electrode Negative)</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Feb 2021 to 01 Mar 2021</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 Feb 2021 to 01 Mar 2021</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA70</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB100</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXC120</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXD140</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXE150</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXF200</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXG250</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH280</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH300</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH300*</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ40</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXK40</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA40</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ50</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXK50</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXA50</t>
-  </si>
-  <si>
-    <t>NXA70</t>
-  </si>
-  <si>
-    <t>NXB100</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB50</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ60</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXK60</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA60</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ70</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXK70</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB70</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ80</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXK80</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA80</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ90</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXK90</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXA90</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXJ100</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXK100</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXC100</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXD100</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB120</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXC120</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXD120</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXE120</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB140</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXC140</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXD140</t>
-  </si>
-  <si>
-    <t>NXE150</t>
-  </si>
-  <si>
-    <t>NXF200</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXE140</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXF140</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXC150</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXD150</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXF150</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXG150</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXE200</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXG200</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH200</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXE250</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXF250</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXG250</t>
-  </si>
-  <si>
-    <t>NXH280</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH250</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXI250</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXG280</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXI280</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXG300</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXH300</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXI300</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH320</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXI320</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXG250*</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXH280*</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>NXH300*</t>
-  </si>
-  <si>
-    <t>NXJ40</t>
-  </si>
-  <si>
-    <t>NXK40</t>
-  </si>
-  <si>
-    <t>NXA40</t>
-  </si>
-  <si>
-    <t>NXJ50</t>
-  </si>
-  <si>
-    <t>NXK50</t>
-  </si>
-  <si>
-    <t>NXB50</t>
-  </si>
-  <si>
-    <t>NXJ60</t>
-  </si>
-  <si>
-    <t>NXK60</t>
-  </si>
-  <si>
-    <t>NXA60</t>
-  </si>
-  <si>
-    <t>NXJ70</t>
-  </si>
-  <si>
-    <t>NXK70</t>
-  </si>
-  <si>
-    <t>NXB70</t>
-  </si>
-  <si>
-    <t>NXC70</t>
-  </si>
-  <si>
-    <t>NXJ80</t>
-  </si>
-  <si>
-    <t>NXK80</t>
-  </si>
-  <si>
-    <t>NXA80</t>
-  </si>
-  <si>
-    <t>NXJ90</t>
-  </si>
-  <si>
-    <t>NXK90</t>
-  </si>
-  <si>
-    <t>NXA90</t>
-  </si>
-  <si>
-    <t>NXJ100</t>
-  </si>
-  <si>
-    <t>NXK100</t>
-  </si>
-  <si>
-    <t>NXC100</t>
-  </si>
-  <si>
-    <t>NXD100</t>
-  </si>
-  <si>
-    <t>NXB120</t>
-  </si>
-  <si>
-    <t>NXD120</t>
-  </si>
-  <si>
-    <t>NXE120</t>
-  </si>
-  <si>
-    <t>NXB140</t>
-  </si>
-  <si>
-    <t>NXC140</t>
-  </si>
-  <si>
-    <t>NXE140</t>
-  </si>
-  <si>
-    <t>NXF140</t>
-  </si>
-  <si>
-    <t>NXC150</t>
-  </si>
-  <si>
-    <t>NXD150</t>
-  </si>
-  <si>
-    <t>NXF150</t>
-  </si>
-  <si>
-    <t>NXG150</t>
-  </si>
-  <si>
-    <t>NXD200</t>
-  </si>
-  <si>
-    <t>NXE200</t>
-  </si>
-  <si>
-    <t>NXG200</t>
-  </si>
-  <si>
-    <t>NXH200</t>
-  </si>
-  <si>
-    <t>NXE250</t>
-  </si>
-  <si>
-    <t>NXF250</t>
-  </si>
-  <si>
-    <t>NXH250</t>
-  </si>
-  <si>
-    <t>NXI250</t>
-  </si>
-  <si>
-    <t>NXF280</t>
-  </si>
-  <si>
-    <t>NXG280</t>
-  </si>
-  <si>
-    <t>NXI280</t>
-  </si>
-  <si>
-    <t>NXG300</t>
-  </si>
-  <si>
-    <t>NXI300</t>
-  </si>
-  <si>
-    <t>NXH320</t>
-  </si>
-  <si>
-    <t>NXI320</t>
-  </si>
-  <si>
-    <t>NXG250*</t>
-  </si>
-  <si>
-    <t>NXH280*</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>Calibration No: CAL00001</t>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calibration No: CAL00001</t>
+    <phoneticPr fontId="42" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -661,21 +769,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -683,7 +791,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -691,7 +799,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -699,14 +807,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -714,7 +822,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -722,7 +830,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -730,28 +838,28 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -759,7 +867,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -767,14 +875,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -813,7 +921,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1520,14 +1628,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1542,7 +1650,7 @@
     <xf numFmtId="1" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1557,7 +1665,7 @@
     <xf numFmtId="1" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1592,7 +1700,7 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -1600,7 +1708,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1612,7 +1720,7 @@
     <xf numFmtId="1" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="41" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,14 +1739,14 @@
     <xf numFmtId="1" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="41" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,17 +1761,17 @@
     <xf numFmtId="1" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1675,7 +1783,7 @@
     <xf numFmtId="1" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1690,7 +1798,7 @@
     <xf numFmtId="1" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="41" fillId="34" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1700,7 +1808,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1712,13 +1820,13 @@
     <xf numFmtId="1" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1733,13 +1841,13 @@
     <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1748,13 +1856,13 @@
     <xf numFmtId="0" fontId="5" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1766,7 +1874,7 @@
     <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1775,7 +1883,7 @@
     <xf numFmtId="2" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1809,7 +1917,7 @@
     <xf numFmtId="2" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1817,52 +1925,52 @@
     </xf>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Calculation 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Check Cell 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Good 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Heading 1 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Heading 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Heading 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Heading 4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Input 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Neutral 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Normal 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Normal 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Normal 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Normal 6" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Note 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Output 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Total 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Warning Text 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="1"/>
+    <cellStyle name="20% - Accent2 2" xfId="2"/>
+    <cellStyle name="20% - Accent3 2" xfId="3"/>
+    <cellStyle name="20% - Accent4 2" xfId="4"/>
+    <cellStyle name="20% - Accent5 2" xfId="5"/>
+    <cellStyle name="20% - Accent6 2" xfId="6"/>
+    <cellStyle name="40% - Accent1 2" xfId="7"/>
+    <cellStyle name="40% - Accent2 2" xfId="8"/>
+    <cellStyle name="40% - Accent3 2" xfId="9"/>
+    <cellStyle name="40% - Accent4 2" xfId="10"/>
+    <cellStyle name="40% - Accent5 2" xfId="11"/>
+    <cellStyle name="40% - Accent6 2" xfId="12"/>
+    <cellStyle name="60% - Accent1 2" xfId="13"/>
+    <cellStyle name="60% - Accent2 2" xfId="14"/>
+    <cellStyle name="60% - Accent3 2" xfId="15"/>
+    <cellStyle name="60% - Accent4 2" xfId="16"/>
+    <cellStyle name="60% - Accent5 2" xfId="17"/>
+    <cellStyle name="60% - Accent6 2" xfId="18"/>
+    <cellStyle name="Accent1 2" xfId="19"/>
+    <cellStyle name="Accent2 2" xfId="20"/>
+    <cellStyle name="Accent3 2" xfId="21"/>
+    <cellStyle name="Accent4 2" xfId="22"/>
+    <cellStyle name="Accent5 2" xfId="23"/>
+    <cellStyle name="Accent6 2" xfId="24"/>
+    <cellStyle name="Bad 2" xfId="25"/>
+    <cellStyle name="Calculation 2" xfId="26"/>
+    <cellStyle name="Check Cell 2" xfId="27"/>
+    <cellStyle name="Explanatory Text 2" xfId="28"/>
+    <cellStyle name="Good 2" xfId="29"/>
+    <cellStyle name="Heading 1 2" xfId="30"/>
+    <cellStyle name="Heading 2 2" xfId="31"/>
+    <cellStyle name="Heading 3 2" xfId="32"/>
+    <cellStyle name="Heading 4 2" xfId="33"/>
+    <cellStyle name="Input 2" xfId="34"/>
+    <cellStyle name="Linked Cell 2" xfId="35"/>
+    <cellStyle name="Neutral 2" xfId="36"/>
+    <cellStyle name="Normal 2" xfId="37"/>
+    <cellStyle name="Normal 2 2" xfId="38"/>
+    <cellStyle name="Normal 3" xfId="39"/>
+    <cellStyle name="Normal 4" xfId="40"/>
+    <cellStyle name="Normal 6" xfId="41"/>
+    <cellStyle name="Note 2" xfId="42"/>
+    <cellStyle name="Output 2" xfId="43"/>
+    <cellStyle name="Total 2" xfId="44"/>
+    <cellStyle name="Warning Text 2" xfId="45"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2133,30 +2241,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>240</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="kVp">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891459CC-9ADB-49A2-800E-D3951F7DFE76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="kVp"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2169,8 +2271,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="45506639"/>
-          <a:ext cx="5629910" cy="3352800"/>
+          <a:off x="0" y="46739175"/>
+          <a:ext cx="5454650" cy="3352800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2184,23 +2286,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>247</xdr:row>
-      <xdr:rowOff>167639</xdr:rowOff>
+      <xdr:rowOff>158117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>269</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>19052</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Al">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C3FBC32-C405-4C16-A122-44B67A624952}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Al"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2219,8 +2315,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="50116739"/>
-          <a:ext cx="5629910" cy="3539490"/>
+          <a:off x="0" y="51555017"/>
+          <a:ext cx="5454650" cy="3423285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2234,23 +2330,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>275</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>296</xdr:row>
-      <xdr:rowOff>19052</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Cu">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA46C8B-64BC-460C-B732-4647BF8DA697}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Cu"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -2269,8 +2359,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="54650642"/>
-          <a:ext cx="5629910" cy="3539490"/>
+          <a:off x="0" y="55940325"/>
+          <a:ext cx="5454650" cy="3419475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2283,7 +2373,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2358,23 +2448,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2410,23 +2483,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2602,7 +2658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:X308"/>
   <sheetViews>
@@ -2610,27 +2666,27 @@
       <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="4.44140625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="4.33203125" style="32" customWidth="1"/>
-    <col min="11" max="11" width="4.44140625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" style="32" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" style="32" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="32" customWidth="1"/>
-    <col min="15" max="16" width="4.44140625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="32" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" style="32" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" style="32" customWidth="1"/>
+    <col min="15" max="16" width="4.42578125" style="32" customWidth="1"/>
     <col min="17" max="17" width="5" style="32" customWidth="1"/>
-    <col min="18" max="18" width="1.109375" style="32" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="32" customWidth="1"/>
-    <col min="20" max="20" width="4.44140625" style="32" customWidth="1"/>
+    <col min="18" max="18" width="1.140625" style="32" customWidth="1"/>
+    <col min="19" max="19" width="0.85546875" style="32" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" style="32" customWidth="1"/>
     <col min="21" max="24" width="5" style="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2754,7 +2810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.9" customHeight="1">
+    <row r="12" spans="1:20" ht="15.95" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -2775,7 +2831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.9" customHeight="1">
+    <row r="13" spans="1:20" ht="15.95" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -2796,7 +2852,7 @@
       <c r="R13" s="48"/>
       <c r="S13" s="48"/>
       <c r="T13" s="49" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="14.1" customHeight="1">
@@ -2914,7 +2970,7 @@
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
     </row>
-    <row r="20" spans="1:20" ht="15.9" customHeight="1">
+    <row r="20" spans="1:20" ht="15.95" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>9</v>
       </c>
@@ -2924,7 +2980,7 @@
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="50" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
@@ -2939,7 +2995,7 @@
       <c r="R20" s="26"/>
       <c r="S20" s="26"/>
     </row>
-    <row r="21" spans="1:20" ht="15.9" customHeight="1">
+    <row r="21" spans="1:20" ht="15.95" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2947,7 +3003,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="50" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="H21" s="51"/>
       <c r="I21" s="51"/>
@@ -2962,7 +3018,7 @@
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
     </row>
-    <row r="22" spans="1:20" ht="15.9" customHeight="1">
+    <row r="22" spans="1:20" ht="15.95" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2970,7 +3026,7 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="50" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
@@ -2985,7 +3041,7 @@
       <c r="R22" s="26"/>
       <c r="S22" s="26"/>
     </row>
-    <row r="23" spans="1:20" ht="15.9" customHeight="1">
+    <row r="23" spans="1:20" ht="15.95" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -3006,7 +3062,7 @@
       <c r="R23" s="26"/>
       <c r="S23" s="26"/>
     </row>
-    <row r="24" spans="1:20" ht="15.9" customHeight="1">
+    <row r="24" spans="1:20" ht="15.95" customHeight="1">
       <c r="A24" s="14"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -3027,7 +3083,7 @@
       <c r="R24" s="26"/>
       <c r="S24" s="26"/>
     </row>
-    <row r="25" spans="1:20" ht="15.9" customHeight="1">
+    <row r="25" spans="1:20" ht="15.95" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>10</v>
       </c>
@@ -3037,7 +3093,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="51" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="51"/>
@@ -3052,7 +3108,7 @@
       <c r="R25" s="26"/>
       <c r="S25" s="26"/>
     </row>
-    <row r="26" spans="1:20" ht="15.9" customHeight="1">
+    <row r="26" spans="1:20" ht="15.95" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -3073,7 +3129,7 @@
       <c r="R26" s="26"/>
       <c r="S26" s="26"/>
     </row>
-    <row r="27" spans="1:20" ht="15.9" customHeight="1">
+    <row r="27" spans="1:20" ht="15.95" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>105</v>
       </c>
@@ -3083,7 +3139,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="51" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
@@ -3098,7 +3154,7 @@
       <c r="R27" s="26"/>
       <c r="S27" s="26"/>
     </row>
-    <row r="28" spans="1:20" ht="15.9" customHeight="1">
+    <row r="28" spans="1:20" ht="15.95" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -3145,7 +3201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.9" customHeight="1">
+    <row r="30" spans="1:20" ht="15.95" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -3166,7 +3222,7 @@
       <c r="S30" s="26"/>
       <c r="T30" s="62"/>
     </row>
-    <row r="31" spans="1:20" ht="15.9" customHeight="1">
+    <row r="31" spans="1:20" ht="15.95" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>14</v>
       </c>
@@ -3176,7 +3232,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="52" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H31" s="51"/>
       <c r="I31" s="51"/>
@@ -3201,7 +3257,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="51" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H32" s="51"/>
       <c r="I32" s="51"/>
@@ -3216,7 +3272,7 @@
       <c r="S32" s="26"/>
       <c r="T32" s="62"/>
     </row>
-    <row r="33" spans="1:20" ht="15.9" customHeight="1">
+    <row r="33" spans="1:20" ht="15.95" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>16</v>
       </c>
@@ -3226,7 +3282,7 @@
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="52" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H33" s="51"/>
       <c r="I33" s="51"/>
@@ -3241,7 +3297,7 @@
       <c r="S33" s="26"/>
       <c r="T33" s="62"/>
     </row>
-    <row r="34" spans="1:20" ht="15.9" customHeight="1">
+    <row r="34" spans="1:20" ht="15.95" customHeight="1">
       <c r="A34" s="14"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -3262,7 +3318,7 @@
       <c r="S34" s="26"/>
       <c r="T34" s="62"/>
     </row>
-    <row r="35" spans="1:20" ht="15.9" customHeight="1">
+    <row r="35" spans="1:20" ht="15.95" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>17</v>
       </c>
@@ -3287,7 +3343,7 @@
       <c r="S35" s="26"/>
       <c r="T35" s="62"/>
     </row>
-    <row r="36" spans="1:20" ht="15.9" customHeight="1">
+    <row r="36" spans="1:20" ht="15.95" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>19</v>
       </c>
@@ -3312,7 +3368,7 @@
       <c r="S36" s="26"/>
       <c r="T36" s="62"/>
     </row>
-    <row r="37" spans="1:20" ht="12.9" customHeight="1">
+    <row r="37" spans="1:20" ht="12.95" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -3355,7 +3411,7 @@
       <c r="S38" s="26"/>
       <c r="T38" s="62"/>
     </row>
-    <row r="39" spans="1:20" ht="15.9" customHeight="1">
+    <row r="39" spans="1:20" ht="15.95" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>21</v>
       </c>
@@ -3382,7 +3438,7 @@
       <c r="S39" s="26"/>
       <c r="T39" s="62"/>
     </row>
-    <row r="40" spans="1:20" ht="15.9" customHeight="1">
+    <row r="40" spans="1:20" ht="15.95" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -3404,7 +3460,7 @@
       <c r="S40" s="26"/>
       <c r="T40" s="62"/>
     </row>
-    <row r="41" spans="1:20" ht="15.9" customHeight="1">
+    <row r="41" spans="1:20" ht="15.95" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>24</v>
       </c>
@@ -3428,7 +3484,7 @@
       <c r="S41" s="26"/>
       <c r="T41" s="62"/>
     </row>
-    <row r="42" spans="1:20" ht="15.9" customHeight="1">
+    <row r="42" spans="1:20" ht="15.95" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>25</v>
       </c>
@@ -3475,7 +3531,7 @@
     <row r="46" spans="1:20" ht="15" customHeight="1">
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:20" ht="9.9" customHeight="1"/>
+    <row r="47" spans="1:20" ht="9.9499999999999993" customHeight="1"/>
     <row r="48" spans="1:20" ht="8.1" customHeight="1">
       <c r="N48" s="8" t="s">
         <v>26</v>
@@ -3552,7 +3608,7 @@
     </row>
     <row r="57" spans="1:20" ht="14.1" customHeight="1">
       <c r="A57" s="53" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B57" s="54"/>
       <c r="C57" s="54"/>
@@ -3562,7 +3618,7 @@
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
       <c r="I57" s="55" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J57" s="54"/>
       <c r="K57" s="18"/>
@@ -3580,7 +3636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15.9" customHeight="1">
+    <row r="58" spans="1:20" ht="15.95" customHeight="1">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3599,7 +3655,7 @@
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
     </row>
-    <row r="59" spans="1:20" ht="15.9" customHeight="1">
+    <row r="59" spans="1:20" ht="15.95" customHeight="1">
       <c r="A59" s="84" t="s">
         <v>40</v>
       </c>
@@ -3623,7 +3679,7 @@
       <c r="S59" s="62"/>
       <c r="T59" s="62"/>
     </row>
-    <row r="60" spans="1:20" ht="15.9" customHeight="1">
+    <row r="60" spans="1:20" ht="15.95" customHeight="1">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -3642,7 +3698,7 @@
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
     </row>
-    <row r="61" spans="1:20" ht="15.9" customHeight="1">
+    <row r="61" spans="1:20" ht="15.95" customHeight="1">
       <c r="A61" s="14" t="s">
         <v>41</v>
       </c>
@@ -3663,7 +3719,7 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
-    <row r="62" spans="1:20" ht="15.9" customHeight="1">
+    <row r="62" spans="1:20" ht="15.95" customHeight="1">
       <c r="A62" s="28" t="s">
         <v>42</v>
       </c>
@@ -3686,7 +3742,7 @@
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
     </row>
-    <row r="63" spans="1:20" ht="15.9" customHeight="1">
+    <row r="63" spans="1:20" ht="15.95" customHeight="1">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -3705,7 +3761,7 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
     </row>
-    <row r="64" spans="1:20" ht="15.9" customHeight="1">
+    <row r="64" spans="1:20" ht="15.95" customHeight="1">
       <c r="A64" s="15" t="s">
         <v>44</v>
       </c>
@@ -3752,7 +3808,7 @@
       <c r="S65" s="62"/>
       <c r="T65" s="62"/>
     </row>
-    <row r="66" spans="1:20" ht="15.9" customHeight="1">
+    <row r="66" spans="1:20" ht="15.95" customHeight="1">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -3771,7 +3827,7 @@
       <c r="P66" s="12"/>
       <c r="Q66" s="12"/>
     </row>
-    <row r="67" spans="1:20" ht="15.9" customHeight="1">
+    <row r="67" spans="1:20" ht="15.95" customHeight="1">
       <c r="A67" s="23" t="s">
         <v>46</v>
       </c>
@@ -3844,12 +3900,12 @@
       <c r="S69" s="62"/>
       <c r="T69" s="62"/>
     </row>
-    <row r="71" spans="1:20" ht="15.9" customHeight="1">
+    <row r="71" spans="1:20" ht="15.95" customHeight="1">
       <c r="A71" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15.9" customHeight="1">
+    <row r="72" spans="1:20" ht="15.95" customHeight="1">
       <c r="A72" s="28" t="s">
         <v>42</v>
       </c>
@@ -3872,15 +3928,15 @@
       <c r="P72" s="62"/>
       <c r="Q72" s="62"/>
     </row>
-    <row r="73" spans="1:20" ht="15.9" customHeight="1">
+    <row r="73" spans="1:20" ht="15.95" customHeight="1">
       <c r="A73" s="15"/>
     </row>
-    <row r="74" spans="1:20" ht="15.9" customHeight="1">
+    <row r="74" spans="1:20" ht="15.95" customHeight="1">
       <c r="A74" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.9" customHeight="1">
+    <row r="75" spans="1:20" ht="15.95" customHeight="1">
       <c r="A75" s="28" t="s">
         <v>42</v>
       </c>
@@ -3903,7 +3959,7 @@
       <c r="P75" s="62"/>
       <c r="Q75" s="62"/>
     </row>
-    <row r="76" spans="1:20" ht="15.9" customHeight="1">
+    <row r="76" spans="1:20" ht="15.95" customHeight="1">
       <c r="A76" s="28"/>
       <c r="B76" s="40"/>
       <c r="C76" s="40"/>
@@ -3922,7 +3978,7 @@
       <c r="P76" s="40"/>
       <c r="Q76" s="40"/>
     </row>
-    <row r="77" spans="1:20" ht="15.9" customHeight="1">
+    <row r="77" spans="1:20" ht="15.95" customHeight="1">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -4007,7 +4063,7 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="1:20" ht="15.9" customHeight="1">
+    <row r="81" spans="1:20" ht="15.95" customHeight="1">
       <c r="A81" s="15" t="s">
         <v>54</v>
       </c>
@@ -4028,7 +4084,7 @@
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="1:20" ht="63.9" customHeight="1" thickBot="1">
+    <row r="82" spans="1:20" ht="63.95" customHeight="1" thickBot="1">
       <c r="A82" s="16" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4129,8 @@
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
     </row>
-    <row r="84" spans="1:20" ht="0.9" customHeight="1"/>
-    <row r="86" spans="1:20" ht="0.9" customHeight="1"/>
+    <row r="84" spans="1:20" ht="0.95" customHeight="1"/>
+    <row r="86" spans="1:20" ht="0.95" customHeight="1"/>
     <row r="87" spans="1:20" ht="17.100000000000001" customHeight="1"/>
     <row r="88" spans="1:20" ht="17.100000000000001" customHeight="1"/>
     <row r="89" spans="1:20" ht="17.100000000000001" customHeight="1"/>
@@ -4195,7 +4251,7 @@
       <c r="D110" s="26"/>
       <c r="E110" s="26"/>
       <c r="G110" s="50" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="H110" s="48"/>
       <c r="I110" s="48"/>
@@ -4217,7 +4273,7 @@
       <c r="D111" s="26"/>
       <c r="E111" s="26"/>
       <c r="G111" s="57" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H111" s="48"/>
       <c r="I111" s="48"/>
@@ -4261,7 +4317,7 @@
       <c r="D113" s="26"/>
       <c r="E113" s="26"/>
       <c r="G113" s="58" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H113" s="48"/>
       <c r="I113" s="48"/>
@@ -4470,7 +4526,7 @@
       <c r="D123" s="26"/>
       <c r="E123" s="26"/>
       <c r="G123" s="48" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="H123" s="48"/>
       <c r="I123" s="48"/>
@@ -4504,7 +4560,7 @@
       <c r="P124" s="25"/>
       <c r="Q124" s="25"/>
     </row>
-    <row r="125" spans="1:20" s="28" customFormat="1" ht="9.9" customHeight="1">
+    <row r="125" spans="1:20" s="28" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
@@ -4523,7 +4579,7 @@
       <c r="P125" s="25"/>
       <c r="Q125" s="25"/>
     </row>
-    <row r="126" spans="1:20" ht="15.9" customHeight="1">
+    <row r="126" spans="1:20" ht="15.95" customHeight="1">
       <c r="A126" s="26"/>
       <c r="B126" s="26"/>
       <c r="C126" s="26"/>
@@ -4628,7 +4684,7 @@
     </row>
     <row r="129" spans="1:20" ht="20.25" customHeight="1">
       <c r="A129" s="161" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B129" s="91"/>
       <c r="C129" s="161">
@@ -4658,7 +4714,7 @@
       </c>
       <c r="P129" s="91"/>
       <c r="Q129" s="168">
-        <v>46.63</v>
+        <v>46.6</v>
       </c>
       <c r="R129" s="107"/>
       <c r="S129" s="155">
@@ -4668,7 +4724,7 @@
     </row>
     <row r="130" spans="1:20" ht="20.25" customHeight="1">
       <c r="A130" s="145" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B130" s="93"/>
       <c r="C130" s="145">
@@ -4698,7 +4754,7 @@
       </c>
       <c r="P130" s="93"/>
       <c r="Q130" s="149">
-        <v>46.69</v>
+        <v>46.74</v>
       </c>
       <c r="R130" s="100"/>
       <c r="S130" s="146">
@@ -4708,7 +4764,7 @@
     </row>
     <row r="131" spans="1:20" ht="20.25" customHeight="1">
       <c r="A131" s="150" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B131" s="93"/>
       <c r="C131" s="150">
@@ -4738,7 +4794,7 @@
       </c>
       <c r="P131" s="93"/>
       <c r="Q131" s="149">
-        <v>46.89</v>
+        <v>46.94</v>
       </c>
       <c r="R131" s="100"/>
       <c r="S131" s="143">
@@ -4748,7 +4804,7 @@
     </row>
     <row r="132" spans="1:20" ht="20.25" customHeight="1">
       <c r="A132" s="145" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B132" s="93"/>
       <c r="C132" s="145">
@@ -4778,7 +4834,7 @@
       </c>
       <c r="P132" s="93"/>
       <c r="Q132" s="149">
-        <v>47.03</v>
+        <v>47.12</v>
       </c>
       <c r="R132" s="100"/>
       <c r="S132" s="146">
@@ -4788,7 +4844,7 @@
     </row>
     <row r="133" spans="1:20" ht="20.25" customHeight="1">
       <c r="A133" s="150" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B133" s="93"/>
       <c r="C133" s="150">
@@ -4818,7 +4874,7 @@
       </c>
       <c r="P133" s="93"/>
       <c r="Q133" s="149">
-        <v>47.24</v>
+        <v>47.32</v>
       </c>
       <c r="R133" s="100"/>
       <c r="S133" s="143">
@@ -4828,7 +4884,7 @@
     </row>
     <row r="134" spans="1:20" ht="20.25" customHeight="1">
       <c r="A134" s="145" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B134" s="93"/>
       <c r="C134" s="145">
@@ -4858,7 +4914,7 @@
       </c>
       <c r="P134" s="93"/>
       <c r="Q134" s="149">
-        <v>47.53</v>
+        <v>47.63</v>
       </c>
       <c r="R134" s="100"/>
       <c r="S134" s="146">
@@ -4868,7 +4924,7 @@
     </row>
     <row r="135" spans="1:20" ht="20.25" customHeight="1">
       <c r="A135" s="150" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B135" s="93"/>
       <c r="C135" s="150">
@@ -4898,7 +4954,7 @@
       </c>
       <c r="P135" s="93"/>
       <c r="Q135" s="149">
-        <v>47.67</v>
+        <v>47.78</v>
       </c>
       <c r="R135" s="100"/>
       <c r="S135" s="143">
@@ -4908,7 +4964,7 @@
     </row>
     <row r="136" spans="1:20" ht="20.25" customHeight="1">
       <c r="A136" s="145" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B136" s="93"/>
       <c r="C136" s="145">
@@ -4938,7 +4994,7 @@
       </c>
       <c r="P136" s="93"/>
       <c r="Q136" s="149">
-        <v>47.72</v>
+        <v>47.82</v>
       </c>
       <c r="R136" s="100"/>
       <c r="S136" s="146">
@@ -4948,7 +5004,7 @@
     </row>
     <row r="137" spans="1:20" ht="20.25" customHeight="1">
       <c r="A137" s="150" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B137" s="93"/>
       <c r="C137" s="150">
@@ -4978,7 +5034,7 @@
       </c>
       <c r="P137" s="93"/>
       <c r="Q137" s="149">
-        <v>47.76</v>
+        <v>47.84</v>
       </c>
       <c r="R137" s="100"/>
       <c r="S137" s="143">
@@ -4988,7 +5044,7 @@
     </row>
     <row r="138" spans="1:20" ht="20.25" customHeight="1">
       <c r="A138" s="144" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B138" s="115"/>
       <c r="C138" s="145">
@@ -5018,7 +5074,7 @@
       </c>
       <c r="P138" s="93"/>
       <c r="Q138" s="149">
-        <v>47.66</v>
+        <v>47.76</v>
       </c>
       <c r="R138" s="100"/>
       <c r="S138" s="146">
@@ -5028,7 +5084,7 @@
     </row>
     <row r="139" spans="1:20" ht="14.1" customHeight="1">
       <c r="A139" s="139" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B139" s="66"/>
       <c r="C139" s="139">
@@ -5058,7 +5114,7 @@
       </c>
       <c r="P139" s="66"/>
       <c r="Q139" s="142">
-        <v>47.79</v>
+        <v>47.85</v>
       </c>
       <c r="R139" s="64"/>
       <c r="S139" s="136">
@@ -5153,7 +5209,7 @@
       <c r="S143" s="17"/>
     </row>
     <row r="144" spans="1:20" ht="15" customHeight="1" thickBot="1"/>
-    <row r="145" spans="1:21" ht="14.4" customHeight="1">
+    <row r="145" spans="1:21" ht="14.45" customHeight="1">
       <c r="A145" s="42" t="str">
         <f>A57</f>
         <v>Calibration No: CAL00001</v>
@@ -5314,7 +5370,7 @@
     </row>
     <row r="151" spans="1:21" ht="14.25" customHeight="1">
       <c r="A151" s="116" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B151" s="91"/>
       <c r="C151" s="116">
@@ -5342,7 +5398,7 @@
       </c>
       <c r="P151" s="91"/>
       <c r="Q151" s="106">
-        <v>51.05</v>
+        <v>51.03</v>
       </c>
       <c r="R151" s="107"/>
       <c r="S151" s="117">
@@ -5352,7 +5408,7 @@
     </row>
     <row r="152" spans="1:21" ht="14.25" customHeight="1">
       <c r="A152" s="109" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B152" s="93"/>
       <c r="C152" s="109">
@@ -5380,7 +5436,7 @@
       </c>
       <c r="P152" s="93"/>
       <c r="Q152" s="99">
-        <v>48.8</v>
+        <v>48.78</v>
       </c>
       <c r="R152" s="100"/>
       <c r="S152" s="108">
@@ -5390,7 +5446,7 @@
     </row>
     <row r="153" spans="1:21" ht="14.25" customHeight="1">
       <c r="A153" s="129" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B153" s="115"/>
       <c r="C153" s="129">
@@ -5420,7 +5476,7 @@
       </c>
       <c r="P153" s="115"/>
       <c r="Q153" s="127">
-        <v>46.76</v>
+        <v>46.72</v>
       </c>
       <c r="R153" s="128"/>
       <c r="S153" s="130">
@@ -5430,7 +5486,7 @@
     </row>
     <row r="154" spans="1:21" ht="14.25" customHeight="1">
       <c r="A154" s="101" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B154" s="91"/>
       <c r="C154" s="101">
@@ -5458,7 +5514,7 @@
       </c>
       <c r="P154" s="91"/>
       <c r="Q154" s="106">
-        <v>50.27</v>
+        <v>50.26</v>
       </c>
       <c r="R154" s="107"/>
       <c r="S154" s="90">
@@ -5468,7 +5524,7 @@
     </row>
     <row r="155" spans="1:21" ht="14.25" customHeight="1">
       <c r="A155" s="92" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B155" s="93"/>
       <c r="C155" s="92">
@@ -5496,7 +5552,7 @@
       </c>
       <c r="P155" s="93"/>
       <c r="Q155" s="99">
-        <v>48.31</v>
+        <v>48.32</v>
       </c>
       <c r="R155" s="100"/>
       <c r="S155" s="94">
@@ -5506,7 +5562,7 @@
     </row>
     <row r="156" spans="1:21" ht="14.25" customHeight="1">
       <c r="A156" s="109" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B156" s="93"/>
       <c r="C156" s="109">
@@ -5536,7 +5592,7 @@
       </c>
       <c r="P156" s="93"/>
       <c r="Q156" s="99">
-        <v>46.63</v>
+        <v>46.6</v>
       </c>
       <c r="R156" s="100"/>
       <c r="S156" s="108">
@@ -5546,7 +5602,7 @@
     </row>
     <row r="157" spans="1:21" ht="14.25" customHeight="1">
       <c r="A157" s="129" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B157" s="115"/>
       <c r="C157" s="129">
@@ -5576,7 +5632,7 @@
       </c>
       <c r="P157" s="115"/>
       <c r="Q157" s="127">
-        <v>46.5</v>
+        <v>46.51</v>
       </c>
       <c r="R157" s="128"/>
       <c r="S157" s="130">
@@ -5586,7 +5642,7 @@
     </row>
     <row r="158" spans="1:21" ht="14.25" customHeight="1">
       <c r="A158" s="101" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B158" s="91"/>
       <c r="C158" s="101">
@@ -5624,7 +5680,7 @@
     </row>
     <row r="159" spans="1:21" ht="14.25" customHeight="1">
       <c r="A159" s="92" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B159" s="93"/>
       <c r="C159" s="92">
@@ -5652,7 +5708,7 @@
       </c>
       <c r="P159" s="93"/>
       <c r="Q159" s="99">
-        <v>48.04</v>
+        <v>48.06</v>
       </c>
       <c r="R159" s="100"/>
       <c r="S159" s="94">
@@ -5662,7 +5718,7 @@
     </row>
     <row r="160" spans="1:21" ht="14.25" customHeight="1">
       <c r="A160" s="122" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B160" s="115"/>
       <c r="C160" s="122">
@@ -5692,7 +5748,7 @@
       </c>
       <c r="P160" s="115"/>
       <c r="Q160" s="127">
-        <v>46.67</v>
+        <v>46.7</v>
       </c>
       <c r="R160" s="128"/>
       <c r="S160" s="114">
@@ -5702,7 +5758,7 @@
     </row>
     <row r="161" spans="1:20" ht="14.25" customHeight="1">
       <c r="A161" s="116" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B161" s="91"/>
       <c r="C161" s="116">
@@ -5730,7 +5786,7 @@
       </c>
       <c r="P161" s="91"/>
       <c r="Q161" s="106">
-        <v>49.37</v>
+        <v>49.35</v>
       </c>
       <c r="R161" s="107"/>
       <c r="S161" s="117">
@@ -5740,7 +5796,7 @@
     </row>
     <row r="162" spans="1:20" ht="14.25" customHeight="1">
       <c r="A162" s="109" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B162" s="93"/>
       <c r="C162" s="109">
@@ -5768,7 +5824,7 @@
       </c>
       <c r="P162" s="93"/>
       <c r="Q162" s="99">
-        <v>47.84</v>
+        <v>47.87</v>
       </c>
       <c r="R162" s="100"/>
       <c r="S162" s="108">
@@ -5778,7 +5834,7 @@
     </row>
     <row r="163" spans="1:20" ht="14.25" customHeight="1">
       <c r="A163" s="92" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B163" s="93"/>
       <c r="C163" s="92">
@@ -5808,7 +5864,7 @@
       </c>
       <c r="P163" s="93"/>
       <c r="Q163" s="99">
-        <v>46.69</v>
+        <v>46.74</v>
       </c>
       <c r="R163" s="100"/>
       <c r="S163" s="94">
@@ -5818,7 +5874,7 @@
     </row>
     <row r="164" spans="1:20" ht="14.25" customHeight="1">
       <c r="A164" s="109" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B164" s="93"/>
       <c r="C164" s="109">
@@ -5848,7 +5904,7 @@
       </c>
       <c r="P164" s="93"/>
       <c r="Q164" s="99">
-        <v>46.65</v>
+        <v>46.7</v>
       </c>
       <c r="R164" s="100"/>
       <c r="S164" s="108">
@@ -5858,7 +5914,7 @@
     </row>
     <row r="165" spans="1:20" ht="14.25" customHeight="1">
       <c r="A165" s="92" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B165" s="93"/>
       <c r="C165" s="92">
@@ -5888,7 +5944,7 @@
       </c>
       <c r="P165" s="93"/>
       <c r="Q165" s="99">
-        <v>46.59</v>
+        <v>46.63</v>
       </c>
       <c r="R165" s="100"/>
       <c r="S165" s="94">
@@ -5898,7 +5954,7 @@
     </row>
     <row r="166" spans="1:20" ht="14.25" customHeight="1">
       <c r="A166" s="101" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B166" s="91"/>
       <c r="C166" s="101">
@@ -5926,7 +5982,7 @@
       </c>
       <c r="P166" s="91"/>
       <c r="Q166" s="106">
-        <v>49.05</v>
+        <v>49.06</v>
       </c>
       <c r="R166" s="107"/>
       <c r="S166" s="90">
@@ -5936,7 +5992,7 @@
     </row>
     <row r="167" spans="1:20" ht="14.25" customHeight="1">
       <c r="A167" s="92" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B167" s="93"/>
       <c r="C167" s="92">
@@ -5964,7 +6020,7 @@
       </c>
       <c r="P167" s="93"/>
       <c r="Q167" s="99">
-        <v>47.73</v>
+        <v>47.74</v>
       </c>
       <c r="R167" s="100"/>
       <c r="S167" s="94">
@@ -5974,7 +6030,7 @@
     </row>
     <row r="168" spans="1:20" ht="14.25" customHeight="1">
       <c r="A168" s="122" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B168" s="115"/>
       <c r="C168" s="122">
@@ -6004,7 +6060,7 @@
       </c>
       <c r="P168" s="115"/>
       <c r="Q168" s="127">
-        <v>46.74</v>
+        <v>46.8</v>
       </c>
       <c r="R168" s="128"/>
       <c r="S168" s="114">
@@ -6014,7 +6070,7 @@
     </row>
     <row r="169" spans="1:20" ht="14.25" customHeight="1">
       <c r="A169" s="116" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B169" s="91"/>
       <c r="C169" s="116">
@@ -6042,7 +6098,7 @@
       </c>
       <c r="P169" s="91"/>
       <c r="Q169" s="106">
-        <v>48.78</v>
+        <v>48.8</v>
       </c>
       <c r="R169" s="107"/>
       <c r="S169" s="117">
@@ -6052,7 +6108,7 @@
     </row>
     <row r="170" spans="1:20" ht="14.25" customHeight="1">
       <c r="A170" s="109" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B170" s="93"/>
       <c r="C170" s="109">
@@ -6090,7 +6146,7 @@
     </row>
     <row r="171" spans="1:20" ht="14.25" customHeight="1">
       <c r="A171" s="92" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B171" s="93"/>
       <c r="C171" s="92">
@@ -6120,7 +6176,7 @@
       </c>
       <c r="P171" s="93"/>
       <c r="Q171" s="99">
-        <v>46.81</v>
+        <v>46.89</v>
       </c>
       <c r="R171" s="100"/>
       <c r="S171" s="94">
@@ -6130,7 +6186,7 @@
     </row>
     <row r="172" spans="1:20" ht="14.25" customHeight="1">
       <c r="A172" s="101" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B172" s="91"/>
       <c r="C172" s="101">
@@ -6158,7 +6214,7 @@
       </c>
       <c r="P172" s="91"/>
       <c r="Q172" s="106">
-        <v>48.63</v>
+        <v>48.59</v>
       </c>
       <c r="R172" s="107"/>
       <c r="S172" s="90">
@@ -6168,7 +6224,7 @@
     </row>
     <row r="173" spans="1:20" ht="14.25" customHeight="1">
       <c r="A173" s="92" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B173" s="93"/>
       <c r="C173" s="92">
@@ -6206,7 +6262,7 @@
     </row>
     <row r="174" spans="1:20" ht="14.25" customHeight="1">
       <c r="A174" s="109" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B174" s="93"/>
       <c r="C174" s="109">
@@ -6236,7 +6292,7 @@
       </c>
       <c r="P174" s="93"/>
       <c r="Q174" s="99">
-        <v>46.89</v>
+        <v>46.94</v>
       </c>
       <c r="R174" s="100"/>
       <c r="S174" s="108">
@@ -6246,7 +6302,7 @@
     </row>
     <row r="175" spans="1:20" ht="14.25" customHeight="1">
       <c r="A175" s="92" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B175" s="93"/>
       <c r="C175" s="92">
@@ -6276,7 +6332,7 @@
       </c>
       <c r="P175" s="93"/>
       <c r="Q175" s="99">
-        <v>46.96</v>
+        <v>47.02</v>
       </c>
       <c r="R175" s="100"/>
       <c r="S175" s="94">
@@ -6286,7 +6342,7 @@
     </row>
     <row r="176" spans="1:20" ht="14.25" customHeight="1">
       <c r="A176" s="122" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B176" s="115"/>
       <c r="C176" s="122">
@@ -6316,7 +6372,7 @@
       </c>
       <c r="P176" s="115"/>
       <c r="Q176" s="127">
-        <v>47.04</v>
+        <v>47.12</v>
       </c>
       <c r="R176" s="128"/>
       <c r="S176" s="114">
@@ -6326,7 +6382,7 @@
     </row>
     <row r="177" spans="1:20" ht="14.25" customHeight="1">
       <c r="A177" s="92" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B177" s="93"/>
       <c r="C177" s="92">
@@ -6356,7 +6412,7 @@
       </c>
       <c r="P177" s="93"/>
       <c r="Q177" s="99">
-        <v>46.98</v>
+        <v>47.04</v>
       </c>
       <c r="R177" s="100"/>
       <c r="S177" s="94">
@@ -6366,7 +6422,7 @@
     </row>
     <row r="178" spans="1:20" ht="14.25" customHeight="1">
       <c r="A178" s="109" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="B178" s="93"/>
       <c r="C178" s="109">
@@ -6396,7 +6452,7 @@
       </c>
       <c r="P178" s="93"/>
       <c r="Q178" s="99">
-        <v>47.03</v>
+        <v>47.12</v>
       </c>
       <c r="R178" s="100"/>
       <c r="S178" s="108">
@@ -6406,7 +6462,7 @@
     </row>
     <row r="179" spans="1:20" ht="14.25" customHeight="1">
       <c r="A179" s="92" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B179" s="93"/>
       <c r="C179" s="92">
@@ -6436,7 +6492,7 @@
       </c>
       <c r="P179" s="93"/>
       <c r="Q179" s="99">
-        <v>47.19</v>
+        <v>47.24</v>
       </c>
       <c r="R179" s="100"/>
       <c r="S179" s="94">
@@ -6446,7 +6502,7 @@
     </row>
     <row r="180" spans="1:20" ht="14.25" customHeight="1">
       <c r="A180" s="122" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B180" s="115"/>
       <c r="C180" s="122">
@@ -6478,7 +6534,7 @@
       </c>
       <c r="P180" s="115"/>
       <c r="Q180" s="127">
-        <v>47.49</v>
+        <v>47.56</v>
       </c>
       <c r="R180" s="128"/>
       <c r="S180" s="114">
@@ -6488,7 +6544,7 @@
     </row>
     <row r="181" spans="1:20" ht="14.25" customHeight="1">
       <c r="A181" s="116" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B181" s="91"/>
       <c r="C181" s="116">
@@ -6518,7 +6574,7 @@
       </c>
       <c r="P181" s="91"/>
       <c r="Q181" s="106">
-        <v>47.02</v>
+        <v>47.1</v>
       </c>
       <c r="R181" s="107"/>
       <c r="S181" s="117">
@@ -6528,7 +6584,7 @@
     </row>
     <row r="182" spans="1:20" ht="14.25" customHeight="1">
       <c r="A182" s="109" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B182" s="93"/>
       <c r="C182" s="109">
@@ -6558,7 +6614,7 @@
       </c>
       <c r="P182" s="93"/>
       <c r="Q182" s="99">
-        <v>47.11</v>
+        <v>47.18</v>
       </c>
       <c r="R182" s="100"/>
       <c r="S182" s="108">
@@ -6568,7 +6624,7 @@
     </row>
     <row r="183" spans="1:20" ht="14.25" customHeight="1">
       <c r="A183" s="92" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B183" s="93"/>
       <c r="C183" s="92">
@@ -6598,7 +6654,7 @@
       </c>
       <c r="P183" s="93"/>
       <c r="Q183" s="99">
-        <v>47.24</v>
+        <v>47.32</v>
       </c>
       <c r="R183" s="100"/>
       <c r="S183" s="94">
@@ -6608,7 +6664,7 @@
     </row>
     <row r="184" spans="1:20" ht="14.25" customHeight="1">
       <c r="A184" s="109" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B184" s="93"/>
       <c r="C184" s="109">
@@ -6638,7 +6694,7 @@
       </c>
       <c r="P184" s="93"/>
       <c r="Q184" s="99">
-        <v>47.52</v>
+        <v>47.62</v>
       </c>
       <c r="R184" s="100"/>
       <c r="S184" s="108">
@@ -6648,7 +6704,7 @@
     </row>
     <row r="185" spans="1:20" ht="14.25" customHeight="1">
       <c r="A185" s="129" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B185" s="115"/>
       <c r="C185" s="129">
@@ -6678,7 +6734,7 @@
       </c>
       <c r="P185" s="115"/>
       <c r="Q185" s="127">
-        <v>47.64</v>
+        <v>47.7</v>
       </c>
       <c r="R185" s="128"/>
       <c r="S185" s="130">
@@ -6688,7 +6744,7 @@
     </row>
     <row r="186" spans="1:20" ht="14.25" customHeight="1">
       <c r="A186" s="101" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B186" s="91"/>
       <c r="C186" s="101">
@@ -6718,7 +6774,7 @@
       </c>
       <c r="P186" s="91"/>
       <c r="Q186" s="106">
-        <v>47.14</v>
+        <v>47.21</v>
       </c>
       <c r="R186" s="107"/>
       <c r="S186" s="90">
@@ -6728,7 +6784,7 @@
     </row>
     <row r="187" spans="1:20" ht="14.25" customHeight="1">
       <c r="A187" s="92" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B187" s="93"/>
       <c r="C187" s="92">
@@ -6758,7 +6814,7 @@
       </c>
       <c r="P187" s="93"/>
       <c r="Q187" s="99">
-        <v>47.28</v>
+        <v>47.36</v>
       </c>
       <c r="R187" s="100"/>
       <c r="S187" s="94">
@@ -6768,7 +6824,7 @@
     </row>
     <row r="188" spans="1:20" ht="14.25" customHeight="1">
       <c r="A188" s="109" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B188" s="93"/>
       <c r="C188" s="109">
@@ -6798,7 +6854,7 @@
       </c>
       <c r="P188" s="93"/>
       <c r="Q188" s="99">
-        <v>47.53</v>
+        <v>47.63</v>
       </c>
       <c r="R188" s="100"/>
       <c r="S188" s="108">
@@ -6808,7 +6864,7 @@
     </row>
     <row r="189" spans="1:20" ht="14.1" customHeight="1">
       <c r="A189" s="92" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B189" s="93"/>
       <c r="C189" s="92">
@@ -6838,7 +6894,7 @@
       </c>
       <c r="P189" s="93"/>
       <c r="Q189" s="99">
-        <v>47.64</v>
+        <v>47.74</v>
       </c>
       <c r="R189" s="100"/>
       <c r="S189" s="94">
@@ -6848,7 +6904,7 @@
     </row>
     <row r="190" spans="1:20" ht="16.5" customHeight="1">
       <c r="A190" s="122" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B190" s="115"/>
       <c r="C190" s="122">
@@ -6878,7 +6934,7 @@
       </c>
       <c r="P190" s="115"/>
       <c r="Q190" s="127">
-        <v>47.63</v>
+        <v>47.72</v>
       </c>
       <c r="R190" s="128"/>
       <c r="S190" s="114">
@@ -6886,7 +6942,7 @@
       </c>
       <c r="T190" s="115"/>
     </row>
-    <row r="191" spans="1:20" ht="7.8" customHeight="1"/>
+    <row r="191" spans="1:20" ht="7.9" customHeight="1"/>
     <row r="192" spans="1:20" ht="21" customHeight="1">
       <c r="P192" s="22" t="s">
         <v>99</v>
@@ -7031,7 +7087,7 @@
     </row>
     <row r="198" spans="1:20" ht="14.25" customHeight="1">
       <c r="A198" s="116" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="B198" s="91"/>
       <c r="C198" s="116">
@@ -7061,7 +7117,7 @@
       </c>
       <c r="P198" s="91"/>
       <c r="Q198" s="106">
-        <v>47.36</v>
+        <v>47.47</v>
       </c>
       <c r="R198" s="107"/>
       <c r="S198" s="117">
@@ -7071,7 +7127,7 @@
     </row>
     <row r="199" spans="1:20" ht="14.25" customHeight="1">
       <c r="A199" s="109" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B199" s="93"/>
       <c r="C199" s="109">
@@ -7101,7 +7157,7 @@
       </c>
       <c r="P199" s="93"/>
       <c r="Q199" s="99">
-        <v>47.58</v>
+        <v>47.68</v>
       </c>
       <c r="R199" s="100"/>
       <c r="S199" s="108">
@@ -7111,7 +7167,7 @@
     </row>
     <row r="200" spans="1:20" ht="14.25" customHeight="1">
       <c r="A200" s="92" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B200" s="93"/>
       <c r="C200" s="92">
@@ -7141,7 +7197,7 @@
       </c>
       <c r="P200" s="93"/>
       <c r="Q200" s="99">
-        <v>47.67</v>
+        <v>47.78</v>
       </c>
       <c r="R200" s="100"/>
       <c r="S200" s="94">
@@ -7151,7 +7207,7 @@
     </row>
     <row r="201" spans="1:20" ht="14.25" customHeight="1">
       <c r="A201" s="109" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B201" s="93"/>
       <c r="C201" s="109">
@@ -7181,7 +7237,7 @@
       </c>
       <c r="P201" s="93"/>
       <c r="Q201" s="99">
-        <v>47.72</v>
+        <v>47.8</v>
       </c>
       <c r="R201" s="100"/>
       <c r="S201" s="108">
@@ -7191,7 +7247,7 @@
     </row>
     <row r="202" spans="1:20" ht="14.25" customHeight="1">
       <c r="A202" s="129" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B202" s="115"/>
       <c r="C202" s="129">
@@ -7221,7 +7277,7 @@
       </c>
       <c r="P202" s="115"/>
       <c r="Q202" s="127">
-        <v>47.69</v>
+        <v>47.78</v>
       </c>
       <c r="R202" s="128"/>
       <c r="S202" s="130">
@@ -7231,7 +7287,7 @@
     </row>
     <row r="203" spans="1:20" ht="14.25" customHeight="1">
       <c r="A203" s="101" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B203" s="91"/>
       <c r="C203" s="101">
@@ -7261,7 +7317,7 @@
       </c>
       <c r="P203" s="91"/>
       <c r="Q203" s="106">
-        <v>47.61</v>
+        <v>47.72</v>
       </c>
       <c r="R203" s="107"/>
       <c r="S203" s="90">
@@ -7271,7 +7327,7 @@
     </row>
     <row r="204" spans="1:20" ht="14.25" customHeight="1">
       <c r="A204" s="92" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B204" s="93"/>
       <c r="C204" s="92">
@@ -7301,7 +7357,7 @@
       </c>
       <c r="P204" s="93"/>
       <c r="Q204" s="99">
-        <v>47.69</v>
+        <v>47.78</v>
       </c>
       <c r="R204" s="100"/>
       <c r="S204" s="94">
@@ -7311,7 +7367,7 @@
     </row>
     <row r="205" spans="1:20" ht="14.25" customHeight="1">
       <c r="A205" s="109" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="B205" s="93"/>
       <c r="C205" s="109">
@@ -7341,7 +7397,7 @@
       </c>
       <c r="P205" s="93"/>
       <c r="Q205" s="99">
-        <v>47.72</v>
+        <v>47.82</v>
       </c>
       <c r="R205" s="100"/>
       <c r="S205" s="108">
@@ -7351,7 +7407,7 @@
     </row>
     <row r="206" spans="1:20" ht="14.25" customHeight="1">
       <c r="A206" s="92" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B206" s="93"/>
       <c r="C206" s="92">
@@ -7381,7 +7437,7 @@
       </c>
       <c r="P206" s="93"/>
       <c r="Q206" s="99">
-        <v>47.79</v>
+        <v>47.88</v>
       </c>
       <c r="R206" s="100"/>
       <c r="S206" s="94">
@@ -7391,7 +7447,7 @@
     </row>
     <row r="207" spans="1:20" ht="14.25" customHeight="1">
       <c r="A207" s="122" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B207" s="115"/>
       <c r="C207" s="122">
@@ -7421,7 +7477,7 @@
       </c>
       <c r="P207" s="115"/>
       <c r="Q207" s="127">
-        <v>47.75</v>
+        <v>47.85</v>
       </c>
       <c r="R207" s="128"/>
       <c r="S207" s="114">
@@ -7431,7 +7487,7 @@
     </row>
     <row r="208" spans="1:20" ht="14.25" customHeight="1">
       <c r="A208" s="92" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="B208" s="93"/>
       <c r="C208" s="92">
@@ -7461,7 +7517,7 @@
       </c>
       <c r="P208" s="93"/>
       <c r="Q208" s="99">
-        <v>47.69</v>
+        <v>47.78</v>
       </c>
       <c r="R208" s="100"/>
       <c r="S208" s="94">
@@ -7471,7 +7527,7 @@
     </row>
     <row r="209" spans="1:20" ht="14.25" customHeight="1">
       <c r="A209" s="109" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B209" s="93"/>
       <c r="C209" s="109">
@@ -7501,7 +7557,7 @@
       </c>
       <c r="P209" s="93"/>
       <c r="Q209" s="99">
-        <v>47.69</v>
+        <v>47.8</v>
       </c>
       <c r="R209" s="100"/>
       <c r="S209" s="108">
@@ -7511,7 +7567,7 @@
     </row>
     <row r="210" spans="1:20" ht="14.25" customHeight="1">
       <c r="A210" s="92" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B210" s="93"/>
       <c r="C210" s="92">
@@ -7541,7 +7597,7 @@
       </c>
       <c r="P210" s="93"/>
       <c r="Q210" s="99">
-        <v>47.76</v>
+        <v>47.84</v>
       </c>
       <c r="R210" s="100"/>
       <c r="S210" s="94">
@@ -7551,7 +7607,7 @@
     </row>
     <row r="211" spans="1:20" ht="14.25" customHeight="1">
       <c r="A211" s="122" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B211" s="115"/>
       <c r="C211" s="122">
@@ -7581,7 +7637,7 @@
       </c>
       <c r="P211" s="115"/>
       <c r="Q211" s="127">
-        <v>47.76</v>
+        <v>47.82</v>
       </c>
       <c r="R211" s="128"/>
       <c r="S211" s="114">
@@ -7591,7 +7647,7 @@
     </row>
     <row r="212" spans="1:20" ht="14.25" customHeight="1">
       <c r="A212" s="116" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B212" s="91"/>
       <c r="C212" s="116">
@@ -7621,7 +7677,7 @@
       </c>
       <c r="P212" s="91"/>
       <c r="Q212" s="106">
-        <v>47.64</v>
+        <v>47.74</v>
       </c>
       <c r="R212" s="107"/>
       <c r="S212" s="117">
@@ -7631,7 +7687,7 @@
     </row>
     <row r="213" spans="1:20" ht="14.25" customHeight="1">
       <c r="A213" s="109" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="B213" s="93"/>
       <c r="C213" s="109">
@@ -7661,7 +7717,7 @@
       </c>
       <c r="P213" s="93"/>
       <c r="Q213" s="99">
-        <v>47.66</v>
+        <v>47.76</v>
       </c>
       <c r="R213" s="100"/>
       <c r="S213" s="108">
@@ -7671,7 +7727,7 @@
     </row>
     <row r="214" spans="1:20" ht="14.25" customHeight="1">
       <c r="A214" s="92" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B214" s="93"/>
       <c r="C214" s="92">
@@ -7701,7 +7757,7 @@
       </c>
       <c r="P214" s="93"/>
       <c r="Q214" s="99">
-        <v>47.69</v>
+        <v>47.74</v>
       </c>
       <c r="R214" s="100"/>
       <c r="S214" s="94">
@@ -7711,7 +7767,7 @@
     </row>
     <row r="215" spans="1:20" ht="14.25" customHeight="1">
       <c r="A215" s="101" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B215" s="91"/>
       <c r="C215" s="101">
@@ -7741,7 +7797,7 @@
       </c>
       <c r="P215" s="91"/>
       <c r="Q215" s="106">
-        <v>47.57</v>
+        <v>47.66</v>
       </c>
       <c r="R215" s="107"/>
       <c r="S215" s="90">
@@ -7751,7 +7807,7 @@
     </row>
     <row r="216" spans="1:20" ht="14.25" customHeight="1">
       <c r="A216" s="92" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B216" s="93"/>
       <c r="C216" s="92">
@@ -7781,7 +7837,7 @@
       </c>
       <c r="P216" s="93"/>
       <c r="Q216" s="99">
-        <v>47.58</v>
+        <v>47.66</v>
       </c>
       <c r="R216" s="100"/>
       <c r="S216" s="94">
@@ -7791,7 +7847,7 @@
     </row>
     <row r="217" spans="1:20" ht="15" customHeight="1">
       <c r="A217" s="69" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B217" s="66"/>
       <c r="C217" s="69">
@@ -7821,7 +7877,7 @@
       </c>
       <c r="P217" s="66"/>
       <c r="Q217" s="63">
-        <v>47.64</v>
+        <v>47.69</v>
       </c>
       <c r="R217" s="64"/>
       <c r="S217" s="65">
@@ -7831,7 +7887,7 @@
     </row>
     <row r="218" spans="1:20" ht="15" customHeight="1">
       <c r="A218" s="74" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B218" s="66"/>
       <c r="C218" s="74">
@@ -7861,7 +7917,7 @@
       </c>
       <c r="P218" s="66"/>
       <c r="Q218" s="63">
-        <v>47.82</v>
+        <v>47.87</v>
       </c>
       <c r="R218" s="64"/>
       <c r="S218" s="68">
@@ -7871,7 +7927,7 @@
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1">
       <c r="A219" s="69" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="B219" s="66"/>
       <c r="C219" s="69">
@@ -7901,7 +7957,7 @@
       </c>
       <c r="P219" s="66"/>
       <c r="Q219" s="63">
-        <v>47.79</v>
+        <v>47.85</v>
       </c>
       <c r="R219" s="64"/>
       <c r="S219" s="65">
@@ -7969,7 +8025,7 @@
       <c r="S243" s="62"/>
       <c r="T243" s="62"/>
     </row>
-    <row r="245" spans="1:20" s="60" customFormat="1" ht="13.8" thickBot="1"/>
+    <row r="245" spans="1:20" s="60" customFormat="1" ht="13.5" thickBot="1"/>
     <row r="246" spans="1:20" s="60" customFormat="1">
       <c r="A246" s="42" t="str">
         <f>A57</f>
@@ -8056,7 +8112,7 @@
     <row r="303" spans="1:20" ht="14.1" customHeight="1"/>
     <row r="304" spans="1:20" s="47" customFormat="1"/>
     <row r="306" spans="1:20" ht="15" customHeight="1"/>
-    <row r="307" spans="1:20" ht="13.8" thickBot="1"/>
+    <row r="307" spans="1:20" ht="13.5" thickBot="1"/>
     <row r="308" spans="1:20">
       <c r="A308" s="42" t="str">
         <f>A57</f>
